--- a/CCA PnL Output.xlsx
+++ b/CCA PnL Output.xlsx
@@ -481,16 +481,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>350940.3683110821</v>
+        <v>176964.1589401089</v>
       </c>
       <c r="E2" t="n">
-        <v>232224.5110933915</v>
+        <v>189688.5154664971</v>
       </c>
     </row>
     <row r="3">
@@ -498,16 +498,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>276215.7661127376</v>
+        <v>100739.5378936967</v>
       </c>
       <c r="E3" t="n">
-        <v>166479.9283517558</v>
+        <v>111936.3606233996</v>
       </c>
     </row>
     <row r="4">
@@ -515,16 +515,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>201491.4332895566</v>
+        <v>24685.46465047971</v>
       </c>
       <c r="E4" t="n">
-        <v>100735.6149852836</v>
+        <v>34354.75358349735</v>
       </c>
     </row>
     <row r="5">
@@ -532,16 +532,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126770.7145727914</v>
+        <v>-50739.46200567128</v>
       </c>
       <c r="E5" t="n">
-        <v>34994.91572522727</v>
+        <v>-42597.70686933889</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>52081.75175659475</v>
+        <v>-124349.3879472264</v>
       </c>
       <c r="E6" t="n">
-        <v>-30714.02763426058</v>
+        <v>-117735.1666075793</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-22417.27091505413</v>
+        <v>-193748.7933511501</v>
       </c>
       <c r="E7" t="n">
-        <v>-96233.03084920064</v>
+        <v>-188662.1058081882</v>
       </c>
     </row>
     <row r="8">
@@ -583,16 +583,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-96115.75663962695</v>
+        <v>-255097.9811743147</v>
       </c>
       <c r="E8" t="n">
-        <v>-160951.4971170646</v>
+        <v>-251538.8274280381</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-167360.196442836</v>
+        <v>-303494.9160731619</v>
       </c>
       <c r="E9" t="n">
-        <v>-223215.9174635649</v>
+        <v>-301463.2961235705</v>
       </c>
     </row>
     <row r="10">
@@ -617,16 +617,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-232962.9439669472</v>
+        <v>-334049.7495218245</v>
       </c>
       <c r="E10" t="n">
-        <v>-279838.6455309673</v>
+        <v>-333545.6633689184</v>
       </c>
     </row>
     <row r="11">
@@ -634,16 +634,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-288518.1025244891</v>
+        <v>-343236.2572731183</v>
       </c>
       <c r="E11" t="n">
-        <v>-326413.7846318003</v>
+        <v>-344259.7049168974</v>
       </c>
     </row>
     <row r="12">
@@ -651,16 +651,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-329652.4288145957</v>
+        <v>-329781.082273516</v>
       </c>
       <c r="E12" t="n">
-        <v>-358568.0914651981</v>
+        <v>-332332.0637139804</v>
       </c>
     </row>
     <row r="13">
@@ -668,16 +668,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-353188.466518746</v>
+        <v>-294533.7272289487</v>
       </c>
       <c r="E13" t="n">
-        <v>-373124.1097126396</v>
+        <v>-298612.2424660983</v>
       </c>
     </row>
     <row r="14">
@@ -685,16 +685,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-357147.9131867553</v>
+        <v>-239431.3622570964</v>
       </c>
       <c r="E14" t="n">
-        <v>-368103.53692394</v>
+        <v>-245037.4112909313</v>
       </c>
     </row>
     <row r="15">
@@ -702,16 +702,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-339914.2673552792</v>
+        <v>-166333.4171138237</v>
       </c>
       <c r="E15" t="n">
-        <v>-341889.8716357552</v>
+        <v>-173466.9999443439</v>
       </c>
     </row>
     <row r="16">
@@ -719,16 +719,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-299848.9915786086</v>
+        <v>-76540.05953587272</v>
       </c>
       <c r="E16" t="n">
-        <v>-292844.5764023758</v>
+        <v>-85201.1761630781</v>
       </c>
     </row>
     <row r="17">
@@ -736,16 +736,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-235975.7778528611</v>
+        <v>28839.71778399879</v>
       </c>
       <c r="E17" t="n">
-        <v>-219991.3432199194</v>
+        <v>18651.06736010816</v>
       </c>
     </row>
     <row r="18">
@@ -753,16 +753,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-149070.1739364759</v>
+        <v>148214.7149070154</v>
       </c>
       <c r="E18" t="n">
-        <v>-124105.7198468253</v>
+        <v>136498.5306864395</v>
       </c>
     </row>
     <row r="19">
@@ -770,16 +770,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-42165.60215488823</v>
+        <v>279200.8536261161</v>
       </c>
       <c r="E19" t="n">
-        <v>-8221.128608528867</v>
+        <v>265957.1356088549</v>
       </c>
     </row>
     <row r="20">
@@ -787,16 +787,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>79785.16316698</v>
+        <v>418889.6290071031</v>
       </c>
       <c r="E20" t="n">
-        <v>122709.6561700482</v>
+        <v>404118.3771931567</v>
       </c>
     </row>
     <row r="21">
@@ -804,16 +804,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>210567.492299148</v>
+        <v>564421.3225419014</v>
       </c>
       <c r="E21" t="n">
-        <v>262472.004758925</v>
+        <v>548122.5369312697</v>
       </c>
     </row>
     <row r="22">
@@ -821,16 +821,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>343060.9777589897</v>
+        <v>713465.2724383592</v>
       </c>
       <c r="E22" t="n">
-        <v>403945.5096754755</v>
+        <v>695638.9530310424</v>
       </c>
     </row>
     <row r="23">
@@ -838,16 +838,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>469196.502227679</v>
+        <v>864405.7685033926</v>
       </c>
       <c r="E23" t="n">
-        <v>539061.0536008736</v>
+        <v>845051.9152993904</v>
       </c>
     </row>
     <row r="24">
@@ -855,16 +855,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>579985.5013025013</v>
+        <v>1016270.799201828</v>
       </c>
       <c r="E24" t="n">
-        <v>658830.0721324048</v>
+        <v>995389.4122011403</v>
       </c>
     </row>
     <row r="25">
@@ -872,16 +872,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>666196.6136969329</v>
+        <v>1168544.977677089</v>
       </c>
       <c r="E25" t="n">
-        <v>754021.2039835452</v>
+        <v>1146136.056879716</v>
       </c>
     </row>
     <row r="26">
@@ -889,16 +889,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>719804.4470735823</v>
+        <v>1320984.459707351</v>
       </c>
       <c r="E26" t="n">
-        <v>816609.0568169034</v>
+        <v>1297048.005113293</v>
       </c>
     </row>
     <row r="27">
@@ -906,16 +906,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>735695.0548784336</v>
+        <v>1473485.248589194</v>
       </c>
       <c r="E27" t="n">
-        <v>841479.6840784635</v>
+        <v>1448021.260198451</v>
       </c>
     </row>
     <row r="28">
@@ -923,16 +923,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>712800.6757622173</v>
+        <v>1626007.01859495</v>
       </c>
       <c r="E28" t="n">
-        <v>827565.3244189559</v>
+        <v>1599015.496407522</v>
       </c>
     </row>
     <row r="29">
@@ -940,16 +940,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>654093.8154994282</v>
+        <v>1778535.447177646</v>
       </c>
       <c r="E29" t="n">
-        <v>777838.4836128758</v>
+        <v>1750016.391193533</v>
       </c>
     </row>
     <row r="30">
@@ -957,16 +957,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>565480.5503939943</v>
+        <v>1931065.844443938</v>
       </c>
       <c r="E30" t="n">
-        <v>698205.2379641507</v>
+        <v>1901019.254663139</v>
       </c>
     </row>
     <row r="31">
@@ -974,16 +974,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>454145.5352367519</v>
+        <v>2083596.78632982</v>
       </c>
       <c r="E31" t="n">
-        <v>595850.2422636171</v>
+        <v>2052022.662752335</v>
       </c>
     </row>
     <row r="32">
@@ -991,16 +991,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>327020.5620202195</v>
+        <v>2236127.869760104</v>
       </c>
       <c r="E32" t="n">
-        <v>477705.2885037935</v>
+        <v>2203026.212385935</v>
       </c>
     </row>
     <row r="33">
@@ -1008,16 +1008,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>189809.7917383129</v>
+        <v>2388658.987881569</v>
       </c>
       <c r="E33" t="n">
-        <v>349474.5376785957</v>
+        <v>2354029.796710715</v>
       </c>
     </row>
     <row r="34">
@@ -1025,16 +1025,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>46650.48702877887</v>
+        <v>2541190.114049599</v>
       </c>
       <c r="E34" t="n">
-        <v>215295.2524257706</v>
+        <v>2505033.389082059</v>
       </c>
     </row>
     <row r="35">
@@ -1042,16 +1042,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-99762.17767668204</v>
+        <v>2693721.241989797</v>
       </c>
       <c r="E35" t="n">
-        <v>77862.60717701848</v>
+        <v>2656036.983225572</v>
       </c>
     </row>
     <row r="36">
@@ -1059,16 +1059,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-247831.4228568996</v>
+        <v>2846252.370301744</v>
       </c>
       <c r="E36" t="n">
-        <v>-61226.61854649027</v>
+        <v>2807040.577740834</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1122,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>352029.171289889</v>
+        <v>177846.6282699008</v>
       </c>
       <c r="E2" t="n">
-        <v>233313.3140721984</v>
+        <v>190570.9847962889</v>
       </c>
     </row>
     <row r="3">
@@ -1139,16 +1139,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>277195.6758173154</v>
+        <v>101469.9384356382</v>
       </c>
       <c r="E3" t="n">
-        <v>167459.8380563336</v>
+        <v>112666.7611653411</v>
       </c>
     </row>
     <row r="4">
@@ -1156,16 +1156,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>202362.180344742</v>
+        <v>25093.24860137562</v>
       </c>
       <c r="E4" t="n">
-        <v>101606.362040469</v>
+        <v>34762.53753439326</v>
       </c>
     </row>
     <row r="5">
@@ -1173,16 +1173,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>127528.6848721684</v>
+        <v>-51283.44123288697</v>
       </c>
       <c r="E5" t="n">
-        <v>35752.88602460426</v>
+        <v>-43141.68609655459</v>
       </c>
     </row>
     <row r="6">
@@ -1190,16 +1190,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>52695.18939959496</v>
+        <v>-127660.1310671496</v>
       </c>
       <c r="E6" t="n">
-        <v>-30100.58999126036</v>
+        <v>-121045.9097275024</v>
       </c>
     </row>
     <row r="7">
@@ -1207,16 +1207,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-22138.30607297856</v>
+        <v>-204036.8209014122</v>
       </c>
       <c r="E7" t="n">
-        <v>-95954.06600712507</v>
+        <v>-198950.1333584503</v>
       </c>
     </row>
     <row r="8">
@@ -1224,16 +1224,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-96971.80154555212</v>
+        <v>-280413.5107356748</v>
       </c>
       <c r="E8" t="n">
-        <v>-161807.5420229898</v>
+        <v>-276854.3569893981</v>
       </c>
     </row>
     <row r="9">
@@ -1241,16 +1241,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-171805.2970181256</v>
+        <v>-356790.2005699374</v>
       </c>
       <c r="E9" t="n">
-        <v>-227661.0180388545</v>
+        <v>-354758.580620346</v>
       </c>
     </row>
     <row r="10">
@@ -1258,16 +1258,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-246638.7924906991</v>
+        <v>-433166.8904041999</v>
       </c>
       <c r="E10" t="n">
-        <v>-293514.4940547192</v>
+        <v>-432662.8042512938</v>
       </c>
     </row>
     <row r="11">
@@ -1275,16 +1275,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-321472.2879632727</v>
+        <v>-433166.8904041999</v>
       </c>
       <c r="E11" t="n">
-        <v>-359367.9700705839</v>
+        <v>-434190.3380479791</v>
       </c>
     </row>
     <row r="12">
@@ -1292,16 +1292,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-396305.7834358462</v>
+        <v>-433166.8904041999</v>
       </c>
       <c r="E12" t="n">
-        <v>-425221.4460864486</v>
+        <v>-435717.8718446643</v>
       </c>
     </row>
     <row r="13">
@@ -1309,16 +1309,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-396305.7834358462</v>
+        <v>-356790.2005699374</v>
       </c>
       <c r="E13" t="n">
-        <v>-416241.4266297398</v>
+        <v>-360868.715807087</v>
       </c>
     </row>
     <row r="14">
@@ -1326,16 +1326,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-396305.7834358462</v>
+        <v>-280413.5107356748</v>
       </c>
       <c r="E14" t="n">
-        <v>-407261.407173031</v>
+        <v>-286019.5597695097</v>
       </c>
     </row>
     <row r="15">
@@ -1343,16 +1343,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-396305.7834358462</v>
+        <v>-204036.8209014122</v>
       </c>
       <c r="E15" t="n">
-        <v>-398281.3877163221</v>
+        <v>-211170.4037319323</v>
       </c>
     </row>
     <row r="16">
@@ -1360,16 +1360,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-396305.7834358462</v>
+        <v>-127660.1310671496</v>
       </c>
       <c r="E16" t="n">
-        <v>-389301.3682596133</v>
+        <v>-136321.2476943549</v>
       </c>
     </row>
     <row r="17">
@@ -1377,16 +1377,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-396305.7834358462</v>
+        <v>-51283.44123288697</v>
       </c>
       <c r="E17" t="n">
-        <v>-380321.3488029045</v>
+        <v>-61472.09165677761</v>
       </c>
     </row>
     <row r="18">
@@ -1394,16 +1394,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-246638.7924906992</v>
+        <v>101469.9384356382</v>
       </c>
       <c r="E18" t="n">
-        <v>-221674.3384010486</v>
+        <v>89753.75421506232</v>
       </c>
     </row>
     <row r="19">
@@ -1411,16 +1411,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-96971.80154555211</v>
+        <v>254223.3181041634</v>
       </c>
       <c r="E19" t="n">
-        <v>-63027.32799919275</v>
+        <v>240979.6000869023</v>
       </c>
     </row>
     <row r="20">
@@ -1428,16 +1428,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>52695.18939959494</v>
+        <v>406976.6977726886</v>
       </c>
       <c r="E20" t="n">
-        <v>95619.68240266311</v>
+        <v>392205.4459587422</v>
       </c>
     </row>
     <row r="21">
@@ -1445,16 +1445,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>202362.180344742</v>
+        <v>559730.0774412137</v>
       </c>
       <c r="E21" t="n">
-        <v>254266.692804519</v>
+        <v>543431.291830582</v>
       </c>
     </row>
     <row r="22">
@@ -1462,16 +1462,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>352029.171289889</v>
+        <v>712483.4571097388</v>
       </c>
       <c r="E22" t="n">
-        <v>412913.7032063748</v>
+        <v>694657.137702422</v>
       </c>
     </row>
     <row r="23">
@@ -1479,16 +1479,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>501696.162235036</v>
+        <v>865236.836778264</v>
       </c>
       <c r="E23" t="n">
-        <v>571560.7136082307</v>
+        <v>845882.9835742619</v>
       </c>
     </row>
     <row r="24">
@@ -1496,16 +1496,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>651363.153180183</v>
+        <v>1017990.216446789</v>
       </c>
       <c r="E24" t="n">
-        <v>730207.7240100865</v>
+        <v>997108.8294461018</v>
       </c>
     </row>
     <row r="25">
@@ -1513,16 +1513,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>801030.14412533</v>
+        <v>1170743.596115314</v>
       </c>
       <c r="E25" t="n">
-        <v>888854.7344119423</v>
+        <v>1148334.675317942</v>
       </c>
     </row>
     <row r="26">
@@ -1530,16 +1530,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>950697.1350704773</v>
+        <v>1323496.97578384</v>
       </c>
       <c r="E26" t="n">
-        <v>1047501.744813798</v>
+        <v>1299560.521189782</v>
       </c>
     </row>
     <row r="27">
@@ -1547,16 +1547,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1100364.126015624</v>
+        <v>1476250.355452365</v>
       </c>
       <c r="E27" t="n">
-        <v>1206148.755215654</v>
+        <v>1450786.367061622</v>
       </c>
     </row>
     <row r="28">
@@ -1564,16 +1564,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>950697.1350704773</v>
+        <v>1629003.73512089</v>
       </c>
       <c r="E28" t="n">
-        <v>1065461.783727216</v>
+        <v>1602012.212933462</v>
       </c>
     </row>
     <row r="29">
@@ -1581,16 +1581,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>801030.14412533</v>
+        <v>1781757.114789415</v>
       </c>
       <c r="E29" t="n">
-        <v>924774.8122387776</v>
+        <v>1753238.058805302</v>
       </c>
     </row>
     <row r="30">
@@ -1598,16 +1598,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>651363.1531801831</v>
+        <v>1934510.49445794</v>
       </c>
       <c r="E30" t="n">
-        <v>784087.8407503396</v>
+        <v>1904463.904677141</v>
       </c>
     </row>
     <row r="31">
@@ -1615,16 +1615,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>501696.1622350361</v>
+        <v>2087263.874126466</v>
       </c>
       <c r="E31" t="n">
-        <v>643400.8692619014</v>
+        <v>2055689.750548981</v>
       </c>
     </row>
     <row r="32">
@@ -1632,16 +1632,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>352029.171289889</v>
+        <v>2240017.253794991</v>
       </c>
       <c r="E32" t="n">
-        <v>502713.897773463</v>
+        <v>2206915.596420822</v>
       </c>
     </row>
     <row r="33">
@@ -1649,16 +1649,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>202362.1803447419</v>
+        <v>2392770.633463516</v>
       </c>
       <c r="E33" t="n">
-        <v>362026.9262850247</v>
+        <v>2358141.442292661</v>
       </c>
     </row>
     <row r="34">
@@ -1666,16 +1666,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>52695.18939959499</v>
+        <v>2545524.013132041</v>
       </c>
       <c r="E34" t="n">
-        <v>221339.9547965867</v>
+        <v>2509367.288164502</v>
       </c>
     </row>
     <row r="35">
@@ -1683,16 +1683,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-96971.80154555212</v>
+        <v>2698277.392800566</v>
       </c>
       <c r="E35" t="n">
-        <v>80652.9833081484</v>
+        <v>2660593.134036341</v>
       </c>
     </row>
     <row r="36">
@@ -1700,16 +1700,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-246638.7924906995</v>
+        <v>2851030.772469092</v>
       </c>
       <c r="E36" t="n">
-        <v>-60033.98818029015</v>
+        <v>2811818.979908181</v>
       </c>
     </row>
   </sheetData>
@@ -1763,16 +1763,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354952.5982792416</v>
+        <v>212172.7144872448</v>
       </c>
       <c r="E2" t="n">
-        <v>236236.741061551</v>
+        <v>224897.0710136329</v>
       </c>
     </row>
     <row r="3">
@@ -1780,16 +1780,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>290446.8745174879</v>
+        <v>156628.0359526253</v>
       </c>
       <c r="E3" t="n">
-        <v>180711.0367565061</v>
+        <v>167824.8586823282</v>
       </c>
     </row>
     <row r="4">
@@ -1797,16 +1797,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>229873.1070751322</v>
+        <v>107394.971940604</v>
       </c>
       <c r="E4" t="n">
-        <v>129117.2887708592</v>
+        <v>117064.2608736216</v>
       </c>
     </row>
     <row r="5">
@@ -1814,16 +1814,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>174164.289890532</v>
+        <v>65502.2680199099</v>
       </c>
       <c r="E5" t="n">
-        <v>82388.49104296789</v>
+        <v>73644.0231562423</v>
       </c>
     </row>
     <row r="6">
@@ -1831,16 +1831,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>124227.7724948861</v>
+        <v>31920.27001050804</v>
       </c>
       <c r="E6" t="n">
-        <v>41431.99310403077</v>
+        <v>38534.49135015518</v>
       </c>
     </row>
     <row r="7">
@@ -1848,16 +1848,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>80876.942839789</v>
+        <v>7521.611787907372</v>
       </c>
       <c r="E7" t="n">
-        <v>7061.18290564249</v>
+        <v>12608.29933086926</v>
       </c>
     </row>
     <row r="8">
@@ -1865,16 +1865,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>44765.41611521857</v>
+        <v>-6951.964156237551</v>
       </c>
       <c r="E8" t="n">
-        <v>-20070.32436221911</v>
+        <v>-3392.810409960917</v>
       </c>
     </row>
     <row r="9">
@@ -1882,16 +1882,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>16330.33501654959</v>
+        <v>-10914.99380754681</v>
       </c>
       <c r="E9" t="n">
-        <v>-39525.38600417927</v>
+        <v>-8883.373857955427</v>
       </c>
     </row>
     <row r="10">
@@ -1899,16 +1899,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4250.029796567309</v>
+        <v>-3954.943707822204</v>
       </c>
       <c r="E10" t="n">
-        <v>-51125.73136058735</v>
+        <v>-3450.857554916074</v>
       </c>
     </row>
     <row r="11">
@@ -1916,16 +1916,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-17081.08456231955</v>
+        <v>14160.13520924783</v>
       </c>
       <c r="E11" t="n">
-        <v>-54976.76666963077</v>
+        <v>13136.68756546871</v>
       </c>
     </row>
     <row r="12">
@@ -1933,16 +1933,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-22557.860242186</v>
+        <v>43482.60005366851</v>
       </c>
       <c r="E12" t="n">
-        <v>-51473.52289278839</v>
+        <v>40931.61861320413</v>
       </c>
     </row>
     <row r="13">
@@ -1950,16 +1950,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-21352.72971810268</v>
+        <v>83893.97882751917</v>
       </c>
       <c r="E13" t="n">
-        <v>-41288.37291199625</v>
+        <v>79815.46359036955</v>
       </c>
     </row>
     <row r="14">
@@ -1967,16 +1967,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-14387.06971229494</v>
+        <v>135120.221976875</v>
       </c>
       <c r="E14" t="n">
-        <v>-25342.69344947969</v>
+        <v>129514.1729430401</v>
       </c>
     </row>
     <row r="15">
@@ -1984,16 +1984,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-2790.143993751328</v>
+        <v>196751.8938069036</v>
       </c>
       <c r="E15" t="n">
-        <v>-4765.748274227259</v>
+        <v>189618.3109763835</v>
       </c>
     </row>
     <row r="16">
@@ -2001,16 +2001,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>12150.89200389356</v>
+        <v>268267.6352187042</v>
       </c>
       <c r="E16" t="n">
-        <v>19155.30718012646</v>
+        <v>259606.5185914988</v>
       </c>
     </row>
     <row r="17">
@@ -2018,16 +2018,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>29045.78877606332</v>
+        <v>349059.250645855</v>
       </c>
       <c r="E17" t="n">
-        <v>45030.22340900504</v>
+        <v>338870.6002219644</v>
       </c>
     </row>
     <row r="18">
@@ -2035,16 +2035,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>46456.92630920714</v>
+        <v>438456.9140827616</v>
       </c>
       <c r="E18" t="n">
-        <v>71421.38039885768</v>
+        <v>426740.7298621857</v>
       </c>
     </row>
     <row r="19">
@@ -2052,16 +2052,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>62952.57083760865</v>
+        <v>535753.2208828605</v>
       </c>
       <c r="E19" t="n">
-        <v>96897.04438396802</v>
+        <v>522509.5028655994</v>
       </c>
     </row>
     <row r="20">
@@ -2069,16 +2069,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>77154.93914916048</v>
+        <v>640225.0979249182</v>
       </c>
       <c r="E20" t="n">
-        <v>120079.4321522287</v>
+        <v>625453.8461109718</v>
       </c>
     </row>
     <row r="21">
@@ -2086,16 +2086,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>87781.10109405233</v>
+        <v>751152.8898112683</v>
       </c>
       <c r="E21" t="n">
-        <v>139685.6135538293</v>
+        <v>734854.1042006366</v>
       </c>
     </row>
     <row r="22">
@@ -2103,16 +2103,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>93675.51517626036</v>
+        <v>867836.2329358874</v>
       </c>
       <c r="E22" t="n">
-        <v>154560.0470927462</v>
+        <v>850009.9135285706</v>
       </c>
     </row>
     <row r="23">
@@ -2120,16 +2120,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>93833.70080923366</v>
+        <v>989606.5900603775</v>
       </c>
       <c r="E23" t="n">
-        <v>163698.2521824283</v>
+        <v>970252.7368563754</v>
       </c>
     </row>
     <row r="24">
@@ -2137,16 +2137,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>87417.15992706468</v>
+        <v>1115836.531419048</v>
       </c>
       <c r="E24" t="n">
-        <v>166261.7307569681</v>
+        <v>1094955.14441836</v>
       </c>
     </row>
     <row r="25">
@@ -2154,16 +2154,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>73760.14475197617</v>
+        <v>1245946.008234243</v>
       </c>
       <c r="E25" t="n">
-        <v>161584.7350385885</v>
+        <v>1223537.087436871</v>
       </c>
     </row>
     <row r="26">
@@ -2171,16 +2171,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>52369.21853642612</v>
+        <v>1379405.97128471</v>
       </c>
       <c r="E26" t="n">
-        <v>149173.8282797472</v>
+        <v>1355469.516690652</v>
       </c>
     </row>
     <row r="27">
@@ -2188,16 +2188,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22916.77596426402</v>
+        <v>1515739.7459603</v>
       </c>
       <c r="E27" t="n">
-        <v>128701.4051642939</v>
+        <v>1490275.757569557</v>
       </c>
     </row>
     <row r="28">
@@ -2205,16 +2205,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-14770.20706198417</v>
+        <v>1654522.594029304</v>
       </c>
       <c r="E28" t="n">
-        <v>99994.44159475458</v>
+        <v>1627531.071841876</v>
       </c>
     </row>
     <row r="29">
@@ -2222,16 +2222,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-60724.91912989217</v>
+        <v>1795379.880333019</v>
       </c>
       <c r="E29" t="n">
-        <v>63019.7489835554</v>
+        <v>1766860.824348906</v>
       </c>
     </row>
     <row r="30">
@@ -2239,16 +2239,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-114857.7497725617</v>
+        <v>1937984.228963289</v>
       </c>
       <c r="E30" t="n">
-        <v>17866.93779759468</v>
+        <v>1907937.639182491</v>
       </c>
     </row>
     <row r="31">
@@ -2256,16 +2256,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-176974.5359481368</v>
+        <v>2082052.006439734</v>
       </c>
       <c r="E31" t="n">
-        <v>-35269.8289212716</v>
+        <v>2050477.88286225</v>
       </c>
     </row>
     <row r="32">
@@ -2273,16 +2273,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-246795.0950353797</v>
+        <v>2227339.415878628</v>
       </c>
       <c r="E32" t="n">
-        <v>-96110.36855180564</v>
+        <v>2194237.758504459</v>
       </c>
     </row>
     <row r="33">
@@ -2290,16 +2290,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-323971.2935827105</v>
+        <v>2373638.43147147</v>
       </c>
       <c r="E33" t="n">
-        <v>-164306.5476424276</v>
+        <v>2339009.240300615</v>
       </c>
     </row>
     <row r="34">
@@ -2307,16 +2307,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-408104.0750867863</v>
+        <v>2520772.750579507</v>
       </c>
       <c r="E34" t="n">
-        <v>-239459.3096897946</v>
+        <v>2484616.025611967</v>
       </c>
     </row>
     <row r="35">
@@ -2324,16 +2324,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-498759.0347434401</v>
+        <v>2668593.893854052</v>
       </c>
       <c r="E35" t="n">
-        <v>-321134.2498897396</v>
+        <v>2630909.635089827</v>
       </c>
     </row>
     <row r="36">
@@ -2341,16 +2341,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-595480.2771235071</v>
+        <v>2816977.543345988</v>
       </c>
       <c r="E36" t="n">
-        <v>-408875.4728130978</v>
+        <v>2777765.750785077</v>
       </c>
     </row>
   </sheetData>
@@ -2404,16 +2404,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>350594.327257772</v>
+        <v>212172.7144872448</v>
       </c>
       <c r="E2" t="n">
-        <v>231878.4700400814</v>
+        <v>224897.0710136329</v>
       </c>
     </row>
     <row r="3">
@@ -2421,16 +2421,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>283010.1447458938</v>
+        <v>156628.0359526253</v>
       </c>
       <c r="E3" t="n">
-        <v>173274.306984912</v>
+        <v>167824.8586823282</v>
       </c>
     </row>
     <row r="4">
@@ -2438,16 +2438,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218730.493258962</v>
+        <v>107394.971940604</v>
       </c>
       <c r="E4" t="n">
-        <v>117974.674954689</v>
+        <v>117064.2608736216</v>
       </c>
     </row>
     <row r="5">
@@ -2455,16 +2455,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>158798.3678972864</v>
+        <v>65502.2680199099</v>
       </c>
       <c r="E5" t="n">
-        <v>67022.56904972222</v>
+        <v>73644.0231562423</v>
       </c>
     </row>
     <row r="6">
@@ -2472,16 +2472,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>104315.0004494526</v>
+        <v>31920.27001050804</v>
       </c>
       <c r="E6" t="n">
-        <v>21519.22105859731</v>
+        <v>38534.49135015518</v>
       </c>
     </row>
     <row r="7">
@@ -2489,16 +2489,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56361.35983391193</v>
+        <v>7521.611787907372</v>
       </c>
       <c r="E7" t="n">
-        <v>-17454.40010023458</v>
+        <v>12608.29933086926</v>
       </c>
     </row>
     <row r="8">
@@ -2506,16 +2506,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>15911.85870455496</v>
+        <v>-6951.964156237551</v>
       </c>
       <c r="E8" t="n">
-        <v>-48923.88177288272</v>
+        <v>-3392.810409960917</v>
       </c>
     </row>
     <row r="9">
@@ -2523,16 +2523,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-16250.12701607245</v>
+        <v>-10914.99380754681</v>
       </c>
       <c r="E9" t="n">
-        <v>-72105.84803680133</v>
+        <v>-8883.373857955427</v>
       </c>
     </row>
     <row r="10">
@@ -2540,16 +2540,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-39605.89509633355</v>
+        <v>-3954.943707822204</v>
       </c>
       <c r="E10" t="n">
-        <v>-86481.59666035359</v>
+        <v>-3450.857554916074</v>
       </c>
     </row>
     <row r="11">
@@ -2557,16 +2557,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-53956.96137888258</v>
+        <v>14160.13520924783</v>
       </c>
       <c r="E11" t="n">
-        <v>-91852.6434861938</v>
+        <v>13136.68756546871</v>
       </c>
     </row>
     <row r="12">
@@ -2574,16 +2574,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59457.76789110889</v>
+        <v>43482.60005366851</v>
       </c>
       <c r="E12" t="n">
-        <v>-88373.43054171128</v>
+        <v>40931.61861320413</v>
       </c>
     </row>
     <row r="13">
@@ -2591,16 +2591,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-56623.56035529995</v>
+        <v>83893.97882751917</v>
       </c>
       <c r="E13" t="n">
-        <v>-76559.20354919352</v>
+        <v>79815.46359036955</v>
       </c>
     </row>
     <row r="14">
@@ -2608,16 +2608,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46314.03845511706</v>
+        <v>135120.221976875</v>
       </c>
       <c r="E14" t="n">
-        <v>-57269.66219230182</v>
+        <v>129514.1729430401</v>
       </c>
     </row>
     <row r="15">
@@ -2625,16 +2625,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-29695.55097317063</v>
+        <v>196751.8938069036</v>
       </c>
       <c r="E15" t="n">
-        <v>-31671.15525364656</v>
+        <v>189618.3109763835</v>
       </c>
     </row>
     <row r="16">
@@ -2642,16 +2642,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-8186.189690928513</v>
+        <v>268267.6352187042</v>
       </c>
       <c r="E16" t="n">
-        <v>-1181.774514695621</v>
+        <v>259606.5185914988</v>
       </c>
     </row>
     <row r="17">
@@ -2659,16 +2659,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16610.92494537191</v>
+        <v>349059.250645855</v>
       </c>
       <c r="E17" t="n">
-        <v>32595.35957831363</v>
+        <v>338870.6002219644</v>
       </c>
     </row>
     <row r="18">
@@ -2676,16 +2676,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>42980.55317815441</v>
+        <v>438456.9140827616</v>
       </c>
       <c r="E18" t="n">
-        <v>67945.00726780495</v>
+        <v>426740.7298621857</v>
       </c>
     </row>
     <row r="19">
@@ -2693,16 +2693,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>69169.04560938744</v>
+        <v>535753.2208828605</v>
       </c>
       <c r="E19" t="n">
-        <v>103113.5191557468</v>
+        <v>522509.5028655994</v>
       </c>
     </row>
     <row r="20">
@@ -2710,16 +2710,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>93454.10005530401</v>
+        <v>640225.0979249182</v>
       </c>
       <c r="E20" t="n">
-        <v>136378.5930583722</v>
+        <v>625453.8461109718</v>
       </c>
     </row>
     <row r="21">
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>114206.7442976362</v>
+        <v>751152.8898112683</v>
       </c>
       <c r="E21" t="n">
-        <v>166111.2567574132</v>
+        <v>734854.1042006366</v>
       </c>
     </row>
     <row r="22">
@@ -2744,16 +2744,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>129942.8114261661</v>
+        <v>867836.2329358874</v>
       </c>
       <c r="E22" t="n">
-        <v>190827.343342652</v>
+        <v>850009.9135285706</v>
       </c>
     </row>
     <row r="23">
@@ -2761,16 +2761,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>139362.2958869326</v>
+        <v>989606.5900603775</v>
       </c>
       <c r="E23" t="n">
-        <v>209226.8472601272</v>
+        <v>970252.7368563754</v>
       </c>
     </row>
     <row r="24">
@@ -2778,16 +2778,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>141376.031355985</v>
+        <v>1115836.531419048</v>
       </c>
       <c r="E24" t="n">
-        <v>220220.6021858884</v>
+        <v>1094955.14441836</v>
       </c>
     </row>
     <row r="25">
@@ -2795,16 +2795,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>135120.0407905923</v>
+        <v>1245946.008234243</v>
       </c>
       <c r="E25" t="n">
-        <v>222944.6310772045</v>
+        <v>1223537.087436871</v>
       </c>
     </row>
     <row r="26">
@@ -2812,16 +2812,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>119958.6274875453</v>
+        <v>1379405.97128471</v>
       </c>
       <c r="E26" t="n">
-        <v>216763.2372308664</v>
+        <v>1355469.516690652</v>
       </c>
     </row>
     <row r="27">
@@ -2829,16 +2829,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>95477.7836690033</v>
+        <v>1515739.7459603</v>
       </c>
       <c r="E27" t="n">
-        <v>201262.4128690332</v>
+        <v>1490275.757569557</v>
       </c>
     </row>
     <row r="28">
@@ -2846,16 +2846,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61470.79298056733</v>
+        <v>1654522.594029304</v>
       </c>
       <c r="E28" t="n">
-        <v>176235.4416373061</v>
+        <v>1627531.071841876</v>
       </c>
     </row>
     <row r="29">
@@ -2863,16 +2863,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>17918.01578941625</v>
+        <v>1795379.880333019</v>
       </c>
       <c r="E29" t="n">
-        <v>141662.6839028638</v>
+        <v>1766860.824348906</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2880,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-35037.19675910412</v>
+        <v>1937984.228963289</v>
       </c>
       <c r="E30" t="n">
-        <v>97687.49081105227</v>
+        <v>1907937.639182491</v>
       </c>
     </row>
     <row r="31">
@@ -2897,16 +2897,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-97114.67470010923</v>
+        <v>2082052.006439734</v>
       </c>
       <c r="E31" t="n">
-        <v>44590.03232675599</v>
+        <v>2050477.88286225</v>
       </c>
     </row>
     <row r="32">
@@ -2914,16 +2914,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-167924.1420957372</v>
+        <v>2227339.415878628</v>
       </c>
       <c r="E32" t="n">
-        <v>-17239.41561216311</v>
+        <v>2194237.758504459</v>
       </c>
     </row>
     <row r="33">
@@ -2931,16 +2931,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-246991.2095698851</v>
+        <v>2373638.43147147</v>
       </c>
       <c r="E33" t="n">
-        <v>-87326.46362960228</v>
+        <v>2339009.240300615</v>
       </c>
     </row>
     <row r="34">
@@ -2948,16 +2948,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-333781.6828740786</v>
+        <v>2520772.750579507</v>
       </c>
       <c r="E34" t="n">
-        <v>-165136.9174770869</v>
+        <v>2484616.025611967</v>
       </c>
     </row>
     <row r="35">
@@ -2965,16 +2965,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-427723.5113392948</v>
+        <v>2668593.893854052</v>
       </c>
       <c r="E35" t="n">
-        <v>-250098.7264855943</v>
+        <v>2630909.635089827</v>
       </c>
     </row>
     <row r="36">
@@ -2982,16 +2982,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-528225.960737359</v>
+        <v>2816977.543345988</v>
       </c>
       <c r="E36" t="n">
-        <v>-341621.1564269497</v>
+        <v>2777765.750785077</v>
       </c>
     </row>
   </sheetData>
@@ -3045,16 +3045,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>361894.6929540723</v>
+        <v>248151.9251502201</v>
       </c>
       <c r="E2" t="n">
-        <v>243178.8357363816</v>
+        <v>260876.2816766083</v>
       </c>
     </row>
     <row r="3">
@@ -3062,16 +3062,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>300986.2791398696</v>
+        <v>202582.0620890007</v>
       </c>
       <c r="E3" t="n">
-        <v>191250.4413788878</v>
+        <v>213778.8848187036</v>
       </c>
     </row>
     <row r="4">
@@ -3079,16 +3079,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>244473.7927638108</v>
+        <v>163934.2958261276</v>
       </c>
       <c r="E4" t="n">
-        <v>143717.9744595378</v>
+        <v>173603.5847591453</v>
       </c>
     </row>
     <row r="5">
@@ -3096,16 +3096,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>193114.1212391284</v>
+        <v>132922.2421079833</v>
       </c>
       <c r="E5" t="n">
-        <v>101338.3223915642</v>
+        <v>141063.9972443157</v>
       </c>
     </row>
     <row r="6">
@@ -3113,16 +3113,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147576.721083161</v>
+        <v>110172.78846632</v>
       </c>
       <c r="E6" t="n">
-        <v>64780.94169230569</v>
+        <v>116787.0098059671</v>
       </c>
     </row>
     <row r="7">
@@ -3130,16 +3130,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>108392.8833995212</v>
+        <v>96208.69429200412</v>
       </c>
       <c r="E7" t="n">
-        <v>34577.12346537472</v>
+        <v>101295.381834966</v>
       </c>
     </row>
     <row r="8">
@@ -3147,16 +3147,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>75913.1075700339</v>
+        <v>91436.44134331522</v>
       </c>
       <c r="E8" t="n">
-        <v>11077.36709259621</v>
+        <v>94995.59508959185</v>
       </c>
     </row>
     <row r="9">
@@ -3164,16 +3164,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>50276.10773248138</v>
+        <v>96139.46393758735</v>
       </c>
       <c r="E9" t="n">
-        <v>-5579.613288247485</v>
+        <v>98171.08388717873</v>
       </c>
     </row>
     <row r="10">
@@ -3181,16 +3181,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>31391.52120786728</v>
+        <v>110476.5507588594</v>
       </c>
       <c r="E10" t="n">
-        <v>-15484.18035615276</v>
+        <v>110980.6369117655</v>
       </c>
     </row>
     <row r="11">
@@ -3198,16 +3198,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>18936.90362248159</v>
+        <v>134484.935689617</v>
       </c>
       <c r="E11" t="n">
-        <v>-18958.77848482963</v>
+        <v>133461.4880458379</v>
       </c>
     </row>
     <row r="12">
@@ -3215,16 +3215,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>12368.26786705756</v>
+        <v>168087.3929703833</v>
       </c>
       <c r="E12" t="n">
-        <v>-16547.39478354484</v>
+        <v>165536.4115299189</v>
       </c>
     </row>
     <row r="13">
@@ -3232,16 +3232,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10942.37498232597</v>
+        <v>211102.5254375344</v>
       </c>
       <c r="E13" t="n">
-        <v>-8993.268211567603</v>
+        <v>207024.0102003848</v>
       </c>
     </row>
     <row r="14">
@@ -3249,16 +3249,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>13748.27299966467</v>
+        <v>263257.3804081953</v>
       </c>
       <c r="E14" t="n">
-        <v>2792.649262479921</v>
+        <v>257651.3313743604</v>
       </c>
     </row>
     <row r="15">
@@ -3266,16 +3266,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>19745.20976137138</v>
+        <v>324201.5374626755</v>
       </c>
       <c r="E15" t="n">
-        <v>17769.60548089545</v>
+        <v>317067.9546321554</v>
       </c>
     </row>
     <row r="16">
@@ -3283,16 +3283,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27803.98367541631</v>
+        <v>393521.8736550747</v>
       </c>
       <c r="E16" t="n">
-        <v>34808.3988516492</v>
+        <v>384860.7570278693</v>
       </c>
     </row>
     <row r="17">
@@ -3300,16 +3300,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>36748.98379137281</v>
+        <v>470757.3103644382</v>
       </c>
       <c r="E17" t="n">
-        <v>52733.41842431453</v>
+        <v>460568.6599405476</v>
       </c>
     </row>
     <row r="18">
@@ -3317,16 +3317,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>45398.53804880382</v>
+        <v>555412.9676892312</v>
       </c>
       <c r="E18" t="n">
-        <v>70362.99213845436</v>
+        <v>543696.7834686553</v>
       </c>
     </row>
     <row r="19">
@@ -3334,16 +3334,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52601.66604736437</v>
+        <v>646973.2838037186</v>
       </c>
       <c r="E19" t="n">
-        <v>86546.13959372372</v>
+        <v>633729.5657864575</v>
       </c>
     </row>
     <row r="20">
@@ -3351,16 +3351,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>57269.85706571008</v>
+        <v>744913.7870153113</v>
       </c>
       <c r="E20" t="n">
-        <v>100194.3500687783</v>
+        <v>730142.5352013649</v>
       </c>
     </row>
     <row r="21">
@@ -3368,16 +3368,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>58403.01342093898</v>
+        <v>848711.3290155169</v>
       </c>
       <c r="E21" t="n">
-        <v>110307.525880716</v>
+        <v>832412.5434048852</v>
       </c>
     </row>
     <row r="22">
@@ -3385,16 +3385,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>55109.17490158383</v>
+        <v>957852.6933647752</v>
       </c>
       <c r="E22" t="n">
-        <v>115993.7068180697</v>
+        <v>940026.3739574583</v>
       </c>
     </row>
     <row r="23">
@@ -3402,16 +3402,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>46618.04641592241</v>
+        <v>1071841.580470111</v>
       </c>
       <c r="E23" t="n">
-        <v>116482.597789117</v>
+        <v>1052487.727266109</v>
       </c>
     </row>
     <row r="24">
@@ -3419,16 +3419,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>32288.67458177432</v>
+        <v>1190204.038193161</v>
       </c>
       <c r="E24" t="n">
-        <v>111133.2454116778</v>
+        <v>1169322.651192474</v>
       </c>
     </row>
     <row r="25">
@@ -3436,16 +3436,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>11611.85602774206</v>
+        <v>1312492.456374926</v>
       </c>
       <c r="E25" t="n">
-        <v>99436.44631435435</v>
+        <v>1290083.535577554</v>
       </c>
     </row>
     <row r="26">
@@ -3453,16 +3453,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-15791.98552684905</v>
+        <v>1438288.275716748</v>
       </c>
       <c r="E26" t="n">
-        <v>81012.62421647206</v>
+        <v>1414351.82112269</v>
       </c>
     </row>
     <row r="27">
@@ -3470,16 +3470,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-50178.6358405787</v>
+        <v>1567203.57902232</v>
       </c>
       <c r="E27" t="n">
-        <v>55605.99335945123</v>
+        <v>1541739.590631576</v>
       </c>
     </row>
     <row r="28">
@@ -3487,16 +3487,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-91688.80408917724</v>
+        <v>1698881.738490035</v>
       </c>
       <c r="E28" t="n">
-        <v>23075.84456756151</v>
+        <v>1671890.216302607</v>
       </c>
     </row>
     <row r="29">
@@ -3504,16 +3504,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-140358.9077256811</v>
+        <v>1832997.289270967</v>
       </c>
       <c r="E29" t="n">
-        <v>-16614.23961223352</v>
+        <v>1804478.233286853</v>
       </c>
     </row>
     <row r="30">
@@ -3521,16 +3521,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-196133.1869890764</v>
+        <v>1969255.189413285</v>
       </c>
       <c r="E30" t="n">
-        <v>-63408.49941892002</v>
+        <v>1939208.599632486</v>
       </c>
     </row>
     <row r="31">
@@ -3538,16 +3538,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-258876.4961656191</v>
+        <v>2107389.611831566</v>
       </c>
       <c r="E31" t="n">
-        <v>-117171.7891387539</v>
+        <v>2075815.488254082</v>
       </c>
     </row>
     <row r="32">
@@ -3555,16 +3555,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-328387.2197600151</v>
+        <v>2247162.396935199</v>
       </c>
       <c r="E32" t="n">
-        <v>-177702.493276441</v>
+        <v>2214060.73956103</v>
       </c>
     </row>
     <row r="33">
@@ -3572,16 +3572,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-404409.8668587743</v>
+        <v>2388361.276510195</v>
       </c>
       <c r="E33" t="n">
-        <v>-244745.1209184915</v>
+        <v>2353732.085339341</v>
       </c>
     </row>
     <row r="34">
@@ -3589,16 +3589,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-486646.9995392368</v>
+        <v>2530797.961497996</v>
       </c>
       <c r="E34" t="n">
-        <v>-318002.2341422451</v>
+        <v>2494641.236530456</v>
       </c>
     </row>
     <row r="35">
@@ -3606,16 +3606,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-574770.246442944</v>
+        <v>2674306.169254814</v>
       </c>
       <c r="E35" t="n">
-        <v>-397145.4615892435</v>
+        <v>2636621.910490589</v>
       </c>
     </row>
     <row r="36">
@@ -3623,16 +3623,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-668430.2375021337</v>
+        <v>2818739.650232929</v>
       </c>
       <c r="E36" t="n">
-        <v>-481825.4331917244</v>
+        <v>2779527.857672018</v>
       </c>
     </row>
   </sheetData>
@@ -3686,16 +3686,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>355891.811933545</v>
+        <v>231026.3100623224</v>
       </c>
       <c r="E2" t="n">
-        <v>237175.9547158544</v>
+        <v>243750.6665887106</v>
       </c>
     </row>
     <row r="3">
@@ -3703,16 +3703,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291939.4793788353</v>
+        <v>181100.7546039387</v>
       </c>
       <c r="E3" t="n">
-        <v>182203.6416178535</v>
+        <v>192297.5773336416</v>
       </c>
     </row>
     <row r="4">
@@ -3720,16 +3720,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>232007.4953025169</v>
+        <v>137895.1503136177</v>
       </c>
       <c r="E4" t="n">
-        <v>131251.6769982439</v>
+        <v>147564.4392466354</v>
       </c>
     </row>
     <row r="5">
@@ -3737,16 +3737,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>177004.0967939309</v>
+        <v>102253.8044657385</v>
       </c>
       <c r="E5" t="n">
-        <v>85228.29794636671</v>
+        <v>110395.5596020709</v>
       </c>
     </row>
     <row r="6">
@@ -3754,16 +3754,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>127800.1343275048</v>
+        <v>74941.48977242089</v>
       </c>
       <c r="E6" t="n">
-        <v>45004.35493664946</v>
+        <v>81555.71111206802</v>
       </c>
     </row>
     <row r="7">
@@ -3771,16 +3771,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>85163.2551486399</v>
+        <v>56617.90454618624</v>
       </c>
       <c r="E7" t="n">
-        <v>11347.49521449339</v>
+        <v>61704.59208914813</v>
       </c>
     </row>
     <row r="8">
@@ -3788,16 +3788,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>49695.81905058672</v>
+        <v>47817.99513369966</v>
       </c>
       <c r="E8" t="n">
-        <v>-15139.92142685096</v>
+        <v>51377.1488799763</v>
       </c>
     </row>
     <row r="9">
@@ -3805,16 +3805,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>21782.63197140576</v>
+        <v>48938.76234994912</v>
       </c>
       <c r="E9" t="n">
-        <v>-34073.08904932311</v>
+        <v>50970.38229954051</v>
       </c>
     </row>
     <row r="10">
@@ -3822,16 +3822,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1553.114727505977</v>
+        <v>60232.69096198053</v>
       </c>
       <c r="E10" t="n">
-        <v>-45322.58683651406</v>
+        <v>60736.77711488666</v>
       </c>
     </row>
     <row r="11">
@@ -3839,16 +3839,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-11139.32948265628</v>
+        <v>81807.51306314208</v>
       </c>
       <c r="E11" t="n">
-        <v>-49035.0115899675</v>
+        <v>80784.06541936296</v>
       </c>
     </row>
     <row r="12">
@@ -3856,16 +3856,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-16719.91016110423</v>
+        <v>113631.6636643421</v>
       </c>
       <c r="E12" t="n">
-        <v>-45635.57281170662</v>
+        <v>111080.6822238777</v>
       </c>
     </row>
     <row r="13">
@@ -3873,16 +3873,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-15877.91277560782</v>
+        <v>155544.5252316443</v>
       </c>
       <c r="E13" t="n">
-        <v>-35813.55596950139</v>
+        <v>151466.0099944947</v>
       </c>
     </row>
     <row r="14">
@@ -3890,16 +3890,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9537.329840830949</v>
+        <v>207270.3945825326</v>
       </c>
       <c r="E14" t="n">
-        <v>-20492.9535780157</v>
+        <v>201664.3455486977</v>
       </c>
     </row>
     <row r="15">
@@ -3907,16 +3907,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1184.083064785272</v>
+        <v>268435.0390852522</v>
       </c>
       <c r="E15" t="n">
-        <v>-791.5212156906589</v>
+        <v>261301.4562547321</v>
       </c>
     </row>
     <row r="16">
@@ -3924,16 +3924,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>15023.56334654989</v>
+        <v>338583.7298112857</v>
       </c>
       <c r="E16" t="n">
-        <v>22027.97852278279</v>
+        <v>329922.6131840803</v>
       </c>
     </row>
     <row r="17">
@@ -3941,16 +3941,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>30626.05365831726</v>
+        <v>417199.7311266075</v>
       </c>
       <c r="E17" t="n">
-        <v>46610.48829125897</v>
+        <v>407011.0807027169</v>
       </c>
     </row>
     <row r="18">
@@ -3958,16 +3958,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>46597.26140129269</v>
+        <v>503722.369410002</v>
       </c>
       <c r="E18" t="n">
-        <v>71561.71549094323</v>
+        <v>492006.1851894261</v>
       </c>
     </row>
     <row r="19">
@@ -3975,16 +3975,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>61553.95223626343</v>
+        <v>597563.9774511303</v>
       </c>
       <c r="E19" t="n">
-        <v>95498.4257826228</v>
+        <v>584320.2594338692</v>
       </c>
     </row>
     <row r="20">
@@ -3992,16 +3992,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>74169.01488597316</v>
+        <v>698125.1963467901</v>
       </c>
       <c r="E20" t="n">
-        <v>117093.5078890413</v>
+        <v>683353.9445328437</v>
       </c>
     </row>
     <row r="21">
@@ -4009,16 +4009,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>83209.55267700231</v>
+        <v>804808.2972580704</v>
       </c>
       <c r="E21" t="n">
-        <v>135114.0651367793</v>
+        <v>788509.5116474387</v>
       </c>
     </row>
     <row r="22">
@@ -4026,16 +4026,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87566.96996112088</v>
+        <v>917028.3491402096</v>
       </c>
       <c r="E22" t="n">
-        <v>148451.5018776067</v>
+        <v>899202.0297328928</v>
       </c>
     </row>
     <row r="23">
@@ -4043,16 +4043,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>86278.6730332725</v>
+        <v>1034222.197691627</v>
       </c>
       <c r="E23" t="n">
-        <v>156143.2244064671</v>
+        <v>1014868.344487624</v>
       </c>
     </row>
     <row r="24">
@@ -4060,16 +4060,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>78541.55795708613</v>
+        <v>1155855.331391128</v>
       </c>
       <c r="E24" t="n">
-        <v>157386.1287869896</v>
+        <v>1134973.944390441</v>
       </c>
     </row>
     <row r="25">
@@ -4077,16 +4077,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>63717.89143581192</v>
+        <v>1281426.791956259</v>
       </c>
       <c r="E25" t="n">
-        <v>151542.4817224242</v>
+        <v>1259017.871158886</v>
       </c>
     </row>
     <row r="26">
@@ -4094,16 +4094,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>41334.49972622699</v>
+        <v>1410472.340641169</v>
       </c>
       <c r="E26" t="n">
-        <v>138139.1094695481</v>
+        <v>1386535.886047111</v>
       </c>
     </row>
     <row r="27">
@@ -4111,16 +4111,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>11076.37015509862</v>
+        <v>1542566.121873923</v>
       </c>
       <c r="E27" t="n">
-        <v>116860.9993551285</v>
+        <v>1517102.13348318</v>
       </c>
     </row>
     <row r="28">
@@ -4128,16 +4128,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-27224.14640109491</v>
+        <v>1677321.076038891</v>
       </c>
       <c r="E28" t="n">
-        <v>87540.50225564383</v>
+        <v>1650329.553851463</v>
       </c>
     </row>
     <row r="29">
@@ -4145,16 +4145,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-73601.34737675897</v>
+        <v>1814388.348222604</v>
       </c>
       <c r="E29" t="n">
-        <v>50143.32073668859</v>
+        <v>1785869.29223849</v>
       </c>
     </row>
     <row r="30">
@@ -4162,16 +4162,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-127972.2908522065</v>
+        <v>1953455.923762792</v>
       </c>
       <c r="E30" t="n">
-        <v>4752.396717949901</v>
+        <v>1923409.333981993</v>
       </c>
     </row>
     <row r="31">
@@ -4179,16 +4179,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-190154.0123618414</v>
+        <v>2094246.698305898</v>
       </c>
       <c r="E31" t="n">
-        <v>-48449.30533497615</v>
+        <v>2062672.574728414</v>
       </c>
     </row>
     <row r="32">
@@ -4196,16 +4196,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-259880.9966553517</v>
+        <v>2236516.163005241</v>
       </c>
       <c r="E32" t="n">
-        <v>-109196.2701717776</v>
+        <v>2203414.505631072</v>
       </c>
     </row>
     <row r="33">
@@ -4213,16 +4213,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-336822.2142532239</v>
+        <v>2380049.857027235</v>
       </c>
       <c r="E33" t="n">
-        <v>-177157.468312941</v>
+        <v>2345420.66585638</v>
       </c>
     </row>
     <row r="34">
@@ -4230,16 +4230,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-420597.1922908464</v>
+        <v>2524660.711573626</v>
       </c>
       <c r="E34" t="n">
-        <v>-251952.4268938547</v>
+        <v>2488503.986606086</v>
       </c>
     </row>
     <row r="35">
@@ -4247,16 +4247,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-510790.7397227959</v>
+        <v>2670186.383487501</v>
       </c>
       <c r="E35" t="n">
-        <v>-333165.9548690954</v>
+        <v>2632502.124723276</v>
       </c>
     </row>
     <row r="36">
@@ -4264,16 +4264,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-606966.0821113416</v>
+        <v>2816486.653010676</v>
       </c>
       <c r="E36" t="n">
-        <v>-420361.2778009323</v>
+        <v>2777274.860449766</v>
       </c>
     </row>
   </sheetData>
@@ -4327,16 +4327,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>350594.327257772</v>
+        <v>212172.7144872448</v>
       </c>
       <c r="E2" t="n">
-        <v>231878.4700400814</v>
+        <v>224897.0710136329</v>
       </c>
     </row>
     <row r="3">
@@ -4344,16 +4344,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>283010.1447458938</v>
+        <v>156628.0359526253</v>
       </c>
       <c r="E3" t="n">
-        <v>173274.306984912</v>
+        <v>167824.8586823282</v>
       </c>
     </row>
     <row r="4">
@@ -4361,16 +4361,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218730.493258962</v>
+        <v>107394.971940604</v>
       </c>
       <c r="E4" t="n">
-        <v>117974.674954689</v>
+        <v>117064.2608736216</v>
       </c>
     </row>
     <row r="5">
@@ -4378,16 +4378,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>158798.3678972864</v>
+        <v>65502.2680199099</v>
       </c>
       <c r="E5" t="n">
-        <v>67022.56904972222</v>
+        <v>73644.0231562423</v>
       </c>
     </row>
     <row r="6">
@@ -4395,16 +4395,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>104315.0004494526</v>
+        <v>31920.27001050804</v>
       </c>
       <c r="E6" t="n">
-        <v>21519.22105859731</v>
+        <v>38534.49135015518</v>
       </c>
     </row>
     <row r="7">
@@ -4412,16 +4412,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56361.35983391193</v>
+        <v>7521.611787907372</v>
       </c>
       <c r="E7" t="n">
-        <v>-17454.40010023458</v>
+        <v>12608.29933086926</v>
       </c>
     </row>
     <row r="8">
@@ -4429,16 +4429,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>15911.85870455496</v>
+        <v>-6951.964156237551</v>
       </c>
       <c r="E8" t="n">
-        <v>-48923.88177288272</v>
+        <v>-3392.810409960917</v>
       </c>
     </row>
     <row r="9">
@@ -4446,16 +4446,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-16250.12701607245</v>
+        <v>-10914.99380754681</v>
       </c>
       <c r="E9" t="n">
-        <v>-72105.84803680133</v>
+        <v>-8883.373857955427</v>
       </c>
     </row>
     <row r="10">
@@ -4463,16 +4463,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-39605.89509633355</v>
+        <v>-3954.943707822204</v>
       </c>
       <c r="E10" t="n">
-        <v>-86481.59666035359</v>
+        <v>-3450.857554916074</v>
       </c>
     </row>
     <row r="11">
@@ -4480,16 +4480,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-53956.96137888258</v>
+        <v>14160.13520924783</v>
       </c>
       <c r="E11" t="n">
-        <v>-91852.6434861938</v>
+        <v>13136.68756546871</v>
       </c>
     </row>
     <row r="12">
@@ -4497,16 +4497,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59457.76789110889</v>
+        <v>43482.60005366851</v>
       </c>
       <c r="E12" t="n">
-        <v>-88373.43054171128</v>
+        <v>40931.61861320413</v>
       </c>
     </row>
     <row r="13">
@@ -4514,16 +4514,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-56623.56035529995</v>
+        <v>83893.97882751917</v>
       </c>
       <c r="E13" t="n">
-        <v>-76559.20354919352</v>
+        <v>79815.46359036955</v>
       </c>
     </row>
     <row r="14">
@@ -4531,16 +4531,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-46314.03845511706</v>
+        <v>135120.221976875</v>
       </c>
       <c r="E14" t="n">
-        <v>-57269.66219230182</v>
+        <v>129514.1729430401</v>
       </c>
     </row>
     <row r="15">
@@ -4548,16 +4548,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-29695.55097317063</v>
+        <v>196751.8938069036</v>
       </c>
       <c r="E15" t="n">
-        <v>-31671.15525364656</v>
+        <v>189618.3109763835</v>
       </c>
     </row>
     <row r="16">
@@ -4565,16 +4565,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-8186.189690928513</v>
+        <v>268267.6352187042</v>
       </c>
       <c r="E16" t="n">
-        <v>-1181.774514695621</v>
+        <v>259606.5185914988</v>
       </c>
     </row>
     <row r="17">
@@ -4582,16 +4582,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16610.92494537191</v>
+        <v>349059.250645855</v>
       </c>
       <c r="E17" t="n">
-        <v>32595.35957831363</v>
+        <v>338870.6002219644</v>
       </c>
     </row>
     <row r="18">
@@ -4599,16 +4599,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>42980.55317815441</v>
+        <v>438456.9140827616</v>
       </c>
       <c r="E18" t="n">
-        <v>67945.00726780495</v>
+        <v>426740.7298621857</v>
       </c>
     </row>
     <row r="19">
@@ -4616,16 +4616,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>69169.04560938744</v>
+        <v>535753.2208828605</v>
       </c>
       <c r="E19" t="n">
-        <v>103113.5191557468</v>
+        <v>522509.5028655994</v>
       </c>
     </row>
     <row r="20">
@@ -4633,16 +4633,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>93454.10005530401</v>
+        <v>640225.0979249182</v>
       </c>
       <c r="E20" t="n">
-        <v>136378.5930583722</v>
+        <v>625453.8461109718</v>
       </c>
     </row>
     <row r="21">
@@ -4650,16 +4650,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>114206.7442976362</v>
+        <v>751152.8898112683</v>
       </c>
       <c r="E21" t="n">
-        <v>166111.2567574132</v>
+        <v>734854.1042006366</v>
       </c>
     </row>
     <row r="22">
@@ -4667,16 +4667,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>129942.8114261661</v>
+        <v>867836.2329358874</v>
       </c>
       <c r="E22" t="n">
-        <v>190827.343342652</v>
+        <v>850009.9135285706</v>
       </c>
     </row>
     <row r="23">
@@ -4684,16 +4684,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>139362.2958869326</v>
+        <v>989606.5900603775</v>
       </c>
       <c r="E23" t="n">
-        <v>209226.8472601272</v>
+        <v>970252.7368563754</v>
       </c>
     </row>
     <row r="24">
@@ -4701,16 +4701,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>141376.031355985</v>
+        <v>1115836.531419048</v>
       </c>
       <c r="E24" t="n">
-        <v>220220.6021858884</v>
+        <v>1094955.14441836</v>
       </c>
     </row>
     <row r="25">
@@ -4718,16 +4718,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>135120.0407905923</v>
+        <v>1245946.008234243</v>
       </c>
       <c r="E25" t="n">
-        <v>222944.6310772045</v>
+        <v>1223537.087436871</v>
       </c>
     </row>
     <row r="26">
@@ -4735,16 +4735,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>119958.6274875453</v>
+        <v>1379405.97128471</v>
       </c>
       <c r="E26" t="n">
-        <v>216763.2372308664</v>
+        <v>1355469.516690652</v>
       </c>
     </row>
     <row r="27">
@@ -4752,16 +4752,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>95477.7836690033</v>
+        <v>1515739.7459603</v>
       </c>
       <c r="E27" t="n">
-        <v>201262.4128690332</v>
+        <v>1490275.757569557</v>
       </c>
     </row>
     <row r="28">
@@ -4769,16 +4769,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61470.79298056733</v>
+        <v>1654522.594029304</v>
       </c>
       <c r="E28" t="n">
-        <v>176235.4416373061</v>
+        <v>1627531.071841876</v>
       </c>
     </row>
     <row r="29">
@@ -4786,16 +4786,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>17918.01578941625</v>
+        <v>1795379.880333019</v>
       </c>
       <c r="E29" t="n">
-        <v>141662.6839028638</v>
+        <v>1766860.824348906</v>
       </c>
     </row>
     <row r="30">
@@ -4803,16 +4803,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-35037.19675910412</v>
+        <v>1937984.228963289</v>
       </c>
       <c r="E30" t="n">
-        <v>97687.49081105227</v>
+        <v>1907937.639182491</v>
       </c>
     </row>
     <row r="31">
@@ -4820,16 +4820,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-97114.67470010923</v>
+        <v>2082052.006439734</v>
       </c>
       <c r="E31" t="n">
-        <v>44590.03232675599</v>
+        <v>2050477.88286225</v>
       </c>
     </row>
     <row r="32">
@@ -4837,16 +4837,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-167924.1420957372</v>
+        <v>2227339.415878628</v>
       </c>
       <c r="E32" t="n">
-        <v>-17239.41561216311</v>
+        <v>2194237.758504459</v>
       </c>
     </row>
     <row r="33">
@@ -4854,16 +4854,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-246991.2095698851</v>
+        <v>2373638.43147147</v>
       </c>
       <c r="E33" t="n">
-        <v>-87326.46362960228</v>
+        <v>2339009.240300615</v>
       </c>
     </row>
     <row r="34">
@@ -4871,16 +4871,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-333781.6828740786</v>
+        <v>2520772.750579507</v>
       </c>
       <c r="E34" t="n">
-        <v>-165136.9174770869</v>
+        <v>2484616.025611967</v>
       </c>
     </row>
     <row r="35">
@@ -4888,16 +4888,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-427723.5113392948</v>
+        <v>2668593.893854052</v>
       </c>
       <c r="E35" t="n">
-        <v>-250098.7264855943</v>
+        <v>2630909.635089827</v>
       </c>
     </row>
     <row r="36">
@@ -4905,16 +4905,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-528225.960737359</v>
+        <v>2816977.543345988</v>
       </c>
       <c r="E36" t="n">
-        <v>-341621.1564269497</v>
+        <v>2777765.750785077</v>
       </c>
     </row>
   </sheetData>
@@ -4968,16 +4968,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>347883.7684277968</v>
+        <v>197033.6632652019</v>
       </c>
       <c r="E2" t="n">
-        <v>229167.9112101062</v>
+        <v>209758.01979159</v>
       </c>
     </row>
     <row r="3">
@@ -4985,16 +4985,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>277253.7100601257</v>
+        <v>135912.8489156908</v>
       </c>
       <c r="E3" t="n">
-        <v>167517.8722991439</v>
+        <v>147109.6716453937</v>
       </c>
     </row>
     <row r="4">
@@ -5002,16 +5002,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>209005.9658971868</v>
+        <v>80477.626165024</v>
       </c>
       <c r="E4" t="n">
-        <v>108250.1475929138</v>
+        <v>90146.91509804165</v>
       </c>
     </row>
     <row r="5">
@@ -5019,16 +5019,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>144200.9807783577</v>
+        <v>31955.99360602911</v>
       </c>
       <c r="E5" t="n">
-        <v>52425.18193079351</v>
+        <v>40097.7487423615</v>
       </c>
     </row>
     <row r="6">
@@ -5036,16 +5036,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>84081.15160022228</v>
+        <v>-8439.784089137764</v>
       </c>
       <c r="E6" t="n">
-        <v>1285.372209366949</v>
+        <v>-1825.562749490626</v>
       </c>
     </row>
     <row r="7">
@@ -5053,16 +5053,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>29998.2578039325</v>
+        <v>-39571.5608614699</v>
       </c>
       <c r="E7" t="n">
-        <v>-43817.50213021401</v>
+        <v>-34484.87331850801</v>
       </c>
     </row>
     <row r="8">
@@ -5070,16 +5070,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-16686.2611581902</v>
+        <v>-60428.38130545431</v>
       </c>
       <c r="E8" t="n">
-        <v>-81522.00163562788</v>
+        <v>-56869.22755917768</v>
       </c>
     </row>
     <row r="9">
@@ -5087,16 +5087,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-54716.54037111442</v>
+        <v>-70170.68492469017</v>
       </c>
       <c r="E9" t="n">
-        <v>-110572.2613918433</v>
+        <v>-68139.06497509879</v>
       </c>
     </row>
     <row r="10">
@@ -5104,16 +5104,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-83059.14347719352</v>
+        <v>-68163.29052755298</v>
       </c>
       <c r="E10" t="n">
-        <v>-129934.8450412136</v>
+        <v>-67659.20437464684</v>
       </c>
     </row>
     <row r="11">
@@ -5121,16 +5121,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-101007.9857623645</v>
+        <v>-53995.90684990229</v>
       </c>
       <c r="E11" t="n">
-        <v>-138903.6678696757</v>
+        <v>-55019.35449368141</v>
       </c>
     </row>
     <row r="12">
@@ -5138,16 +5138,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-108266.1278642255</v>
+        <v>-27490.88616384536</v>
       </c>
       <c r="E12" t="n">
-        <v>-137181.7905148279</v>
+        <v>-30041.86760430973</v>
       </c>
     </row>
     <row r="13">
@@ -5155,16 +5155,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-104996.7717247384</v>
+        <v>11301.20380516901</v>
       </c>
       <c r="E13" t="n">
-        <v>-124932.414918632</v>
+        <v>7222.688568019385</v>
       </c>
     </row>
     <row r="14">
@@ -5172,16 +5172,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-91839.7169036386</v>
+        <v>62116.86503629252</v>
       </c>
       <c r="E14" t="n">
-        <v>-102795.3406408234</v>
+        <v>56510.81600245764</v>
       </c>
     </row>
     <row r="15">
@@ -5189,16 +5189,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-69893.27818835502</v>
+        <v>124503.8733257503</v>
       </c>
       <c r="E15" t="n">
-        <v>-71868.88246883095</v>
+        <v>117370.2904952301</v>
       </c>
     </row>
     <row r="16">
@@ -5206,16 +5206,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-40664.86595517249</v>
+        <v>197852.0303752397</v>
       </c>
       <c r="E16" t="n">
-        <v>-33660.4507789396</v>
+        <v>189190.9137480343</v>
       </c>
     </row>
     <row r="17">
@@ -5223,16 +5223,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5995.900554957523</v>
+        <v>281427.8808271445</v>
       </c>
       <c r="E17" t="n">
-        <v>9988.534077984192</v>
+        <v>271239.2304032539</v>
       </c>
     </row>
     <row r="18">
@@ -5240,16 +5240,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>32031.61021710809</v>
+        <v>374410.8353709548</v>
       </c>
       <c r="E18" t="n">
-        <v>56996.06430675862</v>
+        <v>362694.6511503789</v>
       </c>
     </row>
     <row r="19">
@@ -5257,16 +5257,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>71198.6718797869</v>
+        <v>475928.3831835706</v>
       </c>
       <c r="E19" t="n">
-        <v>105143.1454261462</v>
+        <v>462684.6651663095</v>
       </c>
     </row>
     <row r="20">
@@ -5274,16 +5274,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>109254.8881462284</v>
+        <v>585088.4885860055</v>
       </c>
       <c r="E20" t="n">
-        <v>152179.3811492966</v>
+        <v>570317.2367720591</v>
       </c>
     </row>
     <row r="21">
@@ -5291,16 +5291,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>144018.5102678016</v>
+        <v>701007.7807598237</v>
       </c>
       <c r="E21" t="n">
-        <v>195923.0227275786</v>
+        <v>684708.9951491921</v>
       </c>
     </row>
     <row r="22">
@@ -5308,16 +5308,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>173464.6797664653</v>
+        <v>822834.6903703823</v>
       </c>
       <c r="E22" t="n">
-        <v>234349.2116829511</v>
+        <v>805008.3709630654</v>
       </c>
     </row>
     <row r="23">
@@ -5325,16 +5325,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>195797.2371253069</v>
+        <v>949767.2002023637</v>
       </c>
       <c r="E23" t="n">
-        <v>265661.7884985015</v>
+        <v>930413.3469983615</v>
       </c>
     </row>
     <row r="24">
@@ -5342,16 +5342,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>209501.3042089297</v>
+        <v>1081065.312342458</v>
       </c>
       <c r="E24" t="n">
-        <v>288345.8750388331</v>
+        <v>1060183.925341771</v>
       </c>
     </row>
     <row r="25">
@@ -5359,16 +5359,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>213375.672619201</v>
+        <v>1216058.665763407</v>
       </c>
       <c r="E25" t="n">
-        <v>301200.2629058133</v>
+        <v>1193649.744966034</v>
       </c>
     </row>
     <row r="26">
@@ -5376,16 +5376,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>206545.6682468243</v>
+        <v>1354149.95772632</v>
       </c>
       <c r="E26" t="n">
-        <v>303350.2779901454</v>
+        <v>1330213.503132262</v>
       </c>
     </row>
     <row r="27">
@@ -5393,16 +5393,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>188458.4844777253</v>
+        <v>1494814.937301887</v>
       </c>
       <c r="E27" t="n">
-        <v>294243.1136777552</v>
+        <v>1469350.948911144</v>
       </c>
     </row>
     <row r="28">
@@ -5410,16 +5410,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>158863.9093332037</v>
+        <v>1637599.766255502</v>
       </c>
       <c r="E28" t="n">
-        <v>273628.5579899424</v>
+        <v>1610608.244068074</v>
       </c>
     </row>
     <row r="29">
@@ -5427,16 +5427,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>117783.8974560438</v>
+        <v>1782116.502996366</v>
       </c>
       <c r="E29" t="n">
-        <v>241528.5655694914</v>
+        <v>1753597.447012252</v>
       </c>
     </row>
     <row r="30">
@@ -5444,16 +5444,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>65474.5857813912</v>
+        <v>1928037.381363617</v>
       </c>
       <c r="E30" t="n">
-        <v>198199.2733515476</v>
+        <v>1897990.791582818</v>
       </c>
     </row>
     <row r="31">
@@ -5461,16 +5461,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2384.18528391872</v>
+        <v>2075088.447660616</v>
       </c>
       <c r="E31" t="n">
-        <v>144088.8923107839</v>
+        <v>2043514.324083132</v>
       </c>
     </row>
     <row r="32">
@@ -5478,16 +5478,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-70890.2175478032</v>
+        <v>2223043.002751301</v>
       </c>
       <c r="E32" t="n">
-        <v>79794.50893577085</v>
+        <v>2189941.345377132</v>
       </c>
     </row>
     <row r="33">
@@ -5495,16 +5495,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-153644.4600487214</v>
+        <v>2371715.183087669</v>
       </c>
       <c r="E33" t="n">
-        <v>6020.285891561449</v>
+        <v>2337085.991916814</v>
       </c>
     </row>
     <row r="34">
@@ -5512,16 +5512,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-245105.8231595629</v>
+        <v>2520953.912985004</v>
       </c>
       <c r="E34" t="n">
-        <v>-76461.05776257126</v>
+        <v>2484797.188017464</v>
       </c>
     </row>
     <row r="35">
@@ -5529,16 +5529,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-344466.9983687457</v>
+        <v>2670637.374497128</v>
       </c>
       <c r="E35" t="n">
-        <v>-166842.2135150452</v>
+        <v>2632953.115732903</v>
       </c>
     </row>
     <row r="36">
@@ -5546,16 +5546,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-450914.7839510781</v>
+        <v>2820668.072315336</v>
       </c>
       <c r="E36" t="n">
-        <v>-264309.9796406687</v>
+        <v>2781456.279754426</v>
       </c>
     </row>
   </sheetData>
@@ -5609,16 +5609,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>347388.3649360454</v>
+        <v>184629.4117219913</v>
       </c>
       <c r="E2" t="n">
-        <v>228672.5077183548</v>
+        <v>197353.7682483794</v>
       </c>
     </row>
     <row r="3">
@@ -5626,16 +5626,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>274313.6170806158</v>
+        <v>117382.4102865949</v>
       </c>
       <c r="E3" t="n">
-        <v>164577.779319634</v>
+        <v>128579.2330162978</v>
       </c>
     </row>
     <row r="4">
@@ -5643,16 +5643,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>202488.2662927527</v>
+        <v>54729.93273325433</v>
       </c>
       <c r="E4" t="n">
-        <v>101732.4479884797</v>
+        <v>64399.22166627197</v>
       </c>
     </row>
     <row r="5">
@@ -5660,16 +5660,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>132785.4632242731</v>
+        <v>-1873.013061269819</v>
       </c>
       <c r="E5" t="n">
-        <v>41009.66437670891</v>
+        <v>6268.74207506257</v>
       </c>
     </row>
     <row r="6">
@@ -5677,16 +5677,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>66400.80348806485</v>
+        <v>-50886.0404474663</v>
       </c>
       <c r="E6" t="n">
-        <v>-16394.97590279048</v>
+        <v>-44271.81910781916</v>
       </c>
     </row>
     <row r="7">
@@ -5694,16 +5694,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4830.818803101778</v>
+        <v>-90775.31066038548</v>
       </c>
       <c r="E7" t="n">
-        <v>-68984.94113104473</v>
+        <v>-85688.6231174236</v>
       </c>
     </row>
     <row r="8">
@@ -5711,16 +5711,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-50205.78479418848</v>
+        <v>-120105.6514766146</v>
       </c>
       <c r="E8" t="n">
-        <v>-115041.5252716262</v>
+        <v>-116546.497730338</v>
       </c>
     </row>
     <row r="9">
@@ -5728,16 +5728,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-96897.92687233753</v>
+        <v>-137622.8044380072</v>
       </c>
       <c r="E9" t="n">
-        <v>-152753.6478930664</v>
+        <v>-135591.1844884158</v>
       </c>
     </row>
     <row r="10">
@@ -5745,16 +5745,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-133505.5847232038</v>
+        <v>-142319.1706032308</v>
       </c>
       <c r="E10" t="n">
-        <v>-180381.2862872238</v>
+        <v>-141815.0844503247</v>
       </c>
     </row>
     <row r="11">
@@ -5762,16 +5762,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-158533.7335354983</v>
+        <v>-133479.7687934987</v>
       </c>
       <c r="E11" t="n">
-        <v>-196429.4156428095</v>
+        <v>-134503.2164372779</v>
       </c>
     </row>
     <row r="12">
@@ -5779,16 +5779,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-170893.9492219216</v>
+        <v>-110707.5824367258</v>
       </c>
       <c r="E12" t="n">
-        <v>-199809.611872524</v>
+        <v>-113258.5638771902</v>
       </c>
     </row>
     <row r="13">
@@ -5796,16 +5796,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-170035.3768103326</v>
+        <v>-73928.97073233532</v>
       </c>
       <c r="E13" t="n">
-        <v>-189971.0200042262</v>
+        <v>-78007.48596948494</v>
       </c>
     </row>
     <row r="14">
@@ -5813,16 +5813,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-156033.0414241296</v>
+        <v>-23380.714711131</v>
       </c>
       <c r="E14" t="n">
-        <v>-166988.6651613144</v>
+        <v>-28986.76374496588</v>
       </c>
     </row>
     <row r="15">
@@ -5830,16 +5830,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-129627.4552803071</v>
+        <v>40419.0220640496</v>
       </c>
       <c r="E15" t="n">
-        <v>-131603.059560783</v>
+        <v>33285.43923352947</v>
       </c>
     </row>
     <row r="16">
@@ -5847,16 +5847,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-92214.25850438814</v>
+        <v>116712.7933809596</v>
       </c>
       <c r="E16" t="n">
-        <v>-85209.84332815524</v>
+        <v>108051.6767537542</v>
       </c>
     </row>
     <row r="17">
@@ -5864,16 +5864,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-45786.30568945102</v>
+        <v>204555.2598157754</v>
       </c>
       <c r="E17" t="n">
-        <v>-29801.8710565093</v>
+        <v>194366.6093918848</v>
       </c>
     </row>
     <row r="18">
@@ -5881,16 +5881,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>7166.325939646762</v>
+        <v>302869.5440170594</v>
       </c>
       <c r="E18" t="n">
-        <v>32130.7800292973</v>
+        <v>291153.3597964835</v>
       </c>
     </row>
     <row r="19">
@@ -5898,16 +5898,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>63790.10100908586</v>
+        <v>410504.07490729</v>
       </c>
       <c r="E19" t="n">
-        <v>97734.57455544523</v>
+        <v>397260.3568900289</v>
       </c>
     </row>
     <row r="20">
@@ -5915,16 +5915,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>121024.6792695959</v>
+        <v>526285.7927987766</v>
       </c>
       <c r="E20" t="n">
-        <v>163949.1722726641</v>
+        <v>511514.5409848302</v>
       </c>
     </row>
     <row r="21">
@@ -5932,16 +5932,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>175769.6203605428</v>
+        <v>649066.3979292624</v>
       </c>
       <c r="E21" t="n">
-        <v>227674.1328203198</v>
+        <v>632767.6123186307</v>
       </c>
     </row>
     <row r="22">
@@ -5949,16 +5949,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>225047.4704877691</v>
+        <v>777759.4406140021</v>
       </c>
       <c r="E22" t="n">
-        <v>285932.002404255</v>
+        <v>759933.1212066852</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>266150.2072246414</v>
+        <v>911367.2629570691</v>
       </c>
       <c r="E23" t="n">
-        <v>336014.758597836</v>
+        <v>892013.409753067</v>
       </c>
     </row>
     <row r="24">
@@ -5983,16 +5983,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>296758.1877268472</v>
+        <v>1048997.912934361</v>
       </c>
       <c r="E24" t="n">
-        <v>375602.7585567507</v>
+        <v>1028116.525933673</v>
       </c>
     </row>
     <row r="25">
@@ -6000,16 +6000,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>315024.1397177101</v>
+        <v>1189873.02148005</v>
       </c>
       <c r="E25" t="n">
-        <v>402848.7300043224</v>
+        <v>1167464.100682678</v>
       </c>
     </row>
     <row r="26">
@@ -6017,16 +6017,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>319618.8018541484</v>
+        <v>1333328.195626606</v>
       </c>
       <c r="E26" t="n">
-        <v>416423.4115974695</v>
+        <v>1309391.741032548</v>
       </c>
     </row>
     <row r="27">
@@ -6034,16 +6034,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>309738.9107664577</v>
+        <v>1478807.73708853</v>
       </c>
       <c r="E27" t="n">
-        <v>415523.5399664876</v>
+        <v>1453343.748697787</v>
       </c>
     </row>
     <row r="28">
@@ -6051,16 +6051,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>285081.7568466205</v>
+        <v>1625855.495172026</v>
       </c>
       <c r="E28" t="n">
-        <v>399846.4055033592</v>
+        <v>1598863.972984598</v>
       </c>
     </row>
     <row r="29">
@@ -6068,16 +6068,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>245793.0759163976</v>
+        <v>1774103.479048086</v>
       </c>
       <c r="E29" t="n">
-        <v>369537.7440298452</v>
+        <v>1745584.423063972</v>
       </c>
     </row>
     <row r="30">
@@ -6085,16 +6085,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>192396.422189982</v>
+        <v>1923259.564511984</v>
       </c>
       <c r="E30" t="n">
-        <v>325121.1097601383</v>
+        <v>1893212.974731185</v>
       </c>
     </row>
     <row r="31">
@@ -6102,16 +6102,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>125712.4096566426</v>
+        <v>2073095.301383527</v>
       </c>
       <c r="E31" t="n">
-        <v>267417.1166835078</v>
+        <v>2041521.177806043</v>
       </c>
     </row>
     <row r="32">
@@ -6119,16 +6119,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>46775.50935873608</v>
+        <v>2223434.509420576</v>
       </c>
       <c r="E32" t="n">
-        <v>197460.2358423101</v>
+        <v>2190332.852046406</v>
       </c>
     </row>
     <row r="33">
@@ -6136,16 +6136,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-43245.26238248154</v>
+        <v>2374143.074137086</v>
       </c>
       <c r="E33" t="n">
-        <v>116419.4835578013</v>
+        <v>2339513.882966232</v>
       </c>
     </row>
     <row r="34">
@@ -6153,16 +6153,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-143117.1232533148</v>
+        <v>2525120.134036147</v>
       </c>
       <c r="E34" t="n">
-        <v>25527.64214367693</v>
+        <v>2488963.409068607</v>
       </c>
     </row>
     <row r="35">
@@ -6170,16 +6170,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-251602.8850445353</v>
+        <v>2676290.690035019</v>
       </c>
       <c r="E35" t="n">
-        <v>-73978.10019083481</v>
+        <v>2638606.431270794</v>
       </c>
     </row>
     <row r="36">
@@ -6187,16 +6187,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-367507.6098348562</v>
+        <v>2827599.560931531</v>
       </c>
       <c r="E36" t="n">
-        <v>-180902.8055244469</v>
+        <v>2788387.76837062</v>
       </c>
     </row>
   </sheetData>
@@ -6250,16 +6250,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-118715.8572176906</v>
+        <v>12724.35652638814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>348814.4231167522</v>
+        <v>177465.4968202695</v>
       </c>
       <c r="E2" t="n">
-        <v>230098.5658990616</v>
+        <v>190189.8533466576</v>
       </c>
     </row>
     <row r="3">
@@ -6267,16 +6267,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-109735.8377609818</v>
+        <v>11196.82272970289</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>274440.7445982773</v>
+        <v>104333.9326001248</v>
       </c>
       <c r="E3" t="n">
-        <v>164704.9068372954</v>
+        <v>115530.7553298277</v>
       </c>
     </row>
     <row r="4">
@@ -6284,16 +6284,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-100755.818304273</v>
+        <v>9669.28893301764</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>200343.7718626602</v>
+        <v>33868.44705770157</v>
       </c>
       <c r="E4" t="n">
-        <v>99587.95355838721</v>
+        <v>43537.73599071921</v>
       </c>
     </row>
     <row r="5">
@@ -6301,16 +6301,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-91775.79884756415</v>
+        <v>8141.755136332389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126921.0336920428</v>
+        <v>-32371.82614972151</v>
       </c>
       <c r="E5" t="n">
-        <v>35145.23484447866</v>
+        <v>-24230.07101338912</v>
       </c>
     </row>
     <row r="6">
@@ -6318,16 +6318,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-82795.77939085533</v>
+        <v>6614.221339647138</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>54923.84029841033</v>
+        <v>-92452.09887301341</v>
       </c>
       <c r="E6" t="n">
-        <v>-27871.939092445</v>
+        <v>-85837.87753336628</v>
       </c>
     </row>
     <row r="7">
@@ -6335,16 +6335,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-73815.75993414651</v>
+        <v>5086.687542961886</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-14417.41821599001</v>
+        <v>-144196.1952551715</v>
       </c>
       <c r="E7" t="n">
-        <v>-88233.17815013652</v>
+        <v>-139109.5077122096</v>
       </c>
     </row>
     <row r="8">
@@ -6352,16 +6352,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-64835.74047743768</v>
+        <v>3559.153746276634</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-79336.23350767733</v>
+        <v>-185379.8609980533</v>
       </c>
       <c r="E8" t="n">
-        <v>-144171.973985115</v>
+        <v>-181820.7072517767</v>
       </c>
     </row>
     <row r="9">
@@ -6369,16 +6369,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-55855.72102072887</v>
+        <v>2031.619949591382</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-137587.3030864459</v>
+        <v>-213938.5201904253</v>
       </c>
       <c r="E9" t="n">
-        <v>-193443.0241071748</v>
+        <v>-211906.900240834</v>
       </c>
     </row>
     <row r="10">
@@ -6386,16 +6386,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-46875.70156402004</v>
+        <v>504.0861529061305</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-186625.933494698</v>
+        <v>-228144.2700660945</v>
       </c>
       <c r="E10" t="n">
-        <v>-233501.635058718</v>
+        <v>-227640.1839131884</v>
       </c>
     </row>
     <row r="11">
@@ -6403,16 +6403,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-37895.68210731122</v>
+        <v>-1023.447643779121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-223873.31146435</v>
+        <v>-226723.6396583536</v>
       </c>
       <c r="E11" t="n">
-        <v>-261768.9935716612</v>
+        <v>-227747.0873021327</v>
       </c>
     </row>
     <row r="12">
@@ -6420,16 +6420,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-28915.6626506024</v>
+        <v>-2550.981440464373</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-247007.0227999142</v>
+        <v>-208911.1760198575</v>
       </c>
       <c r="E12" t="n">
-        <v>-275922.6854505166</v>
+        <v>-211462.1574603219</v>
       </c>
     </row>
     <row r="13">
@@ -6437,16 +6437,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-19935.64319389357</v>
+        <v>-4078.515237149625</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-254221.2676311372</v>
+        <v>-174451.9229319238</v>
       </c>
       <c r="E13" t="n">
-        <v>-274156.9108250308</v>
+        <v>-178530.4381690734</v>
       </c>
     </row>
     <row r="14">
@@ -6454,16 +6454,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-10955.62373718475</v>
+        <v>-5606.049033834877</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-244426.128033831</v>
+        <v>-123571.6715562498</v>
       </c>
       <c r="E14" t="n">
-        <v>-255381.7517710158</v>
+        <v>-129177.7205900846</v>
       </c>
     </row>
     <row r="15">
@@ -6471,16 +6471,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-1975.604280475931</v>
+        <v>-7133.582830520128</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-217381.3608122938</v>
+        <v>-56929.07836874922</v>
       </c>
       <c r="E15" t="n">
-        <v>-219356.9650927697</v>
+        <v>-64062.66119926935</v>
       </c>
     </row>
     <row r="16">
@@ -6488,16 +6488,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>7004.415176232892</v>
+        <v>-8661.11662720538</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-173773.8049787078</v>
+        <v>24444.84972052163</v>
       </c>
       <c r="E16" t="n">
-        <v>-166769.3898024749</v>
+        <v>15783.73309331625</v>
       </c>
     </row>
     <row r="17">
@@ -6505,16 +6505,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>15984.43463294171</v>
+        <v>-10188.65042389063</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-115246.2933894146</v>
+        <v>119220.1706933406</v>
       </c>
       <c r="E17" t="n">
-        <v>-99261.85875647291</v>
+        <v>109031.5202694499</v>
       </c>
     </row>
     <row r="18">
@@ -6522,16 +6522,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>24964.45408965054</v>
+        <v>-11716.18422057588</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-44376.52254549036</v>
+        <v>225854.7562736971</v>
       </c>
       <c r="E18" t="n">
-        <v>-19412.06845583982</v>
+        <v>214138.5720531212</v>
       </c>
     </row>
     <row r="19">
@@ -6539,16 +6539,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>33944.47354635936</v>
+        <v>-13243.71801726114</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35404.24529304024</v>
+        <v>342690.8038581067</v>
       </c>
       <c r="E19" t="n">
-        <v>69348.7188393996</v>
+        <v>329447.0858408456</v>
       </c>
     </row>
     <row r="20">
@@ -6556,16 +6556,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>42924.49300306818</v>
+        <v>-14771.25181394639</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>119964.0355982489</v>
+        <v>468052.8702120162</v>
       </c>
       <c r="E20" t="n">
-        <v>162888.5286013171</v>
+        <v>453281.6183980698</v>
       </c>
     </row>
     <row r="21">
@@ -6573,16 +6573,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>51904.512459777</v>
+        <v>-16298.78561063164</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>204698.1014024188</v>
+        <v>600336.8603731762</v>
       </c>
       <c r="E21" t="n">
-        <v>256602.6138621958</v>
+        <v>584038.0747625445</v>
       </c>
     </row>
     <row r="22">
@@ -6590,16 +6590,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>60884.53191648582</v>
+        <v>-17826.31940731689</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>284820.9579985779</v>
+        <v>738080.5261972756</v>
       </c>
       <c r="E22" t="n">
-        <v>345705.4899150637</v>
+        <v>720254.2067899588</v>
       </c>
     </row>
     <row r="23">
@@ -6607,16 +6607,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>69864.55137319464</v>
+        <v>-19353.85320400214</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>355695.4140653659</v>
+        <v>880009.8267883994</v>
       </c>
       <c r="E23" t="n">
-        <v>425559.9654385606</v>
+        <v>860655.9735843972</v>
       </c>
     </row>
     <row r="24">
@@ -6624,16 +6624,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>78844.57082990347</v>
+        <v>-20881.38700068739</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>413159.457683985</v>
+        <v>1025060.267051839</v>
       </c>
       <c r="E24" t="n">
-        <v>492004.0285138885</v>
+        <v>1004178.880051152</v>
       </c>
     </row>
     <row r="25">
@@ -6641,16 +6641,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>87824.59028661229</v>
+        <v>-22408.92079737265</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>453808.1198149744</v>
+        <v>1172376.429439188</v>
       </c>
       <c r="E25" t="n">
-        <v>541632.7101015867</v>
+        <v>1149967.508641816</v>
       </c>
     </row>
     <row r="26">
@@ -6658,16 +6658,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>96804.60974332111</v>
+        <v>-23936.4545940579</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>475193.4719955765</v>
+        <v>1321295.402728262</v>
       </c>
       <c r="E26" t="n">
-        <v>571998.0817388976</v>
+        <v>1297358.948134204</v>
       </c>
     </row>
     <row r="27">
@@ -6675,16 +6675,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>105784.6292000299</v>
+        <v>-25463.98839074315</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>475920.0665662671</v>
+        <v>1471320.531806813</v>
       </c>
       <c r="E27" t="n">
-        <v>581704.6957662971</v>
+        <v>1445856.54341607</v>
       </c>
     </row>
     <row r="28">
@@ -6692,16 +6692,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>114764.6486567387</v>
+        <v>-26991.5221874284</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>455631.4159835944</v>
+        <v>1622091.257191597</v>
       </c>
       <c r="E28" t="n">
-        <v>570396.0646403332</v>
+        <v>1595099.735004169</v>
       </c>
     </row>
     <row r="29">
@@ -6709,16 +6709,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>123744.6681134476</v>
+        <v>-28519.05598411365</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>414900.7468300277</v>
+        <v>1773353.394832262</v>
       </c>
       <c r="E29" t="n">
-        <v>538645.4149434753</v>
+        <v>1744834.338848148</v>
       </c>
     </row>
     <row r="30">
@@ -6726,16 +6726,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>132724.6875701564</v>
+        <v>-30046.5897807989</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>355052.253811919</v>
+        <v>1924932.592387944</v>
       </c>
       <c r="E30" t="n">
-        <v>487776.9413820754</v>
+        <v>1894886.002607145</v>
       </c>
     </row>
     <row r="31">
@@ -6743,16 +6743,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>141704.7070268652</v>
+        <v>-31574.12357748416</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>277945.2644215822</v>
+        <v>2076712.273410394</v>
       </c>
       <c r="E31" t="n">
-        <v>419649.9714484474</v>
+        <v>2045138.14983291</v>
       </c>
     </row>
     <row r="32">
@@ -6760,16 +6760,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>150684.726483574</v>
+        <v>-33101.65737416941</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>185753.0509481205</v>
+        <v>2228616.329215603</v>
       </c>
       <c r="E32" t="n">
-        <v>336437.7774316946</v>
+        <v>2195514.671841434</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>159664.7459402829</v>
+        <v>-34629.19117085466</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>80762.08547687586</v>
+        <v>2380596.166023717</v>
       </c>
       <c r="E33" t="n">
-        <v>240426.8314171587</v>
+        <v>2345966.974852862</v>
       </c>
     </row>
     <row r="34">
@@ -6794,16 +6794,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>168644.7653969917</v>
+        <v>-36156.72496753991</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-34791.26142214688</v>
+        <v>2532621.397158013</v>
       </c>
       <c r="E34" t="n">
-        <v>133853.5039748448</v>
+        <v>2496464.672190473</v>
       </c>
     </row>
     <row r="35">
@@ -6811,16 +6811,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>177624.7848537005</v>
+        <v>-37684.25876422516</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-158838.8237751769</v>
+        <v>2684673.38763047</v>
       </c>
       <c r="E35" t="n">
-        <v>18785.96107852366</v>
+        <v>2646989.128866245</v>
       </c>
     </row>
     <row r="36">
@@ -6828,16 +6828,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>186604.8043104093</v>
+        <v>-39211.79256091041</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-289553.6757523284</v>
+        <v>2836740.91560482</v>
       </c>
       <c r="E36" t="n">
-        <v>-102948.871441919</v>
+        <v>2797529.12304391</v>
       </c>
     </row>
   </sheetData>

--- a/CCA PnL Output.xlsx
+++ b/CCA PnL Output.xlsx
@@ -481,16 +481,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>128916.2380855028</v>
+        <v>129698.1893899196</v>
       </c>
       <c r="E2" t="n">
-        <v>291705.9092397733</v>
+        <v>292847.9350214171</v>
       </c>
     </row>
     <row r="3">
@@ -498,16 +498,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>73755.63432908928</v>
+        <v>74415.57589283727</v>
       </c>
       <c r="E3" t="n">
-        <v>218889.1589373435</v>
+        <v>219870.1213473827</v>
       </c>
     </row>
     <row r="4">
@@ -515,16 +515,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31324.35094808405</v>
+        <v>31890.43875518307</v>
       </c>
       <c r="E4" t="n">
-        <v>158801.729010322</v>
+        <v>159649.7840327765</v>
       </c>
     </row>
     <row r="5">
@@ -532,16 +532,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2371.063129758202</v>
+        <v>2873.109158891445</v>
       </c>
       <c r="E5" t="n">
-        <v>112192.2946459798</v>
+        <v>112937.2542595329</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-15019.08786654343</v>
+        <v>-14555.50711278356</v>
       </c>
       <c r="E6" t="n">
-        <v>77145.99710366181</v>
+        <v>77813.43781090587</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-24204.11906251522</v>
+        <v>-23760.85467946088</v>
       </c>
       <c r="E7" t="n">
-        <v>50304.81936167368</v>
+        <v>50912.89006727654</v>
       </c>
     </row>
     <row r="8">
@@ -583,16 +583,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-28484.70562711337</v>
+        <v>-28050.90947357595</v>
       </c>
       <c r="E8" t="n">
-        <v>28368.0862510592</v>
+        <v>28927.63509620947</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30255.34824705917</v>
+        <v>-29825.46857797197</v>
       </c>
       <c r="E9" t="n">
-        <v>8941.297085097071</v>
+        <v>9457.875814861458</v>
       </c>
     </row>
     <row r="10">
@@ -617,16 +617,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30910.08704922854</v>
+        <v>-30481.65559691234</v>
       </c>
       <c r="E10" t="n">
-        <v>-9369.588263088637</v>
+        <v>-8893.511381030923</v>
       </c>
     </row>
     <row r="11">
@@ -634,16 +634,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-31128.17358621115</v>
+        <v>-30700.22451951092</v>
       </c>
       <c r="E11" t="n">
-        <v>-27243.82134608757</v>
+        <v>-26807.2804805815</v>
       </c>
     </row>
     <row r="12">
@@ -651,16 +651,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31194.11201527792</v>
+        <v>-30766.30879779041</v>
       </c>
       <c r="E12" t="n">
-        <v>-44965.90632117068</v>
+        <v>-44568.56493581299</v>
       </c>
     </row>
     <row r="13">
@@ -668,16 +668,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-31212.34348795514</v>
+        <v>-30784.58059666244</v>
       </c>
       <c r="E13" t="n">
-        <v>-62640.28433986423</v>
+        <v>-62282.03691163703</v>
       </c>
     </row>
     <row r="14">
@@ -685,16 +685,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-31216.98588358038</v>
+        <v>-30789.23326080267</v>
       </c>
       <c r="E14" t="n">
-        <v>-80301.0732815058</v>
+        <v>-79981.88975272926</v>
       </c>
     </row>
     <row r="15">
@@ -702,16 +702,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-31218.0817931763</v>
+        <v>-30790.33159444105</v>
       </c>
       <c r="E15" t="n">
-        <v>-97958.31573711806</v>
+        <v>-97678.18826331964</v>
       </c>
     </row>
     <row r="16">
@@ -719,16 +719,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-31218.32311461514</v>
+        <v>-30790.57344965879</v>
       </c>
       <c r="E16" t="n">
-        <v>-115614.7036045732</v>
+        <v>-115373.6302954894</v>
       </c>
     </row>
     <row r="17">
@@ -736,16 +736,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-31218.37296686118</v>
+        <v>-30790.62341217301</v>
       </c>
       <c r="E17" t="n">
-        <v>-133270.9000028356</v>
+        <v>-133068.8804349556</v>
       </c>
     </row>
     <row r="18">
@@ -753,16 +753,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-31218.38267934143</v>
+        <v>-30790.6331461363</v>
       </c>
       <c r="E18" t="n">
-        <v>-150927.0562613322</v>
+        <v>-150764.0903458709</v>
       </c>
     </row>
     <row r="19">
@@ -770,16 +770,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-31218.38447259405</v>
+        <v>-30790.63494335541</v>
       </c>
       <c r="E19" t="n">
-        <v>-168583.2046006011</v>
+        <v>-168459.292320042</v>
       </c>
     </row>
     <row r="20">
@@ -787,16 +787,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-31218.38478777527</v>
+        <v>-30790.63525923378</v>
       </c>
       <c r="E20" t="n">
-        <v>-186239.3514617987</v>
+        <v>-186154.4928128724</v>
       </c>
     </row>
     <row r="21">
@@ -804,16 +804,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-31218.38484072613</v>
+        <v>-30790.63531230177</v>
       </c>
       <c r="E21" t="n">
-        <v>-203895.4980607659</v>
+        <v>-203849.6930428924</v>
       </c>
     </row>
     <row r="22">
@@ -821,16 +821,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-31218.3848492615</v>
+        <v>-30790.63532085602</v>
       </c>
       <c r="E22" t="n">
-        <v>-221551.6446153176</v>
+        <v>-221544.8932283986</v>
       </c>
     </row>
     <row r="23">
@@ -838,16 +838,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-31218.38485058622</v>
+        <v>-30790.63532218366</v>
       </c>
       <c r="E23" t="n">
-        <v>-239207.7911626586</v>
+        <v>-239240.0934066782</v>
       </c>
     </row>
     <row r="24">
@@ -855,16 +855,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-31218.38485078481</v>
+        <v>-30790.63532238269</v>
       </c>
       <c r="E24" t="n">
-        <v>-256863.9377088736</v>
+        <v>-256935.2935838293</v>
       </c>
     </row>
     <row r="25">
@@ -872,16 +872,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-31218.38485081365</v>
+        <v>-30790.6353224116</v>
       </c>
       <c r="E25" t="n">
-        <v>-274520.0842549187</v>
+        <v>-274630.4937608102</v>
       </c>
     </row>
     <row r="26">
@@ -889,16 +889,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-31218.38485081772</v>
+        <v>-30790.63532241568</v>
       </c>
       <c r="E26" t="n">
-        <v>-292176.2308009391</v>
+        <v>-292325.6939377662</v>
       </c>
     </row>
     <row r="27">
@@ -906,16 +906,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-31218.38485081828</v>
+        <v>-30790.63532241623</v>
       </c>
       <c r="E27" t="n">
-        <v>-309832.377346956</v>
+        <v>-310020.8941147188</v>
       </c>
     </row>
     <row r="28">
@@ -923,16 +923,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-31218.38485081835</v>
+        <v>-30790.63532241631</v>
       </c>
       <c r="E28" t="n">
-        <v>-327488.5238929724</v>
+        <v>-327716.0942916709</v>
       </c>
     </row>
     <row r="29">
@@ -940,16 +940,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E29" t="n">
-        <v>-345144.6704389888</v>
+        <v>-345411.2944686229</v>
       </c>
     </row>
     <row r="30">
@@ -957,16 +957,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E30" t="n">
-        <v>-362800.8169850051</v>
+        <v>-363106.4946455749</v>
       </c>
     </row>
     <row r="31">
@@ -974,16 +974,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E31" t="n">
-        <v>-380456.9635310214</v>
+        <v>-380801.6948225269</v>
       </c>
     </row>
     <row r="32">
@@ -991,16 +991,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E32" t="n">
-        <v>-398113.1100770378</v>
+        <v>-398496.8949994789</v>
       </c>
     </row>
     <row r="33">
@@ -1008,16 +1008,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E33" t="n">
-        <v>-415769.2566230541</v>
+        <v>-416192.0951764309</v>
       </c>
     </row>
     <row r="34">
@@ -1025,16 +1025,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E34" t="n">
-        <v>-433425.4031690704</v>
+        <v>-433887.2953533829</v>
       </c>
     </row>
     <row r="35">
@@ -1042,16 +1042,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E35" t="n">
-        <v>-451081.5497150868</v>
+        <v>-451582.4955303349</v>
       </c>
     </row>
     <row r="36">
@@ -1059,16 +1059,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E36" t="n">
-        <v>-468737.6962611031</v>
+        <v>-469277.6957072869</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1122,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>115916.1696993177</v>
+        <v>116669.3661521837</v>
       </c>
       <c r="E2" t="n">
-        <v>278705.8408535883</v>
+        <v>279819.1117836811</v>
       </c>
     </row>
     <row r="3">
@@ -1139,16 +1139,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42348.89242424969</v>
+        <v>42939.36541488369</v>
       </c>
       <c r="E3" t="n">
-        <v>187482.4170325039</v>
+        <v>188393.9108694291</v>
       </c>
     </row>
     <row r="4">
@@ -1156,16 +1156,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E4" t="n">
-        <v>96258.99321141953</v>
+        <v>96968.70995517711</v>
       </c>
     </row>
     <row r="5">
@@ -1173,16 +1173,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E5" t="n">
-        <v>78602.84666540319</v>
+        <v>79273.50977822511</v>
       </c>
     </row>
     <row r="6">
@@ -1190,16 +1190,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E6" t="n">
-        <v>60946.70011938687</v>
+        <v>61578.30960127311</v>
       </c>
     </row>
     <row r="7">
@@ -1207,16 +1207,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E7" t="n">
-        <v>43290.55357337054</v>
+        <v>43883.10942432111</v>
       </c>
     </row>
     <row r="8">
@@ -1224,16 +1224,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E8" t="n">
-        <v>25634.40702735421</v>
+        <v>26187.9092473691</v>
       </c>
     </row>
     <row r="9">
@@ -1241,16 +1241,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E9" t="n">
-        <v>7978.260481337871</v>
+        <v>8492.709070417102</v>
       </c>
     </row>
     <row r="10">
@@ -1258,16 +1258,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E10" t="n">
-        <v>-9677.88606467846</v>
+        <v>-9202.491106534901</v>
       </c>
     </row>
     <row r="11">
@@ -1275,16 +1275,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E11" t="n">
-        <v>-27334.03261069479</v>
+        <v>-26897.6912834869</v>
       </c>
     </row>
     <row r="12">
@@ -1292,16 +1292,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E12" t="n">
-        <v>-44990.17915671113</v>
+        <v>-44592.8914604389</v>
       </c>
     </row>
     <row r="13">
@@ -1309,16 +1309,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E13" t="n">
-        <v>-62646.32570272746</v>
+        <v>-62288.09163739091</v>
       </c>
     </row>
     <row r="14">
@@ -1326,16 +1326,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E14" t="n">
-        <v>-80302.47224874378</v>
+        <v>-79983.29181434291</v>
       </c>
     </row>
     <row r="15">
@@ -1343,16 +1343,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E15" t="n">
-        <v>-97958.61879476011</v>
+        <v>-97678.4919912949</v>
       </c>
     </row>
     <row r="16">
@@ -1360,16 +1360,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E16" t="n">
-        <v>-115614.7653407765</v>
+        <v>-115373.6921682469</v>
       </c>
     </row>
     <row r="17">
@@ -1377,16 +1377,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E17" t="n">
-        <v>-133270.9118867928</v>
+        <v>-133068.8923451989</v>
       </c>
     </row>
     <row r="18">
@@ -1394,16 +1394,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E18" t="n">
-        <v>-150927.0584328091</v>
+        <v>-150764.0925221509</v>
       </c>
     </row>
     <row r="19">
@@ -1411,16 +1411,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E19" t="n">
-        <v>-168583.2049788255</v>
+        <v>-168459.2926991029</v>
       </c>
     </row>
     <row r="20">
@@ -1428,16 +1428,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E20" t="n">
-        <v>-186239.3515248418</v>
+        <v>-186154.4928760549</v>
       </c>
     </row>
     <row r="21">
@@ -1445,16 +1445,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E21" t="n">
-        <v>-203895.4980708581</v>
+        <v>-203849.6930530069</v>
       </c>
     </row>
     <row r="22">
@@ -1462,16 +1462,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E22" t="n">
-        <v>-221551.6446168745</v>
+        <v>-221544.8932299589</v>
       </c>
     </row>
     <row r="23">
@@ -1479,16 +1479,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E23" t="n">
-        <v>-239207.7911628908</v>
+        <v>-239240.0934069109</v>
       </c>
     </row>
     <row r="24">
@@ -1496,16 +1496,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E24" t="n">
-        <v>-256863.9377089071</v>
+        <v>-256935.2935838629</v>
       </c>
     </row>
     <row r="25">
@@ -1513,16 +1513,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E25" t="n">
-        <v>-274520.0842549235</v>
+        <v>-274630.4937608149</v>
       </c>
     </row>
     <row r="26">
@@ -1530,16 +1530,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E26" t="n">
-        <v>-292176.2308009398</v>
+        <v>-292325.6939377669</v>
       </c>
     </row>
     <row r="27">
@@ -1547,16 +1547,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E27" t="n">
-        <v>-309832.3773469561</v>
+        <v>-310020.8941147189</v>
       </c>
     </row>
     <row r="28">
@@ -1564,16 +1564,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E28" t="n">
-        <v>-327488.5238929724</v>
+        <v>-327716.0942916709</v>
       </c>
     </row>
     <row r="29">
@@ -1581,16 +1581,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E29" t="n">
-        <v>-345144.6704389888</v>
+        <v>-345411.2944686229</v>
       </c>
     </row>
     <row r="30">
@@ -1598,16 +1598,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E30" t="n">
-        <v>-362800.8169850051</v>
+        <v>-363106.4946455749</v>
       </c>
     </row>
     <row r="31">
@@ -1615,16 +1615,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E31" t="n">
-        <v>-380456.9635310214</v>
+        <v>-380801.6948225269</v>
       </c>
     </row>
     <row r="32">
@@ -1632,16 +1632,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E32" t="n">
-        <v>-398113.1100770378</v>
+        <v>-398496.8949994789</v>
       </c>
     </row>
     <row r="33">
@@ -1649,16 +1649,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E33" t="n">
-        <v>-415769.2566230541</v>
+        <v>-416192.0951764309</v>
       </c>
     </row>
     <row r="34">
@@ -1666,16 +1666,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E34" t="n">
-        <v>-433425.4031690704</v>
+        <v>-433887.2953533829</v>
       </c>
     </row>
     <row r="35">
@@ -1683,16 +1683,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E35" t="n">
-        <v>-451081.5497150868</v>
+        <v>-451582.4955303349</v>
       </c>
     </row>
     <row r="36">
@@ -1700,16 +1700,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31218.38485081837</v>
+        <v>-30790.63532241632</v>
       </c>
       <c r="E36" t="n">
-        <v>-468737.6962611031</v>
+        <v>-469277.6957072869</v>
       </c>
     </row>
   </sheetData>
@@ -1763,16 +1763,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212502.7590203956</v>
+        <v>212803.1836108745</v>
       </c>
       <c r="E2" t="n">
-        <v>375292.4301746661</v>
+        <v>375952.9292423719</v>
       </c>
     </row>
     <row r="3">
@@ -1780,16 +1780,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171430.7180580937</v>
+        <v>171586.7333705219</v>
       </c>
       <c r="E3" t="n">
-        <v>316564.2426663479</v>
+        <v>317041.2788250674</v>
       </c>
     </row>
     <row r="4">
@@ -1797,16 +1797,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135572.9901328025</v>
+        <v>135620.1455240953</v>
       </c>
       <c r="E4" t="n">
-        <v>263050.3681950404</v>
+        <v>263379.4908016887</v>
       </c>
     </row>
     <row r="5">
@@ -1814,16 +1814,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104722.8876302334</v>
+        <v>104696.0754378371</v>
       </c>
       <c r="E5" t="n">
-        <v>214544.119146455</v>
+        <v>214760.2205384785</v>
       </c>
     </row>
     <row r="6">
@@ -1831,16 +1831,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>78548.60356080916</v>
+        <v>78479.79774335033</v>
       </c>
       <c r="E6" t="n">
-        <v>170713.6885310144</v>
+        <v>170848.7426670397</v>
       </c>
     </row>
     <row r="7">
@@ -1848,16 +1848,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56631.91986604346</v>
+        <v>56548.61309897248</v>
       </c>
       <c r="E7" t="n">
-        <v>131140.8582902324</v>
+        <v>131222.3578457099</v>
       </c>
     </row>
     <row r="8">
@@ -1865,16 +1865,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>38505.63950652516</v>
+        <v>38430.00865895142</v>
       </c>
       <c r="E8" t="n">
-        <v>95358.43138469773</v>
+        <v>95408.55322873684</v>
       </c>
     </row>
     <row r="9">
@@ -1882,16 +1882,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>23686.2180015644</v>
+        <v>23634.93361680385</v>
       </c>
       <c r="E9" t="n">
-        <v>62882.86333372063</v>
+        <v>62918.27800963727</v>
       </c>
     </row>
     <row r="10">
@@ -1899,16 +1899,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11699.7267457783</v>
+        <v>11684.25847547741</v>
       </c>
       <c r="E10" t="n">
-        <v>33240.22553191821</v>
+        <v>33272.40269135882</v>
       </c>
     </row>
     <row r="11">
@@ -1916,16 +1916,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2100.641673298126</v>
+        <v>2127.892089636776</v>
       </c>
       <c r="E11" t="n">
-        <v>5984.993913421698</v>
+        <v>6020.836128566196</v>
       </c>
     </row>
     <row r="12">
@@ -1933,16 +1933,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5516.092192306286</v>
+        <v>-5442.981125806215</v>
       </c>
       <c r="E12" t="n">
-        <v>-19287.88649819905</v>
+        <v>-19245.2372638288</v>
       </c>
     </row>
     <row r="13">
@@ -1950,16 +1950,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-11508.70953403331</v>
+        <v>-11389.50344895691</v>
       </c>
       <c r="E13" t="n">
-        <v>-42936.6503859424</v>
+        <v>-42886.9597639315</v>
       </c>
     </row>
     <row r="14">
@@ -1967,16 +1967,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16186.74098662762</v>
+        <v>-16023.30365578502</v>
       </c>
       <c r="E14" t="n">
-        <v>-65270.82838455304</v>
+        <v>-65215.96014771161</v>
       </c>
     </row>
     <row r="15">
@@ -1984,16 +1984,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-19812.34661809365</v>
+        <v>-19607.92956229773</v>
       </c>
       <c r="E15" t="n">
-        <v>-86552.58056203541</v>
+        <v>-86495.78623117632</v>
       </c>
     </row>
     <row r="16">
@@ -2001,16 +2001,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-22603.7526203804</v>
+        <v>-22362.41046628358</v>
       </c>
       <c r="E16" t="n">
-        <v>-107000.1331103385</v>
+        <v>-106945.4673121142</v>
       </c>
     </row>
     <row r="17">
@@ -2018,16 +2018,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-24739.88095291728</v>
+        <v>-24466.01787451869</v>
       </c>
       <c r="E17" t="n">
-        <v>-126792.4079888917</v>
+        <v>-126744.2748973013</v>
       </c>
     </row>
     <row r="18">
@@ -2035,16 +2035,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26365.4814763978</v>
+        <v>-26063.52000216941</v>
       </c>
       <c r="E18" t="n">
-        <v>-146074.1550583886</v>
+        <v>-146036.977201904</v>
       </c>
     </row>
     <row r="19">
@@ -2052,16 +2052,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-27596.28010520109</v>
+        <v>-27270.43569540449</v>
       </c>
       <c r="E19" t="n">
-        <v>-164961.1002332082</v>
+        <v>-164939.0930720911</v>
       </c>
     </row>
     <row r="20">
@@ -2069,16 +2069,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28523.82845647217</v>
+        <v>-28177.97004222267</v>
       </c>
       <c r="E20" t="n">
-        <v>-183544.7951304956</v>
+        <v>-183541.8275958613</v>
       </c>
     </row>
     <row r="21">
@@ -2086,16 +2086,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-29219.87503664836</v>
+        <v>-28857.45167190157</v>
       </c>
       <c r="E21" t="n">
-        <v>-201896.9882566881</v>
+        <v>-201916.5094024922</v>
       </c>
     </row>
     <row r="22">
@@ -2103,16 +2103,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29740.17656711892</v>
+        <v>-29364.19221010505</v>
       </c>
       <c r="E22" t="n">
-        <v>-220073.436333175</v>
+        <v>-220118.4501176476</v>
       </c>
     </row>
     <row r="23">
@@ -2120,16 +2120,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30127.73552242379</v>
+        <v>-29740.75676852976</v>
       </c>
       <c r="E23" t="n">
-        <v>-238117.1418344962</v>
+        <v>-238190.2148530243</v>
       </c>
     </row>
     <row r="24">
@@ -2137,16 +2137,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30415.49257495999</v>
+        <v>-30019.67724016027</v>
       </c>
       <c r="E24" t="n">
-        <v>-256061.0454330487</v>
+        <v>-256164.3355016068</v>
       </c>
     </row>
     <row r="25">
@@ -2154,16 +2154,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30628.52662044159</v>
+        <v>-30225.66400652037</v>
       </c>
       <c r="E25" t="n">
-        <v>-273930.2260245467</v>
+        <v>-274065.5224449189</v>
       </c>
     </row>
     <row r="26">
@@ -2171,16 +2171,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30785.82586584689</v>
+        <v>-30377.38210160441</v>
       </c>
       <c r="E26" t="n">
-        <v>-291743.6718159683</v>
+        <v>-291912.440716955</v>
       </c>
     </row>
     <row r="27">
@@ -2188,16 +2188,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30901.69553341374</v>
+        <v>-30488.8594899244</v>
       </c>
       <c r="E27" t="n">
-        <v>-309515.6880295515</v>
+        <v>-309719.118282227</v>
       </c>
     </row>
     <row r="28">
@@ -2205,16 +2205,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30986.86445125188</v>
+        <v>-30570.59136962962</v>
       </c>
       <c r="E28" t="n">
-        <v>-327257.0034934059</v>
+        <v>-327496.0503388842</v>
       </c>
     </row>
     <row r="29">
@@ -2222,16 +2222,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-31049.34660022529</v>
+        <v>-30630.39779111159</v>
       </c>
       <c r="E29" t="n">
-        <v>-344975.6321883957</v>
+        <v>-345251.0569373182</v>
       </c>
     </row>
     <row r="30">
@@ -2239,16 +2239,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-31095.10623043925</v>
+        <v>-30674.08407162597</v>
       </c>
       <c r="E30" t="n">
-        <v>-362677.538364626</v>
+        <v>-362989.9433947845</v>
       </c>
     </row>
     <row r="31">
@@ -2256,16 +2256,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-31128.56751515906</v>
+        <v>-30705.94555888272</v>
       </c>
       <c r="E31" t="n">
-        <v>-380367.1461953621</v>
+        <v>-380717.0050589933</v>
       </c>
     </row>
     <row r="32">
@@ -2273,16 +2273,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-31153.00250609047</v>
+        <v>-30729.15087775237</v>
       </c>
       <c r="E32" t="n">
-        <v>-398047.7277323098</v>
+        <v>-398435.410554815</v>
       </c>
     </row>
     <row r="33">
@@ -2290,16 +2290,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31170.82472002259</v>
+        <v>-30746.03120340574</v>
       </c>
       <c r="E33" t="n">
-        <v>-415721.6964922583</v>
+        <v>-416147.4910574203</v>
       </c>
     </row>
     <row r="34">
@@ -2307,16 +2307,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31183.8101518907</v>
+        <v>-30758.29745956477</v>
       </c>
       <c r="E34" t="n">
-        <v>-433390.8284701427</v>
+        <v>-433854.9574905313</v>
       </c>
     </row>
     <row r="35">
@@ -2324,16 +2324,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31193.26287898071</v>
+        <v>-30767.2026371454</v>
       </c>
       <c r="E35" t="n">
-        <v>-451056.4277432491</v>
+        <v>-451559.062845064</v>
       </c>
     </row>
     <row r="36">
@@ -2341,16 +2341,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31200.13863086262</v>
+        <v>-30773.6625926671</v>
       </c>
       <c r="E36" t="n">
-        <v>-468719.4500411474</v>
+        <v>-469260.7229775377</v>
       </c>
     </row>
   </sheetData>
@@ -2404,16 +2404,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>210499.0766747139</v>
+        <v>211461.4810616108</v>
       </c>
       <c r="E2" t="n">
-        <v>373288.7478289844</v>
+        <v>374611.2266931082</v>
       </c>
     </row>
     <row r="3">
@@ -2421,16 +2421,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>169265.0275038067</v>
+        <v>170136.2262964304</v>
       </c>
       <c r="E3" t="n">
-        <v>314398.5521120609</v>
+        <v>315590.7717509758</v>
       </c>
     </row>
     <row r="4">
@@ -2438,16 +2438,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133318.1435298217</v>
+        <v>134109.8314089882</v>
       </c>
       <c r="E4" t="n">
-        <v>260795.5215920596</v>
+        <v>261869.1766865816</v>
       </c>
     </row>
     <row r="5">
@@ -2455,16 +2455,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>102451.1647211757</v>
+        <v>103174.5779292326</v>
       </c>
       <c r="E5" t="n">
-        <v>212272.3962373972</v>
+        <v>213238.723029874</v>
       </c>
     </row>
     <row r="6">
@@ -2472,16 +2472,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>76325.62795180261</v>
+        <v>76991.25408450153</v>
       </c>
       <c r="E6" t="n">
-        <v>168490.7129220078</v>
+        <v>169360.1990081909</v>
       </c>
     </row>
     <row r="7">
@@ -2489,16 +2489,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>54512.45641486571</v>
+        <v>55129.8339929596</v>
       </c>
       <c r="E7" t="n">
-        <v>129021.3948390546</v>
+        <v>129803.578739697</v>
       </c>
     </row>
     <row r="8">
@@ -2506,16 +2506,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>36531.37673042409</v>
+        <v>37108.98195796624</v>
       </c>
       <c r="E8" t="n">
-        <v>93384.16860859666</v>
+        <v>94087.52652775166</v>
       </c>
     </row>
     <row r="9">
@@ -2523,16 +2523,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>21885.30849133034</v>
+        <v>22430.51808021047</v>
       </c>
       <c r="E9" t="n">
-        <v>61081.95382348658</v>
+        <v>61713.8624730439</v>
       </c>
     </row>
     <row r="10">
@@ -2540,16 +2540,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>10087.67360711374</v>
+        <v>10606.78800713253</v>
       </c>
       <c r="E10" t="n">
-        <v>31628.17239325365</v>
+        <v>32194.93222301395</v>
       </c>
     </row>
     <row r="11">
@@ -2557,16 +2557,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>682.0621107678641</v>
+        <v>1180.372238509844</v>
       </c>
       <c r="E11" t="n">
-        <v>4566.414350891438</v>
+        <v>5073.316277439264</v>
       </c>
     </row>
     <row r="12">
@@ -2574,16 +2574,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6745.260881639835</v>
+        <v>-6263.379249789046</v>
       </c>
       <c r="E12" t="n">
-        <v>-20517.0551875326</v>
+        <v>-20065.63538781163</v>
       </c>
     </row>
     <row r="13">
@@ -2591,16 +2591,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-12558.91092860316</v>
+        <v>-12089.88850941984</v>
       </c>
       <c r="E13" t="n">
-        <v>-43986.85178051225</v>
+        <v>-43587.34482439443</v>
       </c>
     </row>
     <row r="14">
@@ -2608,16 +2608,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-17072.65342381982</v>
+        <v>-16613.61495176151</v>
       </c>
       <c r="E14" t="n">
-        <v>-66156.74082174525</v>
+        <v>-65806.27144368809</v>
       </c>
     </row>
     <row r="15">
@@ -2625,16 +2625,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-20551.03724483896</v>
+        <v>-20099.6926100313</v>
       </c>
       <c r="E15" t="n">
-        <v>-87291.27118878071</v>
+        <v>-86987.54927890988</v>
       </c>
     </row>
     <row r="16">
@@ -2642,16 +2642,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-23213.19747464559</v>
+        <v>-22767.74127210912</v>
       </c>
       <c r="E16" t="n">
-        <v>-107609.5779646037</v>
+        <v>-107350.7981179397</v>
       </c>
     </row>
     <row r="17">
@@ -2659,16 +2659,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-25237.85746926413</v>
+        <v>-24796.87961221455</v>
       </c>
       <c r="E17" t="n">
-        <v>-127290.3845052386</v>
+        <v>-127075.1366349972</v>
       </c>
     </row>
     <row r="18">
@@ -2676,16 +2676,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26768.80158305347</v>
+        <v>-26331.21002132304</v>
       </c>
       <c r="E18" t="n">
-        <v>-146477.4751650442</v>
+        <v>-146304.6672210576</v>
       </c>
     </row>
     <row r="19">
@@ -2693,16 +2693,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-27920.31159108112</v>
+        <v>-27485.26705436291</v>
       </c>
       <c r="E19" t="n">
-        <v>-165285.1317190882</v>
+        <v>-165153.9244310495</v>
       </c>
     </row>
     <row r="20">
@@ -2710,16 +2710,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28782.24500303291</v>
+        <v>-28349.10697684767</v>
       </c>
       <c r="E20" t="n">
-        <v>-183803.2116770563</v>
+        <v>-183712.9645304863</v>
       </c>
     </row>
     <row r="21">
@@ -2727,16 +2727,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-29424.57682282135</v>
+        <v>-28992.8595704025</v>
       </c>
       <c r="E21" t="n">
-        <v>-202101.6900428611</v>
+        <v>-202051.9173009931</v>
       </c>
     </row>
     <row r="22">
@@ -2744,16 +2744,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29901.32997365326</v>
+        <v>-29470.66725153928</v>
       </c>
       <c r="E22" t="n">
-        <v>-220234.5897397093</v>
+        <v>-220224.9251590819</v>
       </c>
     </row>
     <row r="23">
@@ -2761,16 +2761,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30253.88941339425</v>
+        <v>-29824.00651751284</v>
       </c>
       <c r="E23" t="n">
-        <v>-238243.2957254667</v>
+        <v>-238273.4646020074</v>
       </c>
     </row>
     <row r="24">
@@ -2778,16 +2778,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30513.73803780348</v>
+        <v>-30084.42990110015</v>
       </c>
       <c r="E24" t="n">
-        <v>-256159.2908958922</v>
+        <v>-256229.0881625467</v>
       </c>
     </row>
     <row r="25">
@@ -2795,16 +2795,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30704.67576338652</v>
+        <v>-30275.78996184262</v>
       </c>
       <c r="E25" t="n">
-        <v>-274006.3751674916</v>
+        <v>-274115.6484002412</v>
       </c>
     </row>
     <row r="26">
@@ -2812,16 +2812,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30844.59272300117</v>
+        <v>-30416.01640378333</v>
       </c>
       <c r="E26" t="n">
-        <v>-291802.4386731226</v>
+        <v>-291951.0750191339</v>
       </c>
     </row>
     <row r="27">
@@ -2829,16 +2829,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30946.8681155662</v>
+        <v>-30518.51801929145</v>
       </c>
       <c r="E27" t="n">
-        <v>-309560.8606117039</v>
+        <v>-309748.776811594</v>
       </c>
     </row>
     <row r="28">
@@ -2846,16 +2846,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-31021.46154407337</v>
+        <v>-30593.27644100478</v>
       </c>
       <c r="E28" t="n">
-        <v>-327291.6005862274</v>
+        <v>-327518.7354102593</v>
       </c>
     </row>
     <row r="29">
@@ -2863,16 +2863,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-31075.7562184792</v>
+        <v>-30647.69120980213</v>
       </c>
       <c r="E29" t="n">
-        <v>-345002.0418066496</v>
+        <v>-345268.3503560087</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2880,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-31115.20490757662</v>
+        <v>-30687.22715545584</v>
       </c>
       <c r="E30" t="n">
-        <v>-362697.6370417633</v>
+        <v>-363003.0864786144</v>
       </c>
     </row>
     <row r="31">
@@ -2897,16 +2897,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-31143.82106889187</v>
+        <v>-30715.90661285894</v>
       </c>
       <c r="E31" t="n">
-        <v>-380382.3997490949</v>
+        <v>-380726.9661129695</v>
       </c>
     </row>
     <row r="32">
@@ -2914,16 +2914,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-31164.54977858994</v>
+        <v>-30736.68117239045</v>
       </c>
       <c r="E32" t="n">
-        <v>-398059.2750048093</v>
+        <v>-398442.940849453</v>
       </c>
     </row>
     <row r="33">
@@ -2931,16 +2931,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31179.54622036911</v>
+        <v>-30751.71078479951</v>
       </c>
       <c r="E33" t="n">
-        <v>-415730.4179926048</v>
+        <v>-416153.1706388141</v>
       </c>
     </row>
     <row r="34">
@@ -2948,16 +2948,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31190.38366706548</v>
+        <v>-30762.57220284448</v>
       </c>
       <c r="E34" t="n">
-        <v>-433397.4019853175</v>
+        <v>-433859.2322338111</v>
       </c>
     </row>
     <row r="35">
@@ -2965,16 +2965,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31198.2080735505</v>
+        <v>-30770.41391613437</v>
       </c>
       <c r="E35" t="n">
-        <v>-451061.3729378189</v>
+        <v>-451562.274124053</v>
       </c>
     </row>
     <row r="36">
@@ -2982,16 +2982,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31203.85250144112</v>
+        <v>-30776.07082893517</v>
       </c>
       <c r="E36" t="n">
-        <v>-468723.1639117259</v>
+        <v>-469263.1312138058</v>
       </c>
     </row>
   </sheetData>
@@ -3045,16 +3045,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>262816.4728817175</v>
+        <v>263894.5981184418</v>
       </c>
       <c r="E2" t="n">
-        <v>425606.144035988</v>
+        <v>427044.3437499392</v>
       </c>
     </row>
     <row r="3">
@@ -3062,16 +3062,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225134.649567449</v>
+        <v>226129.426378351</v>
       </c>
       <c r="E3" t="n">
-        <v>370268.1741757032</v>
+        <v>371583.9718328965</v>
       </c>
     </row>
     <row r="4">
@@ -3079,16 +3079,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>191302.7849538134</v>
+        <v>192222.7290626282</v>
       </c>
       <c r="E4" t="n">
-        <v>318780.1630160513</v>
+        <v>319982.0743402216</v>
       </c>
     </row>
     <row r="5">
@@ -3096,16 +3096,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>161141.5292150429</v>
+        <v>161994.759641622</v>
       </c>
       <c r="E5" t="n">
-        <v>270962.7607312645</v>
+        <v>272058.9047422635</v>
       </c>
     </row>
     <row r="6">
@@ -3113,16 +3113,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>134429.2101211098</v>
+        <v>135223.3555684942</v>
       </c>
       <c r="E6" t="n">
-        <v>226594.2950913151</v>
+        <v>227592.3004921837</v>
       </c>
     </row>
     <row r="7">
@@ -3130,16 +3130,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>110915.669697733</v>
+        <v>111657.8055445349</v>
       </c>
       <c r="E7" t="n">
-        <v>185424.6081219219</v>
+        <v>186331.5502912723</v>
       </c>
     </row>
     <row r="8">
@@ -3147,16 +3147,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>90334.61725967744</v>
+        <v>91031.22987613631</v>
       </c>
       <c r="E8" t="n">
-        <v>147187.40913785</v>
+        <v>148009.7744459217</v>
       </c>
     </row>
     <row r="9">
@@ -3164,16 +3164,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>72414.10399327165</v>
+        <v>73071.07822604016</v>
       </c>
       <c r="E9" t="n">
-        <v>111610.7493254279</v>
+        <v>112354.4226188736</v>
       </c>
     </row>
     <row r="10">
@@ -3181,16 +3181,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>56884.98019977578</v>
+        <v>57507.60556328198</v>
       </c>
       <c r="E10" t="n">
-        <v>78425.47898591569</v>
+        <v>79095.74977916339</v>
       </c>
     </row>
     <row r="11">
@@ -3198,16 +3198,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>43487.38128960889</v>
+        <v>44080.37250378936</v>
       </c>
       <c r="E11" t="n">
-        <v>47371.73352973247</v>
+        <v>47973.31654271878</v>
       </c>
     </row>
     <row r="12">
@@ -3215,16 +3215,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>31975.40935850461</v>
+        <v>32542.93724171603</v>
       </c>
       <c r="E12" t="n">
-        <v>18203.61505261185</v>
+        <v>18740.68110369345</v>
       </c>
     </row>
     <row r="13">
@@ -3232,16 +3232,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22120.24508394295</v>
+        <v>22665.97432907749</v>
       </c>
       <c r="E13" t="n">
-        <v>-9307.695767966146</v>
+        <v>-8831.481985897099</v>
       </c>
     </row>
     <row r="14">
@@ -3249,16 +3249,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>13711.95244265928</v>
+        <v>14239.08338511458</v>
       </c>
       <c r="E14" t="n">
-        <v>-35372.13495526614</v>
+        <v>-34953.57310681201</v>
       </c>
     </row>
     <row r="15">
@@ -3266,16 +3266,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>6560.238285213009</v>
+        <v>7071.550350965263</v>
       </c>
       <c r="E15" t="n">
-        <v>-60179.99565872875</v>
+        <v>-59816.30631791332</v>
       </c>
     </row>
     <row r="16">
@@ -3283,16 +3283,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>494.4102144855726</v>
+        <v>992.3052749940148</v>
       </c>
       <c r="E16" t="n">
-        <v>-83901.97027547253</v>
+        <v>-83590.75157083658</v>
       </c>
     </row>
     <row r="17">
@@ -3300,16 +3300,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4637.252566392598</v>
+        <v>-4150.708230902687</v>
       </c>
       <c r="E17" t="n">
-        <v>-106689.779602367</v>
+        <v>-106428.9652536853</v>
       </c>
     </row>
     <row r="18">
@@ -3317,16 +3317,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-8968.533923994231</v>
+        <v>-8491.569949835</v>
       </c>
       <c r="E18" t="n">
-        <v>-128677.207505985</v>
+        <v>-128465.0271495696</v>
       </c>
     </row>
     <row r="19">
@@ -3334,16 +3334,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-12616.57300823256</v>
+        <v>-12147.67813180445</v>
       </c>
       <c r="E19" t="n">
-        <v>-149981.3931362397</v>
+        <v>-149816.3355084911</v>
       </c>
     </row>
     <row r="20">
@@ -3351,16 +3351,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-15683.2974497033</v>
+        <v>-15221.18586113511</v>
       </c>
       <c r="E20" t="n">
-        <v>-170704.2641237267</v>
+        <v>-170585.0434147737</v>
       </c>
     </row>
     <row r="21">
@@ -3368,16 +3368,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-18256.90887502712</v>
+        <v>-17800.48985762753</v>
       </c>
       <c r="E21" t="n">
-        <v>-190934.0220950669</v>
+        <v>-190859.5475882181</v>
       </c>
     </row>
     <row r="22">
@@ -3385,16 +3385,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-20413.35584624083</v>
+        <v>-19961.70667394456</v>
       </c>
       <c r="E22" t="n">
-        <v>-210746.6156122969</v>
+        <v>-210715.9645814872</v>
       </c>
     </row>
     <row r="23">
@@ -3402,16 +3402,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-22217.74890664189</v>
+        <v>-21770.09087139583</v>
       </c>
       <c r="E23" t="n">
-        <v>-230207.1552187143</v>
+        <v>-230219.5489558904</v>
       </c>
     </row>
     <row r="24">
@@ -3419,16 +3419,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-23725.68805043472</v>
+        <v>-23281.36542581417</v>
       </c>
       <c r="E24" t="n">
-        <v>-249371.2409085235</v>
+        <v>-249426.0236872607</v>
       </c>
     </row>
     <row r="25">
@@ -3436,16 +3436,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-24984.48505945609</v>
+        <v>-24542.94676796765</v>
       </c>
       <c r="E25" t="n">
-        <v>-268286.1844635612</v>
+        <v>-268382.8052063662</v>
       </c>
     </row>
     <row r="26">
@@ -3453,16 +3453,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-26034.27227535834</v>
+        <v>-25595.05600823597</v>
       </c>
       <c r="E26" t="n">
-        <v>-286992.1182254797</v>
+        <v>-287130.1146235865</v>
       </c>
     </row>
     <row r="27">
@@ -3470,16 +3470,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-26908.99601675654</v>
+        <v>-26471.71455109712</v>
       </c>
       <c r="E27" t="n">
-        <v>-305522.9885128943</v>
+        <v>-305701.9733433997</v>
       </c>
     </row>
     <row r="28">
@@ -3487,16 +3487,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-27637.29749302917</v>
+        <v>-27201.62695742122</v>
       </c>
       <c r="E28" t="n">
-        <v>-323907.4365351832</v>
+        <v>-324127.0859266758</v>
       </c>
     </row>
     <row r="29">
@@ -3504,16 +3504,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-28243.28714132584</v>
+        <v>-27808.95699423436</v>
       </c>
       <c r="E29" t="n">
-        <v>-342169.5727294962</v>
+        <v>-342429.6161404409</v>
       </c>
     </row>
     <row r="30">
@@ -3521,16 +3521,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-28747.2201902134</v>
+        <v>-28314.00469264391</v>
       </c>
       <c r="E30" t="n">
-        <v>-360329.6523244001</v>
+        <v>-360629.8640158025</v>
       </c>
     </row>
     <row r="31">
@@ -3538,16 +3538,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-29166.08223866753</v>
+        <v>-28733.79322207228</v>
       </c>
       <c r="E31" t="n">
-        <v>-378404.6609188706</v>
+        <v>-378744.8527221829</v>
       </c>
     </row>
     <row r="32">
@@ -3555,16 +3555,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-29514.09398032774</v>
+        <v>-29082.57473091156</v>
       </c>
       <c r="E32" t="n">
-        <v>-396408.8192065471</v>
+        <v>-396788.8344079742</v>
       </c>
     </row>
     <row r="33">
@@ -3572,16 +3572,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-29803.14409541646</v>
+        <v>-29372.26419595624</v>
       </c>
       <c r="E33" t="n">
-        <v>-414354.0158676522</v>
+        <v>-414773.7240499708</v>
       </c>
     </row>
     <row r="34">
@@ -3589,16 +3589,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30043.15892717921</v>
+        <v>-29612.80991653068</v>
       </c>
       <c r="E34" t="n">
-        <v>-432250.1772454313</v>
+        <v>-432709.4699474972</v>
       </c>
     </row>
     <row r="35">
@@ -3606,16 +3606,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30242.41696982946</v>
+        <v>-29812.50869804987</v>
       </c>
       <c r="E35" t="n">
-        <v>-450105.5818340979</v>
+        <v>-450604.3689059684</v>
       </c>
     </row>
     <row r="36">
@@ -3623,16 +3623,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30407.81550450062</v>
+        <v>-29978.27307774353</v>
       </c>
       <c r="E36" t="n">
-        <v>-467927.1269147854</v>
+        <v>-468465.3334626141</v>
       </c>
     </row>
   </sheetData>
@@ -3686,16 +3686,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>248548.8725517335</v>
+        <v>249595.4392829724</v>
       </c>
       <c r="E2" t="n">
-        <v>411338.543706004</v>
+        <v>412745.1849144698</v>
       </c>
     </row>
     <row r="3">
@@ -3703,16 +3703,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>210007.2944781697</v>
+        <v>210968.6110920151</v>
       </c>
       <c r="E3" t="n">
-        <v>355140.8190864239</v>
+        <v>356423.1565465606</v>
       </c>
     </row>
     <row r="4">
@@ -3720,16 +3720,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>175630.9725320686</v>
+        <v>176516.2521586411</v>
       </c>
       <c r="E4" t="n">
-        <v>303108.3505943065</v>
+        <v>304275.5974362345</v>
       </c>
     </row>
     <row r="5">
@@ -3737,16 +3737,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>145231.6996863647</v>
+        <v>146049.7391606574</v>
       </c>
       <c r="E5" t="n">
-        <v>255052.9312025862</v>
+        <v>256113.8842612988</v>
       </c>
     </row>
     <row r="6">
@@ -3754,16 +3754,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>118564.56921372</v>
+        <v>119323.6236615304</v>
       </c>
       <c r="E6" t="n">
-        <v>210729.6541839252</v>
+        <v>211692.5685852199</v>
       </c>
     </row>
     <row r="7">
@@ -3771,16 +3771,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>95346.03727671018</v>
+        <v>96053.73465321558</v>
       </c>
       <c r="E7" t="n">
-        <v>169854.9757008991</v>
+        <v>170727.479399953</v>
       </c>
     </row>
     <row r="8">
@@ -3788,16 +3788,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>75270.35039484617</v>
+        <v>75933.64235909352</v>
       </c>
       <c r="E8" t="n">
-        <v>132123.1422730187</v>
+        <v>132912.1869288789</v>
       </c>
     </row>
     <row r="9">
@@ -3805,16 +3805,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>58023.59395496195</v>
+        <v>58648.73781825844</v>
       </c>
       <c r="E9" t="n">
-        <v>97220.23928711819</v>
+        <v>97932.08221109185</v>
       </c>
     </row>
     <row r="10">
@@ -3822,16 +3822,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>43295.03778667518</v>
+        <v>43887.60355625725</v>
       </c>
       <c r="E10" t="n">
-        <v>64835.53657281509</v>
+        <v>65475.74777213867</v>
       </c>
     </row>
     <row r="11">
@@ -3839,16 +3839,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>30785.76925748438</v>
+        <v>31350.66577573005</v>
       </c>
       <c r="E11" t="n">
-        <v>34670.12149760795</v>
+        <v>35243.60981465947</v>
       </c>
     </row>
     <row r="12">
@@ -3856,16 +3856,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>20214.81577200848</v>
+        <v>20756.3303980058</v>
       </c>
       <c r="E12" t="n">
-        <v>6443.021466115717</v>
+        <v>6954.074259983219</v>
       </c>
     </row>
     <row r="13">
@@ -3873,16 +3873,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11323.08153807742</v>
+        <v>11844.92853692603</v>
       </c>
       <c r="E13" t="n">
-        <v>-20104.85931383167</v>
+        <v>-19652.52777804855</v>
       </c>
     </row>
     <row r="14">
@@ -3890,16 +3890,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3875.477507749609</v>
+        <v>4380.851151078808</v>
       </c>
       <c r="E14" t="n">
-        <v>-45208.60989017582</v>
+        <v>-44811.80534084778</v>
       </c>
     </row>
     <row r="15">
@@ -3907,16 +3907,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-2338.371695286186</v>
+        <v>-1846.742465146626</v>
       </c>
       <c r="E15" t="n">
-        <v>-69078.60563922794</v>
+        <v>-68734.59913402521</v>
       </c>
     </row>
     <row r="16">
@@ -3924,16 +3924,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-7504.486857102101</v>
+        <v>-7024.284557203231</v>
       </c>
       <c r="E16" t="n">
-        <v>-91900.86734706021</v>
+        <v>-91607.34140303382</v>
       </c>
     </row>
     <row r="17">
@@ -3941,16 +3941,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-11785.64683308565</v>
+        <v>-11314.91403103235</v>
       </c>
       <c r="E17" t="n">
-        <v>-113838.1738690601</v>
+        <v>-113593.1710538149</v>
       </c>
     </row>
     <row r="18">
@@ -3958,16 +3958,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-15322.99440936646</v>
+        <v>-14860.08586649538</v>
       </c>
       <c r="E18" t="n">
-        <v>-135031.6679913572</v>
+        <v>-134833.54306623</v>
       </c>
     </row>
     <row r="19">
@@ -3975,16 +3975,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-18237.92751998857</v>
+        <v>-17781.46651772935</v>
       </c>
       <c r="E19" t="n">
-        <v>-155602.7476479957</v>
+        <v>-155450.1238944159</v>
       </c>
     </row>
     <row r="20">
@@ -3992,16 +3992,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20634.11664929999</v>
+        <v>-20182.95577782889</v>
       </c>
       <c r="E20" t="n">
-        <v>-175655.0833233234</v>
+        <v>-175546.8133314675</v>
       </c>
     </row>
     <row r="21">
@@ -4009,16 +4009,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22599.53175745032</v>
+        <v>-22152.71818770041</v>
       </c>
       <c r="E21" t="n">
-        <v>-195276.6449774901</v>
+        <v>-195211.775918291</v>
       </c>
     </row>
     <row r="22">
@@ -4026,16 +4026,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-24208.39751492253</v>
+        <v>-23765.14259537716</v>
       </c>
       <c r="E22" t="n">
-        <v>-214541.6572809786</v>
+        <v>-214519.4005029198</v>
       </c>
     </row>
     <row r="23">
@@ -4043,16 +4043,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-25523.02405195187</v>
+        <v>-25082.67695487284</v>
       </c>
       <c r="E23" t="n">
-        <v>-233512.4303640243</v>
+        <v>-233532.1350393674</v>
       </c>
     </row>
     <row r="24">
@@ -4060,16 +4060,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-26595.4823999448</v>
+        <v>-26157.50747350942</v>
       </c>
       <c r="E24" t="n">
-        <v>-252241.0352580335</v>
+        <v>-252302.165734956</v>
       </c>
     </row>
     <row r="25">
@@ -4077,16 +4077,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-27469.11017902617</v>
+        <v>-27033.06762989466</v>
       </c>
       <c r="E25" t="n">
-        <v>-270770.8095831312</v>
+        <v>-270872.9260682932</v>
       </c>
     </row>
     <row r="26">
@@ -4094,16 +4094,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-28179.8448147566</v>
+        <v>-27745.37433958158</v>
       </c>
       <c r="E26" t="n">
-        <v>-289137.690764878</v>
+        <v>-289280.4329549322</v>
       </c>
     </row>
     <row r="27">
@@ -4111,16 +4111,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-28757.38957100821</v>
+        <v>-28324.19656709232</v>
       </c>
       <c r="E27" t="n">
-        <v>-307371.382067146</v>
+        <v>-307554.4553593949</v>
       </c>
     </row>
     <row r="28">
@@ -4128,16 +4128,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-29226.22280056915</v>
+        <v>-28794.0668088841</v>
       </c>
       <c r="E28" t="n">
-        <v>-325496.3618427232</v>
+        <v>-325719.5257781387</v>
       </c>
     </row>
     <row r="29">
@@ -4145,16 +4145,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-29606.46375837421</v>
+        <v>-29175.14882167213</v>
       </c>
       <c r="E29" t="n">
-        <v>-343532.7493465446</v>
+        <v>-343795.8079678787</v>
       </c>
     </row>
     <row r="30">
@@ -4162,16 +4162,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-29914.60968734066</v>
+        <v>-29483.97633862568</v>
       </c>
       <c r="E30" t="n">
-        <v>-361497.0418215274</v>
+        <v>-361799.8356617843</v>
       </c>
     </row>
     <row r="31">
@@ -4179,16 +4179,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30164.15914738988</v>
+        <v>-29734.07777713111</v>
       </c>
       <c r="E31" t="n">
-        <v>-379402.7378275929</v>
+        <v>-379745.1372772417</v>
       </c>
     </row>
     <row r="32">
@@ -4196,16 +4196,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30366.13608182939</v>
+        <v>-29936.50146435637</v>
       </c>
       <c r="E32" t="n">
-        <v>-397260.8613080488</v>
+        <v>-397642.7611414189</v>
       </c>
     </row>
     <row r="33">
@@ -4213,16 +4213,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30529.52817898571</v>
+        <v>-30100.254968496</v>
       </c>
       <c r="E33" t="n">
-        <v>-415080.3999512214</v>
+        <v>-415501.7148225105</v>
       </c>
     </row>
     <row r="34">
@@ -4230,16 +4230,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30661.65189388747</v>
+        <v>-30232.67092784568</v>
       </c>
       <c r="E34" t="n">
-        <v>-432868.6702121396</v>
+        <v>-433329.3309588123</v>
       </c>
     </row>
     <row r="35">
@@ -4247,16 +4247,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30768.45518908187</v>
+        <v>-30339.71046125107</v>
       </c>
       <c r="E35" t="n">
-        <v>-450631.6200533502</v>
+        <v>-451131.5706691697</v>
       </c>
     </row>
     <row r="36">
@@ -4264,16 +4264,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30854.76773391726</v>
+        <v>-30426.2139208063</v>
       </c>
       <c r="E36" t="n">
-        <v>-468374.079144202</v>
+        <v>-468913.2743056769</v>
       </c>
     </row>
   </sheetData>
@@ -4327,16 +4327,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>230048.3292022045</v>
+        <v>231053.9745811994</v>
       </c>
       <c r="E2" t="n">
-        <v>392838.0003564751</v>
+        <v>394203.7202126968</v>
       </c>
     </row>
     <row r="3">
@@ -4344,16 +4344,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>190286.77626765</v>
+        <v>191204.4730668294</v>
       </c>
       <c r="E3" t="n">
-        <v>335420.3008759043</v>
+        <v>336659.0185213749</v>
       </c>
     </row>
     <row r="4">
@@ -4361,16 +4361,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>155174.5595441014</v>
+        <v>156014.5916303334</v>
       </c>
       <c r="E4" t="n">
-        <v>282651.9376063393</v>
+        <v>283773.9369079268</v>
       </c>
     </row>
     <row r="5">
@@ -4378,16 +4378,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>124512.6922603653</v>
+        <v>125284.9033616741</v>
       </c>
       <c r="E5" t="n">
-        <v>234333.9237765868</v>
+        <v>235349.0484623155</v>
       </c>
     </row>
     <row r="6">
@@ -4395,16 +4395,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>98018.13530833488</v>
+        <v>98731.74309853552</v>
       </c>
       <c r="E6" t="n">
-        <v>190183.2202785401</v>
+        <v>191100.6880222249</v>
       </c>
     </row>
     <row r="7">
@@ -4412,16 +4412,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75350.00192332274</v>
+        <v>76013.47006878768</v>
       </c>
       <c r="E7" t="n">
-        <v>149858.9403475116</v>
+        <v>150687.2148155251</v>
       </c>
     </row>
     <row r="8">
@@ -4429,16 +4429,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>56134.07679953012</v>
+        <v>56755.04123978872</v>
       </c>
       <c r="E8" t="n">
-        <v>112986.8686777027</v>
+        <v>113733.5858095741</v>
       </c>
     </row>
     <row r="9">
@@ -4446,16 +4446,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>39984.00793225296</v>
+        <v>40569.2500348268</v>
       </c>
       <c r="E9" t="n">
-        <v>79180.65326440919</v>
+        <v>79852.59442766022</v>
       </c>
     </row>
     <row r="10">
@@ -4463,16 +4463,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>26518.35439439225</v>
+        <v>27073.81181760785</v>
       </c>
       <c r="E10" t="n">
-        <v>48058.85318053215</v>
+        <v>48661.95603348927</v>
       </c>
     </row>
     <row r="11">
@@ -4480,16 +4480,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15373.32036462859</v>
+        <v>15904.12608682724</v>
       </c>
       <c r="E11" t="n">
-        <v>19257.67260475217</v>
+        <v>19797.07012575666</v>
       </c>
     </row>
     <row r="12">
@@ -4497,16 +4497,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>6211.453382265885</v>
+        <v>6721.993970683595</v>
       </c>
       <c r="E12" t="n">
-        <v>-7560.340923626876</v>
+        <v>-7080.262167338987</v>
       </c>
     </row>
     <row r="13">
@@ -4514,16 +4514,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1273.150201211189</v>
+        <v>-779.1648076253236</v>
       </c>
       <c r="E13" t="n">
-        <v>-32701.09105312028</v>
+        <v>-32276.62112259991</v>
       </c>
     </row>
     <row r="14">
@@ -4531,16 +4531,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-7352.471272186145</v>
+        <v>-6871.932729011635</v>
       </c>
       <c r="E14" t="n">
-        <v>-56436.55867011157</v>
+        <v>-56064.58922093822</v>
       </c>
     </row>
     <row r="15">
@@ -4548,16 +4548,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-12264.35118590451</v>
+        <v>-11794.6772300198</v>
       </c>
       <c r="E15" t="n">
-        <v>-79004.58512984627</v>
+        <v>-78682.53389889839</v>
       </c>
     </row>
     <row r="16">
@@ -4565,16 +4565,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-16213.81189328649</v>
+        <v>-15752.8737496278</v>
       </c>
       <c r="E16" t="n">
-        <v>-100610.1923832446</v>
+        <v>-100335.9305954584</v>
       </c>
     </row>
     <row r="17">
@@ -4582,16 +4582,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-19375.38270292239</v>
+        <v>-18921.43763780747</v>
       </c>
       <c r="E17" t="n">
-        <v>-121427.9097388968</v>
+        <v>-121199.6946605901</v>
       </c>
     </row>
     <row r="18">
@@ -4599,16 +4599,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-21896.00668486439</v>
+        <v>-21447.63698799088</v>
       </c>
       <c r="E18" t="n">
-        <v>-141604.6802668552</v>
+        <v>-141421.0941877255</v>
       </c>
     </row>
     <row r="19">
@@ -4616,16 +4616,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-23898.20119268947</v>
+        <v>-23454.2601498921</v>
       </c>
       <c r="E19" t="n">
-        <v>-161263.0213206966</v>
+        <v>-161122.9175265787</v>
       </c>
     </row>
     <row r="20">
@@ -4633,16 +4633,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-25483.237891662</v>
+        <v>-25042.80279157414</v>
       </c>
       <c r="E20" t="n">
-        <v>-180504.2045656854</v>
+        <v>-180406.6603452127</v>
       </c>
     </row>
     <row r="21">
@@ -4650,16 +4650,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-26734.18391461521</v>
+        <v>-26296.51578206319</v>
       </c>
       <c r="E21" t="n">
-        <v>-199411.297134655</v>
+        <v>-199355.5735126538</v>
       </c>
     </row>
     <row r="22">
@@ -4667,16 +4667,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-27718.70633937855</v>
+        <v>-27283.21587199965</v>
       </c>
       <c r="E22" t="n">
-        <v>-218051.9661054346</v>
+        <v>-218037.4737795423</v>
       </c>
     </row>
     <row r="23">
@@ -4684,16 +4684,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-28491.58801743864</v>
+        <v>-28057.80708706053</v>
       </c>
       <c r="E23" t="n">
-        <v>-236480.9943295111</v>
+        <v>-236507.2651715551</v>
       </c>
     </row>
     <row r="24">
@@ -4701,16 +4701,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-29096.93580819692</v>
+        <v>-28664.49384661058</v>
       </c>
       <c r="E24" t="n">
-        <v>-254742.4886662857</v>
+        <v>-254809.1521080572</v>
       </c>
     </row>
     <row r="25">
@@ -4718,16 +4718,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-29570.08479025096</v>
+        <v>-29138.68938690849</v>
       </c>
       <c r="E25" t="n">
-        <v>-272871.7841943561</v>
+        <v>-272978.5478253071</v>
       </c>
     </row>
     <row r="26">
@@ -4735,16 +4735,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-29939.21632386421</v>
+        <v>-29508.6374025691</v>
       </c>
       <c r="E26" t="n">
-        <v>-290897.0622739856</v>
+        <v>-291043.6960179197</v>
       </c>
     </row>
     <row r="27">
@@ -4752,16 +4752,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30226.71599422207</v>
+        <v>-29796.77299345419</v>
       </c>
       <c r="E27" t="n">
-        <v>-308840.7084903598</v>
+        <v>-309027.0317857568</v>
       </c>
     </row>
     <row r="28">
@@ -4769,16 +4769,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30450.30121662852</v>
+        <v>-30020.85276401903</v>
       </c>
       <c r="E28" t="n">
-        <v>-326720.4402587826</v>
+        <v>-326946.3117332736</v>
       </c>
     </row>
     <row r="29">
@@ -4786,16 +4786,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30623.94903057088</v>
+        <v>-30194.88466956488</v>
       </c>
       <c r="E29" t="n">
-        <v>-344550.2346187413</v>
+        <v>-344815.5438157715</v>
       </c>
     </row>
     <row r="30">
@@ -4803,16 +4803,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30758.65342403285</v>
+        <v>-30329.88701567773</v>
       </c>
       <c r="E30" t="n">
-        <v>-362341.0855582196</v>
+        <v>-362645.7463388363</v>
       </c>
     </row>
     <row r="31">
@@ -4820,16 +4820,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30863.0392066275</v>
+        <v>-30434.50368918722</v>
       </c>
       <c r="E31" t="n">
-        <v>-380101.6178868306</v>
+        <v>-380445.5631892978</v>
       </c>
     </row>
     <row r="32">
@@ -4837,16 +4837,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30943.85655422535</v>
+        <v>-30515.499796678</v>
       </c>
       <c r="E32" t="n">
-        <v>-397838.5817804448</v>
+        <v>-398221.7594737406</v>
       </c>
     </row>
     <row r="33">
@@ -4854,16 +4854,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31006.377262528</v>
+        <v>-30578.15879453672</v>
       </c>
       <c r="E33" t="n">
-        <v>-415557.2490347637</v>
+        <v>-415979.6186485513</v>
       </c>
     </row>
     <row r="34">
@@ -4871,16 +4871,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31054.71071989469</v>
+        <v>-30626.59916067883</v>
       </c>
       <c r="E34" t="n">
-        <v>-433261.7290381467</v>
+        <v>-433723.2591916454</v>
       </c>
     </row>
     <row r="35">
@@ -4888,16 +4888,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31092.05478859817</v>
+        <v>-30664.0258307287</v>
       </c>
       <c r="E35" t="n">
-        <v>-450955.2196528665</v>
+        <v>-451455.8860386473</v>
       </c>
     </row>
     <row r="36">
@@ -4905,16 +4905,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31120.89424647943</v>
+        <v>-30692.92907860749</v>
       </c>
       <c r="E36" t="n">
-        <v>-468640.2056567642</v>
+        <v>-469179.989463478</v>
       </c>
     </row>
   </sheetData>
@@ -4968,16 +4968,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>211169.9354155616</v>
+        <v>212133.8236749222</v>
       </c>
       <c r="E2" t="n">
-        <v>373959.6065698322</v>
+        <v>375283.5693064196</v>
       </c>
     </row>
     <row r="3">
@@ -4985,16 +4985,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>169990.451908875</v>
+        <v>170863.2552677563</v>
       </c>
       <c r="E3" t="n">
-        <v>315123.9765171292</v>
+        <v>316317.8007223017</v>
       </c>
     </row>
     <row r="4">
@@ -5002,16 +5002,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>134073.5259110417</v>
+        <v>134866.8846205139</v>
       </c>
       <c r="E4" t="n">
-        <v>261550.9039732796</v>
+        <v>262626.2298981074</v>
       </c>
     </row>
     <row r="5">
@@ -5019,16 +5019,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>103212.0794438621</v>
+        <v>103937.175719211</v>
       </c>
       <c r="E5" t="n">
-        <v>213033.3109600837</v>
+        <v>214001.3208198525</v>
       </c>
     </row>
     <row r="6">
@@ -5036,16 +5036,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>77069.90754033439</v>
+        <v>77737.17994507165</v>
       </c>
       <c r="E6" t="n">
-        <v>169234.9925105396</v>
+        <v>170106.1248687611</v>
       </c>
     </row>
     <row r="7">
@@ -5053,16 +5053,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55221.62489046068</v>
+        <v>55840.57107832142</v>
       </c>
       <c r="E7" t="n">
-        <v>129730.5633146496</v>
+        <v>130514.3158250588</v>
       </c>
     </row>
     <row r="8">
@@ -5070,16 +5070,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>37191.40354994046</v>
+        <v>37770.46869081928</v>
       </c>
       <c r="E8" t="n">
-        <v>94044.19542811303</v>
+        <v>94749.0132606047</v>
       </c>
     </row>
     <row r="9">
@@ -5087,16 +5087,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22486.76086152361</v>
+        <v>23033.30080291468</v>
       </c>
       <c r="E9" t="n">
-        <v>61683.40619367985</v>
+        <v>62316.6451957481</v>
       </c>
     </row>
     <row r="10">
@@ -5104,16 +5104,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>10625.40888233745</v>
+        <v>11145.7126990234</v>
       </c>
       <c r="E10" t="n">
-        <v>32165.90766847735</v>
+        <v>32733.85691490482</v>
       </c>
     </row>
     <row r="11">
@@ -5121,16 +5121,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.621561514457</v>
+        <v>1653.976943515995</v>
       </c>
       <c r="E11" t="n">
-        <v>5038.97380163803</v>
+        <v>5546.920982445416</v>
       </c>
     </row>
     <row r="12">
@@ -5138,16 +5138,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6336.407585642153</v>
+        <v>-5853.621611176904</v>
       </c>
       <c r="E12" t="n">
-        <v>-20108.20189153491</v>
+        <v>-19655.87774919948</v>
       </c>
     </row>
     <row r="13">
@@ -5155,16 +5155,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-12210.1507969007</v>
+        <v>-11740.35695517436</v>
       </c>
       <c r="E13" t="n">
-        <v>-43638.0916488098</v>
+        <v>-43237.81327014894</v>
       </c>
     </row>
     <row r="14">
@@ -5172,16 +5172,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16778.96084246272</v>
+        <v>-16319.27275177721</v>
       </c>
       <c r="E14" t="n">
-        <v>-65863.04824038815</v>
+        <v>-65511.92924370379</v>
       </c>
     </row>
     <row r="15">
@@ -5189,16 +5189,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-20306.60040121683</v>
+        <v>-19854.71509654936</v>
       </c>
       <c r="E15" t="n">
-        <v>-87046.83434515858</v>
+        <v>-86742.57176542794</v>
       </c>
     </row>
     <row r="16">
@@ -5206,16 +5206,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-23011.91859945705</v>
+        <v>-22566.0171881721</v>
       </c>
       <c r="E16" t="n">
-        <v>-107408.2990894151</v>
+        <v>-107149.0740340027</v>
       </c>
     </row>
     <row r="17">
@@ -5223,16 +5223,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-25073.7253353532</v>
+        <v>-24632.38443443298</v>
       </c>
       <c r="E17" t="n">
-        <v>-127126.2523713276</v>
+        <v>-126910.6414572156</v>
       </c>
     </row>
     <row r="18">
@@ -5240,16 +5240,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26636.14768954157</v>
+        <v>-26198.26271066114</v>
       </c>
       <c r="E18" t="n">
-        <v>-146344.8212715323</v>
+        <v>-146171.7199103957</v>
       </c>
     </row>
     <row r="19">
@@ -5257,16 +5257,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-27813.96833226264</v>
+        <v>-27378.6885748879</v>
       </c>
       <c r="E19" t="n">
-        <v>-165178.7884602697</v>
+        <v>-165047.3459515745</v>
       </c>
     </row>
     <row r="20">
@@ -5274,16 +5274,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28697.62646229678</v>
+        <v>-28264.30126835941</v>
       </c>
       <c r="E20" t="n">
-        <v>-183718.5931363202</v>
+        <v>-183628.158821998</v>
       </c>
     </row>
     <row r="21">
@@ -5291,16 +5291,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-29357.70217648342</v>
+        <v>-28925.83700403286</v>
       </c>
       <c r="E21" t="n">
-        <v>-202034.8153965232</v>
+        <v>-201984.8947346235</v>
       </c>
     </row>
     <row r="22">
@@ -5308,16 +5308,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29848.80711550185</v>
+        <v>-29418.02821807677</v>
       </c>
       <c r="E22" t="n">
-        <v>-220182.0668815579</v>
+        <v>-220172.2861256194</v>
       </c>
     </row>
     <row r="23">
@@ -5325,16 +5325,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30212.87327092553</v>
+        <v>-29782.89965143768</v>
       </c>
       <c r="E23" t="n">
-        <v>-238202.279582998</v>
+        <v>-238232.3577359323</v>
       </c>
     </row>
     <row r="24">
@@ -5342,16 +5342,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30481.87478755383</v>
+        <v>-30052.49617252656</v>
       </c>
       <c r="E24" t="n">
-        <v>-256127.4276456426</v>
+        <v>-256197.1544339731</v>
       </c>
     </row>
     <row r="25">
@@ -5359,16 +5359,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30680.04114967617</v>
+        <v>-30251.10085882966</v>
       </c>
       <c r="E25" t="n">
-        <v>-273981.7405537813</v>
+        <v>-274090.9592972283</v>
       </c>
     </row>
     <row r="26">
@@ -5376,16 +5376,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30825.63013364721</v>
+        <v>-30397.01187107756</v>
       </c>
       <c r="E26" t="n">
-        <v>-291783.4760837686</v>
+        <v>-291932.0704864282</v>
       </c>
     </row>
     <row r="27">
@@ -5393,16 +5393,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30932.3300308072</v>
+        <v>-30503.94777774244</v>
       </c>
       <c r="E27" t="n">
-        <v>-309546.3225269449</v>
+        <v>-309734.206570045</v>
       </c>
     </row>
     <row r="28">
@@ -5410,16 +5410,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-31010.35643205305</v>
+        <v>-30582.14676558694</v>
       </c>
       <c r="E28" t="n">
-        <v>-327280.4954742071</v>
+        <v>-327507.6057348415</v>
       </c>
     </row>
     <row r="29">
@@ -5427,16 +5427,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-31067.30184062372</v>
+        <v>-30639.21813170809</v>
       </c>
       <c r="E29" t="n">
-        <v>-344993.5874287941</v>
+        <v>-345259.8772779147</v>
       </c>
     </row>
     <row r="30">
@@ -5444,16 +5444,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-31108.78824165498</v>
+        <v>-30680.79629651071</v>
       </c>
       <c r="E30" t="n">
-        <v>-362691.2203758417</v>
+        <v>-362996.6556196693</v>
       </c>
     </row>
     <row r="31">
@@ -5461,16 +5461,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-31138.9645771035</v>
+        <v>-30711.03937899627</v>
       </c>
       <c r="E31" t="n">
-        <v>-380377.5432573066</v>
+        <v>-380722.0988791068</v>
       </c>
     </row>
     <row r="32">
@@ -5478,16 +5478,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-31160.88347110901</v>
+        <v>-30733.00675540392</v>
       </c>
       <c r="E32" t="n">
-        <v>-398055.6086973284</v>
+        <v>-398439.2664324665</v>
       </c>
     </row>
     <row r="33">
@@ -5495,16 +5495,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31176.78483150347</v>
+        <v>-30748.94328801778</v>
       </c>
       <c r="E33" t="n">
-        <v>-415727.6566037392</v>
+        <v>-416150.4031420323</v>
       </c>
     </row>
     <row r="34">
@@ -5512,16 +5512,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31188.3082241704</v>
+        <v>-30760.49216927721</v>
       </c>
       <c r="E34" t="n">
-        <v>-433395.3265424225</v>
+        <v>-433857.1522002438</v>
       </c>
     </row>
     <row r="35">
@@ -5529,16 +5529,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31196.65116229733</v>
+        <v>-30768.85356114916</v>
       </c>
       <c r="E35" t="n">
-        <v>-451059.8160265657</v>
+        <v>-451560.7137690677</v>
       </c>
     </row>
     <row r="36">
@@ -5546,16 +5546,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31202.68658911237</v>
+        <v>-30774.90233772491</v>
       </c>
       <c r="E36" t="n">
-        <v>-468721.9979993971</v>
+        <v>-469261.9627225955</v>
       </c>
     </row>
   </sheetData>
@@ -5609,16 +5609,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>188786.0300615674</v>
+        <v>189700.4073601804</v>
       </c>
       <c r="E2" t="n">
-        <v>351575.701215838</v>
+        <v>352850.1529916778</v>
       </c>
     </row>
     <row r="3">
@@ -5626,16 +5626,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145571.2829701495</v>
+        <v>146390.0735687152</v>
       </c>
       <c r="E3" t="n">
-        <v>290704.8075784037</v>
+        <v>291844.6190232606</v>
       </c>
     </row>
     <row r="4">
@@ -5643,16 +5643,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>108581.5009260372</v>
+        <v>109318.4738248813</v>
       </c>
       <c r="E4" t="n">
-        <v>236058.8789882751</v>
+        <v>237077.8191024747</v>
       </c>
     </row>
     <row r="5">
@@ -5660,16 +5660,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>77611.80238258754</v>
+        <v>78280.27340453837</v>
       </c>
       <c r="E5" t="n">
-        <v>187433.0338988091</v>
+        <v>188344.4185051798</v>
       </c>
     </row>
     <row r="6">
@@ -5677,16 +5677,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>52229.51156079819</v>
+        <v>52841.83949311886</v>
       </c>
       <c r="E6" t="n">
-        <v>144394.5965310034</v>
+        <v>145210.7844168083</v>
       </c>
     </row>
     <row r="7">
@@ -5694,16 +5694,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>31845.57010833057</v>
+        <v>32412.81080010166</v>
       </c>
       <c r="E7" t="n">
-        <v>106354.5085325195</v>
+        <v>107086.5555468391</v>
       </c>
     </row>
     <row r="8">
@@ -5711,16 +5711,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>15787.66492845399</v>
+        <v>16319.38713940253</v>
       </c>
       <c r="E8" t="n">
-        <v>72640.45680662656</v>
+        <v>73297.93170918795</v>
       </c>
     </row>
     <row r="9">
@@ -5728,16 +5728,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3364.266971469008</v>
+        <v>3868.5098682017</v>
       </c>
       <c r="E9" t="n">
-        <v>42560.91230362524</v>
+        <v>43151.85426103512</v>
       </c>
     </row>
     <row r="10">
@@ -5745,16 +5745,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-6086.299687230241</v>
+        <v>-5602.960499098963</v>
       </c>
       <c r="E10" t="n">
-        <v>15454.19909890966</v>
+        <v>15985.18371678246</v>
       </c>
     </row>
     <row r="11">
@@ -5762,16 +5762,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-13163.31980761328</v>
+        <v>-12695.63428044282</v>
       </c>
       <c r="E11" t="n">
-        <v>-9278.96756748971</v>
+        <v>-8802.690241513397</v>
       </c>
     </row>
     <row r="12">
@@ -5779,16 +5779,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-18386.22536140004</v>
+        <v>-17930.09237913952</v>
       </c>
       <c r="E12" t="n">
-        <v>-32158.0196672928</v>
+        <v>-31732.3485171621</v>
       </c>
     </row>
     <row r="13">
@@ -5796,16 +5796,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-22189.13623001751</v>
+        <v>-21741.4149063914</v>
       </c>
       <c r="E13" t="n">
-        <v>-53617.0770819266</v>
+        <v>-53238.87122136599</v>
       </c>
     </row>
     <row r="14">
@@ -5813,16 +5813,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-24923.84486312366</v>
+        <v>-24482.1724415836</v>
       </c>
       <c r="E14" t="n">
-        <v>-74007.93226104908</v>
+        <v>-73674.82893351019</v>
       </c>
     </row>
     <row r="15">
@@ -5830,16 +5830,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-26867.94919931602</v>
+        <v>-26430.57694220019</v>
       </c>
       <c r="E15" t="n">
-        <v>-93608.18314325777</v>
+        <v>-93318.43361107877</v>
       </c>
     </row>
     <row r="16">
@@ -5847,16 +5847,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-28235.48197249677</v>
+        <v>-27801.13456115219</v>
       </c>
       <c r="E16" t="n">
-        <v>-112631.8624624549</v>
+        <v>-112384.1914069828</v>
       </c>
     </row>
     <row r="17">
@@ -5864,16 +5864,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-29188.13632414838</v>
+        <v>-28755.89608898529</v>
       </c>
       <c r="E17" t="n">
-        <v>-131240.6633601228</v>
+        <v>-131034.1531117679</v>
       </c>
     </row>
     <row r="18">
@@ -5881,16 +5881,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-29845.87997978164</v>
+        <v>-29415.09460782499</v>
       </c>
       <c r="E18" t="n">
-        <v>-149554.5535617724</v>
+        <v>-149388.5518075596</v>
       </c>
     </row>
     <row r="19">
@@ -5898,16 +5898,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-30296.30400394409</v>
+        <v>-29866.51492489645</v>
       </c>
       <c r="E19" t="n">
-        <v>-167661.1241319512</v>
+        <v>-167535.1723015831</v>
       </c>
     </row>
     <row r="20">
@@ -5915,16 +5915,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-30602.44871904646</v>
+        <v>-30173.33680150092</v>
       </c>
       <c r="E20" t="n">
-        <v>-185623.4153930699</v>
+        <v>-185537.1943551395</v>
       </c>
     </row>
     <row r="21">
@@ -5932,16 +5932,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-30809.10442756378</v>
+        <v>-30380.44961178449</v>
       </c>
       <c r="E21" t="n">
-        <v>-203486.2176476035</v>
+        <v>-203439.5073423751</v>
       </c>
     </row>
     <row r="22">
@@ -5949,16 +5949,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-30947.72837623583</v>
+        <v>-30519.38018277167</v>
       </c>
       <c r="E22" t="n">
-        <v>-221280.9881422919</v>
+        <v>-221273.6380903143</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-31040.18441224127</v>
+        <v>-30612.04072228519</v>
       </c>
       <c r="E23" t="n">
-        <v>-239029.5907243137</v>
+        <v>-239061.4988067798</v>
       </c>
     </row>
     <row r="24">
@@ -5983,16 +5983,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-31101.52625625581</v>
+        <v>-30673.51824832587</v>
       </c>
       <c r="E24" t="n">
-        <v>-256747.0791143446</v>
+        <v>-256818.1765097725</v>
       </c>
     </row>
     <row r="25">
@@ -6000,16 +6000,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-31142.03092892567</v>
+        <v>-30714.1125132821</v>
       </c>
       <c r="E25" t="n">
-        <v>-274443.7303330307</v>
+        <v>-274553.9709516807</v>
       </c>
     </row>
     <row r="26">
@@ -6017,16 +6017,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-31168.66069534225</v>
+        <v>-30740.80118207961</v>
       </c>
       <c r="E26" t="n">
-        <v>-292126.5066454636</v>
+        <v>-292275.8597974302</v>
       </c>
     </row>
     <row r="27">
@@ -6034,16 +6034,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-31186.09950563399</v>
+        <v>-30758.27856527622</v>
       </c>
       <c r="E27" t="n">
-        <v>-309800.0920017717</v>
+        <v>-309988.5373575788</v>
       </c>
     </row>
     <row r="28">
@@ -6051,16 +6051,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-31197.4787693954</v>
+        <v>-30769.6829988314</v>
       </c>
       <c r="E28" t="n">
-        <v>-327467.6178115495</v>
+        <v>-327695.141968086</v>
       </c>
     </row>
     <row r="29">
@@ -6068,16 +6068,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-31204.88006995937</v>
+        <v>-30777.10067033224</v>
       </c>
       <c r="E29" t="n">
-        <v>-345131.1656581298</v>
+        <v>-345397.7598165388</v>
       </c>
     </row>
     <row r="30">
@@ -6085,16 +6085,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-31209.68001597865</v>
+        <v>-30781.91123335224</v>
       </c>
       <c r="E30" t="n">
-        <v>-362792.1121501654</v>
+        <v>-363097.7705565108</v>
       </c>
     </row>
     <row r="31">
@@ -6102,16 +6102,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-31212.7847680919</v>
+        <v>-30785.02285286675</v>
       </c>
       <c r="E31" t="n">
-        <v>-380451.363448295</v>
+        <v>-380796.0823529773</v>
       </c>
     </row>
     <row r="32">
@@ -6119,16 +6119,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-31214.78830960274</v>
+        <v>-30787.0308260111</v>
       </c>
       <c r="E32" t="n">
-        <v>-398109.5135358222</v>
+        <v>-398493.2905030737</v>
       </c>
     </row>
     <row r="33">
@@ -6136,16 +6136,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31216.07852023707</v>
+        <v>-30788.32389046236</v>
       </c>
       <c r="E33" t="n">
-        <v>-415766.9502924728</v>
+        <v>-416189.7837444769</v>
       </c>
     </row>
     <row r="34">
@@ -6153,16 +6153,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31216.90782828922</v>
+        <v>-30789.15503286101</v>
       </c>
       <c r="E34" t="n">
-        <v>-433423.9261465413</v>
+        <v>-433885.8150638276</v>
       </c>
     </row>
     <row r="35">
@@ -6170,16 +6170,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31217.44000882703</v>
+        <v>-30789.68839052897</v>
       </c>
       <c r="E35" t="n">
-        <v>-451080.6048730954</v>
+        <v>-451581.5485984475</v>
       </c>
     </row>
     <row r="36">
@@ -6187,16 +6187,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31217.78102741463</v>
+        <v>-30790.03016341559</v>
       </c>
       <c r="E36" t="n">
-        <v>-468737.0924376993</v>
+        <v>-469277.0905482862</v>
       </c>
     </row>
   </sheetData>
@@ -6250,16 +6250,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>162789.6711542706</v>
+        <v>163149.7456314974</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>161950.1375790356</v>
+        <v>162805.1565664729</v>
       </c>
       <c r="E2" t="n">
-        <v>324739.8087333061</v>
+        <v>325954.9021979703</v>
       </c>
     </row>
     <row r="3">
@@ -6267,16 +6267,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>145133.5246082542</v>
+        <v>145454.5454545454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115353.6365874262</v>
+        <v>116105.5887732895</v>
       </c>
       <c r="E3" t="n">
-        <v>260487.1611956804</v>
+        <v>261560.1342278349</v>
       </c>
     </row>
     <row r="4">
@@ -6284,16 +6284,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>127477.3780622379</v>
+        <v>127759.3452775934</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>76737.59089253476</v>
+        <v>77404.12824607138</v>
       </c>
       <c r="E4" t="n">
-        <v>204214.9689547727</v>
+        <v>205163.4735236648</v>
       </c>
     </row>
     <row r="5">
@@ -6301,16 +6301,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>109821.2315162216</v>
+        <v>110064.1451006414</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>45961.91540995968</v>
+        <v>46560.38004621569</v>
       </c>
       <c r="E5" t="n">
-        <v>155783.1469261812</v>
+        <v>156624.5251468571</v>
       </c>
     </row>
     <row r="6">
@@ -6318,16 +6318,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>92165.08497020524</v>
+        <v>92368.94492368943</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>22364.62634888652</v>
+        <v>22910.89614094639</v>
       </c>
       <c r="E6" t="n">
-        <v>114529.7113190918</v>
+        <v>115279.8410646358</v>
       </c>
     </row>
     <row r="7">
@@ -6335,16 +6335,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>74508.93842418891</v>
+        <v>74673.74474673743</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4936.812844521164</v>
+        <v>5444.534055505243</v>
       </c>
       <c r="E7" t="n">
-        <v>79445.75126871007</v>
+        <v>80118.27880224267</v>
       </c>
     </row>
     <row r="8">
@@ -6352,16 +6352,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>56852.79187817257</v>
+        <v>56978.54456978542</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-7481.740241504666</v>
+        <v>-7001.487628366253</v>
       </c>
       <c r="E8" t="n">
-        <v>49371.05163666791</v>
+        <v>49977.05694141917</v>
       </c>
     </row>
     <row r="9">
@@ -6369,16 +6369,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>39196.64533215624</v>
+        <v>39283.34439283342</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-16036.16055670962</v>
+        <v>-15574.82946605562</v>
       </c>
       <c r="E9" t="n">
-        <v>23160.48477544662</v>
+        <v>23708.5149267778</v>
       </c>
     </row>
     <row r="10">
@@ -6386,16 +6386,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>21540.49878613991</v>
+        <v>21588.14421588142</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-21744.45813432905</v>
+        <v>-21295.75322721325</v>
       </c>
       <c r="E10" t="n">
-        <v>-203.9593481891425</v>
+        <v>292.3909886681722</v>
       </c>
     </row>
     <row r="11">
@@ -6403,16 +6403,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>3884.352240123573</v>
+        <v>3892.94403892942</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-25442.24232700159</v>
+        <v>-25001.71654882335</v>
       </c>
       <c r="E11" t="n">
-        <v>-21557.89008687801</v>
+        <v>-21108.77250989393</v>
       </c>
     </row>
     <row r="12">
@@ -6420,16 +6420,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-13771.79430589276</v>
+        <v>-13802.25613802258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-27772.5152202127</v>
+        <v>-27337.1437726985</v>
       </c>
       <c r="E12" t="n">
-        <v>-41544.30952610546</v>
+        <v>-41139.39991072108</v>
       </c>
     </row>
     <row r="13">
@@ -6437,16 +6437,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-31427.94085190909</v>
+        <v>-31497.45631497458</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-29203.99133227946</v>
+        <v>-28771.78616680921</v>
       </c>
       <c r="E13" t="n">
-        <v>-60631.93218418855</v>
+        <v>-60269.24248178379</v>
       </c>
     </row>
     <row r="14">
@@ -6454,16 +6454,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-49084.08739792542</v>
+        <v>-49192.65649192659</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30062.83645919982</v>
+        <v>-29632.5309732848</v>
       </c>
       <c r="E14" t="n">
-        <v>-79146.92385712525</v>
+        <v>-78825.18746521138</v>
       </c>
     </row>
     <row r="15">
@@ -6471,16 +6471,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-66740.23394394176</v>
+        <v>-66887.85666887858</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-30567.02603299955</v>
+        <v>-30137.83576401397</v>
       </c>
       <c r="E15" t="n">
-        <v>-97307.25997694131</v>
+        <v>-97025.69243289255</v>
       </c>
     </row>
     <row r="16">
@@ -6488,16 +6488,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-84396.3804899581</v>
+        <v>-84583.05684583059</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-30857.13878452877</v>
+        <v>-30428.59021594471</v>
       </c>
       <c r="E16" t="n">
-        <v>-115253.5192744869</v>
+        <v>-115011.6470617753</v>
       </c>
     </row>
     <row r="17">
@@ -6505,16 +6505,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>-102052.5270359744</v>
+        <v>-102278.2570227826</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-31021.02027374974</v>
+        <v>-30592.83419463531</v>
       </c>
       <c r="E17" t="n">
-        <v>-133073.5473097242</v>
+        <v>-132871.0912174179</v>
       </c>
     </row>
     <row r="18">
@@ -6522,16 +6522,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-119708.6735819908</v>
+        <v>-119973.4571997346</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-31112.03900729727</v>
+        <v>-30684.05425252159</v>
       </c>
       <c r="E18" t="n">
-        <v>-150820.712589288</v>
+        <v>-150657.5114522562</v>
       </c>
     </row>
     <row r="19">
@@ -6539,16 +6539,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>-137364.8201280071</v>
+        <v>-137668.6573766866</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-31161.80934236136</v>
+        <v>-30733.93467459091</v>
       </c>
       <c r="E19" t="n">
-        <v>-168526.6294703684</v>
+        <v>-168402.5920512775</v>
       </c>
     </row>
     <row r="20">
@@ -6556,16 +6556,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-155020.9666740234</v>
+        <v>-155363.8575536386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-31188.63844471342</v>
+        <v>-30760.82312023506</v>
       </c>
       <c r="E20" t="n">
-        <v>-186209.6051187369</v>
+        <v>-186124.6806738737</v>
       </c>
     </row>
     <row r="21">
@@ -6573,16 +6573,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>-172677.1132200398</v>
+        <v>-173059.0577305906</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-31202.91268263937</v>
+        <v>-30775.12893134819</v>
       </c>
       <c r="E21" t="n">
-        <v>-203880.0259026791</v>
+        <v>-203834.1866619388</v>
       </c>
     </row>
     <row r="22">
@@ -6590,16 +6590,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>-190333.2597660561</v>
+        <v>-190754.2579075426</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-31210.41659241459</v>
+        <v>-30782.6494390216</v>
       </c>
       <c r="E22" t="n">
-        <v>-221543.6763584707</v>
+        <v>-221536.9073465642</v>
       </c>
     </row>
     <row r="23">
@@ -6607,16 +6607,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-207989.4063120724</v>
+        <v>-208449.4580844946</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-31214.31826517078</v>
+        <v>-30786.55974188785</v>
       </c>
       <c r="E23" t="n">
-        <v>-239203.7245772432</v>
+        <v>-239236.0178263824</v>
       </c>
     </row>
     <row r="24">
@@ -6624,16 +6624,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>-225645.5528580887</v>
+        <v>-226144.6582614466</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-31216.32666419366</v>
+        <v>-30788.57258328857</v>
       </c>
       <c r="E24" t="n">
-        <v>-256861.8795222824</v>
+        <v>-256933.2308447351</v>
       </c>
     </row>
     <row r="25">
@@ -6641,16 +6641,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-243301.6994041051</v>
+        <v>-243839.8584383986</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-31217.3510455278</v>
+        <v>-30789.59923045181</v>
       </c>
       <c r="E25" t="n">
-        <v>-274519.0504496329</v>
+        <v>-274629.4576688504</v>
       </c>
     </row>
     <row r="26">
@@ -6658,16 +6658,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-260957.8459501214</v>
+        <v>-261535.0586153506</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-31217.86916985559</v>
+        <v>-30790.11850081881</v>
       </c>
       <c r="E26" t="n">
-        <v>-292175.715119977</v>
+        <v>-292325.1771161694</v>
       </c>
     </row>
     <row r="27">
@@ -6675,16 +6675,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-278613.9924961377</v>
+        <v>-279230.2587923026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-31218.12923910551</v>
+        <v>-30790.37914531591</v>
       </c>
       <c r="E27" t="n">
-        <v>-309832.1217352432</v>
+        <v>-310020.6379376185</v>
       </c>
     </row>
     <row r="28">
@@ -6692,16 +6692,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-296270.1390421541</v>
+        <v>-296925.4589692546</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-31218.258874816</v>
+        <v>-30790.50906776763</v>
       </c>
       <c r="E28" t="n">
-        <v>-327488.3979169701</v>
+        <v>-327715.9680370222</v>
       </c>
     </row>
     <row r="29">
@@ -6709,16 +6709,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-313926.2855881704</v>
+        <v>-314620.6591462066</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-31218.32308688911</v>
+        <v>-30790.57342187143</v>
       </c>
       <c r="E29" t="n">
-        <v>-345144.6086750595</v>
+        <v>-345411.232568078</v>
       </c>
     </row>
     <row r="30">
@@ -6726,16 +6726,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-331582.4321341867</v>
+        <v>-332315.8593231586</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-31218.3547111574</v>
+        <v>-30790.60511608944</v>
       </c>
       <c r="E30" t="n">
-        <v>-362800.7868453441</v>
+        <v>-363106.464439248</v>
       </c>
     </row>
     <row r="31">
@@ -6743,16 +6743,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-349238.5786802031</v>
+        <v>-350011.0595001106</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-31218.3702054809</v>
+        <v>-30790.62064468483</v>
       </c>
       <c r="E31" t="n">
-        <v>-380456.948885684</v>
+        <v>-380801.6801447954</v>
       </c>
     </row>
     <row r="32">
@@ -6760,16 +6760,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>-366894.7252262194</v>
+        <v>-367706.2596770626</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-31218.37776148849</v>
+        <v>-30790.62821740555</v>
       </c>
       <c r="E32" t="n">
-        <v>-398113.1029877079</v>
+        <v>-398496.8878944681</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-384550.8717722357</v>
+        <v>-385401.4598540146</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-31218.38143078791</v>
+        <v>-30790.63189482111</v>
       </c>
       <c r="E33" t="n">
-        <v>-415769.2532030236</v>
+        <v>-416192.0917488357</v>
       </c>
     </row>
     <row r="34">
@@ -6794,16 +6794,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-402207.0183182521</v>
+        <v>-403096.6600309666</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-31218.38320593205</v>
+        <v>-30790.63367389168</v>
       </c>
       <c r="E34" t="n">
-        <v>-433425.4015241841</v>
+        <v>-433887.2937048582</v>
       </c>
     </row>
     <row r="35">
@@ -6811,16 +6811,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-419863.1648642684</v>
+        <v>-420791.8602079186</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-31218.38406182403</v>
+        <v>-30790.63453167681</v>
       </c>
       <c r="E35" t="n">
-        <v>-451081.5489260924</v>
+        <v>-451582.4947395954</v>
       </c>
     </row>
     <row r="36">
@@ -6828,16 +6828,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>-437519.3114102847</v>
+        <v>-438487.0603848706</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-31218.38447325961</v>
+        <v>-30790.63494402244</v>
       </c>
       <c r="E36" t="n">
-        <v>-468737.6958835443</v>
+        <v>-469277.695328893</v>
       </c>
     </row>
   </sheetData>

--- a/CCA PnL Output.xlsx
+++ b/CCA PnL Output.xlsx
@@ -11,13 +11,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="today" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EoM" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of May" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of June" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of July" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of August" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Sep" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Oct" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Nov" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec expiry" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="June Expiry" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of June" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of July" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of August" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sep Expiry" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Sep" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Oct" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Nov" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec expiry" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Dec" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,597 +481,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>129698.1893899196</v>
+        <v>-452850.528597674</v>
       </c>
       <c r="E2" t="n">
-        <v>292847.9350214171</v>
+        <v>-351228.4265311604</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>74415.57589283727</v>
+        <v>-447560.3295251879</v>
       </c>
       <c r="E3" t="n">
-        <v>219870.1213473827</v>
+        <v>-351863.7144596372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31890.43875518307</v>
+        <v>-439363.3476552557</v>
       </c>
       <c r="E4" t="n">
-        <v>159649.7840327765</v>
+        <v>-349592.2195906679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2873.109158891445</v>
+        <v>-427683.2633814741</v>
       </c>
       <c r="E5" t="n">
-        <v>112937.2542595329</v>
+        <v>-343837.6223178492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-14555.50711278356</v>
+        <v>-412238.1138406888</v>
       </c>
       <c r="E6" t="n">
-        <v>77813.43781090587</v>
+        <v>-334317.9597780268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-23760.85467946088</v>
+        <v>-393124.5018635143</v>
       </c>
       <c r="E7" t="n">
-        <v>50912.89006727654</v>
+        <v>-321129.8348018152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-28050.90947357595</v>
+        <v>-370801.9571589381</v>
       </c>
       <c r="E8" t="n">
-        <v>28927.63509620947</v>
+        <v>-304732.7770982019</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-29825.46857797197</v>
+        <v>-345973.3997567436</v>
       </c>
       <c r="E9" t="n">
-        <v>9457.875814861458</v>
+        <v>-285829.7066969703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30481.65559691234</v>
+        <v>-319393.9621267419</v>
       </c>
       <c r="E10" t="n">
-        <v>-8893.511381030923</v>
+        <v>-265175.7560679315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-30700.22451951092</v>
+        <v>-291665.0858325585</v>
       </c>
       <c r="E11" t="n">
-        <v>-26807.2804805815</v>
+        <v>-243372.3667747109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30766.30879779041</v>
+        <v>-263074.5163214572</v>
       </c>
       <c r="E12" t="n">
-        <v>-44568.56493581299</v>
+        <v>-220707.2842645725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30784.58059666244</v>
+        <v>-233525.3112727786</v>
       </c>
       <c r="E13" t="n">
-        <v>-62282.03691163703</v>
+        <v>-197083.5662168568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30789.23326080267</v>
+        <v>-202566.4580462331</v>
       </c>
       <c r="E14" t="n">
-        <v>-79981.88975272926</v>
+        <v>-172050.1999912742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-30790.33159444105</v>
+        <v>-169506.5663045567</v>
       </c>
       <c r="E15" t="n">
-        <v>-97678.18826331964</v>
+        <v>-144915.7952505607</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-30790.57344965879</v>
+        <v>-133571.2918336499</v>
       </c>
       <c r="E16" t="n">
-        <v>-115373.6302954894</v>
+        <v>-114906.0077806168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-30790.62341217301</v>
+        <v>-94059.8935198101</v>
       </c>
       <c r="E17" t="n">
-        <v>-133068.8804349556</v>
+        <v>-81320.09646773989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-30790.6331461363</v>
+        <v>-50465.18117429026</v>
       </c>
       <c r="E18" t="n">
-        <v>-150764.0903458709</v>
+        <v>-43650.87112318295</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-30790.63494335541</v>
+        <v>-2538.016105574466</v>
       </c>
       <c r="E19" t="n">
-        <v>-168459.292320042</v>
+        <v>-1649.193055430041</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-30790.63525923378</v>
+        <v>49704.7366109432</v>
       </c>
       <c r="E20" t="n">
-        <v>-186154.4928128724</v>
+        <v>44668.07266012473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-30790.63531230177</v>
+        <v>106016.7590467911</v>
       </c>
       <c r="E21" t="n">
-        <v>-203849.6930428924</v>
+        <v>95054.60809500971</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-30790.63532085602</v>
+        <v>165985.0301628934</v>
       </c>
       <c r="E22" t="n">
-        <v>-221544.8932283986</v>
+        <v>149097.3922101492</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30790.63532218366</v>
+        <v>229100.5459828569</v>
       </c>
       <c r="E23" t="n">
-        <v>-239240.0934066782</v>
+        <v>206287.4210291498</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30790.63532238269</v>
+        <v>294822.9921201701</v>
       </c>
       <c r="E24" t="n">
-        <v>-256935.2935838293</v>
+        <v>266084.3801655</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30790.6353224116</v>
+        <v>362631.1536035499</v>
       </c>
       <c r="E25" t="n">
-        <v>-274630.4937608102</v>
+        <v>327967.054647917</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30790.63532241568</v>
+        <v>432056.2563051961</v>
       </c>
       <c r="E26" t="n">
-        <v>-292325.6939377662</v>
+        <v>391466.6703486003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30790.63532241623</v>
+        <v>502699.3633594564</v>
       </c>
       <c r="E27" t="n">
-        <v>-310020.8941147188</v>
+        <v>456184.2904018976</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30790.63532241631</v>
+        <v>574236.1310990615</v>
       </c>
       <c r="E28" t="n">
-        <v>-327716.0942916709</v>
+        <v>521795.5711405398</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30790.63532241632</v>
+        <v>646412.92680563</v>
       </c>
       <c r="E29" t="n">
-        <v>-345411.2944686229</v>
+        <v>588046.8798461455</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30790.63532241632</v>
+        <v>719038.0149350069</v>
       </c>
       <c r="E30" t="n">
-        <v>-363106.4946455749</v>
+        <v>654746.4809745594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30790.63532241632</v>
+        <v>791970.7199696919</v>
       </c>
       <c r="E31" t="n">
-        <v>-380801.6948225269</v>
+        <v>721753.6990082817</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30790.63532241632</v>
+        <v>865110.5463562126</v>
       </c>
       <c r="E32" t="n">
-        <v>-398496.8949994789</v>
+        <v>788968.0383938394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30790.63532241632</v>
+        <v>938387.4055454966</v>
       </c>
       <c r="E33" t="n">
-        <v>-416192.0951764309</v>
+        <v>856319.4105821606</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30790.63532241632</v>
+        <v>1011753.467104519</v>
       </c>
       <c r="E34" t="n">
-        <v>-433887.2953533829</v>
+        <v>923759.9851402197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30790.63532241632</v>
+        <v>1085176.729552787</v>
       </c>
       <c r="E35" t="n">
-        <v>-451582.4955303349</v>
+        <v>991257.7605875247</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30790.63532241632</v>
+        <v>1158636.165233033</v>
       </c>
       <c r="E36" t="n">
-        <v>-469277.6957072869</v>
+        <v>1058791.709266809</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1232118.183837826</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1126348.240870639</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,597 +1139,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116669.3661521837</v>
+        <v>-458388.6772592023</v>
       </c>
       <c r="E2" t="n">
-        <v>279819.1117836811</v>
+        <v>-356766.5751926887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42939.36541488369</v>
+        <v>-456280.0611996943</v>
       </c>
       <c r="E3" t="n">
-        <v>188393.9108694291</v>
+        <v>-360583.4461341436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-30790.63532241632</v>
+        <v>-451967.3643529364</v>
       </c>
       <c r="E4" t="n">
-        <v>96968.70995517711</v>
+        <v>-362196.2362883486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-30790.63532241632</v>
+        <v>-444230.6234624187</v>
       </c>
       <c r="E5" t="n">
-        <v>79273.50977822511</v>
+        <v>-360384.9823987938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-30790.63532241632</v>
+        <v>-431882.8240103843</v>
       </c>
       <c r="E6" t="n">
-        <v>61578.30960127311</v>
+        <v>-353962.6699477222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-30790.63532241632</v>
+        <v>-414144.7740070563</v>
       </c>
       <c r="E7" t="n">
-        <v>43883.10942432111</v>
+        <v>-342150.1069453572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-30790.63532241632</v>
+        <v>-390981.9556509781</v>
       </c>
       <c r="E8" t="n">
-        <v>26187.9092473691</v>
+        <v>-324912.7755902419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-30790.63532241632</v>
+        <v>-363239.6163062898</v>
       </c>
       <c r="E9" t="n">
-        <v>8492.709070417102</v>
+        <v>-303095.9232465164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-30790.63532241632</v>
+        <v>-332477.9831848511</v>
       </c>
       <c r="E10" t="n">
-        <v>-9202.491106534901</v>
+        <v>-278259.7771260406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-30790.63532241632</v>
+        <v>-300533.0766718789</v>
       </c>
       <c r="E11" t="n">
-        <v>-26897.6912834869</v>
+        <v>-252240.3576140313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-30790.63532241632</v>
+        <v>-268949.5438073695</v>
       </c>
       <c r="E12" t="n">
-        <v>-44592.8914604389</v>
+        <v>-226582.3117504849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-30790.63532241632</v>
+        <v>-238491.6366938968</v>
       </c>
       <c r="E13" t="n">
-        <v>-62288.09163739091</v>
+        <v>-202049.891637975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-30790.63532241632</v>
+        <v>-208909.5751652058</v>
       </c>
       <c r="E14" t="n">
-        <v>-79983.29181434291</v>
+        <v>-178393.3171102469</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-30790.63532241632</v>
+        <v>-179035.4079021802</v>
       </c>
       <c r="E15" t="n">
-        <v>-97678.4919912949</v>
+        <v>-154444.6368481842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-30790.63532241632</v>
+        <v>-147153.2053646731</v>
       </c>
       <c r="E16" t="n">
-        <v>-115373.6921682469</v>
+        <v>-128487.92131164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-30790.63532241632</v>
+        <v>-111491.9150118113</v>
       </c>
       <c r="E17" t="n">
-        <v>-133068.8923451989</v>
+        <v>-98752.1179597411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-30790.63532241632</v>
+        <v>-70665.44048200894</v>
       </c>
       <c r="E18" t="n">
-        <v>-150764.0925221509</v>
+        <v>-63851.13043090163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-30790.63532241632</v>
+        <v>-23934.18276116475</v>
       </c>
       <c r="E19" t="n">
-        <v>-168459.2926991029</v>
+        <v>-23045.35971102032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-30790.63532241632</v>
+        <v>28749.53746621912</v>
       </c>
       <c r="E20" t="n">
-        <v>-186154.4928760549</v>
+        <v>23712.87351540066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-30790.63532241632</v>
+        <v>86869.25349737218</v>
       </c>
       <c r="E21" t="n">
-        <v>-203849.6930530069</v>
+        <v>75907.10254559082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-30790.63532241632</v>
+        <v>149560.5255541241</v>
       </c>
       <c r="E22" t="n">
-        <v>-221544.8932299589</v>
+        <v>132672.8876013798</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30790.63532241632</v>
+        <v>215831.896877496</v>
       </c>
       <c r="E23" t="n">
-        <v>-239240.0934069109</v>
+        <v>193018.7719237888</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30790.63532241632</v>
+        <v>284735.655708137</v>
       </c>
       <c r="E24" t="n">
-        <v>-256935.2935838629</v>
+        <v>255997.0437534669</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30790.63532241632</v>
+        <v>355468.4899058256</v>
       </c>
       <c r="E25" t="n">
-        <v>-274630.4937608149</v>
+        <v>320804.3909501927</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30790.63532241632</v>
+        <v>427408.6760993329</v>
       </c>
       <c r="E26" t="n">
-        <v>-292325.6939377669</v>
+        <v>386819.0901427371</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30790.63532241632</v>
+        <v>500109.3521965896</v>
       </c>
       <c r="E27" t="n">
-        <v>-310020.8941147189</v>
+        <v>453594.2792390309</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30790.63532241632</v>
+        <v>573268.8924592249</v>
       </c>
       <c r="E28" t="n">
-        <v>-327716.0942916709</v>
+        <v>520828.3325007033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30790.63532241632</v>
+        <v>646694.5528863808</v>
       </c>
       <c r="E29" t="n">
-        <v>-345411.2944686229</v>
+        <v>588328.5059268964</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30790.63532241632</v>
+        <v>720269.007243376</v>
       </c>
       <c r="E30" t="n">
-        <v>-363106.4946455749</v>
+        <v>655977.4732829286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30790.63532241632</v>
+        <v>793923.8855427076</v>
       </c>
       <c r="E31" t="n">
-        <v>-380801.6948225269</v>
+        <v>723706.8645812974</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30790.63532241632</v>
+        <v>867620.8894860634</v>
       </c>
       <c r="E32" t="n">
-        <v>-398496.8949994789</v>
+        <v>791478.3815236902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30790.63532241632</v>
+        <v>941339.3244473879</v>
       </c>
       <c r="E33" t="n">
-        <v>-416192.0951764309</v>
+        <v>859271.3294840519</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30790.63532241632</v>
+        <v>1015068.370658879</v>
       </c>
       <c r="E34" t="n">
-        <v>-433887.2953533829</v>
+        <v>927074.8886945796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30790.63532241632</v>
+        <v>1088802.540044483</v>
       </c>
       <c r="E35" t="n">
-        <v>-451582.4955303349</v>
+        <v>994883.5710792214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30790.63532241632</v>
+        <v>1162539.125554806</v>
       </c>
       <c r="E36" t="n">
-        <v>-469277.6957072869</v>
+        <v>1062694.669588582</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1236276.825901659</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1130506.882934471</v>
       </c>
     </row>
   </sheetData>
@@ -1717,13 +1754,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,597 +1797,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212803.1836108745</v>
+        <v>-460567.3111484298</v>
       </c>
       <c r="E2" t="n">
-        <v>375952.9292423719</v>
+        <v>-358945.2090819161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>171586.7333705219</v>
+        <v>-460526.8470690945</v>
       </c>
       <c r="E3" t="n">
-        <v>317041.2788250674</v>
+        <v>-364830.2320035439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135620.1455240953</v>
+        <v>-460267.7964647316</v>
       </c>
       <c r="E4" t="n">
-        <v>263379.4908016887</v>
+        <v>-370496.6684001439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104696.0754378371</v>
+        <v>-459108.7461340284</v>
       </c>
       <c r="E5" t="n">
-        <v>214760.2205384785</v>
+        <v>-375263.1050704035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>78479.79774335033</v>
+        <v>-455308.4719615488</v>
       </c>
       <c r="E6" t="n">
-        <v>170848.7426670397</v>
+        <v>-377388.3178988867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56548.61309897248</v>
+        <v>-445788.7169692082</v>
       </c>
       <c r="E7" t="n">
-        <v>131222.3578457099</v>
+        <v>-373794.0499075091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>38430.00865895142</v>
+        <v>-426900.2283424729</v>
       </c>
       <c r="E8" t="n">
-        <v>95408.55322873684</v>
+        <v>-360831.0482817367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>23634.93361680385</v>
+        <v>-396325.1943092665</v>
       </c>
       <c r="E9" t="n">
-        <v>62918.27800963727</v>
+        <v>-336181.5012494932</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11684.25847547741</v>
+        <v>-355055.9532685</v>
       </c>
       <c r="E10" t="n">
-        <v>33272.40269135882</v>
+        <v>-300837.7472096896</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2127.892089636776</v>
+        <v>-307954.0790238905</v>
       </c>
       <c r="E11" t="n">
-        <v>6020.836128566196</v>
+        <v>-259661.3599660429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5442.981125806215</v>
+        <v>-262130.9208357575</v>
       </c>
       <c r="E12" t="n">
-        <v>-19245.2372638288</v>
+        <v>-219763.6887788728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-11389.50344895691</v>
+        <v>-223845.8298462461</v>
       </c>
       <c r="E13" t="n">
-        <v>-42886.9597639315</v>
+        <v>-187404.0847903243</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16023.30365578502</v>
+        <v>-195717.5513115356</v>
       </c>
       <c r="E14" t="n">
-        <v>-65215.96014771161</v>
+        <v>-165201.2932565767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-19607.92956229773</v>
+        <v>-175719.2289710144</v>
       </c>
       <c r="E15" t="n">
-        <v>-86495.78623117632</v>
+        <v>-151128.4579170184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-22362.41046628358</v>
+        <v>-158144.6016195781</v>
       </c>
       <c r="E16" t="n">
-        <v>-106945.4673121142</v>
+        <v>-139479.317566545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-24466.01787451869</v>
+        <v>-135919.8813510409</v>
       </c>
       <c r="E17" t="n">
-        <v>-126744.2748973013</v>
+        <v>-123180.0842989707</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26063.52000216941</v>
+        <v>-103364.011433733</v>
       </c>
       <c r="E18" t="n">
-        <v>-146036.977201904</v>
+        <v>-96549.70138262572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-27270.43569540449</v>
+        <v>-58155.64445884018</v>
       </c>
       <c r="E19" t="n">
-        <v>-164939.0930720911</v>
+        <v>-57266.82140869575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28177.97004222267</v>
+        <v>-1470.132810464715</v>
       </c>
       <c r="E20" t="n">
-        <v>-183541.8275958613</v>
+        <v>-6506.796761283181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-28857.45167190157</v>
+        <v>63509.07020631248</v>
       </c>
       <c r="E21" t="n">
-        <v>-201916.5094024922</v>
+        <v>52546.91925453112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29364.19221010505</v>
+        <v>133417.2534323052</v>
       </c>
       <c r="E22" t="n">
-        <v>-220118.4501176476</v>
+        <v>116529.615479561</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-29740.75676852976</v>
+        <v>205782.0795670795</v>
       </c>
       <c r="E23" t="n">
-        <v>-238190.2148530243</v>
+        <v>182968.9546133723</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30019.67724016027</v>
+        <v>279188.9474115017</v>
       </c>
       <c r="E24" t="n">
-        <v>-256164.3355016068</v>
+        <v>250450.3354568317</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30225.66400652037</v>
+        <v>352976.6480108335</v>
       </c>
       <c r="E25" t="n">
-        <v>-274065.5224449189</v>
+        <v>318312.5490552005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30377.38210160441</v>
+        <v>426885.5772876645</v>
       </c>
       <c r="E26" t="n">
-        <v>-291912.440716955</v>
+        <v>386295.9913310686</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30488.8594899244</v>
+        <v>500828.4500661842</v>
       </c>
       <c r="E27" t="n">
-        <v>-309719.118282227</v>
+        <v>454313.3771086254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30570.59136962962</v>
+        <v>574779.7577033406</v>
       </c>
       <c r="E28" t="n">
-        <v>-327496.0503388842</v>
+        <v>522339.197744819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30630.39779111159</v>
+        <v>648732.9409528064</v>
       </c>
       <c r="E29" t="n">
-        <v>-345251.0569373182</v>
+        <v>590366.8939933219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30674.08407162597</v>
+        <v>722686.5002543612</v>
       </c>
       <c r="E30" t="n">
-        <v>-362989.9433947845</v>
+        <v>658394.9662939138</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30705.94555888272</v>
+        <v>796640.1280160826</v>
       </c>
       <c r="E31" t="n">
-        <v>-380717.0050589933</v>
+        <v>726423.1070546723</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30729.15087775237</v>
+        <v>870593.767168009</v>
       </c>
       <c r="E32" t="n">
-        <v>-398435.410554815</v>
+        <v>794451.2592056358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30746.03120340574</v>
+        <v>944547.4080623089</v>
       </c>
       <c r="E33" t="n">
-        <v>-416147.4910574203</v>
+        <v>862479.4130989729</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30758.29745956477</v>
+        <v>1018501.049203036</v>
       </c>
       <c r="E34" t="n">
-        <v>-433854.9574905313</v>
+        <v>930507.5672387375</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30767.2026371454</v>
+        <v>1092454.690376154</v>
       </c>
       <c r="E35" t="n">
-        <v>-451559.062845064</v>
+        <v>998535.7214108926</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30773.6625926671</v>
+        <v>1166408.33155325</v>
       </c>
       <c r="E36" t="n">
-        <v>-469260.7229775377</v>
+        <v>1066563.875587025</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1240361.972730802</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1134592.029763614</v>
       </c>
     </row>
   </sheetData>
@@ -2358,13 +2412,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2401,597 +2455,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>211461.4810616108</v>
+        <v>-461031.5596918952</v>
       </c>
       <c r="E2" t="n">
-        <v>374611.2266931082</v>
+        <v>-359409.4576253816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>170136.2262964304</v>
+        <v>-461031.5596918953</v>
       </c>
       <c r="E3" t="n">
-        <v>315590.7717509758</v>
+        <v>-365334.9446263446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>134109.8314089882</v>
+        <v>-461031.5596918953</v>
       </c>
       <c r="E4" t="n">
-        <v>261869.1766865816</v>
+        <v>-371260.4316273076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>103174.5779292326</v>
+        <v>-461031.5596918953</v>
       </c>
       <c r="E5" t="n">
-        <v>213238.723029874</v>
+        <v>-377185.9186282704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>76991.25408450153</v>
+        <v>-461031.5596918953</v>
       </c>
       <c r="E6" t="n">
-        <v>169360.1990081909</v>
+        <v>-383111.4056292333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55129.8339929596</v>
+        <v>-461031.5596918953</v>
       </c>
       <c r="E7" t="n">
-        <v>129803.578739697</v>
+        <v>-389036.8926301962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>37108.98195796624</v>
+        <v>-461031.5596918953</v>
       </c>
       <c r="E8" t="n">
-        <v>94087.52652775166</v>
+        <v>-394962.379631159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22430.51808021047</v>
+        <v>-461031.5596918953</v>
       </c>
       <c r="E9" t="n">
-        <v>61713.8624730439</v>
+        <v>-400887.8666321219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>10606.78800713253</v>
+        <v>-386962.9721798591</v>
       </c>
       <c r="E10" t="n">
-        <v>32194.93222301395</v>
+        <v>-332744.7661210486</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1180.372238509844</v>
+        <v>-312894.384667823</v>
       </c>
       <c r="E11" t="n">
-        <v>5073.316277439264</v>
+        <v>-264601.6656099754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6263.379249789046</v>
+        <v>-238825.7971557868</v>
       </c>
       <c r="E12" t="n">
-        <v>-20065.63538781163</v>
+        <v>-196458.5650989021</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-12089.88850941984</v>
+        <v>-164757.2096437507</v>
       </c>
       <c r="E13" t="n">
-        <v>-43587.34482439443</v>
+        <v>-128315.4645878289</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16613.61495176151</v>
+        <v>-164757.2096437507</v>
       </c>
       <c r="E14" t="n">
-        <v>-65806.27144368809</v>
+        <v>-134240.9515887918</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-20099.6926100313</v>
+        <v>-164757.2096437507</v>
       </c>
       <c r="E15" t="n">
-        <v>-86987.54927890988</v>
+        <v>-140166.4385897547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-22767.74127210912</v>
+        <v>-164757.2096437507</v>
       </c>
       <c r="E16" t="n">
-        <v>-107350.7981179397</v>
+        <v>-146091.9255907176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-24796.87961221455</v>
+        <v>-164757.2096437507</v>
       </c>
       <c r="E17" t="n">
-        <v>-127075.1366349972</v>
+        <v>-152017.4125916804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26331.21002132304</v>
+        <v>-164757.2096437507</v>
       </c>
       <c r="E18" t="n">
-        <v>-146304.6672210576</v>
+        <v>-157942.8995926433</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-27485.26705436291</v>
+        <v>-90688.62213171452</v>
       </c>
       <c r="E19" t="n">
-        <v>-165153.9244310495</v>
+        <v>-89799.79908157011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28349.10697684767</v>
+        <v>-16620.03461967837</v>
       </c>
       <c r="E20" t="n">
-        <v>-183712.9645304863</v>
+        <v>-21656.69857049684</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-28992.8595704025</v>
+        <v>57448.55289235778</v>
       </c>
       <c r="E21" t="n">
-        <v>-202051.9173009931</v>
+        <v>46486.40194057643</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29470.66725153928</v>
+        <v>131517.1404043939</v>
       </c>
       <c r="E22" t="n">
-        <v>-220224.9251590819</v>
+        <v>114629.5024516496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-29824.00651751284</v>
+        <v>205585.7279164301</v>
       </c>
       <c r="E23" t="n">
-        <v>-238273.4646020074</v>
+        <v>182772.6029627229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30084.42990110015</v>
+        <v>279654.3154284662</v>
       </c>
       <c r="E24" t="n">
-        <v>-256229.0881625467</v>
+        <v>250915.7034737961</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30275.78996184262</v>
+        <v>353722.9029405023</v>
       </c>
       <c r="E25" t="n">
-        <v>-274115.6484002412</v>
+        <v>319058.8039848694</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30416.01640378333</v>
+        <v>427791.4904525385</v>
       </c>
       <c r="E26" t="n">
-        <v>-291951.0750191339</v>
+        <v>387201.9044959426</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30518.51801929145</v>
+        <v>501860.0779645746</v>
       </c>
       <c r="E27" t="n">
-        <v>-309748.776811594</v>
+        <v>455345.0050070159</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30593.27644100478</v>
+        <v>575928.6654766108</v>
       </c>
       <c r="E28" t="n">
-        <v>-327518.7354102593</v>
+        <v>523488.1055180891</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30647.69120980213</v>
+        <v>649997.252988647</v>
       </c>
       <c r="E29" t="n">
-        <v>-345268.3503560087</v>
+        <v>591631.2060291625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30687.22715545584</v>
+        <v>724065.8405006831</v>
       </c>
       <c r="E30" t="n">
-        <v>-363003.0864786144</v>
+        <v>659774.3065402356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30715.90661285894</v>
+        <v>798134.4280127191</v>
       </c>
       <c r="E31" t="n">
-        <v>-380726.9661129695</v>
+        <v>727917.4070513089</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30736.68117239045</v>
+        <v>872203.0155247553</v>
       </c>
       <c r="E32" t="n">
-        <v>-398442.940849453</v>
+        <v>796060.5075623821</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30751.71078479951</v>
+        <v>946271.6030367914</v>
       </c>
       <c r="E33" t="n">
-        <v>-416153.1706388141</v>
+        <v>864203.6080734554</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30762.57220284448</v>
+        <v>1020340.190548828</v>
       </c>
       <c r="E34" t="n">
-        <v>-433859.2322338111</v>
+        <v>932346.7085845286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30770.41391613437</v>
+        <v>1094408.778060864</v>
       </c>
       <c r="E35" t="n">
-        <v>-451562.274124053</v>
+        <v>1000489.809095602</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30776.07082893517</v>
+        <v>1168477.3655729</v>
       </c>
       <c r="E36" t="n">
-        <v>-469263.1312138058</v>
+        <v>1068632.909606675</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1242545.953084936</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1136776.010117749</v>
       </c>
     </row>
   </sheetData>
@@ -2999,13 +3070,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,597 +3113,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263894.5981184418</v>
+        <v>-461002.8021829237</v>
       </c>
       <c r="E2" t="n">
-        <v>427044.3437499392</v>
+        <v>-359380.70011641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>226129.426378351</v>
+        <v>-461002.8021829236</v>
       </c>
       <c r="E3" t="n">
-        <v>371583.9718328965</v>
+        <v>-365306.1871173729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>192222.7290626282</v>
+        <v>-461002.8021829235</v>
       </c>
       <c r="E4" t="n">
-        <v>319982.0743402216</v>
+        <v>-371231.6741183357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>161994.759641622</v>
+        <v>-461002.8021829235</v>
       </c>
       <c r="E5" t="n">
-        <v>272058.9047422635</v>
+        <v>-377157.1611192987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>135223.3555684942</v>
+        <v>-461002.8021513873</v>
       </c>
       <c r="E6" t="n">
-        <v>227592.3004921837</v>
+        <v>-383082.6480887253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>111657.8055445349</v>
+        <v>-461001.9570648118</v>
       </c>
       <c r="E7" t="n">
-        <v>186331.5502912723</v>
+        <v>-389007.2900031128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>91031.22987613631</v>
+        <v>-460478.8022181989</v>
       </c>
       <c r="E8" t="n">
-        <v>148009.7744459217</v>
+        <v>-394409.6221574626</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>73071.07822604016</v>
+        <v>-444613.8447340431</v>
       </c>
       <c r="E9" t="n">
-        <v>112354.4226188736</v>
+        <v>-384470.1516742698</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>57507.60556328198</v>
+        <v>-386297.9122074503</v>
       </c>
       <c r="E10" t="n">
-        <v>79095.74977916339</v>
+        <v>-332079.7061486398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>44080.37250378936</v>
+        <v>-312877.7314400404</v>
       </c>
       <c r="E11" t="n">
-        <v>47973.31654271878</v>
+        <v>-264585.0123821928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>32542.93724171603</v>
+        <v>-239232.5359538024</v>
       </c>
       <c r="E12" t="n">
-        <v>18740.68110369345</v>
+        <v>-196865.3038969177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22665.97432907749</v>
+        <v>-180458.061676578</v>
       </c>
       <c r="E13" t="n">
-        <v>-8831.481985897099</v>
+        <v>-144016.3166206562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>14239.08338511458</v>
+        <v>-165257.3430210476</v>
       </c>
       <c r="E14" t="n">
-        <v>-34953.57310681201</v>
+        <v>-134741.0849660887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7071.550350965263</v>
+        <v>-164758.5191038568</v>
       </c>
       <c r="E15" t="n">
-        <v>-59816.30631791332</v>
+        <v>-140167.7480498608</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>992.3052749940148</v>
+        <v>-164756.7892250431</v>
       </c>
       <c r="E16" t="n">
-        <v>-83590.75157083658</v>
+        <v>-146091.50517201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4150.708230902687</v>
+        <v>-164355.2065939698</v>
       </c>
       <c r="E17" t="n">
-        <v>-106428.9652536853</v>
+        <v>-151615.4095418996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-8491.569949835</v>
+        <v>-149168.4275875001</v>
       </c>
       <c r="E18" t="n">
-        <v>-128465.0271495696</v>
+        <v>-142354.1175363928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-12147.67813180445</v>
+        <v>-90221.96347378117</v>
       </c>
       <c r="E19" t="n">
-        <v>-149816.3355084911</v>
+        <v>-89333.14042363675</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-15221.18586113511</v>
+        <v>-16633.32463355088</v>
       </c>
       <c r="E20" t="n">
-        <v>-170585.0434147737</v>
+        <v>-21669.98858436935</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-17800.48985762753</v>
+        <v>57426.9849262534</v>
       </c>
       <c r="E21" t="n">
-        <v>-190859.5475882181</v>
+        <v>46464.83397447204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-19961.70667394456</v>
+        <v>131488.3828954243</v>
       </c>
       <c r="E22" t="n">
-        <v>-210715.9645814872</v>
+        <v>114600.74494268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-21770.09087139583</v>
+        <v>205549.7810302154</v>
       </c>
       <c r="E23" t="n">
-        <v>-230219.5489558904</v>
+        <v>182736.6560765082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-23281.36542581417</v>
+        <v>279611.1791650085</v>
       </c>
       <c r="E24" t="n">
-        <v>-249426.0236872607</v>
+        <v>250872.5672103385</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-24542.94676796765</v>
+        <v>353672.5772998017</v>
       </c>
       <c r="E25" t="n">
-        <v>-268382.8052063662</v>
+        <v>319008.4783441688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-25595.05600823597</v>
+        <v>427733.975434595</v>
       </c>
       <c r="E26" t="n">
-        <v>-287130.1146235865</v>
+        <v>387144.3894779991</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-26471.71455109712</v>
+        <v>501795.3735693882</v>
       </c>
       <c r="E27" t="n">
-        <v>-305701.9733433997</v>
+        <v>455280.3006118294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-27201.62695742122</v>
+        <v>575856.7717041814</v>
       </c>
       <c r="E28" t="n">
-        <v>-324127.0859266758</v>
+        <v>523416.2117456598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-27808.95699423436</v>
+        <v>649918.1698389746</v>
       </c>
       <c r="E29" t="n">
-        <v>-342429.6161404409</v>
+        <v>591552.1228794901</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-28314.00469264391</v>
+        <v>723979.5679737678</v>
       </c>
       <c r="E30" t="n">
-        <v>-360629.8640158025</v>
+        <v>659688.0340133203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-28733.79322207228</v>
+        <v>798040.966108561</v>
       </c>
       <c r="E31" t="n">
-        <v>-378744.8527221829</v>
+        <v>727823.9451471508</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-29082.57473091156</v>
+        <v>872102.3642433542</v>
       </c>
       <c r="E32" t="n">
-        <v>-396788.8344079742</v>
+        <v>795959.856280981</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-29372.26419595624</v>
+        <v>946163.7623781473</v>
       </c>
       <c r="E33" t="n">
-        <v>-414773.7240499708</v>
+        <v>864095.7674148113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-29612.80991653068</v>
+        <v>1020225.160512941</v>
       </c>
       <c r="E34" t="n">
-        <v>-432709.4699474972</v>
+        <v>932231.6785486416</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-29812.50869804987</v>
+        <v>1094286.558647734</v>
       </c>
       <c r="E35" t="n">
-        <v>-450604.3689059684</v>
+        <v>1000367.589682472</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-29978.27307774353</v>
+        <v>1168347.956782527</v>
       </c>
       <c r="E36" t="n">
-        <v>-468465.3334626141</v>
+        <v>1068503.500816303</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1242409.35491732</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1136639.411950133</v>
       </c>
     </row>
   </sheetData>
@@ -3640,13 +3728,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3683,597 +3771,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>249595.4392829724</v>
+        <v>-454521.9067519746</v>
       </c>
       <c r="E2" t="n">
-        <v>412745.1849144698</v>
+        <v>-352899.804685461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>210968.6110920151</v>
+        <v>-450006.937836954</v>
       </c>
       <c r="E3" t="n">
-        <v>356423.1565465606</v>
+        <v>-354310.3227714034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>176516.2521586411</v>
+        <v>-442652.4072724098</v>
       </c>
       <c r="E4" t="n">
-        <v>304275.5974362345</v>
+        <v>-352881.2792078221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>146049.7391606574</v>
+        <v>-431728.1891751317</v>
       </c>
       <c r="E5" t="n">
-        <v>256113.8842612988</v>
+        <v>-347882.5481115069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>119323.6236615304</v>
+        <v>-416786.878463892</v>
       </c>
       <c r="E6" t="n">
-        <v>211692.5685852199</v>
+        <v>-338866.72440123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>96053.73465321558</v>
+        <v>-397804.77572041</v>
       </c>
       <c r="E7" t="n">
-        <v>170727.479399953</v>
+        <v>-325810.108658711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>75933.64235909352</v>
+        <v>-375214.2546960934</v>
       </c>
       <c r="E8" t="n">
-        <v>132912.1869288789</v>
+        <v>-309145.0746353571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>58648.73781825844</v>
+        <v>-349802.4383143893</v>
       </c>
       <c r="E9" t="n">
-        <v>97932.08221109185</v>
+        <v>-289658.7452546159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>43887.60355625725</v>
+        <v>-322499.251798958</v>
       </c>
       <c r="E10" t="n">
-        <v>65475.74777213867</v>
+        <v>-268281.0457401475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>31350.66577573005</v>
+        <v>-294118.6936386824</v>
       </c>
       <c r="E11" t="n">
-        <v>35243.60981465947</v>
+        <v>-245825.9745808349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>20756.3303980058</v>
+        <v>-265133.7624018398</v>
       </c>
       <c r="E12" t="n">
-        <v>6954.074259983219</v>
+        <v>-222766.5303449551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11844.92853692603</v>
+        <v>-235551.9754585654</v>
       </c>
       <c r="E13" t="n">
-        <v>-19652.52777804855</v>
+        <v>-199110.2304026436</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4380.851151078808</v>
+        <v>-204921.7920355371</v>
       </c>
       <c r="E14" t="n">
-        <v>-44811.80534084778</v>
+        <v>-174405.5339805782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1846.742465146626</v>
+        <v>-172456.4600141762</v>
       </c>
       <c r="E15" t="n">
-        <v>-68734.59913402521</v>
+        <v>-147865.6889601802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-7024.284557203231</v>
+        <v>-137227.9815923634</v>
       </c>
       <c r="E16" t="n">
-        <v>-91607.34140303382</v>
+        <v>-118562.6975393303</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-11314.91403103235</v>
+        <v>-98370.78674954778</v>
       </c>
       <c r="E17" t="n">
-        <v>-113593.1710538149</v>
+        <v>-85630.98969747758</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-14860.08586649538</v>
+        <v>-55243.11088205605</v>
       </c>
       <c r="E18" t="n">
-        <v>-134833.54306623</v>
+        <v>-48428.80083094873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-17781.46651772935</v>
+        <v>-7516.475929544962</v>
       </c>
       <c r="E19" t="n">
-        <v>-155450.1238944159</v>
+        <v>-6627.652879400537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-20182.95577782889</v>
+        <v>44810.75200869366</v>
       </c>
       <c r="E20" t="n">
-        <v>-175546.8133314675</v>
+        <v>39774.0880578752</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-22152.71818770041</v>
+        <v>101459.9931331913</v>
       </c>
       <c r="E21" t="n">
-        <v>-195211.775918291</v>
+        <v>90497.84218140997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-23765.14259537716</v>
+        <v>161953.8655084582</v>
       </c>
       <c r="E22" t="n">
-        <v>-214519.4005029198</v>
+        <v>145066.2275557139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-25082.67695487284</v>
+        <v>225706.94607244</v>
       </c>
       <c r="E23" t="n">
-        <v>-233532.1350393674</v>
+        <v>202893.8211187329</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-26157.50747350942</v>
+        <v>292106.7331336801</v>
       </c>
       <c r="E24" t="n">
-        <v>-252302.165734956</v>
+        <v>263368.1211790101</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-27033.06762989466</v>
+        <v>360574.2438518446</v>
       </c>
       <c r="E25" t="n">
-        <v>-270872.9260682932</v>
+        <v>325910.1448962116</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-27745.37433958158</v>
+        <v>430601.4500943256</v>
       </c>
       <c r="E26" t="n">
-        <v>-289280.4329549322</v>
+        <v>390011.8641377297</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-28324.19656709232</v>
+        <v>501768.1053957141</v>
       </c>
       <c r="E27" t="n">
-        <v>-307554.4553593949</v>
+        <v>455253.0324381553</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-28794.0668088841</v>
+        <v>573743.1719706836</v>
       </c>
       <c r="E28" t="n">
-        <v>-325719.5257781387</v>
+        <v>521302.612012162</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-29175.14882167213</v>
+        <v>646276.5654439257</v>
       </c>
       <c r="E29" t="n">
-        <v>-343795.8079678787</v>
+        <v>587910.5184844412</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-29483.97633862568</v>
+        <v>719186.131310439</v>
       </c>
       <c r="E30" t="n">
-        <v>-361799.8356617843</v>
+        <v>654894.5973499916</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-29734.07777713111</v>
+        <v>792343.4148816434</v>
       </c>
       <c r="E31" t="n">
-        <v>-379745.1372772417</v>
+        <v>722126.3939202331</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-29936.50146435637</v>
+        <v>865660.41482537</v>
       </c>
       <c r="E32" t="n">
-        <v>-397642.7611414189</v>
+        <v>789517.9068629968</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30100.254968496</v>
+        <v>939078.3975327198</v>
       </c>
       <c r="E33" t="n">
-        <v>-415501.7148225105</v>
+        <v>857010.4025693837</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30232.67092784568</v>
+        <v>1012559.081436596</v>
       </c>
       <c r="E34" t="n">
-        <v>-433329.3309588123</v>
+        <v>924565.5994722967</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30339.71046125107</v>
+        <v>1086078.048749702</v>
       </c>
       <c r="E35" t="n">
-        <v>-451131.5706691697</v>
+        <v>992159.07978444</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30426.2139208063</v>
+        <v>1159620.029625935</v>
       </c>
       <c r="E36" t="n">
-        <v>-468913.2743056769</v>
+        <v>1059775.57365971</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1233175.646615856</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1127405.703648668</v>
       </c>
     </row>
   </sheetData>
@@ -4281,13 +4386,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,597 +4429,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>231053.9745811994</v>
+        <v>-458388.6772592023</v>
       </c>
       <c r="E2" t="n">
-        <v>394203.7202126968</v>
+        <v>-356766.5751926887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>191204.4730668294</v>
+        <v>-456280.0611996943</v>
       </c>
       <c r="E3" t="n">
-        <v>336659.0185213749</v>
+        <v>-360583.4461341436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>156014.5916303334</v>
+        <v>-451967.3643529364</v>
       </c>
       <c r="E4" t="n">
-        <v>283773.9369079268</v>
+        <v>-362196.2362883486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>125284.9033616741</v>
+        <v>-444230.6234624187</v>
       </c>
       <c r="E5" t="n">
-        <v>235349.0484623155</v>
+        <v>-360384.9823987938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>98731.74309853552</v>
+        <v>-431882.8240103843</v>
       </c>
       <c r="E6" t="n">
-        <v>191100.6880222249</v>
+        <v>-353962.6699477222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>76013.47006878768</v>
+        <v>-414144.7740070563</v>
       </c>
       <c r="E7" t="n">
-        <v>150687.2148155251</v>
+        <v>-342150.1069453572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>56755.04123978872</v>
+        <v>-390981.9556509781</v>
       </c>
       <c r="E8" t="n">
-        <v>113733.5858095741</v>
+        <v>-324912.7755902419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>40569.2500348268</v>
+        <v>-363239.6163062898</v>
       </c>
       <c r="E9" t="n">
-        <v>79852.59442766022</v>
+        <v>-303095.9232465164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>27073.81181760785</v>
+        <v>-332477.9831848511</v>
       </c>
       <c r="E10" t="n">
-        <v>48661.95603348927</v>
+        <v>-278259.7771260406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15904.12608682724</v>
+        <v>-300533.0766718789</v>
       </c>
       <c r="E11" t="n">
-        <v>19797.07012575666</v>
+        <v>-252240.3576140313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>6721.993970683595</v>
+        <v>-268949.5438073695</v>
       </c>
       <c r="E12" t="n">
-        <v>-7080.262167338987</v>
+        <v>-226582.3117504849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-779.1648076253236</v>
+        <v>-238491.6366938968</v>
       </c>
       <c r="E13" t="n">
-        <v>-32276.62112259991</v>
+        <v>-202049.891637975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6871.932729011635</v>
+        <v>-208909.5751652058</v>
       </c>
       <c r="E14" t="n">
-        <v>-56064.58922093822</v>
+        <v>-178393.3171102469</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-11794.6772300198</v>
+        <v>-179035.4079021802</v>
       </c>
       <c r="E15" t="n">
-        <v>-78682.53389889839</v>
+        <v>-154444.6368481842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-15752.8737496278</v>
+        <v>-147153.2053646731</v>
       </c>
       <c r="E16" t="n">
-        <v>-100335.9305954584</v>
+        <v>-128487.92131164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-18921.43763780747</v>
+        <v>-111491.9150118113</v>
       </c>
       <c r="E17" t="n">
-        <v>-121199.6946605901</v>
+        <v>-98752.1179597411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-21447.63698799088</v>
+        <v>-70665.44048200894</v>
       </c>
       <c r="E18" t="n">
-        <v>-141421.0941877255</v>
+        <v>-63851.13043090163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-23454.2601498921</v>
+        <v>-23934.18276116475</v>
       </c>
       <c r="E19" t="n">
-        <v>-161122.9175265787</v>
+        <v>-23045.35971102032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-25042.80279157414</v>
+        <v>28749.53746621912</v>
       </c>
       <c r="E20" t="n">
-        <v>-180406.6603452127</v>
+        <v>23712.87351540066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-26296.51578206319</v>
+        <v>86869.25349737218</v>
       </c>
       <c r="E21" t="n">
-        <v>-199355.5735126538</v>
+        <v>75907.10254559082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-27283.21587199965</v>
+        <v>149560.5255541241</v>
       </c>
       <c r="E22" t="n">
-        <v>-218037.4737795423</v>
+        <v>132672.8876013798</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-28057.80708706053</v>
+        <v>215831.896877496</v>
       </c>
       <c r="E23" t="n">
-        <v>-236507.2651715551</v>
+        <v>193018.7719237888</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-28664.49384661058</v>
+        <v>284735.655708137</v>
       </c>
       <c r="E24" t="n">
-        <v>-254809.1521080572</v>
+        <v>255997.0437534669</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-29138.68938690849</v>
+        <v>355468.4899058256</v>
       </c>
       <c r="E25" t="n">
-        <v>-272978.5478253071</v>
+        <v>320804.3909501927</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-29508.6374025691</v>
+        <v>427408.6760993329</v>
       </c>
       <c r="E26" t="n">
-        <v>-291043.6960179197</v>
+        <v>386819.0901427371</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-29796.77299345419</v>
+        <v>500109.3521965896</v>
       </c>
       <c r="E27" t="n">
-        <v>-309027.0317857568</v>
+        <v>453594.2792390309</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30020.85276401903</v>
+        <v>573268.8924592249</v>
       </c>
       <c r="E28" t="n">
-        <v>-326946.3117332736</v>
+        <v>520828.3325007033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30194.88466956488</v>
+        <v>646694.5528863808</v>
       </c>
       <c r="E29" t="n">
-        <v>-344815.5438157715</v>
+        <v>588328.5059268964</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30329.88701567773</v>
+        <v>720269.007243376</v>
       </c>
       <c r="E30" t="n">
-        <v>-362645.7463388363</v>
+        <v>655977.4732829286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30434.50368918722</v>
+        <v>793923.8855427076</v>
       </c>
       <c r="E31" t="n">
-        <v>-380445.5631892978</v>
+        <v>723706.8645812974</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30515.499796678</v>
+        <v>867620.8894860634</v>
       </c>
       <c r="E32" t="n">
-        <v>-398221.7594737406</v>
+        <v>791478.3815236902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30578.15879453672</v>
+        <v>941339.3244473879</v>
       </c>
       <c r="E33" t="n">
-        <v>-415979.6186485513</v>
+        <v>859271.3294840519</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30626.59916067883</v>
+        <v>1015068.370658879</v>
       </c>
       <c r="E34" t="n">
-        <v>-433723.2591916454</v>
+        <v>927074.8886945796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30664.0258307287</v>
+        <v>1088802.540044483</v>
       </c>
       <c r="E35" t="n">
-        <v>-451455.8860386473</v>
+        <v>994883.5710792214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30692.92907860749</v>
+        <v>1162539.125554806</v>
       </c>
       <c r="E36" t="n">
-        <v>-469179.989463478</v>
+        <v>1062694.669588582</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1236276.825901659</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1130506.882934471</v>
       </c>
     </row>
   </sheetData>
@@ -4922,13 +5044,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4965,597 +5087,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212133.8236749222</v>
+        <v>-423292.7955875202</v>
       </c>
       <c r="E2" t="n">
-        <v>375283.5693064196</v>
+        <v>-321670.6935210066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>170863.2552677563</v>
+        <v>-411764.2658886244</v>
       </c>
       <c r="E3" t="n">
-        <v>316317.8007223017</v>
+        <v>-316067.6508230737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>134866.8846205139</v>
+        <v>-398162.383973898</v>
       </c>
       <c r="E4" t="n">
-        <v>262626.2298981074</v>
+        <v>-308391.2559093102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>103937.175719211</v>
+        <v>-382553.1320196316</v>
       </c>
       <c r="E5" t="n">
-        <v>214001.3208198525</v>
+        <v>-298707.4909560067</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>77737.17994507165</v>
+        <v>-365021.0992693668</v>
       </c>
       <c r="E6" t="n">
-        <v>170106.1248687611</v>
+        <v>-287100.9452067048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55840.57107832142</v>
+        <v>-345636.9344247405</v>
       </c>
       <c r="E7" t="n">
-        <v>130514.3158250588</v>
+        <v>-273642.2673630414</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>37770.46869081928</v>
+        <v>-324431.8088647953</v>
       </c>
       <c r="E8" t="n">
-        <v>94749.0132606047</v>
+        <v>-258362.628804059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>23033.30080291468</v>
+        <v>-301382.8123775623</v>
       </c>
       <c r="E9" t="n">
-        <v>62316.6451957481</v>
+        <v>-241239.119317789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11145.7126990234</v>
+        <v>-276410.3948367808</v>
       </c>
       <c r="E10" t="n">
-        <v>32733.85691490482</v>
+        <v>-222192.1887779704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1653.976943515995</v>
+        <v>-249386.5238030914</v>
       </c>
       <c r="E11" t="n">
-        <v>5546.920982445416</v>
+        <v>-201093.8047452438</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5853.621611176904</v>
+        <v>-220150.5859684386</v>
       </c>
       <c r="E12" t="n">
-        <v>-19655.87774919948</v>
+        <v>-177783.3539115539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-11740.35695517436</v>
+        <v>-188529.3508272196</v>
       </c>
       <c r="E13" t="n">
-        <v>-43237.81327014894</v>
+        <v>-152087.6057712979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-16319.27275177721</v>
+        <v>-154357.427801501</v>
       </c>
       <c r="E14" t="n">
-        <v>-65511.92924370379</v>
+        <v>-123841.1697465421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-19854.71509654936</v>
+        <v>-117495.3349796575</v>
       </c>
       <c r="E15" t="n">
-        <v>-86742.57176542794</v>
+        <v>-92904.5639256615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-22566.0171881721</v>
+        <v>-77843.27259032961</v>
       </c>
       <c r="E16" t="n">
-        <v>-107149.0740340027</v>
+        <v>-59177.98853729651</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-24632.38443443298</v>
+        <v>-35349.70662720397</v>
       </c>
       <c r="E17" t="n">
-        <v>-126910.6414572156</v>
+        <v>-22609.90957513377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-26198.26271066114</v>
+        <v>9985.259172618695</v>
       </c>
       <c r="E18" t="n">
-        <v>-146171.7199103957</v>
+        <v>16799.56922372601</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-27378.6885748879</v>
+        <v>58111.10608702239</v>
       </c>
       <c r="E19" t="n">
-        <v>-165047.3459515745</v>
+        <v>58999.92913716682</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-28264.30126835941</v>
+        <v>108931.7203262571</v>
       </c>
       <c r="E20" t="n">
-        <v>-183628.158821998</v>
+        <v>103895.0563754386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-28925.83700403286</v>
+        <v>162312.6643698942</v>
       </c>
       <c r="E21" t="n">
-        <v>-201984.8947346235</v>
+        <v>151350.5134181128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-29418.02821807677</v>
+        <v>218089.7856691675</v>
       </c>
       <c r="E22" t="n">
-        <v>-220172.2861256194</v>
+        <v>201202.1477164233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-29782.89965143768</v>
+        <v>276078.1990223887</v>
       </c>
       <c r="E23" t="n">
-        <v>-238232.3577359323</v>
+        <v>253265.0740686815</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30052.49617252656</v>
+        <v>336080.8911162807</v>
       </c>
       <c r="E24" t="n">
-        <v>-256197.1544339731</v>
+        <v>307342.2791616106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30251.10085882966</v>
+        <v>397896.4242495383</v>
       </c>
       <c r="E25" t="n">
-        <v>-274090.9592972283</v>
+        <v>363232.3252939054</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30397.01187107756</v>
+        <v>461325.4294188404</v>
       </c>
       <c r="E26" t="n">
-        <v>-291932.0704864282</v>
+        <v>420735.8434622446</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30503.94777774244</v>
+        <v>526175.758141154</v>
       </c>
       <c r="E27" t="n">
-        <v>-309734.206570045</v>
+        <v>479660.6851835952</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30582.14676558694</v>
+        <v>592266.2996892182</v>
       </c>
       <c r="E28" t="n">
-        <v>-327507.6057348415</v>
+        <v>539825.7397306965</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30639.21813170809</v>
+        <v>659429.5656027392</v>
       </c>
       <c r="E29" t="n">
-        <v>-345259.8772779147</v>
+        <v>601063.5186432548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30680.79629651071</v>
+        <v>727513.2009907702</v>
       </c>
       <c r="E30" t="n">
-        <v>-362996.6556196693</v>
+        <v>663221.6670303228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30711.03937899627</v>
+        <v>796380.6092756768</v>
       </c>
       <c r="E31" t="n">
-        <v>-380722.0988791068</v>
+        <v>726163.5883142665</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30733.00675540392</v>
+        <v>865910.8813429044</v>
       </c>
       <c r="E32" t="n">
-        <v>-398439.2664324665</v>
+        <v>789768.3733805312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30748.94328801778</v>
+        <v>935998.2087978129</v>
       </c>
       <c r="E33" t="n">
-        <v>-416150.4031420323</v>
+        <v>853930.2138344769</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30760.49216927721</v>
+        <v>1006550.940358574</v>
       </c>
       <c r="E34" t="n">
-        <v>-433857.1522002438</v>
+        <v>918557.4583942749</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30768.85356114916</v>
+        <v>1077490.415175481</v>
       </c>
       <c r="E35" t="n">
-        <v>-451560.7137690677</v>
+        <v>983571.4462102187</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30774.90233772491</v>
+        <v>1148749.680584838</v>
       </c>
       <c r="E36" t="n">
-        <v>-469261.9627225955</v>
+        <v>1048905.224618613</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1220272.176832289</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1114502.233865101</v>
       </c>
     </row>
   </sheetData>
@@ -5563,13 +5702,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5606,597 +5745,614 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>189700.4073601804</v>
+        <v>-426810.6549320071</v>
       </c>
       <c r="E2" t="n">
-        <v>352850.1529916778</v>
+        <v>-325188.5528654936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146390.0735687152</v>
+        <v>-415688.4019700732</v>
       </c>
       <c r="E3" t="n">
-        <v>291844.6190232606</v>
+        <v>-319991.7869045226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>109318.4738248813</v>
+        <v>-402398.2166408263</v>
       </c>
       <c r="E4" t="n">
-        <v>237077.8191024747</v>
+        <v>-312627.0885762385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>78280.27340453837</v>
+        <v>-387007.907363297</v>
       </c>
       <c r="E5" t="n">
-        <v>188344.4185051798</v>
+        <v>-303162.2662996721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>52841.83949311886</v>
+        <v>-369621.4337219353</v>
       </c>
       <c r="E6" t="n">
-        <v>145210.7844168083</v>
+        <v>-291701.2796592732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32412.81080010166</v>
+        <v>-350340.2429920658</v>
       </c>
       <c r="E7" t="n">
-        <v>107086.5555468391</v>
+        <v>-278345.5759303668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>16319.38713940253</v>
+        <v>-329229.7490578954</v>
       </c>
       <c r="E8" t="n">
-        <v>73297.93170918795</v>
+        <v>-263160.5689971591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3868.5098682017</v>
+        <v>-306296.9909230581</v>
       </c>
       <c r="E9" t="n">
-        <v>43151.85426103512</v>
+        <v>-246153.2978632847</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-5602.960499098963</v>
+        <v>-281482.2552307484</v>
       </c>
       <c r="E10" t="n">
-        <v>15985.18371678246</v>
+        <v>-227264.049171938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-12695.63428044282</v>
+        <v>-254664.2361051025</v>
       </c>
       <c r="E11" t="n">
-        <v>-8802.690241513397</v>
+        <v>-206371.517047255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-17930.09237913952</v>
+        <v>-225675.8567537247</v>
       </c>
       <c r="E12" t="n">
-        <v>-31732.3485171621</v>
+        <v>-183308.6246968401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-21741.4149063914</v>
+        <v>-194326.5352100618</v>
       </c>
       <c r="E13" t="n">
-        <v>-53238.87122136599</v>
+        <v>-157884.7901541401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-24482.1724415836</v>
+        <v>-160426.4352009232</v>
       </c>
       <c r="E14" t="n">
-        <v>-73674.82893351019</v>
+        <v>-129910.1771459643</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-26430.57694220019</v>
+        <v>-123808.8558782251</v>
       </c>
       <c r="E15" t="n">
-        <v>-93318.43361107877</v>
+        <v>-99218.08482422912</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-27801.13456115219</v>
+        <v>-84348.02853515366</v>
       </c>
       <c r="E16" t="n">
-        <v>-112384.1914069828</v>
+        <v>-65682.74448212056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-28755.89608898529</v>
+        <v>-41970.85945859834</v>
       </c>
       <c r="E17" t="n">
-        <v>-131034.1531117679</v>
+        <v>-29231.06240652813</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-29415.09460782499</v>
+        <v>3337.68045708233</v>
       </c>
       <c r="E18" t="n">
-        <v>-149388.5518075596</v>
+        <v>10151.99050818965</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-29866.51492489645</v>
+        <v>51534.92678199208</v>
       </c>
       <c r="E19" t="n">
-        <v>-167535.1723015831</v>
+        <v>52423.74983213651</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-30173.33680150092</v>
+        <v>102525.4979275727</v>
       </c>
       <c r="E20" t="n">
-        <v>-185537.1943551395</v>
+        <v>97488.83397675426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-30380.44961178449</v>
+        <v>156169.4713912695</v>
       </c>
       <c r="E21" t="n">
-        <v>-203439.5073423751</v>
+        <v>145207.3204394881</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-30519.38018277167</v>
+        <v>212292.3553132966</v>
       </c>
       <c r="E22" t="n">
-        <v>-221273.6380903143</v>
+        <v>195404.7173605524</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30612.04072228519</v>
+        <v>270695.6226849499</v>
       </c>
       <c r="E23" t="n">
-        <v>-239061.4988067798</v>
+        <v>247882.4977312427</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30673.51824832587</v>
+        <v>331166.8405182143</v>
       </c>
       <c r="E24" t="n">
-        <v>-256818.1765097725</v>
+        <v>302428.2285635442</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30714.1125132821</v>
+        <v>393488.7202078431</v>
       </c>
       <c r="E25" t="n">
-        <v>-274553.9709516807</v>
+        <v>358824.6212522101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30740.80118207961</v>
+        <v>457446.6926509982</v>
       </c>
       <c r="E26" t="n">
-        <v>-292275.8597974302</v>
+        <v>416857.1066944023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30758.27856527622</v>
+        <v>522834.845275208</v>
       </c>
       <c r="E27" t="n">
-        <v>-309988.5373575788</v>
+        <v>476319.7723176493</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30769.6829988314</v>
+        <v>589460.2361193813</v>
       </c>
       <c r="E28" t="n">
-        <v>-327695.141968086</v>
+        <v>537019.6761608596</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30777.10067033224</v>
+        <v>657145.7217975404</v>
       </c>
       <c r="E29" t="n">
-        <v>-345397.7598165388</v>
+        <v>598779.674838056</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30781.91123335224</v>
+        <v>725731.5078006114</v>
       </c>
       <c r="E30" t="n">
-        <v>-363097.7705565108</v>
+        <v>661439.973840164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30785.02285286675</v>
+        <v>795075.6608963386</v>
       </c>
       <c r="E31" t="n">
-        <v>-380796.0823529773</v>
+        <v>724858.6399349284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30787.0308260111</v>
+        <v>865053.8250413474</v>
       </c>
       <c r="E32" t="n">
-        <v>-398493.2905030737</v>
+        <v>788911.3170789742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30788.32389046236</v>
+        <v>935558.3641800795</v>
       </c>
       <c r="E33" t="n">
-        <v>-416189.7837444769</v>
+        <v>853490.3692167435</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30789.15503286101</v>
+        <v>1006497.125932194</v>
       </c>
       <c r="E34" t="n">
-        <v>-433885.8150638276</v>
+        <v>918503.6439678951</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30789.68839052897</v>
+        <v>1077791.985899432</v>
       </c>
       <c r="E35" t="n">
-        <v>-451581.5485984475</v>
+        <v>983873.0169341705</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30790.03016341559</v>
+        <v>1149377.297709359</v>
       </c>
       <c r="E36" t="n">
-        <v>-469277.0905482862</v>
+        <v>1049532.841743135</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1221198.341875684</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1115428.398908496</v>
       </c>
     </row>
   </sheetData>
@@ -6204,13 +6360,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6247,597 +6403,2588 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>163149.7456314974</v>
+        <v>101622.1020665136</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>162805.1565664729</v>
+        <v>-429923.7742167927</v>
       </c>
       <c r="E2" t="n">
-        <v>325954.9021979703</v>
+        <v>-328301.6721502792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>145454.5454545454</v>
+        <v>95696.61506555069</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116105.5887732895</v>
+        <v>-419200.2268118932</v>
       </c>
       <c r="E3" t="n">
-        <v>261560.1342278349</v>
+        <v>-323503.6117463425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>127759.3452775934</v>
+        <v>89771.1280645878</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>77404.12824607138</v>
+        <v>-406214.7084836299</v>
       </c>
       <c r="E4" t="n">
-        <v>205163.4735236648</v>
+        <v>-316443.5804190421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>110064.1451006414</v>
+        <v>83845.64106362491</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>46560.38004621569</v>
+        <v>-391030.3996472228</v>
       </c>
       <c r="E5" t="n">
-        <v>156624.5251468571</v>
+        <v>-307184.758583598</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>92368.94492368943</v>
+        <v>77920.15406266201</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>22910.89614094639</v>
+        <v>-373766.3302990701</v>
       </c>
       <c r="E6" t="n">
-        <v>115279.8410646358</v>
+        <v>-295846.1762364081</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>74673.74474673743</v>
+        <v>71994.66706169912</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5444.534055505243</v>
+        <v>-354553.5659838287</v>
       </c>
       <c r="E7" t="n">
-        <v>80118.27880224267</v>
+        <v>-282558.8989221297</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>56978.54456978542</v>
+        <v>66069.18006073622</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-7001.487628366253</v>
+        <v>-333493.6565658967</v>
       </c>
       <c r="E8" t="n">
-        <v>49977.05694141917</v>
+        <v>-267424.4765051604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>39283.34439283342</v>
+        <v>60143.69305977334</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-15574.82946605562</v>
+        <v>-310627.7039236068</v>
       </c>
       <c r="E9" t="n">
-        <v>23708.5149267778</v>
+        <v>-250484.0108638334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>21588.14421588142</v>
+        <v>54218.20605881044</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-21295.75322721325</v>
+        <v>-285920.9058818643</v>
       </c>
       <c r="E10" t="n">
-        <v>292.3909886681722</v>
+        <v>-231702.6998230538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>3892.94403892942</v>
+        <v>48292.71905784756</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-25001.71654882335</v>
+        <v>-259263.4780134009</v>
       </c>
       <c r="E11" t="n">
-        <v>-21108.77250989393</v>
+        <v>-210970.7589555533</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-13802.25613802258</v>
+        <v>42367.23205688466</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-27337.1437726985</v>
+        <v>-230485.4881897665</v>
       </c>
       <c r="E12" t="n">
-        <v>-41139.39991072108</v>
+        <v>-188118.2561328819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-31497.45631497458</v>
+        <v>36441.74505592177</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-28771.78616680921</v>
+        <v>-199380.9927474848</v>
       </c>
       <c r="E13" t="n">
-        <v>-60269.24248178379</v>
+        <v>-162939.247691563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-49192.65649192659</v>
+        <v>30516.25805495888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-29632.5309732848</v>
+        <v>-165736.1055764237</v>
       </c>
       <c r="E14" t="n">
-        <v>-78825.18746521138</v>
+        <v>-135219.8475214648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-66887.85666887858</v>
+        <v>24590.77105399599</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-30137.83576401397</v>
+        <v>-129356.061503702</v>
       </c>
       <c r="E15" t="n">
-        <v>-97025.69243289255</v>
+        <v>-104765.290449706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-84583.05684583059</v>
+        <v>18665.2840530331</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-30428.59021594471</v>
+        <v>-90087.5470713448</v>
       </c>
       <c r="E16" t="n">
-        <v>-115011.6470617753</v>
+        <v>-71422.2630183117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-102278.2570227826</v>
+        <v>12739.79705207021</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-30592.83419463531</v>
+        <v>-47834.11525385654</v>
       </c>
       <c r="E17" t="n">
-        <v>-132871.0912174179</v>
+        <v>-35094.31820178633</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-119973.4571997346</v>
+        <v>6814.310051107317</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-30684.05425252159</v>
+        <v>-2563.997872552827</v>
       </c>
       <c r="E18" t="n">
-        <v>-150657.5114522562</v>
+        <v>4250.31217855449</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-137668.6573766866</v>
+        <v>888.8230501444253</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-30733.93467459091</v>
+        <v>45689.16817910603</v>
       </c>
       <c r="E19" t="n">
-        <v>-168402.5920512775</v>
+        <v>46577.99122925045</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-155363.8575536386</v>
+        <v>-5036.663950818466</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-30760.82312023506</v>
+        <v>96831.38974207151</v>
       </c>
       <c r="E20" t="n">
-        <v>-186124.6806738737</v>
+        <v>91794.72579125305</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-173059.0577305906</v>
+        <v>-10962.15095178136</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-30775.12893134819</v>
+        <v>150717.4443141424</v>
       </c>
       <c r="E21" t="n">
-        <v>-203834.1866619388</v>
+        <v>139755.293362361</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-190754.2579075426</v>
+        <v>-16887.63795274425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-30782.6494390216</v>
+        <v>207162.3424749166</v>
       </c>
       <c r="E22" t="n">
-        <v>-221536.9073465642</v>
+        <v>190274.7045221723</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-208449.4580844946</v>
+        <v>-22813.12495370714</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-30786.55974188785</v>
+        <v>265953.5758264016</v>
       </c>
       <c r="E23" t="n">
-        <v>-239236.0178263824</v>
+        <v>243140.4508726945</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-226144.6582614466</v>
+        <v>-28738.61195467004</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-30788.57258328857</v>
+        <v>326862.9271580013</v>
       </c>
       <c r="E24" t="n">
-        <v>-256933.2308447351</v>
+        <v>298124.3152033312</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-243839.8584383986</v>
+        <v>-34664.09895563293</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-30789.59923045181</v>
+        <v>389656.9922225851</v>
       </c>
       <c r="E25" t="n">
-        <v>-274629.4576688504</v>
+        <v>354992.8932669522</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-261535.0586153506</v>
+        <v>-40589.58595659582</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-30790.11850081881</v>
+        <v>454105.9175968295</v>
       </c>
       <c r="E26" t="n">
-        <v>-292325.1771161694</v>
+        <v>413516.3316402336</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-279230.2587923026</v>
+        <v>-46515.07295755871</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-30790.37914531591</v>
+        <v>519990.1582593928</v>
       </c>
       <c r="E27" t="n">
-        <v>-310020.6379376185</v>
+        <v>473475.085301834</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-296925.4589692546</v>
+        <v>-52440.5599585216</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-30790.50906776763</v>
+        <v>587105.2848403993</v>
       </c>
       <c r="E28" t="n">
-        <v>-327715.9680370222</v>
+        <v>534664.7248818777</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-314620.6591462066</v>
+        <v>-58366.04695948449</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-30790.57342187143</v>
+        <v>655265.022723877</v>
       </c>
       <c r="E29" t="n">
-        <v>-345411.232568078</v>
+        <v>596898.9757643925</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-332315.8593231586</v>
+        <v>-64291.53396044738</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-30790.60511608944</v>
+        <v>724302.7918566075</v>
       </c>
       <c r="E30" t="n">
-        <v>-363106.464439248</v>
+        <v>660011.2578961601</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-350011.0595001106</v>
+        <v>-70217.02096141028</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-30790.62064468483</v>
+        <v>794072.0505916795</v>
       </c>
       <c r="E31" t="n">
-        <v>-380801.6801447954</v>
+        <v>723855.0296302693</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-367706.2596770626</v>
+        <v>-76142.50796237317</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-30790.62821740555</v>
+        <v>864445.7437169439</v>
       </c>
       <c r="E32" t="n">
-        <v>-398496.8878944681</v>
+        <v>788303.2357545707</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-385401.4598540146</v>
+        <v>-82067.99496333605</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-30790.63189482111</v>
+        <v>935315.1274030934</v>
       </c>
       <c r="E33" t="n">
-        <v>-416192.0917488357</v>
+        <v>853247.1324397573</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-403096.6600309666</v>
+        <v>-87993.48196429895</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-30790.63367389168</v>
+        <v>1006588.203231512</v>
       </c>
       <c r="E34" t="n">
-        <v>-433887.2937048582</v>
+        <v>918594.7212672126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-420791.8602079186</v>
+        <v>-93918.96896526184</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-30790.63453167681</v>
+        <v>1078187.948069285</v>
       </c>
       <c r="E35" t="n">
-        <v>-451582.4947395954</v>
+        <v>984268.9791040235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-438487.0603848706</v>
+        <v>-99844.45596622472</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-30790.63494402244</v>
+        <v>1150050.482067083</v>
       </c>
       <c r="E36" t="n">
-        <v>-469277.695328893</v>
+        <v>1050206.026100858</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1222123.276957048</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1116353.333989861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>101622.1020665136</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-438055.2896915852</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-336433.1876250716</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>95696.61506555069</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-428616.7897202381</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-332920.1746546874</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89771.1280645878</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-416631.8168525201</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-326860.6887879323</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>83845.64106362491</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-402103.5853500097</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-318257.9442863847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77920.15406266201</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-385164.4750392129</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-307244.3209765509</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>71994.66706169912</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-366025.2899667069</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-294030.6229050078</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66069.18006073622</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-344910.5184402495</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-278841.3383795132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60143.69305977334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-321995.6414753044</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-261851.948415531</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54218.20605881044</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-297360.4106540871</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-243142.2045952766</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48292.71905784756</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-270966.5569839871</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-222673.8379261395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42367.23205688466</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-242661.6850631465</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-200294.4530062618</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36441.74505592177</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-212205.1684735208</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-175763.4234175991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30516.25805495888</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-179308.037821191</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-148791.7797662321</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24590.77105399599</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-143677.58963332</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-119086.818579324</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18665.2840530331</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-105058.4106474005</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-86393.12659436741</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12739.79705207021</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-63263.91399236362</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-50524.11694029341</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6814.310051107317</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18195.41540466666</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-11381.10535355935</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>888.8230501444253</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30151.5140604154</v>
+      </c>
+      <c r="E19" t="n">
+        <v>31040.33711055983</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-5036.663950818466</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>81691.66484802713</v>
+      </c>
+      <c r="E20" t="n">
+        <v>76655.00089720867</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-10962.15095178136</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>136262.864777715</v>
+      </c>
+      <c r="E21" t="n">
+        <v>125300.7138259337</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-16887.63795274425</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>193643.4471524312</v>
+      </c>
+      <c r="E22" t="n">
+        <v>176755.809199687</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-22813.12495370714</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>253571.4925203118</v>
+      </c>
+      <c r="E23" t="n">
+        <v>230758.3675666046</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-28738.61195467004</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>315763.4382115664</v>
+      </c>
+      <c r="E24" t="n">
+        <v>287024.8262568963</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-34664.09895563293</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>379930.4069692981</v>
+      </c>
+      <c r="E25" t="n">
+        <v>345266.3080136651</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-40589.58595659582</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>445791.3424810384</v>
+      </c>
+      <c r="E26" t="n">
+        <v>405201.7565244425</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-46515.07295755871</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>513082.6543925419</v>
+      </c>
+      <c r="E27" t="n">
+        <v>466567.5814349831</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-52440.5599585216</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>581564.5245260029</v>
+      </c>
+      <c r="E28" t="n">
+        <v>529123.9645674813</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-58366.04695948449</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>651024.30764551</v>
+      </c>
+      <c r="E29" t="n">
+        <v>592658.2606860255</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-64291.53396044738</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>721277.5978665865</v>
+      </c>
+      <c r="E30" t="n">
+        <v>656986.0639061391</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-70217.02096141028</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>792167.5607973164</v>
+      </c>
+      <c r="E31" t="n">
+        <v>721950.5398359061</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-76142.50796237317</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>863563.0881992453</v>
+      </c>
+      <c r="E32" t="n">
+        <v>787420.5802368721</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-82067.99496333605</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>935356.248202296</v>
+      </c>
+      <c r="E33" t="n">
+        <v>853288.2532389599</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-87993.48196429895</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1007459.404411023</v>
+      </c>
+      <c r="E34" t="n">
+        <v>919465.9224467237</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-93918.96896526184</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1079802.278395166</v>
+      </c>
+      <c r="E35" t="n">
+        <v>985883.3094299039</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-99844.45596622472</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1152329.142083521</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1052484.686117296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1224996.254234182</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1119226.311266994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>101622.1020665136</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-445555.1913268592</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-343933.0892603456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>95696.61506555069</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-437791.0108165327</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-342094.395750982</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89771.1280645878</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-427210.1806902356</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-337439.0526256479</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>83845.64106362491</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-413643.0754726139</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-329797.4344089889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77920.15406266201</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-397143.9349001242</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-319223.7808374622</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>71994.66706169912</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-377962.2872364118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-305967.6201747127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66069.18006073622</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-356466.8380892341</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-290397.6580284978</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60143.69305977334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-333042.5613622536</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-272898.8683024803</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54218.20605881044</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-307988.5533583855</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-253770.3472995751</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48292.71905784756</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-281442.1097176645</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-233149.3906598169</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42367.23205688466</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-253345.1470138617</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-210977.9149569771</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36441.74505592177</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-223456.4208128249</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-187014.6757569031</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30516.25805495888</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-191401.3299449947</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-160885.0718900358</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24590.77105399599</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-156743.6222952942</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-132152.8512412982</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18665.2840530331</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-119061.2341291909</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-100395.9500761578</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12739.79705207021</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-78011.12202816125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-65271.32497609104</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6814.310051107317</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-33373.43655451733</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-26559.12650341001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>888.8230501444253</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14928.37802551117</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15817.2010756556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-5036.663950818466</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>66829.68018151502</v>
+      </c>
+      <c r="E20" t="n">
+        <v>61793.01623069656</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-10962.15095178136</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>122143.6157118443</v>
+      </c>
+      <c r="E21" t="n">
+        <v>111181.464760063</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-16887.63795274425</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>180590.2819570933</v>
+      </c>
+      <c r="E22" t="n">
+        <v>163702.6440043491</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-22813.12495370714</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>241829.6270175538</v>
+      </c>
+      <c r="E23" t="n">
+        <v>219016.5020638466</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-28738.61195467004</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>305492.9563959017</v>
+      </c>
+      <c r="E24" t="n">
+        <v>276754.3444412316</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-34664.09895563293</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>371209.6720711626</v>
+      </c>
+      <c r="E25" t="n">
+        <v>336545.5731155297</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-40589.58595659582</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>438627.5787430961</v>
+      </c>
+      <c r="E26" t="n">
+        <v>398037.9927865003</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-46515.07295755871</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>507426.4711990609</v>
+      </c>
+      <c r="E27" t="n">
+        <v>460911.3982415022</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-52440.5599585216</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>577325.6532075785</v>
+      </c>
+      <c r="E28" t="n">
+        <v>524885.0932490568</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-58366.04695948449</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>648086.5462651177</v>
+      </c>
+      <c r="E29" t="n">
+        <v>589720.4993056332</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-64291.53396044738</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>719511.7109007703</v>
+      </c>
+      <c r="E30" t="n">
+        <v>655220.1769403229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-70217.02096141028</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>791441.5334573687</v>
+      </c>
+      <c r="E31" t="n">
+        <v>721224.5124959585</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-76142.50796237317</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>863749.6302961517</v>
+      </c>
+      <c r="E32" t="n">
+        <v>787607.1223337785</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-82067.99496333605</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>936337.7700983085</v>
+      </c>
+      <c r="E33" t="n">
+        <v>854269.7751349724</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-87993.48196429895</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1009130.867818041</v>
+      </c>
+      <c r="E34" t="n">
+        <v>921137.3858537425</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-93918.96896526184</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1082072.391476452</v>
+      </c>
+      <c r="E35" t="n">
+        <v>988153.4225111905</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-99844.45596622472</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1155120.357793957</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1055275.901827732</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1228243.975099507</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1122474.032132319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>101622.1020665136</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-451747.1366404387</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-350125.0345739251</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>95696.61506555069</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-445999.9074727869</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-350303.2924072362</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>89771.1280645878</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-437329.7883264347</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-347558.6602618468</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>83845.64106362491</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-425246.3352515895</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-341400.6941879647</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77920.15406266201</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-409550.9370667613</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-331630.7830040993</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>71994.66706169912</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-390392.4422904778</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-318397.7752287787</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>66069.18006073622</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-368230.8540136012</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-302161.6739528649</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60143.69305977334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-343713.8737184062</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-283570.1806586328</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54218.20605881044</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-317500.7301248718</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-263282.5240660614</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48292.71905784756</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-290084.8398536442</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-241792.1207957966</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>42367.23205688466</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-261665.4852222428</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-219298.2531653582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>36441.74505592177</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-232100.6466044875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-195658.9015485657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30516.25805495888</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-200946.4457488646</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-170430.1876939057</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24590.77105399599</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-167563.6513611403</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-142972.8803071443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>18665.2840530331</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-131256.4753900048</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-112591.1913369716</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12739.79705207021</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-91406.56323043373</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-78666.76617836353</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6814.310051107317</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-47573.63041518745</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-40759.32036408014</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>888.8230501444253</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>451.5593954186161</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1340.382445563042</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-5036.663950818466</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>52641.88168460342</v>
+      </c>
+      <c r="E20" t="n">
+        <v>47605.21773378495</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-10962.15095178136</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>108765.8632497872</v>
+      </c>
+      <c r="E21" t="n">
+        <v>97803.71229800586</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-16887.63795274425</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>168441.8467449482</v>
+      </c>
+      <c r="E22" t="n">
+        <v>151554.2087922039</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-22813.12495370714</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>231199.2666500726</v>
+      </c>
+      <c r="E23" t="n">
+        <v>208386.1416963654</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-28738.61195467004</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>296535.3572255734</v>
+      </c>
+      <c r="E24" t="n">
+        <v>267796.7452709034</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-34664.09895563293</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>363960.2492533478</v>
+      </c>
+      <c r="E25" t="n">
+        <v>329296.1502977149</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-40589.58595659582</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>433027.7923099325</v>
+      </c>
+      <c r="E26" t="n">
+        <v>392438.2063533366</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-46515.07295755871</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>503352.7038024849</v>
+      </c>
+      <c r="E27" t="n">
+        <v>456837.6308449262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-52440.5599585216</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>574616.552380698</v>
+      </c>
+      <c r="E28" t="n">
+        <v>522175.9924221764</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-58366.04695948449</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>646565.8008641549</v>
+      </c>
+      <c r="E29" t="n">
+        <v>588199.7539046705</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-64291.53396044738</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>719005.0198453405</v>
+      </c>
+      <c r="E30" t="n">
+        <v>654713.4858848931</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-70217.02096141028</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>791787.8136023175</v>
+      </c>
+      <c r="E31" t="n">
+        <v>721570.7926409072</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-76142.50796237317</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>864807.2751581467</v>
+      </c>
+      <c r="E32" t="n">
+        <v>788664.7671957735</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-82067.99496333605</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>937987.1012047252</v>
+      </c>
+      <c r="E33" t="n">
+        <v>855919.1062413892</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-87993.48196429895</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1011273.947086942</v>
+      </c>
+      <c r="E34" t="n">
+        <v>923280.4651226432</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-93918.96896526184</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1084631.213811398</v>
+      </c>
+      <c r="E35" t="n">
+        <v>990712.2448461362</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-99844.45596622472</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1158034.218463796</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1058189.762497572</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-105769.9429671876</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1231466.573663475</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1125696.630696287</v>
       </c>
     </row>
   </sheetData>

--- a/CCA PnL Output.xlsx
+++ b/CCA PnL Output.xlsx
@@ -9,13 +9,16 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="today" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EoM" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 Months" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 Months" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 Months" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 Months" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 Months" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec Expiry" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of This Wk" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of Next Wk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End of 2 Wks" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EoM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 Months" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 Months" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4 Months" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 Months" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6 Months" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dec Expiry" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,6 +436,1980 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>87522.21277910838</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>706048.9488536976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>793571.1616328061</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>81341.26554894536</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>628787.1084766597</v>
+      </c>
+      <c r="E3" t="n">
+        <v>710128.3740256052</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75160.31831878233</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>551525.268099622</v>
+      </c>
+      <c r="E4" t="n">
+        <v>626685.5864184044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68979.37108861931</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>474263.4277225843</v>
+      </c>
+      <c r="E5" t="n">
+        <v>543242.7988112036</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62798.42385845628</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>397001.5873455465</v>
+      </c>
+      <c r="E6" t="n">
+        <v>459800.0112040028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56617.47662829326</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>319739.7469685088</v>
+      </c>
+      <c r="E7" t="n">
+        <v>376357.223596802</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50436.52939813024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>242477.906591471</v>
+      </c>
+      <c r="E8" t="n">
+        <v>292914.4359896012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44255.58216796722</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E9" t="n">
+        <v>209471.6483824004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38074.6349378042</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E10" t="n">
+        <v>203290.7011522374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31893.68770764117</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E11" t="n">
+        <v>197109.7539220744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25712.74047747815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>165216.0662144333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>190928.8066919114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19531.79324731513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>184747.8594617483</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13350.84601715211</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87954.22583739548</v>
+      </c>
+      <c r="E14" t="n">
+        <v>101305.0718545476</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7169.898786989085</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10692.38546035769</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17862.28424734678</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>988.9515568260625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-66569.4549166801</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-65580.50335985403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5191.99567333696</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-143831.2952937179</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-149023.2909670548</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-11372.94290349998</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-232466.0785742557</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-17553.89013366301</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-238647.0258044187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-23734.83736382603</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-244827.9730345817</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-29915.78459398905</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-66569.45491668012</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-96485.23951066917</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-36096.73182415208</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>87954.22583739542</v>
+      </c>
+      <c r="E22" t="n">
+        <v>51857.49401324335</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-42277.6790543151</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>242477.906591471</v>
+      </c>
+      <c r="E23" t="n">
+        <v>200200.2275371559</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-48458.62628447812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>397001.5873455466</v>
+      </c>
+      <c r="E24" t="n">
+        <v>348542.9610610685</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-54639.57351464114</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>551525.2680996221</v>
+      </c>
+      <c r="E25" t="n">
+        <v>496885.694584981</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-60820.52074480416</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>706048.9488536979</v>
+      </c>
+      <c r="E26" t="n">
+        <v>645228.4281088937</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-67001.46797496719</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>860572.6296077734</v>
+      </c>
+      <c r="E27" t="n">
+        <v>793571.1616328062</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-73182.41520513021</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1015096.310361849</v>
+      </c>
+      <c r="E28" t="n">
+        <v>941913.8951567188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-79363.36243529324</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1169619.991115924</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1090256.628680631</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-85544.30966545625</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1324143.67187</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1238599.362204544</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-91725.25689561928</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1478667.352624075</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1386942.095728456</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-97906.2041257823</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1633191.033378151</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1535284.829252369</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-104087.1513559453</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1787714.714132227</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1683627.562776281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-110268.0985861083</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1942238.394886302</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1831970.296300194</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-116449.0458162714</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2096762.075640378</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1980313.029824106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-122629.9930464344</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2251285.756394453</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2128655.763348019</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-128810.9402765974</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2405809.437148529</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2276998.496871931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>87522.21277910838</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>706048.9488536976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>793571.1616328061</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>81341.26554894536</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>628787.1084766597</v>
+      </c>
+      <c r="E3" t="n">
+        <v>710128.3740256052</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75160.31831878233</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>551525.268099622</v>
+      </c>
+      <c r="E4" t="n">
+        <v>626685.5864184044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68979.37108861931</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>474263.4277225843</v>
+      </c>
+      <c r="E5" t="n">
+        <v>543242.7988112036</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62798.42385845628</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>397001.5873455465</v>
+      </c>
+      <c r="E6" t="n">
+        <v>459800.0112040028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56617.47662829326</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>319739.7469685088</v>
+      </c>
+      <c r="E7" t="n">
+        <v>376357.223596802</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50436.52939813024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>242477.906591471</v>
+      </c>
+      <c r="E8" t="n">
+        <v>292914.4359896012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44255.58216796722</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E9" t="n">
+        <v>209471.6483824004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38074.6349378042</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E10" t="n">
+        <v>203290.7011522374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31893.68770764117</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E11" t="n">
+        <v>197109.7539220744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25712.74047747815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>165216.0662144333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>190928.8066919114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19531.79324731513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>184747.8594617483</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13350.84601715211</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87954.22583739548</v>
+      </c>
+      <c r="E14" t="n">
+        <v>101305.0718545476</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7169.898786989085</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10692.38546035769</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17862.28424734678</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>988.9515568260625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-66569.4549166801</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-65580.50335985403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5191.99567333696</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-143831.2952937179</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-149023.2909670548</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-11372.94290349998</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-232466.0785742557</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-17553.89013366301</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-238647.0258044187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-23734.83736382603</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-244827.9730345817</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-29915.78459398905</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-66569.45491668012</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-96485.23951066917</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-36096.73182415208</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>87954.22583739542</v>
+      </c>
+      <c r="E22" t="n">
+        <v>51857.49401324335</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-42277.6790543151</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>242477.906591471</v>
+      </c>
+      <c r="E23" t="n">
+        <v>200200.2275371559</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-48458.62628447812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>397001.5873455466</v>
+      </c>
+      <c r="E24" t="n">
+        <v>348542.9610610685</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-54639.57351464114</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>551525.2680996221</v>
+      </c>
+      <c r="E25" t="n">
+        <v>496885.694584981</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-60820.52074480416</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>706048.9488536979</v>
+      </c>
+      <c r="E26" t="n">
+        <v>645228.4281088937</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-67001.46797496719</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>860572.6296077734</v>
+      </c>
+      <c r="E27" t="n">
+        <v>793571.1616328062</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-73182.41520513021</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1015096.310361849</v>
+      </c>
+      <c r="E28" t="n">
+        <v>941913.8951567188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-79363.36243529324</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1169619.991115924</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1090256.628680631</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-85544.30966545625</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1324143.67187</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1238599.362204544</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-91725.25689561928</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1478667.352624075</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1386942.095728456</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-97906.2041257823</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1633191.033378151</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1535284.829252369</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-104087.1513559453</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1787714.714132227</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1683627.562776281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-110268.0985861083</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1942238.394886302</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1831970.296300194</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-116449.0458162714</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2096762.075640378</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1980313.029824106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-122629.9930464344</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2251285.756394453</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2128655.763348019</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-128810.9402765974</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2405809.437148529</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2276998.496871931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Spot</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fwds</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Pnl</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n">
+        <v>87522.21277910838</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>706048.9488536976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>793571.1616328061</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="n">
+        <v>81341.26554894536</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>628787.1084766597</v>
+      </c>
+      <c r="E3" t="n">
+        <v>710128.3740256052</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75160.31831878233</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>551525.268099622</v>
+      </c>
+      <c r="E4" t="n">
+        <v>626685.5864184044</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B5" t="n">
+        <v>68979.37108861931</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>474263.4277225843</v>
+      </c>
+      <c r="E5" t="n">
+        <v>543242.7988112036</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B6" t="n">
+        <v>62798.42385845628</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>397001.5873455465</v>
+      </c>
+      <c r="E6" t="n">
+        <v>459800.0112040028</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56617.47662829326</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>319739.7469685088</v>
+      </c>
+      <c r="E7" t="n">
+        <v>376357.223596802</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>26</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50436.52939813024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>242477.906591471</v>
+      </c>
+      <c r="E8" t="n">
+        <v>292914.4359896012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44255.58216796722</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E9" t="n">
+        <v>209471.6483824004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38074.6349378042</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E10" t="n">
+        <v>203290.7011522374</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n">
+        <v>31893.68770764117</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E11" t="n">
+        <v>197109.7539220744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25712.74047747815</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>165216.0662144333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>190928.8066919114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19531.79324731513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>165216.0662144332</v>
+      </c>
+      <c r="E13" t="n">
+        <v>184747.8594617483</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13350.84601715211</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>87954.22583739548</v>
+      </c>
+      <c r="E14" t="n">
+        <v>101305.0718545476</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7169.898786989085</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10692.38546035769</v>
+      </c>
+      <c r="E15" t="n">
+        <v>17862.28424734678</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34</v>
+      </c>
+      <c r="B16" t="n">
+        <v>988.9515568260625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-66569.4549166801</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-65580.50335985403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-5191.99567333696</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-143831.2952937179</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-149023.2909670548</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-11372.94290349998</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-232466.0785742557</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-17553.89013366301</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-238647.0258044187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-23734.83736382603</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-221093.1356707557</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-244827.9730345817</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-29915.78459398905</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-66569.45491668012</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-96485.23951066917</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-36096.73182415208</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>87954.22583739542</v>
+      </c>
+      <c r="E22" t="n">
+        <v>51857.49401324335</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-42277.6790543151</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>242477.906591471</v>
+      </c>
+      <c r="E23" t="n">
+        <v>200200.2275371559</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-48458.62628447812</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>397001.5873455466</v>
+      </c>
+      <c r="E24" t="n">
+        <v>348542.9610610685</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>43</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-54639.57351464114</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>551525.2680996221</v>
+      </c>
+      <c r="E25" t="n">
+        <v>496885.694584981</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>44</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-60820.52074480416</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>706048.9488536979</v>
+      </c>
+      <c r="E26" t="n">
+        <v>645228.4281088937</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>45</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-67001.46797496719</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>860572.6296077734</v>
+      </c>
+      <c r="E27" t="n">
+        <v>793571.1616328062</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-73182.41520513021</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1015096.310361849</v>
+      </c>
+      <c r="E28" t="n">
+        <v>941913.8951567188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>47</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-79363.36243529324</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1169619.991115924</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1090256.628680631</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-85544.30966545625</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1324143.67187</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1238599.362204544</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>49</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-91725.25689561928</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1478667.352624075</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1386942.095728456</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>50</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-97906.2041257823</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1633191.033378151</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1535284.829252369</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-104087.1513559453</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1787714.714132227</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1683627.562776281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-110268.0985861083</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1942238.394886302</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1831970.296300194</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-116449.0458162714</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2096762.075640378</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1980313.029824106</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-122629.9930464344</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2251285.756394453</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2128655.763348019</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-128810.9402765974</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2405809.437148529</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2276998.496871931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -479,16 +2456,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-439849.9039392571</v>
+        <v>706198.2510283543</v>
       </c>
       <c r="E2" t="n">
-        <v>-337852.5059136966</v>
+        <v>793720.4638074627</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +2473,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-435257.5187687073</v>
+        <v>632806.9075745484</v>
       </c>
       <c r="E3" t="n">
-        <v>-339382.4135417998</v>
+        <v>714148.1731234938</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +2490,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-427652.2744060543</v>
+        <v>562214.9782294008</v>
       </c>
       <c r="E4" t="n">
-        <v>-337899.4619777999</v>
+        <v>637375.2965481832</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +2507,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-416185.0434730798</v>
+        <v>495422.1476903849</v>
       </c>
       <c r="E5" t="n">
-        <v>-332554.5238434785</v>
+        <v>564401.5187790042</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +2524,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-400299.2344154862</v>
+        <v>433191.5983362388</v>
       </c>
       <c r="E6" t="n">
-        <v>-322791.0075845381</v>
+        <v>495990.0221946951</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +2541,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-379922.3366633284</v>
+        <v>375799.998672414</v>
       </c>
       <c r="E7" t="n">
-        <v>-308536.4026310333</v>
+        <v>432417.4753007073</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +2558,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-355545.0888308244</v>
+        <v>322897.6524075053</v>
       </c>
       <c r="E8" t="n">
-        <v>-290281.4475971824</v>
+        <v>373334.1818056355</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +2575,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-328138.2813662327</v>
+        <v>273561.6294823376</v>
       </c>
       <c r="E9" t="n">
-        <v>-268996.9329312438</v>
+        <v>317817.2116503048</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +2592,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-298913.0004176469</v>
+        <v>226566.6678107776</v>
       </c>
       <c r="E10" t="n">
-        <v>-245893.9447813111</v>
+        <v>264641.3027485819</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +2609,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-268989.5871551767</v>
+        <v>180827.306371024</v>
       </c>
       <c r="E11" t="n">
-        <v>-222092.8243174941</v>
+        <v>212720.9940786652</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +2626,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-239078.3460133725</v>
+        <v>135903.5911569906</v>
       </c>
       <c r="E12" t="n">
-        <v>-198303.8759743429</v>
+        <v>161616.3316344688</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +2643,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-209274.2057048908</v>
+        <v>92428.64817480677</v>
       </c>
       <c r="E13" t="n">
-        <v>-174622.0284645143</v>
+        <v>111960.4414221219</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +2660,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-179027.6928059458</v>
+        <v>52320.26868415533</v>
       </c>
       <c r="E14" t="n">
-        <v>-150497.8083642224</v>
+        <v>65671.11470130744</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +2677,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-147292.4834578656</v>
+        <v>18685.63489018578</v>
       </c>
       <c r="E15" t="n">
-        <v>-124884.8918147953</v>
+        <v>25855.53367717487</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +2694,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-112791.7194203635</v>
+        <v>-4587.803574708797</v>
       </c>
       <c r="E16" t="n">
-        <v>-96506.42057594632</v>
+        <v>-3598.852017882734</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +2711,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-74314.10822701085</v>
+        <v>-13465.43443373675</v>
       </c>
       <c r="E17" t="n">
-        <v>-64151.10218124673</v>
+        <v>-18657.43010707371</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +2728,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-30955.29544221198</v>
+        <v>-4459.63177203315</v>
       </c>
       <c r="E18" t="n">
-        <v>-26914.58219510096</v>
+        <v>-15832.57467553313</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +2745,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>17747.74305156366</v>
+        <v>24795.6011192424</v>
       </c>
       <c r="E19" t="n">
-        <v>15666.16350002159</v>
+        <v>7241.710985579397</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +2762,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>71799.32992771643</v>
+        <v>75224.61742403924</v>
       </c>
       <c r="E20" t="n">
-        <v>63595.45757752127</v>
+        <v>51489.78006021321</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +2779,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>130820.1747447925</v>
+        <v>146292.9410121234</v>
       </c>
       <c r="E21" t="n">
-        <v>116494.0095959443</v>
+        <v>116377.1564181343</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +2796,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>194173.0901022264</v>
+        <v>236250.6332965331</v>
       </c>
       <c r="E22" t="n">
-        <v>173724.6321547251</v>
+        <v>200153.901472381</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +2813,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>261097.7934356207</v>
+        <v>342533.5231756815</v>
       </c>
       <c r="E23" t="n">
-        <v>234527.0426894662</v>
+        <v>300255.8441213664</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +2830,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>330824.9678286515</v>
+        <v>462203.7488453073</v>
       </c>
       <c r="E24" t="n">
-        <v>298131.924283844</v>
+        <v>413745.1225608292</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +2847,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>402655.1164574752</v>
+        <v>592333.3739005283</v>
       </c>
       <c r="E25" t="n">
-        <v>363839.7801140145</v>
+        <v>537693.8003858872</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +2864,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>476000.8479529404</v>
+        <v>730276.7758034149</v>
       </c>
       <c r="E26" t="n">
-        <v>431063.2188108267</v>
+        <v>669456.2550586107</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +2881,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>550399.3472287197</v>
+        <v>873819.7326788503</v>
       </c>
       <c r="E27" t="n">
-        <v>499339.4252879529</v>
+        <v>806818.2647038831</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +2898,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>625504.8939642656</v>
+        <v>1021223.206603253</v>
       </c>
       <c r="E28" t="n">
-        <v>568322.6792248456</v>
+        <v>948040.7913981224</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +2915,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>701070.8338323386</v>
+        <v>1171194.033057722</v>
       </c>
       <c r="E29" t="n">
-        <v>637766.3262942656</v>
+        <v>1091830.670622429</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +2932,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>776928.1481131921</v>
+        <v>1322815.779897877</v>
       </c>
       <c r="E30" t="n">
-        <v>707501.3477764659</v>
+        <v>1237271.470232421</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +2949,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>852965.099037994</v>
+        <v>1475466.339157113</v>
       </c>
       <c r="E31" t="n">
-        <v>777416.0059026148</v>
+        <v>1383741.082261494</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +2966,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>929110.1578885845</v>
+        <v>1628739.500586314</v>
       </c>
       <c r="E32" t="n">
-        <v>847438.7719545523</v>
+        <v>1530833.296460532</v>
       </c>
     </row>
     <row r="33">
@@ -1006,16 +2983,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1005318.848295759</v>
+        <v>1782379.250069938</v>
       </c>
       <c r="E33" t="n">
-        <v>917525.1695630732</v>
+        <v>1678292.098713993</v>
       </c>
     </row>
     <row r="34">
@@ -1023,16 +3000,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1081564.235004228</v>
+        <v>1936229.381606708</v>
       </c>
       <c r="E34" t="n">
-        <v>987648.2634728893</v>
+        <v>1825961.283020599</v>
       </c>
     </row>
     <row r="35">
@@ -1040,16 +3017,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1157830.392400965</v>
+        <v>2090197.386994745</v>
       </c>
       <c r="E35" t="n">
-        <v>1057792.128070974</v>
+        <v>1973748.341178473</v>
       </c>
     </row>
     <row r="36">
@@ -1057,16 +3034,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1234108.107639636</v>
+        <v>2244229.968452382</v>
       </c>
       <c r="E36" t="n">
-        <v>1127947.550510992</v>
+        <v>2121599.975405948</v>
       </c>
     </row>
     <row r="37">
@@ -1074,16 +3051,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1310392.155818486</v>
+        <v>2398297.19117737</v>
       </c>
       <c r="E37" t="n">
-        <v>1198109.305891188</v>
+        <v>2269486.250900772</v>
       </c>
     </row>
   </sheetData>
@@ -1137,16 +3114,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-444385.401966425</v>
+        <v>705297.7584879629</v>
       </c>
       <c r="E2" t="n">
-        <v>-342388.0039408645</v>
+        <v>792819.9712670713</v>
       </c>
     </row>
     <row r="3">
@@ -1154,16 +3131,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-443411.2314900063</v>
+        <v>630690.8493607424</v>
       </c>
       <c r="E3" t="n">
-        <v>-347536.1262630988</v>
+        <v>712032.1149096878</v>
       </c>
     </row>
     <row r="4">
@@ -1171,16 +3148,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-440893.8902791187</v>
+        <v>558513.2155941641</v>
       </c>
       <c r="E4" t="n">
-        <v>-351141.0778508643</v>
+        <v>633673.5339129465</v>
       </c>
     </row>
     <row r="5">
@@ -1188,16 +3165,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-435418.6255291232</v>
+        <v>490000.5687050238</v>
       </c>
       <c r="E5" t="n">
-        <v>-351788.105899522</v>
+        <v>558979.9397936431</v>
       </c>
     </row>
     <row r="6">
@@ -1205,16 +3182,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-425184.5903316344</v>
+        <v>426305.1287480701</v>
       </c>
       <c r="E6" t="n">
-        <v>-347676.3635006862</v>
+        <v>489103.5526065264</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +3199,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-408473.6468060488</v>
+        <v>368126.8517648376</v>
       </c>
       <c r="E7" t="n">
-        <v>-337087.7127737537</v>
+        <v>424744.3283931309</v>
       </c>
     </row>
     <row r="8">
@@ -1239,16 +3216,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-384335.4846196071</v>
+        <v>315401.8805702055</v>
       </c>
       <c r="E8" t="n">
-        <v>-319071.8433859651</v>
+        <v>365838.4099683357</v>
       </c>
     </row>
     <row r="9">
@@ -1256,16 +3233,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-353202.0882556397</v>
+        <v>267202.8227245298</v>
       </c>
       <c r="E9" t="n">
-        <v>-294060.7398206508</v>
+        <v>311458.4048924971</v>
       </c>
     </row>
     <row r="10">
@@ -1273,16 +3250,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-317079.6233204228</v>
+        <v>221944.1612536371</v>
       </c>
       <c r="E10" t="n">
-        <v>-264060.567684087</v>
+        <v>260018.7961914413</v>
       </c>
     </row>
     <row r="11">
@@ -1290,16 +3267,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-279104.6431918339</v>
+        <v>177879.6782025347</v>
       </c>
       <c r="E11" t="n">
-        <v>-232207.8803541512</v>
+        <v>209773.3659101758</v>
       </c>
     </row>
     <row r="12">
@@ -1307,16 +3284,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-242551.6572915516</v>
+        <v>133774.0445141884</v>
       </c>
       <c r="E12" t="n">
-        <v>-201777.187252522</v>
+        <v>159486.7849916665</v>
       </c>
     </row>
     <row r="13">
@@ -1324,16 +3301,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-209669.0357051831</v>
+        <v>89562.79784246924</v>
       </c>
       <c r="E13" t="n">
-        <v>-175016.8584648066</v>
+        <v>109094.5910897844</v>
       </c>
     </row>
     <row r="14">
@@ -1341,16 +3318,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-180828.7271469106</v>
+        <v>46797.31247914172</v>
       </c>
       <c r="E14" t="n">
-        <v>-152298.8427051872</v>
+        <v>60148.15849629383</v>
       </c>
     </row>
     <row r="15">
@@ -1358,16 +3335,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-154353.59652673</v>
+        <v>8708.206847190591</v>
       </c>
       <c r="E15" t="n">
-        <v>-131946.0048836597</v>
+        <v>15878.10563417968</v>
       </c>
     </row>
     <row r="16">
@@ -1375,16 +3352,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-127099.4319117579</v>
+        <v>-20185.63082502886</v>
       </c>
       <c r="E16" t="n">
-        <v>-110814.1330673407</v>
+        <v>-19196.6792682028</v>
       </c>
     </row>
     <row r="17">
@@ -1392,16 +3369,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-95538.55803845795</v>
+        <v>-34857.25086471654</v>
       </c>
       <c r="E17" t="n">
-        <v>-85375.55199269383</v>
+        <v>-40049.2465380535</v>
       </c>
     </row>
     <row r="18">
@@ -1409,16 +3386,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-56873.88507809943</v>
+        <v>-30737.70490041559</v>
       </c>
       <c r="E18" t="n">
-        <v>-52833.17183098841</v>
+        <v>-42110.64780391557</v>
       </c>
     </row>
     <row r="19">
@@ -1426,16 +3403,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-9735.053444538566</v>
+        <v>-4589.951442169746</v>
       </c>
       <c r="E19" t="n">
-        <v>-11816.63299608064</v>
+        <v>-22143.84157583275</v>
       </c>
     </row>
     <row r="20">
@@ -1443,16 +3420,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>45738.03745501055</v>
+        <v>44954.99080388325</v>
       </c>
       <c r="E20" t="n">
-        <v>37534.16510481538</v>
+        <v>21220.15344005722</v>
       </c>
     </row>
     <row r="21">
@@ -1460,16 +3437,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>108305.1825370678</v>
+        <v>117317.5069223635</v>
       </c>
       <c r="E21" t="n">
-        <v>93979.01738821957</v>
+        <v>87401.72232837442</v>
       </c>
     </row>
     <row r="22">
@@ -1477,16 +3454,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>176230.5426810615</v>
+        <v>210302.0485445658</v>
       </c>
       <c r="E22" t="n">
-        <v>155782.0847335601</v>
+        <v>174205.3167204137</v>
       </c>
     </row>
     <row r="23">
@@ -1494,16 +3471,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>247803.5926317383</v>
+        <v>320681.2379091975</v>
       </c>
       <c r="E23" t="n">
-        <v>221232.8418855839</v>
+        <v>278403.5588548824</v>
       </c>
     </row>
     <row r="24">
@@ -1511,16 +3488,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>321639.7973333907</v>
+        <v>444832.6481871401</v>
       </c>
       <c r="E24" t="n">
-        <v>288946.7537885832</v>
+        <v>396374.021902662</v>
       </c>
     </row>
     <row r="25">
@@ -1528,16 +3505,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>396766.8285322899</v>
+        <v>579268.9252521286</v>
       </c>
       <c r="E25" t="n">
-        <v>357951.4921888293</v>
+        <v>524629.3517374875</v>
       </c>
     </row>
     <row r="26">
@@ -1545,16 +3522,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>472575.5446316788</v>
+        <v>720980.2928071693</v>
       </c>
       <c r="E26" t="n">
-        <v>427637.9154895651</v>
+        <v>660159.7720623651</v>
       </c>
     </row>
     <row r="27">
@@ -1562,16 +3539,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>548719.6329610527</v>
+        <v>867584.5584472839</v>
       </c>
       <c r="E27" t="n">
-        <v>497659.7110202858</v>
+        <v>800583.0904723167</v>
       </c>
     </row>
     <row r="28">
@@ -1579,16 +3556,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>625018.2625167053</v>
+        <v>1017328.401014165</v>
       </c>
       <c r="E28" t="n">
-        <v>567836.0477772853</v>
+        <v>944145.9858090352</v>
       </c>
     </row>
     <row r="29">
@@ -1596,16 +3573,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>701383.9168135446</v>
+        <v>1169000.28186694</v>
       </c>
       <c r="E29" t="n">
-        <v>638079.4092754716</v>
+        <v>1089636.919431647</v>
       </c>
     </row>
     <row r="30">
@@ -1613,16 +3590,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>777777.0500506926</v>
+        <v>1321808.622021044</v>
       </c>
       <c r="E30" t="n">
-        <v>708350.2497139665</v>
+        <v>1236264.312355588</v>
       </c>
     </row>
     <row r="31">
@@ -1630,16 +3607,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>854180.8756395782</v>
+        <v>1475261.643617344</v>
       </c>
       <c r="E31" t="n">
-        <v>778631.782504199</v>
+        <v>1383536.386721725</v>
       </c>
     </row>
     <row r="32">
@@ -1647,16 +3624,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>930588.6644468743</v>
+        <v>1629067.49424804</v>
       </c>
       <c r="E32" t="n">
-        <v>848917.278512842</v>
+        <v>1531161.290122258</v>
       </c>
     </row>
     <row r="33">
@@ -1664,16 +3641,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1006997.857348231</v>
+        <v>1783060.073074873</v>
       </c>
       <c r="E33" t="n">
-        <v>919204.178615546</v>
+        <v>1678972.921718928</v>
       </c>
     </row>
     <row r="34">
@@ -1681,16 +3658,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1083407.527214244</v>
+        <v>1937148.417866183</v>
       </c>
       <c r="E34" t="n">
-        <v>989491.555682905</v>
+        <v>1826880.319280074</v>
       </c>
     </row>
     <row r="35">
@@ -1698,16 +3675,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1159817.352891848</v>
+        <v>2091284.453404811</v>
       </c>
       <c r="E35" t="n">
-        <v>1059779.088561857</v>
+        <v>1974835.40758854</v>
       </c>
     </row>
     <row r="36">
@@ -1715,16 +3692,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1236227.227654599</v>
+        <v>2245443.59291887</v>
       </c>
       <c r="E36" t="n">
-        <v>1130066.670525955</v>
+        <v>2122813.599872435</v>
       </c>
     </row>
     <row r="37">
@@ -1732,16 +3709,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1312637.117369477</v>
+        <v>2399613.63989749</v>
       </c>
       <c r="E37" t="n">
-        <v>1200354.267442179</v>
+        <v>2270802.699620892</v>
       </c>
     </row>
   </sheetData>
@@ -1795,16 +3772,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-445265.5468155263</v>
+        <v>704779.1863098992</v>
       </c>
       <c r="E2" t="n">
-        <v>-343268.1487899657</v>
+        <v>792301.3990890076</v>
       </c>
     </row>
     <row r="3">
@@ -1812,16 +3789,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-445265.5468155261</v>
+        <v>628619.9170543822</v>
       </c>
       <c r="E3" t="n">
-        <v>-349390.4415886187</v>
+        <v>709961.1826033276</v>
       </c>
     </row>
     <row r="4">
@@ -1829,16 +3806,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-445265.5468155262</v>
+        <v>554014.3873521108</v>
       </c>
       <c r="E4" t="n">
-        <v>-355512.7343872719</v>
+        <v>629174.7056708932</v>
       </c>
     </row>
     <row r="5">
@@ -1846,16 +3823,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-445265.5468155262</v>
+        <v>482377.8113741313</v>
       </c>
       <c r="E5" t="n">
-        <v>-361635.0271859249</v>
+        <v>551357.1824627506</v>
       </c>
     </row>
     <row r="6">
@@ -1863,16 +3840,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-445265.5468155262</v>
+        <v>415493.276703028</v>
       </c>
       <c r="E6" t="n">
-        <v>-367757.3199845781</v>
+        <v>478291.7005614842</v>
       </c>
     </row>
     <row r="7">
@@ -1880,16 +3857,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-445265.5468155261</v>
+        <v>355029.4354419603</v>
       </c>
       <c r="E7" t="n">
-        <v>-373879.6127832311</v>
+        <v>411646.9120702536</v>
       </c>
     </row>
     <row r="8">
@@ -1897,16 +3874,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-445265.5468155262</v>
+        <v>301863.9310474347</v>
       </c>
       <c r="E8" t="n">
-        <v>-380001.9055818842</v>
+        <v>352300.460445565</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +3891,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-445265.5468155262</v>
+        <v>255515.7499918104</v>
       </c>
       <c r="E9" t="n">
-        <v>-386124.1983805373</v>
+        <v>299771.3321597776</v>
       </c>
     </row>
     <row r="10">
@@ -1931,16 +3908,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-368736.8868323625</v>
+        <v>214020.4468216065</v>
       </c>
       <c r="E10" t="n">
-        <v>-315717.8311960267</v>
+        <v>252095.0817594107</v>
       </c>
     </row>
     <row r="11">
@@ -1948,16 +3925,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-292208.2268491988</v>
+        <v>174416.202952266</v>
       </c>
       <c r="E11" t="n">
-        <v>-245311.4640115161</v>
+        <v>206309.8906599071</v>
       </c>
     </row>
     <row r="12">
@@ -1965,16 +3942,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-215679.5668660351</v>
+        <v>133737.3454158923</v>
       </c>
       <c r="E12" t="n">
-        <v>-174905.0968270056</v>
+        <v>159450.0858933704</v>
       </c>
     </row>
     <row r="13">
@@ -1982,16 +3959,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-139150.9068828714</v>
+        <v>90199.24610886896</v>
       </c>
       <c r="E13" t="n">
-        <v>-104498.7296424949</v>
+        <v>109731.0393561841</v>
       </c>
     </row>
     <row r="14">
@@ -1999,16 +3976,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-139150.9068828714</v>
+        <v>44199.1549901715</v>
       </c>
       <c r="E14" t="n">
-        <v>-110621.022441148</v>
+        <v>57550.00100732361</v>
       </c>
     </row>
     <row r="15">
@@ -2016,16 +3993,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-139150.9068828714</v>
+        <v>-1182.425627202407</v>
       </c>
       <c r="E15" t="n">
-        <v>-116743.3152398011</v>
+        <v>5987.473159786678</v>
       </c>
     </row>
     <row r="16">
@@ -2033,16 +4010,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-139150.9068828714</v>
+        <v>-40387.25035611117</v>
       </c>
       <c r="E16" t="n">
-        <v>-122865.6080384542</v>
+        <v>-39398.2987992851</v>
       </c>
     </row>
     <row r="17">
@@ -2050,16 +4027,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-139150.9068828714</v>
+        <v>-66344.56886533505</v>
       </c>
       <c r="E17" t="n">
-        <v>-128987.9008371073</v>
+        <v>-71536.56453867201</v>
       </c>
     </row>
     <row r="18">
@@ -2067,16 +4044,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-139150.9068828714</v>
+        <v>-72010.82496079137</v>
       </c>
       <c r="E18" t="n">
-        <v>-135110.1936357604</v>
+        <v>-83383.76786429135</v>
       </c>
     </row>
     <row r="19">
@@ -2084,16 +4061,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62622.24689970775</v>
+        <v>-52030.36729795618</v>
       </c>
       <c r="E19" t="n">
-        <v>-64703.82645124983</v>
+        <v>-69584.25743161919</v>
       </c>
     </row>
     <row r="20">
@@ -2101,16 +4078,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13906.41308345595</v>
+        <v>-3938.862565703552</v>
       </c>
       <c r="E20" t="n">
-        <v>5702.540733260779</v>
+        <v>-27673.69992952958</v>
       </c>
     </row>
     <row r="21">
@@ -2118,16 +4095,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90435.07306661963</v>
+        <v>71508.73508401244</v>
       </c>
       <c r="E21" t="n">
-        <v>76108.90791777137</v>
+        <v>41592.95049002339</v>
       </c>
     </row>
     <row r="22">
@@ -2135,16 +4112,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>166963.7330497833</v>
+        <v>170917.3888343205</v>
       </c>
       <c r="E22" t="n">
-        <v>146515.275102282</v>
+        <v>134820.6570101684</v>
       </c>
     </row>
     <row r="23">
@@ -2152,16 +4129,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>243492.393032947</v>
+        <v>289393.8324320655</v>
       </c>
       <c r="E23" t="n">
-        <v>216921.6422867926</v>
+        <v>247116.1533777504</v>
       </c>
     </row>
     <row r="24">
@@ -2169,16 +4146,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>320021.0530161107</v>
+        <v>421756.6819835237</v>
       </c>
       <c r="E24" t="n">
-        <v>287328.0094713032</v>
+        <v>373298.0556990455</v>
       </c>
     </row>
     <row r="25">
@@ -2186,16 +4163,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>396549.7129992744</v>
+        <v>563431.317454685</v>
       </c>
       <c r="E25" t="n">
-        <v>357734.3766558137</v>
+        <v>508791.7439400438</v>
       </c>
     </row>
     <row r="26">
@@ -2203,16 +4180,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>473078.3729824381</v>
+        <v>710886.7602093378</v>
       </c>
       <c r="E26" t="n">
-        <v>428140.7438403243</v>
+        <v>650066.2394645336</v>
       </c>
     </row>
     <row r="27">
@@ -2220,16 +4197,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>549607.0329656018</v>
+        <v>861681.1410446845</v>
       </c>
       <c r="E27" t="n">
-        <v>498547.1110248349</v>
+        <v>794679.6730697172</v>
       </c>
     </row>
     <row r="28">
@@ -2237,16 +4214,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>626135.6929487655</v>
+        <v>1014278.058636207</v>
       </c>
       <c r="E28" t="n">
-        <v>568953.4782093455</v>
+        <v>941095.6434310764</v>
       </c>
     </row>
     <row r="29">
@@ -2254,16 +4231,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>702664.3529319292</v>
+        <v>1167788.398077435</v>
       </c>
       <c r="E29" t="n">
-        <v>639359.8453938562</v>
+        <v>1088425.035642141</v>
       </c>
     </row>
     <row r="30">
@@ -2271,16 +4248,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>779193.0129150929</v>
+        <v>1321734.956199653</v>
       </c>
       <c r="E30" t="n">
-        <v>709766.2125783667</v>
+        <v>1236190.646534197</v>
       </c>
     </row>
     <row r="31">
@@ -2288,16 +4265,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>855721.6728982566</v>
+        <v>1475878.577282483</v>
       </c>
       <c r="E31" t="n">
-        <v>780172.5797628773</v>
+        <v>1384153.320386864</v>
       </c>
     </row>
     <row r="32">
@@ -2305,16 +4282,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>932250.3328814203</v>
+        <v>1630106.705164472</v>
       </c>
       <c r="E32" t="n">
-        <v>850578.946947388</v>
+        <v>1532200.501038689</v>
       </c>
     </row>
     <row r="33">
@@ -2322,16 +4299,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1008778.992864584</v>
+        <v>1784369.346192921</v>
       </c>
       <c r="E33" t="n">
-        <v>920985.3141318986</v>
+        <v>1680282.194836976</v>
       </c>
     </row>
     <row r="34">
@@ -2339,16 +4316,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1085307.652847748</v>
+        <v>1938645.452410672</v>
       </c>
       <c r="E34" t="n">
-        <v>991391.6813164093</v>
+        <v>1828377.353824564</v>
       </c>
     </row>
     <row r="35">
@@ -2356,16 +4333,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1161836.312830911</v>
+        <v>2092926.591528882</v>
       </c>
       <c r="E35" t="n">
-        <v>1061798.04850092</v>
+        <v>1976477.545712611</v>
       </c>
     </row>
     <row r="36">
@@ -2373,16 +4350,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1238364.972814075</v>
+        <v>2247209.53767531</v>
       </c>
       <c r="E36" t="n">
-        <v>1132204.41568543</v>
+        <v>2124579.544628875</v>
       </c>
     </row>
     <row r="37">
@@ -2390,16 +4367,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314893.632797239</v>
+        <v>2401493.108620476</v>
       </c>
       <c r="E37" t="n">
-        <v>1202610.782869941</v>
+        <v>2272682.168343879</v>
       </c>
     </row>
   </sheetData>
@@ -2453,16 +4430,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-445265.5468155263</v>
+        <v>705121.0779987937</v>
       </c>
       <c r="E2" t="n">
-        <v>-343268.1487899657</v>
+        <v>792643.2907779021</v>
       </c>
     </row>
     <row r="3">
@@ -2470,16 +4447,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-445265.5468155261</v>
+        <v>628031.8944486056</v>
       </c>
       <c r="E3" t="n">
-        <v>-349390.4415886187</v>
+        <v>709373.159997551</v>
       </c>
     </row>
     <row r="4">
@@ -2487,16 +4464,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-445265.5468155262</v>
+        <v>551353.5719862231</v>
       </c>
       <c r="E4" t="n">
-        <v>-355512.7343872719</v>
+        <v>626513.8903050055</v>
       </c>
     </row>
     <row r="5">
@@ -2504,16 +4481,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-445265.5468155262</v>
+        <v>476029.967528591</v>
       </c>
       <c r="E5" t="n">
-        <v>-361635.0271859249</v>
+        <v>545009.3386172103</v>
       </c>
     </row>
     <row r="6">
@@ -2521,16 +4498,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-445265.5468155262</v>
+        <v>404051.3568914589</v>
       </c>
       <c r="E6" t="n">
-        <v>-367757.3199845781</v>
+        <v>466849.7807499152</v>
       </c>
     </row>
     <row r="7">
@@ -2538,16 +4515,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-445265.5468155261</v>
+        <v>338433.1630547759</v>
       </c>
       <c r="E7" t="n">
-        <v>-373879.6127832311</v>
+        <v>395050.6396830692</v>
       </c>
     </row>
     <row r="8">
@@ -2555,16 +4532,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-445265.5468155262</v>
+        <v>282290.8018367197</v>
       </c>
       <c r="E8" t="n">
-        <v>-380001.9055818842</v>
+        <v>332727.33123485</v>
       </c>
     </row>
     <row r="9">
@@ -2572,16 +4549,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-445265.5468155262</v>
+        <v>237183.916527034</v>
       </c>
       <c r="E9" t="n">
-        <v>-386124.1983805373</v>
+        <v>281439.4986950012</v>
       </c>
     </row>
     <row r="10">
@@ -2589,16 +4566,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-368736.8868323625</v>
+        <v>201648.8066762115</v>
       </c>
       <c r="E10" t="n">
-        <v>-315717.8311960267</v>
+        <v>239723.4416140157</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +4583,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-292208.2268491988</v>
+        <v>171011.0074787679</v>
       </c>
       <c r="E11" t="n">
-        <v>-245311.4640115161</v>
+        <v>202904.6951864091</v>
       </c>
     </row>
     <row r="12">
@@ -2623,16 +4600,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-215679.5668660351</v>
+        <v>138927.1489879017</v>
       </c>
       <c r="E12" t="n">
-        <v>-174905.0968270056</v>
+        <v>164639.8894653798</v>
       </c>
     </row>
     <row r="13">
@@ -2640,16 +4617,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-139150.9068828714</v>
+        <v>99999.46101972611</v>
       </c>
       <c r="E13" t="n">
-        <v>-104498.7296424949</v>
+        <v>119531.2542670412</v>
       </c>
     </row>
     <row r="14">
@@ -2657,16 +4634,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-139150.9068828714</v>
+        <v>52132.92593891329</v>
       </c>
       <c r="E14" t="n">
-        <v>-110621.022441148</v>
+        <v>65483.7719560654</v>
       </c>
     </row>
     <row r="15">
@@ -2674,16 +4651,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-139150.9068828714</v>
+        <v>-2295.58546941898</v>
       </c>
       <c r="E15" t="n">
-        <v>-116743.3152398011</v>
+        <v>4874.313317570105</v>
       </c>
     </row>
     <row r="16">
@@ -2691,16 +4668,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-139150.9068828714</v>
+        <v>-56496.71803915694</v>
       </c>
       <c r="E16" t="n">
-        <v>-122865.6080384542</v>
+        <v>-55507.76648233088</v>
       </c>
     </row>
     <row r="17">
@@ -2708,16 +4685,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-139150.9068828714</v>
+        <v>-100294.5159598182</v>
       </c>
       <c r="E17" t="n">
-        <v>-128987.9008371073</v>
+        <v>-105486.5116331551</v>
       </c>
     </row>
     <row r="18">
@@ -2725,16 +4702,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-139150.9068828714</v>
+        <v>-122160.5254192141</v>
       </c>
       <c r="E18" t="n">
-        <v>-135110.1936357604</v>
+        <v>-133533.4683227141</v>
       </c>
     </row>
     <row r="19">
@@ -2742,16 +4719,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62622.24689970775</v>
+        <v>-112241.0458732366</v>
       </c>
       <c r="E19" t="n">
-        <v>-64703.82645124983</v>
+        <v>-129794.9360068996</v>
       </c>
     </row>
     <row r="20">
@@ -2759,16 +4736,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13906.41308345595</v>
+        <v>-65480.62252049848</v>
       </c>
       <c r="E20" t="n">
-        <v>5702.540733260779</v>
+        <v>-89215.45988432452</v>
       </c>
     </row>
     <row r="21">
@@ -2776,16 +4753,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90435.07306661963</v>
+        <v>16835.85488172843</v>
       </c>
       <c r="E21" t="n">
-        <v>76108.90791777137</v>
+        <v>-13079.92971226062</v>
       </c>
     </row>
     <row r="22">
@@ -2793,16 +4770,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>166963.7330497833</v>
+        <v>128169.2834020859</v>
       </c>
       <c r="E22" t="n">
-        <v>146515.275102282</v>
+        <v>92072.55157793377</v>
       </c>
     </row>
     <row r="23">
@@ -2810,16 +4787,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>243492.393032947</v>
+        <v>259702.9476109043</v>
       </c>
       <c r="E23" t="n">
-        <v>216921.6422867926</v>
+        <v>217425.2685565893</v>
       </c>
     </row>
     <row r="24">
@@ -2827,16 +4804,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>320021.0530161107</v>
+        <v>403320.9517634067</v>
       </c>
       <c r="E24" t="n">
-        <v>287328.0094713032</v>
+        <v>354862.3254789286</v>
       </c>
     </row>
     <row r="25">
@@ -2844,16 +4821,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>396549.7129992744</v>
+        <v>553196.9445821112</v>
       </c>
       <c r="E25" t="n">
-        <v>357734.3766558137</v>
+        <v>498557.3710674701</v>
       </c>
     </row>
     <row r="26">
@@ -2861,16 +4838,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>473078.3729824381</v>
+        <v>705899.4846187022</v>
       </c>
       <c r="E26" t="n">
-        <v>428140.7438403243</v>
+        <v>645078.963873898</v>
       </c>
     </row>
     <row r="27">
@@ -2878,16 +4855,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>549607.0329656018</v>
+        <v>859724.0007881674</v>
       </c>
       <c r="E27" t="n">
-        <v>498547.1110248349</v>
+        <v>792722.5328132001</v>
       </c>
     </row>
     <row r="28">
@@ -2895,16 +4872,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>626135.6929487655</v>
+        <v>1013942.861398767</v>
       </c>
       <c r="E28" t="n">
-        <v>568953.4782093455</v>
+        <v>940760.4461936367</v>
       </c>
     </row>
     <row r="29">
@@ -2912,16 +4889,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>702664.3529319292</v>
+        <v>1168285.344731467</v>
       </c>
       <c r="E29" t="n">
-        <v>639359.8453938562</v>
+        <v>1088921.982296174</v>
       </c>
     </row>
     <row r="30">
@@ -2929,16 +4906,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>779193.0129150929</v>
+        <v>1322662.636733931</v>
       </c>
       <c r="E30" t="n">
-        <v>709766.2125783667</v>
+        <v>1237118.327068474</v>
       </c>
     </row>
     <row r="31">
@@ -2946,16 +4923,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>855721.6728982566</v>
+        <v>1477048.790677496</v>
       </c>
       <c r="E31" t="n">
-        <v>780172.5797628773</v>
+        <v>1385323.533781877</v>
       </c>
     </row>
     <row r="32">
@@ -2963,16 +4940,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>932250.3328814203</v>
+        <v>1631436.997431557</v>
       </c>
       <c r="E32" t="n">
-        <v>850578.946947388</v>
+        <v>1533530.793305775</v>
       </c>
     </row>
     <row r="33">
@@ -2980,16 +4957,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1008778.992864584</v>
+        <v>1785825.639409366</v>
       </c>
       <c r="E33" t="n">
-        <v>920985.3141318986</v>
+        <v>1681738.488053421</v>
       </c>
     </row>
     <row r="34">
@@ -2997,16 +4974,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1085307.652847748</v>
+        <v>1940214.36631055</v>
       </c>
       <c r="E34" t="n">
-        <v>991391.6813164093</v>
+        <v>1829946.267724442</v>
       </c>
     </row>
     <row r="35">
@@ -3014,16 +4991,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1161836.312830911</v>
+        <v>2094603.108541944</v>
       </c>
       <c r="E35" t="n">
-        <v>1061798.04850092</v>
+        <v>1978154.062725673</v>
       </c>
     </row>
     <row r="36">
@@ -3031,16 +5008,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1238364.972814075</v>
+        <v>2248991.853346021</v>
       </c>
       <c r="E36" t="n">
-        <v>1132204.41568543</v>
+        <v>2126361.860299586</v>
       </c>
     </row>
     <row r="37">
@@ -3048,16 +5025,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314893.632797239</v>
+        <v>2403380.598553293</v>
       </c>
       <c r="E37" t="n">
-        <v>1202610.782869941</v>
+        <v>2274569.658276696</v>
       </c>
     </row>
   </sheetData>
@@ -3111,16 +5088,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-445265.5468155263</v>
+        <v>704779.1863098992</v>
       </c>
       <c r="E2" t="n">
-        <v>-343268.1487899657</v>
+        <v>792301.3990890076</v>
       </c>
     </row>
     <row r="3">
@@ -3128,16 +5105,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-445265.5468155261</v>
+        <v>628619.9170543822</v>
       </c>
       <c r="E3" t="n">
-        <v>-349390.4415886187</v>
+        <v>709961.1826033276</v>
       </c>
     </row>
     <row r="4">
@@ -3145,16 +5122,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-445265.5468155262</v>
+        <v>554014.3873521108</v>
       </c>
       <c r="E4" t="n">
-        <v>-355512.7343872719</v>
+        <v>629174.7056708932</v>
       </c>
     </row>
     <row r="5">
@@ -3162,16 +5139,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-445265.5468155262</v>
+        <v>482377.8113741313</v>
       </c>
       <c r="E5" t="n">
-        <v>-361635.0271859249</v>
+        <v>551357.1824627506</v>
       </c>
     </row>
     <row r="6">
@@ -3179,16 +5156,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-445265.5468155262</v>
+        <v>415493.276703028</v>
       </c>
       <c r="E6" t="n">
-        <v>-367757.3199845781</v>
+        <v>478291.7005614842</v>
       </c>
     </row>
     <row r="7">
@@ -3196,16 +5173,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-445265.5468155261</v>
+        <v>355029.4354419603</v>
       </c>
       <c r="E7" t="n">
-        <v>-373879.6127832311</v>
+        <v>411646.9120702536</v>
       </c>
     </row>
     <row r="8">
@@ -3213,16 +5190,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-445265.5468155262</v>
+        <v>301863.9310474347</v>
       </c>
       <c r="E8" t="n">
-        <v>-380001.9055818842</v>
+        <v>352300.460445565</v>
       </c>
     </row>
     <row r="9">
@@ -3230,16 +5207,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-445265.5468155262</v>
+        <v>255515.7499918104</v>
       </c>
       <c r="E9" t="n">
-        <v>-386124.1983805373</v>
+        <v>299771.3321597776</v>
       </c>
     </row>
     <row r="10">
@@ -3247,16 +5224,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-368736.8868323625</v>
+        <v>214020.4468216065</v>
       </c>
       <c r="E10" t="n">
-        <v>-315717.8311960267</v>
+        <v>252095.0817594107</v>
       </c>
     </row>
     <row r="11">
@@ -3264,16 +5241,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-292208.2268491988</v>
+        <v>174416.202952266</v>
       </c>
       <c r="E11" t="n">
-        <v>-245311.4640115161</v>
+        <v>206309.8906599071</v>
       </c>
     </row>
     <row r="12">
@@ -3281,16 +5258,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-215679.5668660351</v>
+        <v>133737.3454158923</v>
       </c>
       <c r="E12" t="n">
-        <v>-174905.0968270056</v>
+        <v>159450.0858933704</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +5275,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-139150.9068828714</v>
+        <v>90199.24610886896</v>
       </c>
       <c r="E13" t="n">
-        <v>-104498.7296424949</v>
+        <v>109731.0393561841</v>
       </c>
     </row>
     <row r="14">
@@ -3315,16 +5292,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-139150.9068828714</v>
+        <v>44199.1549901715</v>
       </c>
       <c r="E14" t="n">
-        <v>-110621.022441148</v>
+        <v>57550.00100732361</v>
       </c>
     </row>
     <row r="15">
@@ -3332,16 +5309,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-139150.9068828714</v>
+        <v>-1182.425627202407</v>
       </c>
       <c r="E15" t="n">
-        <v>-116743.3152398011</v>
+        <v>5987.473159786678</v>
       </c>
     </row>
     <row r="16">
@@ -3349,16 +5326,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-139150.9068828714</v>
+        <v>-40387.25035611117</v>
       </c>
       <c r="E16" t="n">
-        <v>-122865.6080384542</v>
+        <v>-39398.2987992851</v>
       </c>
     </row>
     <row r="17">
@@ -3366,16 +5343,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-139150.9068828714</v>
+        <v>-66344.56886533505</v>
       </c>
       <c r="E17" t="n">
-        <v>-128987.9008371073</v>
+        <v>-71536.56453867201</v>
       </c>
     </row>
     <row r="18">
@@ -3383,16 +5360,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-139150.9068828714</v>
+        <v>-72010.82496079137</v>
       </c>
       <c r="E18" t="n">
-        <v>-135110.1936357604</v>
+        <v>-83383.76786429135</v>
       </c>
     </row>
     <row r="19">
@@ -3400,16 +5377,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62622.24689970775</v>
+        <v>-52030.36729795618</v>
       </c>
       <c r="E19" t="n">
-        <v>-64703.82645124983</v>
+        <v>-69584.25743161919</v>
       </c>
     </row>
     <row r="20">
@@ -3417,16 +5394,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13906.41308345595</v>
+        <v>-3938.862565703552</v>
       </c>
       <c r="E20" t="n">
-        <v>5702.540733260779</v>
+        <v>-27673.69992952958</v>
       </c>
     </row>
     <row r="21">
@@ -3434,16 +5411,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90435.07306661963</v>
+        <v>71508.73508401244</v>
       </c>
       <c r="E21" t="n">
-        <v>76108.90791777137</v>
+        <v>41592.95049002339</v>
       </c>
     </row>
     <row r="22">
@@ -3451,16 +5428,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>166963.7330497833</v>
+        <v>170917.3888343205</v>
       </c>
       <c r="E22" t="n">
-        <v>146515.275102282</v>
+        <v>134820.6570101684</v>
       </c>
     </row>
     <row r="23">
@@ -3468,16 +5445,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>243492.393032947</v>
+        <v>289393.8324320655</v>
       </c>
       <c r="E23" t="n">
-        <v>216921.6422867926</v>
+        <v>247116.1533777504</v>
       </c>
     </row>
     <row r="24">
@@ -3485,16 +5462,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>320021.0530161107</v>
+        <v>421756.6819835237</v>
       </c>
       <c r="E24" t="n">
-        <v>287328.0094713032</v>
+        <v>373298.0556990455</v>
       </c>
     </row>
     <row r="25">
@@ -3502,16 +5479,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>396549.7129992744</v>
+        <v>563431.317454685</v>
       </c>
       <c r="E25" t="n">
-        <v>357734.3766558137</v>
+        <v>508791.7439400438</v>
       </c>
     </row>
     <row r="26">
@@ -3519,16 +5496,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>473078.3729824381</v>
+        <v>710886.7602093378</v>
       </c>
       <c r="E26" t="n">
-        <v>428140.7438403243</v>
+        <v>650066.2394645336</v>
       </c>
     </row>
     <row r="27">
@@ -3536,16 +5513,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>549607.0329656018</v>
+        <v>861681.1410446845</v>
       </c>
       <c r="E27" t="n">
-        <v>498547.1110248349</v>
+        <v>794679.6730697172</v>
       </c>
     </row>
     <row r="28">
@@ -3553,16 +5530,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>626135.6929487655</v>
+        <v>1014278.058636207</v>
       </c>
       <c r="E28" t="n">
-        <v>568953.4782093455</v>
+        <v>941095.6434310764</v>
       </c>
     </row>
     <row r="29">
@@ -3570,16 +5547,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>702664.3529319292</v>
+        <v>1167788.398077435</v>
       </c>
       <c r="E29" t="n">
-        <v>639359.8453938562</v>
+        <v>1088425.035642141</v>
       </c>
     </row>
     <row r="30">
@@ -3587,16 +5564,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>779193.0129150929</v>
+        <v>1321734.956199653</v>
       </c>
       <c r="E30" t="n">
-        <v>709766.2125783667</v>
+        <v>1236190.646534197</v>
       </c>
     </row>
     <row r="31">
@@ -3604,16 +5581,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>855721.6728982566</v>
+        <v>1475878.577282483</v>
       </c>
       <c r="E31" t="n">
-        <v>780172.5797628773</v>
+        <v>1384153.320386864</v>
       </c>
     </row>
     <row r="32">
@@ -3621,16 +5598,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>932250.3328814203</v>
+        <v>1630106.705164472</v>
       </c>
       <c r="E32" t="n">
-        <v>850578.946947388</v>
+        <v>1532200.501038689</v>
       </c>
     </row>
     <row r="33">
@@ -3638,16 +5615,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1008778.992864584</v>
+        <v>1784369.346192921</v>
       </c>
       <c r="E33" t="n">
-        <v>920985.3141318986</v>
+        <v>1680282.194836976</v>
       </c>
     </row>
     <row r="34">
@@ -3655,16 +5632,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1085307.652847748</v>
+        <v>1938645.452410672</v>
       </c>
       <c r="E34" t="n">
-        <v>991391.6813164093</v>
+        <v>1828377.353824564</v>
       </c>
     </row>
     <row r="35">
@@ -3672,16 +5649,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1161836.312830911</v>
+        <v>2092926.591528882</v>
       </c>
       <c r="E35" t="n">
-        <v>1061798.04850092</v>
+        <v>1976477.545712611</v>
       </c>
     </row>
     <row r="36">
@@ -3689,16 +5666,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1238364.972814075</v>
+        <v>2247209.53767531</v>
       </c>
       <c r="E36" t="n">
-        <v>1132204.41568543</v>
+        <v>2124579.544628875</v>
       </c>
     </row>
     <row r="37">
@@ -3706,16 +5683,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314893.632797239</v>
+        <v>2401493.108620476</v>
       </c>
       <c r="E37" t="n">
-        <v>1202610.782869941</v>
+        <v>2272682.168343879</v>
       </c>
     </row>
   </sheetData>
@@ -3769,16 +5746,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-445265.5468155263</v>
+        <v>706048.9488536976</v>
       </c>
       <c r="E2" t="n">
-        <v>-343268.1487899657</v>
+        <v>793571.1616328061</v>
       </c>
     </row>
     <row r="3">
@@ -3786,16 +5763,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-445265.5468155261</v>
+        <v>628787.1084766597</v>
       </c>
       <c r="E3" t="n">
-        <v>-349390.4415886187</v>
+        <v>710128.3740256052</v>
       </c>
     </row>
     <row r="4">
@@ -3803,16 +5780,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-445265.5468155262</v>
+        <v>551525.268099622</v>
       </c>
       <c r="E4" t="n">
-        <v>-355512.7343872719</v>
+        <v>626685.5864184044</v>
       </c>
     </row>
     <row r="5">
@@ -3820,16 +5797,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-445265.5468155262</v>
+        <v>474263.4277225843</v>
       </c>
       <c r="E5" t="n">
-        <v>-361635.0271859249</v>
+        <v>543242.7988112036</v>
       </c>
     </row>
     <row r="6">
@@ -3837,16 +5814,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-445265.5468155262</v>
+        <v>397001.5873455465</v>
       </c>
       <c r="E6" t="n">
-        <v>-367757.3199845781</v>
+        <v>459800.0112040028</v>
       </c>
     </row>
     <row r="7">
@@ -3854,16 +5831,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-445265.5468155261</v>
+        <v>319739.7469685088</v>
       </c>
       <c r="E7" t="n">
-        <v>-373879.6127832311</v>
+        <v>376357.223596802</v>
       </c>
     </row>
     <row r="8">
@@ -3871,16 +5848,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-445265.5468155262</v>
+        <v>242477.906591471</v>
       </c>
       <c r="E8" t="n">
-        <v>-380001.9055818842</v>
+        <v>292914.4359896012</v>
       </c>
     </row>
     <row r="9">
@@ -3888,16 +5865,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-445265.5468155262</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E9" t="n">
-        <v>-386124.1983805373</v>
+        <v>209471.6483824004</v>
       </c>
     </row>
     <row r="10">
@@ -3905,16 +5882,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-368736.8868323625</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E10" t="n">
-        <v>-315717.8311960267</v>
+        <v>203290.7011522374</v>
       </c>
     </row>
     <row r="11">
@@ -3922,16 +5899,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-292208.2268491988</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E11" t="n">
-        <v>-245311.4640115161</v>
+        <v>197109.7539220744</v>
       </c>
     </row>
     <row r="12">
@@ -3939,16 +5916,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-215679.5668660351</v>
+        <v>165216.0662144333</v>
       </c>
       <c r="E12" t="n">
-        <v>-174905.0968270056</v>
+        <v>190928.8066919114</v>
       </c>
     </row>
     <row r="13">
@@ -3956,16 +5933,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-139150.9068828714</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E13" t="n">
-        <v>-104498.7296424949</v>
+        <v>184747.8594617483</v>
       </c>
     </row>
     <row r="14">
@@ -3973,16 +5950,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-139150.9068828714</v>
+        <v>87954.22583739548</v>
       </c>
       <c r="E14" t="n">
-        <v>-110621.022441148</v>
+        <v>101305.0718545476</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +5967,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-139150.9068828714</v>
+        <v>10692.38546035769</v>
       </c>
       <c r="E15" t="n">
-        <v>-116743.3152398011</v>
+        <v>17862.28424734678</v>
       </c>
     </row>
     <row r="16">
@@ -4007,16 +5984,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-139150.9068828714</v>
+        <v>-66569.4549166801</v>
       </c>
       <c r="E16" t="n">
-        <v>-122865.6080384542</v>
+        <v>-65580.50335985403</v>
       </c>
     </row>
     <row r="17">
@@ -4024,16 +6001,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-139150.9068828714</v>
+        <v>-143831.2952937179</v>
       </c>
       <c r="E17" t="n">
-        <v>-128987.9008371073</v>
+        <v>-149023.2909670548</v>
       </c>
     </row>
     <row r="18">
@@ -4041,16 +6018,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-139150.9068828714</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E18" t="n">
-        <v>-135110.1936357604</v>
+        <v>-232466.0785742557</v>
       </c>
     </row>
     <row r="19">
@@ -4058,16 +6035,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62622.24689970775</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E19" t="n">
-        <v>-64703.82645124983</v>
+        <v>-238647.0258044187</v>
       </c>
     </row>
     <row r="20">
@@ -4075,16 +6052,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13906.41308345595</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E20" t="n">
-        <v>5702.540733260779</v>
+        <v>-244827.9730345817</v>
       </c>
     </row>
     <row r="21">
@@ -4092,16 +6069,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90435.07306661963</v>
+        <v>-66569.45491668012</v>
       </c>
       <c r="E21" t="n">
-        <v>76108.90791777137</v>
+        <v>-96485.23951066917</v>
       </c>
     </row>
     <row r="22">
@@ -4109,16 +6086,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>166963.7330497833</v>
+        <v>87954.22583739542</v>
       </c>
       <c r="E22" t="n">
-        <v>146515.275102282</v>
+        <v>51857.49401324335</v>
       </c>
     </row>
     <row r="23">
@@ -4126,16 +6103,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>243492.393032947</v>
+        <v>242477.906591471</v>
       </c>
       <c r="E23" t="n">
-        <v>216921.6422867926</v>
+        <v>200200.2275371559</v>
       </c>
     </row>
     <row r="24">
@@ -4143,16 +6120,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>320021.0530161107</v>
+        <v>397001.5873455466</v>
       </c>
       <c r="E24" t="n">
-        <v>287328.0094713032</v>
+        <v>348542.9610610685</v>
       </c>
     </row>
     <row r="25">
@@ -4160,16 +6137,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>396549.7129992744</v>
+        <v>551525.2680996221</v>
       </c>
       <c r="E25" t="n">
-        <v>357734.3766558137</v>
+        <v>496885.694584981</v>
       </c>
     </row>
     <row r="26">
@@ -4177,16 +6154,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>473078.3729824381</v>
+        <v>706048.9488536979</v>
       </c>
       <c r="E26" t="n">
-        <v>428140.7438403243</v>
+        <v>645228.4281088937</v>
       </c>
     </row>
     <row r="27">
@@ -4194,16 +6171,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>549607.0329656018</v>
+        <v>860572.6296077734</v>
       </c>
       <c r="E27" t="n">
-        <v>498547.1110248349</v>
+        <v>793571.1616328062</v>
       </c>
     </row>
     <row r="28">
@@ -4211,16 +6188,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>626135.6929487655</v>
+        <v>1015096.310361849</v>
       </c>
       <c r="E28" t="n">
-        <v>568953.4782093455</v>
+        <v>941913.8951567188</v>
       </c>
     </row>
     <row r="29">
@@ -4228,16 +6205,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>702664.3529319292</v>
+        <v>1169619.991115924</v>
       </c>
       <c r="E29" t="n">
-        <v>639359.8453938562</v>
+        <v>1090256.628680631</v>
       </c>
     </row>
     <row r="30">
@@ -4245,16 +6222,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>779193.0129150929</v>
+        <v>1324143.67187</v>
       </c>
       <c r="E30" t="n">
-        <v>709766.2125783667</v>
+        <v>1238599.362204544</v>
       </c>
     </row>
     <row r="31">
@@ -4262,16 +6239,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>855721.6728982566</v>
+        <v>1478667.352624075</v>
       </c>
       <c r="E31" t="n">
-        <v>780172.5797628773</v>
+        <v>1386942.095728456</v>
       </c>
     </row>
     <row r="32">
@@ -4279,16 +6256,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>932250.3328814203</v>
+        <v>1633191.033378151</v>
       </c>
       <c r="E32" t="n">
-        <v>850578.946947388</v>
+        <v>1535284.829252369</v>
       </c>
     </row>
     <row r="33">
@@ -4296,16 +6273,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1008778.992864584</v>
+        <v>1787714.714132227</v>
       </c>
       <c r="E33" t="n">
-        <v>920985.3141318986</v>
+        <v>1683627.562776281</v>
       </c>
     </row>
     <row r="34">
@@ -4313,16 +6290,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1085307.652847748</v>
+        <v>1942238.394886302</v>
       </c>
       <c r="E34" t="n">
-        <v>991391.6813164093</v>
+        <v>1831970.296300194</v>
       </c>
     </row>
     <row r="35">
@@ -4330,16 +6307,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1161836.312830911</v>
+        <v>2096762.075640378</v>
       </c>
       <c r="E35" t="n">
-        <v>1061798.04850092</v>
+        <v>1980313.029824106</v>
       </c>
     </row>
     <row r="36">
@@ -4347,16 +6324,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1238364.972814075</v>
+        <v>2251285.756394453</v>
       </c>
       <c r="E36" t="n">
-        <v>1132204.41568543</v>
+        <v>2128655.763348019</v>
       </c>
     </row>
     <row r="37">
@@ -4364,16 +6341,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314893.632797239</v>
+        <v>2405809.437148529</v>
       </c>
       <c r="E37" t="n">
-        <v>1202610.782869941</v>
+        <v>2276998.496871931</v>
       </c>
     </row>
   </sheetData>
@@ -4427,16 +6404,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-445265.5468155263</v>
+        <v>706048.9488536976</v>
       </c>
       <c r="E2" t="n">
-        <v>-343268.1487899657</v>
+        <v>793571.1616328061</v>
       </c>
     </row>
     <row r="3">
@@ -4444,16 +6421,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-445265.5468155261</v>
+        <v>628787.1084766597</v>
       </c>
       <c r="E3" t="n">
-        <v>-349390.4415886187</v>
+        <v>710128.3740256052</v>
       </c>
     </row>
     <row r="4">
@@ -4461,16 +6438,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-445265.5468155262</v>
+        <v>551525.268099622</v>
       </c>
       <c r="E4" t="n">
-        <v>-355512.7343872719</v>
+        <v>626685.5864184044</v>
       </c>
     </row>
     <row r="5">
@@ -4478,16 +6455,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-445265.5468155262</v>
+        <v>474263.4277225843</v>
       </c>
       <c r="E5" t="n">
-        <v>-361635.0271859249</v>
+        <v>543242.7988112036</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +6472,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-445265.5468155262</v>
+        <v>397001.5873455465</v>
       </c>
       <c r="E6" t="n">
-        <v>-367757.3199845781</v>
+        <v>459800.0112040028</v>
       </c>
     </row>
     <row r="7">
@@ -4512,16 +6489,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-445265.5468155261</v>
+        <v>319739.7469685088</v>
       </c>
       <c r="E7" t="n">
-        <v>-373879.6127832311</v>
+        <v>376357.223596802</v>
       </c>
     </row>
     <row r="8">
@@ -4529,16 +6506,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-445265.5468155262</v>
+        <v>242477.906591471</v>
       </c>
       <c r="E8" t="n">
-        <v>-380001.9055818842</v>
+        <v>292914.4359896012</v>
       </c>
     </row>
     <row r="9">
@@ -4546,16 +6523,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-445265.5468155262</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E9" t="n">
-        <v>-386124.1983805373</v>
+        <v>209471.6483824004</v>
       </c>
     </row>
     <row r="10">
@@ -4563,16 +6540,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-368736.8868323625</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E10" t="n">
-        <v>-315717.8311960267</v>
+        <v>203290.7011522374</v>
       </c>
     </row>
     <row r="11">
@@ -4580,16 +6557,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-292208.2268491988</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E11" t="n">
-        <v>-245311.4640115161</v>
+        <v>197109.7539220744</v>
       </c>
     </row>
     <row r="12">
@@ -4597,16 +6574,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-215679.5668660351</v>
+        <v>165216.0662144333</v>
       </c>
       <c r="E12" t="n">
-        <v>-174905.0968270056</v>
+        <v>190928.8066919114</v>
       </c>
     </row>
     <row r="13">
@@ -4614,16 +6591,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-139150.9068828714</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E13" t="n">
-        <v>-104498.7296424949</v>
+        <v>184747.8594617483</v>
       </c>
     </row>
     <row r="14">
@@ -4631,16 +6608,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-139150.9068828714</v>
+        <v>87954.22583739548</v>
       </c>
       <c r="E14" t="n">
-        <v>-110621.022441148</v>
+        <v>101305.0718545476</v>
       </c>
     </row>
     <row r="15">
@@ -4648,16 +6625,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-139150.9068828714</v>
+        <v>10692.38546035769</v>
       </c>
       <c r="E15" t="n">
-        <v>-116743.3152398011</v>
+        <v>17862.28424734678</v>
       </c>
     </row>
     <row r="16">
@@ -4665,16 +6642,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-139150.9068828714</v>
+        <v>-66569.4549166801</v>
       </c>
       <c r="E16" t="n">
-        <v>-122865.6080384542</v>
+        <v>-65580.50335985403</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +6659,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-139150.9068828714</v>
+        <v>-143831.2952937179</v>
       </c>
       <c r="E17" t="n">
-        <v>-128987.9008371073</v>
+        <v>-149023.2909670548</v>
       </c>
     </row>
     <row r="18">
@@ -4699,16 +6676,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-139150.9068828714</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E18" t="n">
-        <v>-135110.1936357604</v>
+        <v>-232466.0785742557</v>
       </c>
     </row>
     <row r="19">
@@ -4716,16 +6693,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62622.24689970775</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E19" t="n">
-        <v>-64703.82645124983</v>
+        <v>-238647.0258044187</v>
       </c>
     </row>
     <row r="20">
@@ -4733,16 +6710,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13906.41308345595</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E20" t="n">
-        <v>5702.540733260779</v>
+        <v>-244827.9730345817</v>
       </c>
     </row>
     <row r="21">
@@ -4750,16 +6727,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90435.07306661963</v>
+        <v>-66569.45491668012</v>
       </c>
       <c r="E21" t="n">
-        <v>76108.90791777137</v>
+        <v>-96485.23951066917</v>
       </c>
     </row>
     <row r="22">
@@ -4767,16 +6744,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>166963.7330497833</v>
+        <v>87954.22583739542</v>
       </c>
       <c r="E22" t="n">
-        <v>146515.275102282</v>
+        <v>51857.49401324335</v>
       </c>
     </row>
     <row r="23">
@@ -4784,16 +6761,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>243492.393032947</v>
+        <v>242477.906591471</v>
       </c>
       <c r="E23" t="n">
-        <v>216921.6422867926</v>
+        <v>200200.2275371559</v>
       </c>
     </row>
     <row r="24">
@@ -4801,16 +6778,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>320021.0530161107</v>
+        <v>397001.5873455466</v>
       </c>
       <c r="E24" t="n">
-        <v>287328.0094713032</v>
+        <v>348542.9610610685</v>
       </c>
     </row>
     <row r="25">
@@ -4818,16 +6795,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>396549.7129992744</v>
+        <v>551525.2680996221</v>
       </c>
       <c r="E25" t="n">
-        <v>357734.3766558137</v>
+        <v>496885.694584981</v>
       </c>
     </row>
     <row r="26">
@@ -4835,16 +6812,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>473078.3729824381</v>
+        <v>706048.9488536979</v>
       </c>
       <c r="E26" t="n">
-        <v>428140.7438403243</v>
+        <v>645228.4281088937</v>
       </c>
     </row>
     <row r="27">
@@ -4852,16 +6829,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>549607.0329656018</v>
+        <v>860572.6296077734</v>
       </c>
       <c r="E27" t="n">
-        <v>498547.1110248349</v>
+        <v>793571.1616328062</v>
       </c>
     </row>
     <row r="28">
@@ -4869,16 +6846,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>626135.6929487655</v>
+        <v>1015096.310361849</v>
       </c>
       <c r="E28" t="n">
-        <v>568953.4782093455</v>
+        <v>941913.8951567188</v>
       </c>
     </row>
     <row r="29">
@@ -4886,16 +6863,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>702664.3529319292</v>
+        <v>1169619.991115924</v>
       </c>
       <c r="E29" t="n">
-        <v>639359.8453938562</v>
+        <v>1090256.628680631</v>
       </c>
     </row>
     <row r="30">
@@ -4903,16 +6880,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>779193.0129150929</v>
+        <v>1324143.67187</v>
       </c>
       <c r="E30" t="n">
-        <v>709766.2125783667</v>
+        <v>1238599.362204544</v>
       </c>
     </row>
     <row r="31">
@@ -4920,16 +6897,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>855721.6728982566</v>
+        <v>1478667.352624075</v>
       </c>
       <c r="E31" t="n">
-        <v>780172.5797628773</v>
+        <v>1386942.095728456</v>
       </c>
     </row>
     <row r="32">
@@ -4937,16 +6914,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>932250.3328814203</v>
+        <v>1633191.033378151</v>
       </c>
       <c r="E32" t="n">
-        <v>850578.946947388</v>
+        <v>1535284.829252369</v>
       </c>
     </row>
     <row r="33">
@@ -4954,16 +6931,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1008778.992864584</v>
+        <v>1787714.714132227</v>
       </c>
       <c r="E33" t="n">
-        <v>920985.3141318986</v>
+        <v>1683627.562776281</v>
       </c>
     </row>
     <row r="34">
@@ -4971,16 +6948,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1085307.652847748</v>
+        <v>1942238.394886302</v>
       </c>
       <c r="E34" t="n">
-        <v>991391.6813164093</v>
+        <v>1831970.296300194</v>
       </c>
     </row>
     <row r="35">
@@ -4988,16 +6965,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1161836.312830911</v>
+        <v>2096762.075640378</v>
       </c>
       <c r="E35" t="n">
-        <v>1061798.04850092</v>
+        <v>1980313.029824106</v>
       </c>
     </row>
     <row r="36">
@@ -5005,16 +6982,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1238364.972814075</v>
+        <v>2251285.756394453</v>
       </c>
       <c r="E36" t="n">
-        <v>1132204.41568543</v>
+        <v>2128655.763348019</v>
       </c>
     </row>
     <row r="37">
@@ -5022,16 +6999,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314893.632797239</v>
+        <v>2405809.437148529</v>
       </c>
       <c r="E37" t="n">
-        <v>1202610.782869941</v>
+        <v>2276998.496871931</v>
       </c>
     </row>
   </sheetData>
@@ -5085,16 +7062,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>101997.3980255605</v>
+        <v>87522.21277910838</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-445265.5468155263</v>
+        <v>706048.9488536976</v>
       </c>
       <c r="E2" t="n">
-        <v>-343268.1487899657</v>
+        <v>793571.1616328061</v>
       </c>
     </row>
     <row r="3">
@@ -5102,16 +7079,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>95875.10522690746</v>
+        <v>81341.26554894536</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-445265.5468155261</v>
+        <v>628787.1084766597</v>
       </c>
       <c r="E3" t="n">
-        <v>-349390.4415886187</v>
+        <v>710128.3740256052</v>
       </c>
     </row>
     <row r="4">
@@ -5119,16 +7096,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>89752.81242825436</v>
+        <v>75160.31831878233</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-445265.5468155262</v>
+        <v>551525.268099622</v>
       </c>
       <c r="E4" t="n">
-        <v>-355512.7343872719</v>
+        <v>626685.5864184044</v>
       </c>
     </row>
     <row r="5">
@@ -5136,16 +7113,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>83630.51962960126</v>
+        <v>68979.37108861931</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-445265.5468155262</v>
+        <v>474263.4277225843</v>
       </c>
       <c r="E5" t="n">
-        <v>-361635.0271859249</v>
+        <v>543242.7988112036</v>
       </c>
     </row>
     <row r="6">
@@ -5153,16 +7130,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>77508.22683094817</v>
+        <v>62798.42385845628</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-445265.5468155262</v>
+        <v>397001.5873455465</v>
       </c>
       <c r="E6" t="n">
-        <v>-367757.3199845781</v>
+        <v>459800.0112040028</v>
       </c>
     </row>
     <row r="7">
@@ -5170,16 +7147,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>71385.93403229507</v>
+        <v>56617.47662829326</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-445265.5468155261</v>
+        <v>319739.7469685088</v>
       </c>
       <c r="E7" t="n">
-        <v>-373879.6127832311</v>
+        <v>376357.223596802</v>
       </c>
     </row>
     <row r="8">
@@ -5187,16 +7164,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>65263.64123364197</v>
+        <v>50436.52939813024</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-445265.5468155262</v>
+        <v>242477.906591471</v>
       </c>
       <c r="E8" t="n">
-        <v>-380001.9055818842</v>
+        <v>292914.4359896012</v>
       </c>
     </row>
     <row r="9">
@@ -5204,16 +7181,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>59141.34843498888</v>
+        <v>44255.58216796722</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-445265.5468155262</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E9" t="n">
-        <v>-386124.1983805373</v>
+        <v>209471.6483824004</v>
       </c>
     </row>
     <row r="10">
@@ -5221,16 +7198,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>53019.05563633578</v>
+        <v>38074.6349378042</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-368736.8868323625</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E10" t="n">
-        <v>-315717.8311960267</v>
+        <v>203290.7011522374</v>
       </c>
     </row>
     <row r="11">
@@ -5238,16 +7215,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>46896.76283768269</v>
+        <v>31893.68770764117</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-292208.2268491988</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E11" t="n">
-        <v>-245311.4640115161</v>
+        <v>197109.7539220744</v>
       </c>
     </row>
     <row r="12">
@@ -5255,16 +7232,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>40774.47003902959</v>
+        <v>25712.74047747815</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-215679.5668660351</v>
+        <v>165216.0662144333</v>
       </c>
       <c r="E12" t="n">
-        <v>-174905.0968270056</v>
+        <v>190928.8066919114</v>
       </c>
     </row>
     <row r="13">
@@ -5272,16 +7249,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>34652.1772403765</v>
+        <v>19531.79324731513</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-139150.9068828714</v>
+        <v>165216.0662144332</v>
       </c>
       <c r="E13" t="n">
-        <v>-104498.7296424949</v>
+        <v>184747.8594617483</v>
       </c>
     </row>
     <row r="14">
@@ -5289,16 +7266,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>28529.8844417234</v>
+        <v>13350.84601715211</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-139150.9068828714</v>
+        <v>87954.22583739548</v>
       </c>
       <c r="E14" t="n">
-        <v>-110621.022441148</v>
+        <v>101305.0718545476</v>
       </c>
     </row>
     <row r="15">
@@ -5306,16 +7283,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>22407.59164307031</v>
+        <v>7169.898786989085</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-139150.9068828714</v>
+        <v>10692.38546035769</v>
       </c>
       <c r="E15" t="n">
-        <v>-116743.3152398011</v>
+        <v>17862.28424734678</v>
       </c>
     </row>
     <row r="16">
@@ -5323,16 +7300,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>16285.29884441721</v>
+        <v>988.9515568260625</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-139150.9068828714</v>
+        <v>-66569.4549166801</v>
       </c>
       <c r="E16" t="n">
-        <v>-122865.6080384542</v>
+        <v>-65580.50335985403</v>
       </c>
     </row>
     <row r="17">
@@ -5340,16 +7317,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>10163.00604576412</v>
+        <v>-5191.99567333696</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-139150.9068828714</v>
+        <v>-143831.2952937179</v>
       </c>
       <c r="E17" t="n">
-        <v>-128987.9008371073</v>
+        <v>-149023.2909670548</v>
       </c>
     </row>
     <row r="18">
@@ -5357,16 +7334,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>4040.713247111022</v>
+        <v>-11372.94290349998</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-139150.9068828714</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E18" t="n">
-        <v>-135110.1936357604</v>
+        <v>-232466.0785742557</v>
       </c>
     </row>
     <row r="19">
@@ -5374,16 +7351,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-2081.579551542073</v>
+        <v>-17553.89013366301</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-62622.24689970775</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E19" t="n">
-        <v>-64703.82645124983</v>
+        <v>-238647.0258044187</v>
       </c>
     </row>
     <row r="20">
@@ -5391,16 +7368,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-8203.872350195168</v>
+        <v>-23734.83736382603</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>13906.41308345595</v>
+        <v>-221093.1356707557</v>
       </c>
       <c r="E20" t="n">
-        <v>5702.540733260779</v>
+        <v>-244827.9730345817</v>
       </c>
     </row>
     <row r="21">
@@ -5408,16 +7385,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-14326.16514884827</v>
+        <v>-29915.78459398905</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>90435.07306661963</v>
+        <v>-66569.45491668012</v>
       </c>
       <c r="E21" t="n">
-        <v>76108.90791777137</v>
+        <v>-96485.23951066917</v>
       </c>
     </row>
     <row r="22">
@@ -5425,16 +7402,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-20448.45794750136</v>
+        <v>-36096.73182415208</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>166963.7330497833</v>
+        <v>87954.22583739542</v>
       </c>
       <c r="E22" t="n">
-        <v>146515.275102282</v>
+        <v>51857.49401324335</v>
       </c>
     </row>
     <row r="23">
@@ -5442,16 +7419,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-26570.75074615446</v>
+        <v>-42277.6790543151</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>243492.393032947</v>
+        <v>242477.906591471</v>
       </c>
       <c r="E23" t="n">
-        <v>216921.6422867926</v>
+        <v>200200.2275371559</v>
       </c>
     </row>
     <row r="24">
@@ -5459,16 +7436,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-32693.04354480755</v>
+        <v>-48458.62628447812</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>320021.0530161107</v>
+        <v>397001.5873455466</v>
       </c>
       <c r="E24" t="n">
-        <v>287328.0094713032</v>
+        <v>348542.9610610685</v>
       </c>
     </row>
     <row r="25">
@@ -5476,16 +7453,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-38815.33634346065</v>
+        <v>-54639.57351464114</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>396549.7129992744</v>
+        <v>551525.2680996221</v>
       </c>
       <c r="E25" t="n">
-        <v>357734.3766558137</v>
+        <v>496885.694584981</v>
       </c>
     </row>
     <row r="26">
@@ -5493,16 +7470,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-44937.62914211374</v>
+        <v>-60820.52074480416</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>473078.3729824381</v>
+        <v>706048.9488536979</v>
       </c>
       <c r="E26" t="n">
-        <v>428140.7438403243</v>
+        <v>645228.4281088937</v>
       </c>
     </row>
     <row r="27">
@@ -5510,16 +7487,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-51059.92194076684</v>
+        <v>-67001.46797496719</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>549607.0329656018</v>
+        <v>860572.6296077734</v>
       </c>
       <c r="E27" t="n">
-        <v>498547.1110248349</v>
+        <v>793571.1616328062</v>
       </c>
     </row>
     <row r="28">
@@ -5527,16 +7504,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-57182.21473941993</v>
+        <v>-73182.41520513021</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>626135.6929487655</v>
+        <v>1015096.310361849</v>
       </c>
       <c r="E28" t="n">
-        <v>568953.4782093455</v>
+        <v>941913.8951567188</v>
       </c>
     </row>
     <row r="29">
@@ -5544,16 +7521,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-63304.50753807303</v>
+        <v>-79363.36243529324</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>702664.3529319292</v>
+        <v>1169619.991115924</v>
       </c>
       <c r="E29" t="n">
-        <v>639359.8453938562</v>
+        <v>1090256.628680631</v>
       </c>
     </row>
     <row r="30">
@@ -5561,16 +7538,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-69426.80033672613</v>
+        <v>-85544.30966545625</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>779193.0129150929</v>
+        <v>1324143.67187</v>
       </c>
       <c r="E30" t="n">
-        <v>709766.2125783667</v>
+        <v>1238599.362204544</v>
       </c>
     </row>
     <row r="31">
@@ -5578,16 +7555,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-75549.09313537923</v>
+        <v>-91725.25689561928</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>855721.6728982566</v>
+        <v>1478667.352624075</v>
       </c>
       <c r="E31" t="n">
-        <v>780172.5797628773</v>
+        <v>1386942.095728456</v>
       </c>
     </row>
     <row r="32">
@@ -5595,16 +7572,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-81671.38593403231</v>
+        <v>-97906.2041257823</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>932250.3328814203</v>
+        <v>1633191.033378151</v>
       </c>
       <c r="E32" t="n">
-        <v>850578.946947388</v>
+        <v>1535284.829252369</v>
       </c>
     </row>
     <row r="33">
@@ -5612,16 +7589,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-87793.67873268541</v>
+        <v>-104087.1513559453</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1008778.992864584</v>
+        <v>1787714.714132227</v>
       </c>
       <c r="E33" t="n">
-        <v>920985.3141318986</v>
+        <v>1683627.562776281</v>
       </c>
     </row>
     <row r="34">
@@ -5629,16 +7606,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-93915.97153133851</v>
+        <v>-110268.0985861083</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1085307.652847748</v>
+        <v>1942238.394886302</v>
       </c>
       <c r="E34" t="n">
-        <v>991391.6813164093</v>
+        <v>1831970.296300194</v>
       </c>
     </row>
     <row r="35">
@@ -5646,16 +7623,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-100038.2643299916</v>
+        <v>-116449.0458162714</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1161836.312830911</v>
+        <v>2096762.075640378</v>
       </c>
       <c r="E35" t="n">
-        <v>1061798.04850092</v>
+        <v>1980313.029824106</v>
       </c>
     </row>
     <row r="36">
@@ -5663,16 +7640,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-106160.5571286447</v>
+        <v>-122629.9930464344</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1238364.972814075</v>
+        <v>2251285.756394453</v>
       </c>
       <c r="E36" t="n">
-        <v>1132204.41568543</v>
+        <v>2128655.763348019</v>
       </c>
     </row>
     <row r="37">
@@ -5680,16 +7657,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-112282.8499272978</v>
+        <v>-128810.9402765974</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314893.632797239</v>
+        <v>2405809.437148529</v>
       </c>
       <c r="E37" t="n">
-        <v>1202610.782869941</v>
+        <v>2276998.496871931</v>
       </c>
     </row>
   </sheetData>

--- a/CCA PnL Output.xlsx
+++ b/CCA PnL Output.xlsx
@@ -482,16 +482,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>706048.9488536976</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E2" t="n">
-        <v>793571.1616328061</v>
+        <v>-684814.0474479472</v>
       </c>
     </row>
     <row r="3">
@@ -499,16 +499,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628787.1084766597</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E3" t="n">
-        <v>710128.3740256052</v>
+        <v>-658486.0313413963</v>
       </c>
     </row>
     <row r="4">
@@ -516,16 +516,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>551525.268099622</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E4" t="n">
-        <v>626685.5864184044</v>
+        <v>-632158.0152348452</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>474263.4277225843</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E5" t="n">
-        <v>543242.7988112036</v>
+        <v>-605829.9991282942</v>
       </c>
     </row>
     <row r="6">
@@ -550,16 +550,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>397001.5873455465</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E6" t="n">
-        <v>459800.0112040028</v>
+        <v>-579501.9830217431</v>
       </c>
     </row>
     <row r="7">
@@ -567,16 +567,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>319739.7469685088</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E7" t="n">
-        <v>376357.223596802</v>
+        <v>-553173.9669151921</v>
       </c>
     </row>
     <row r="8">
@@ -584,16 +584,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242477.906591471</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E8" t="n">
-        <v>292914.4359896012</v>
+        <v>-526845.950808641</v>
       </c>
     </row>
     <row r="9">
@@ -601,16 +601,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>165216.0662144332</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E9" t="n">
-        <v>209471.6483824004</v>
+        <v>-500517.93470209</v>
       </c>
     </row>
     <row r="10">
@@ -618,16 +618,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>165216.0662144332</v>
+        <v>-233784.1574061322</v>
       </c>
       <c r="E10" t="n">
-        <v>203290.7011522374</v>
+        <v>-396754.577105683</v>
       </c>
     </row>
     <row r="11">
@@ -635,16 +635,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165216.0662144332</v>
+        <v>-156348.8159162763</v>
       </c>
       <c r="E11" t="n">
-        <v>197109.7539220744</v>
+        <v>-292991.219509276</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>165216.0662144333</v>
+        <v>-78913.47442642029</v>
       </c>
       <c r="E12" t="n">
-        <v>190928.8066919114</v>
+        <v>-189227.861912869</v>
       </c>
     </row>
     <row r="13">
@@ -669,16 +669,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>165216.0662144332</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E13" t="n">
-        <v>184747.8594617483</v>
+        <v>-85464.50431646204</v>
       </c>
     </row>
     <row r="14">
@@ -686,16 +686,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>87954.22583739548</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E14" t="n">
-        <v>101305.0718545476</v>
+        <v>-59136.48820991101</v>
       </c>
     </row>
     <row r="15">
@@ -703,16 +703,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10692.38546035769</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E15" t="n">
-        <v>17862.28424734678</v>
+        <v>-32808.47210335998</v>
       </c>
     </row>
     <row r="16">
@@ -720,16 +720,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-66569.4549166801</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E16" t="n">
-        <v>-65580.50335985403</v>
+        <v>-6480.45599680895</v>
       </c>
     </row>
     <row r="17">
@@ -737,16 +737,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-143831.2952937179</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E17" t="n">
-        <v>-149023.2909670548</v>
+        <v>19847.56010974208</v>
       </c>
     </row>
     <row r="18">
@@ -754,16 +754,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E18" t="n">
-        <v>-232466.0785742557</v>
+        <v>46175.57621629311</v>
       </c>
     </row>
     <row r="19">
@@ -771,16 +771,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E19" t="n">
-        <v>-238647.0258044187</v>
+        <v>72503.59232284412</v>
       </c>
     </row>
     <row r="20">
@@ -788,16 +788,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E20" t="n">
-        <v>-244827.9730345817</v>
+        <v>98831.60842939516</v>
       </c>
     </row>
     <row r="21">
@@ -805,16 +805,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-66569.45491668012</v>
+        <v>75957.20855329165</v>
       </c>
       <c r="E21" t="n">
-        <v>-96485.23951066917</v>
+        <v>202594.9660258022</v>
       </c>
     </row>
     <row r="22">
@@ -822,16 +822,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87954.22583739542</v>
+        <v>153392.5500431476</v>
       </c>
       <c r="E22" t="n">
-        <v>51857.49401324335</v>
+        <v>306358.3236222092</v>
       </c>
     </row>
     <row r="23">
@@ -839,16 +839,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>242477.906591471</v>
+        <v>230827.8915330036</v>
       </c>
       <c r="E23" t="n">
-        <v>200200.2275371559</v>
+        <v>410121.6812186162</v>
       </c>
     </row>
     <row r="24">
@@ -856,16 +856,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>397001.5873455466</v>
+        <v>308263.2330228596</v>
       </c>
       <c r="E24" t="n">
-        <v>348542.9610610685</v>
+        <v>513885.0388150232</v>
       </c>
     </row>
     <row r="25">
@@ -873,16 +873,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>551525.2680996221</v>
+        <v>385698.5745127155</v>
       </c>
       <c r="E25" t="n">
-        <v>496885.694584981</v>
+        <v>617648.3964114301</v>
       </c>
     </row>
     <row r="26">
@@ -890,16 +890,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>706048.9488536979</v>
+        <v>463133.9160025715</v>
       </c>
       <c r="E26" t="n">
-        <v>645228.4281088937</v>
+        <v>721411.7540078372</v>
       </c>
     </row>
     <row r="27">
@@ -907,16 +907,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>860572.6296077734</v>
+        <v>540569.2574924275</v>
       </c>
       <c r="E27" t="n">
-        <v>793571.1616328062</v>
+        <v>825175.1116042442</v>
       </c>
     </row>
     <row r="28">
@@ -924,16 +924,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1015096.310361849</v>
+        <v>618004.5989822834</v>
       </c>
       <c r="E28" t="n">
-        <v>941913.8951567188</v>
+        <v>928938.4692006512</v>
       </c>
     </row>
     <row r="29">
@@ -941,16 +941,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1169619.991115924</v>
+        <v>695439.9404721394</v>
       </c>
       <c r="E29" t="n">
-        <v>1090256.628680631</v>
+        <v>1032701.826797058</v>
       </c>
     </row>
     <row r="30">
@@ -958,16 +958,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1324143.67187</v>
+        <v>772875.2819619953</v>
       </c>
       <c r="E30" t="n">
-        <v>1238599.362204544</v>
+        <v>1136465.184393465</v>
       </c>
     </row>
     <row r="31">
@@ -975,16 +975,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1478667.352624075</v>
+        <v>850310.6234518513</v>
       </c>
       <c r="E31" t="n">
-        <v>1386942.095728456</v>
+        <v>1240228.541989872</v>
       </c>
     </row>
     <row r="32">
@@ -992,16 +992,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1633191.033378151</v>
+        <v>927745.9649417073</v>
       </c>
       <c r="E32" t="n">
-        <v>1535284.829252369</v>
+        <v>1343991.899586279</v>
       </c>
     </row>
     <row r="33">
@@ -1009,16 +1009,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1787714.714132227</v>
+        <v>1005181.306431563</v>
       </c>
       <c r="E33" t="n">
-        <v>1683627.562776281</v>
+        <v>1447755.257182686</v>
       </c>
     </row>
     <row r="34">
@@ -1026,16 +1026,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1942238.394886302</v>
+        <v>1082616.647921419</v>
       </c>
       <c r="E34" t="n">
-        <v>1831970.296300194</v>
+        <v>1551518.614779093</v>
       </c>
     </row>
     <row r="35">
@@ -1043,16 +1043,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2096762.075640378</v>
+        <v>1160051.989411275</v>
       </c>
       <c r="E35" t="n">
-        <v>1980313.029824106</v>
+        <v>1655281.9723755</v>
       </c>
     </row>
     <row r="36">
@@ -1060,16 +1060,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2251285.756394453</v>
+        <v>1237487.330901131</v>
       </c>
       <c r="E36" t="n">
-        <v>2128655.763348019</v>
+        <v>1759045.329971907</v>
       </c>
     </row>
     <row r="37">
@@ -1077,16 +1077,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2405809.437148529</v>
+        <v>1314922.672390987</v>
       </c>
       <c r="E37" t="n">
-        <v>2276998.496871931</v>
+        <v>1862808.687568314</v>
       </c>
     </row>
   </sheetData>
@@ -1140,16 +1140,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>706048.9488536976</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E2" t="n">
-        <v>793571.1616328061</v>
+        <v>-684814.0474479472</v>
       </c>
     </row>
     <row r="3">
@@ -1157,16 +1157,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628787.1084766597</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E3" t="n">
-        <v>710128.3740256052</v>
+        <v>-658486.0313413963</v>
       </c>
     </row>
     <row r="4">
@@ -1174,16 +1174,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>551525.268099622</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E4" t="n">
-        <v>626685.5864184044</v>
+        <v>-632158.0152348452</v>
       </c>
     </row>
     <row r="5">
@@ -1191,16 +1191,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>474263.4277225843</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E5" t="n">
-        <v>543242.7988112036</v>
+        <v>-605829.9991282942</v>
       </c>
     </row>
     <row r="6">
@@ -1208,16 +1208,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>397001.5873455465</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E6" t="n">
-        <v>459800.0112040028</v>
+        <v>-579501.9830217431</v>
       </c>
     </row>
     <row r="7">
@@ -1225,16 +1225,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>319739.7469685088</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E7" t="n">
-        <v>376357.223596802</v>
+        <v>-553173.9669151921</v>
       </c>
     </row>
     <row r="8">
@@ -1242,16 +1242,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242477.906591471</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E8" t="n">
-        <v>292914.4359896012</v>
+        <v>-526845.950808641</v>
       </c>
     </row>
     <row r="9">
@@ -1259,16 +1259,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>165216.0662144332</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E9" t="n">
-        <v>209471.6483824004</v>
+        <v>-500517.93470209</v>
       </c>
     </row>
     <row r="10">
@@ -1276,16 +1276,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>165216.0662144332</v>
+        <v>-233784.1574061322</v>
       </c>
       <c r="E10" t="n">
-        <v>203290.7011522374</v>
+        <v>-396754.577105683</v>
       </c>
     </row>
     <row r="11">
@@ -1293,16 +1293,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165216.0662144332</v>
+        <v>-156348.8159162763</v>
       </c>
       <c r="E11" t="n">
-        <v>197109.7539220744</v>
+        <v>-292991.219509276</v>
       </c>
     </row>
     <row r="12">
@@ -1310,16 +1310,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>165216.0662144333</v>
+        <v>-78913.47442642029</v>
       </c>
       <c r="E12" t="n">
-        <v>190928.8066919114</v>
+        <v>-189227.861912869</v>
       </c>
     </row>
     <row r="13">
@@ -1327,16 +1327,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>165216.0662144332</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E13" t="n">
-        <v>184747.8594617483</v>
+        <v>-85464.50431646204</v>
       </c>
     </row>
     <row r="14">
@@ -1344,16 +1344,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>87954.22583739548</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E14" t="n">
-        <v>101305.0718545476</v>
+        <v>-59136.48820991101</v>
       </c>
     </row>
     <row r="15">
@@ -1361,16 +1361,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10692.38546035769</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E15" t="n">
-        <v>17862.28424734678</v>
+        <v>-32808.47210335998</v>
       </c>
     </row>
     <row r="16">
@@ -1378,16 +1378,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-66569.4549166801</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E16" t="n">
-        <v>-65580.50335985403</v>
+        <v>-6480.45599680895</v>
       </c>
     </row>
     <row r="17">
@@ -1395,16 +1395,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-143831.2952937179</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E17" t="n">
-        <v>-149023.2909670548</v>
+        <v>19847.56010974208</v>
       </c>
     </row>
     <row r="18">
@@ -1412,16 +1412,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E18" t="n">
-        <v>-232466.0785742557</v>
+        <v>46175.57621629311</v>
       </c>
     </row>
     <row r="19">
@@ -1429,16 +1429,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E19" t="n">
-        <v>-238647.0258044187</v>
+        <v>72503.59232284412</v>
       </c>
     </row>
     <row r="20">
@@ -1446,16 +1446,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E20" t="n">
-        <v>-244827.9730345817</v>
+        <v>98831.60842939516</v>
       </c>
     </row>
     <row r="21">
@@ -1463,16 +1463,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-66569.45491668012</v>
+        <v>75957.20855329165</v>
       </c>
       <c r="E21" t="n">
-        <v>-96485.23951066917</v>
+        <v>202594.9660258022</v>
       </c>
     </row>
     <row r="22">
@@ -1480,16 +1480,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87954.22583739542</v>
+        <v>153392.5500431476</v>
       </c>
       <c r="E22" t="n">
-        <v>51857.49401324335</v>
+        <v>306358.3236222092</v>
       </c>
     </row>
     <row r="23">
@@ -1497,16 +1497,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>242477.906591471</v>
+        <v>230827.8915330036</v>
       </c>
       <c r="E23" t="n">
-        <v>200200.2275371559</v>
+        <v>410121.6812186162</v>
       </c>
     </row>
     <row r="24">
@@ -1514,16 +1514,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>397001.5873455466</v>
+        <v>308263.2330228596</v>
       </c>
       <c r="E24" t="n">
-        <v>348542.9610610685</v>
+        <v>513885.0388150232</v>
       </c>
     </row>
     <row r="25">
@@ -1531,16 +1531,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>551525.2680996221</v>
+        <v>385698.5745127155</v>
       </c>
       <c r="E25" t="n">
-        <v>496885.694584981</v>
+        <v>617648.3964114301</v>
       </c>
     </row>
     <row r="26">
@@ -1548,16 +1548,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>706048.9488536979</v>
+        <v>463133.9160025715</v>
       </c>
       <c r="E26" t="n">
-        <v>645228.4281088937</v>
+        <v>721411.7540078372</v>
       </c>
     </row>
     <row r="27">
@@ -1565,16 +1565,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>860572.6296077734</v>
+        <v>540569.2574924275</v>
       </c>
       <c r="E27" t="n">
-        <v>793571.1616328062</v>
+        <v>825175.1116042442</v>
       </c>
     </row>
     <row r="28">
@@ -1582,16 +1582,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1015096.310361849</v>
+        <v>618004.5989822834</v>
       </c>
       <c r="E28" t="n">
-        <v>941913.8951567188</v>
+        <v>928938.4692006512</v>
       </c>
     </row>
     <row r="29">
@@ -1599,16 +1599,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1169619.991115924</v>
+        <v>695439.9404721394</v>
       </c>
       <c r="E29" t="n">
-        <v>1090256.628680631</v>
+        <v>1032701.826797058</v>
       </c>
     </row>
     <row r="30">
@@ -1616,16 +1616,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1324143.67187</v>
+        <v>772875.2819619953</v>
       </c>
       <c r="E30" t="n">
-        <v>1238599.362204544</v>
+        <v>1136465.184393465</v>
       </c>
     </row>
     <row r="31">
@@ -1633,16 +1633,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1478667.352624075</v>
+        <v>850310.6234518513</v>
       </c>
       <c r="E31" t="n">
-        <v>1386942.095728456</v>
+        <v>1240228.541989872</v>
       </c>
     </row>
     <row r="32">
@@ -1650,16 +1650,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1633191.033378151</v>
+        <v>927745.9649417073</v>
       </c>
       <c r="E32" t="n">
-        <v>1535284.829252369</v>
+        <v>1343991.899586279</v>
       </c>
     </row>
     <row r="33">
@@ -1667,16 +1667,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1787714.714132227</v>
+        <v>1005181.306431563</v>
       </c>
       <c r="E33" t="n">
-        <v>1683627.562776281</v>
+        <v>1447755.257182686</v>
       </c>
     </row>
     <row r="34">
@@ -1684,16 +1684,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1942238.394886302</v>
+        <v>1082616.647921419</v>
       </c>
       <c r="E34" t="n">
-        <v>1831970.296300194</v>
+        <v>1551518.614779093</v>
       </c>
     </row>
     <row r="35">
@@ -1701,16 +1701,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2096762.075640378</v>
+        <v>1160051.989411275</v>
       </c>
       <c r="E35" t="n">
-        <v>1980313.029824106</v>
+        <v>1655281.9723755</v>
       </c>
     </row>
     <row r="36">
@@ -1718,16 +1718,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2251285.756394453</v>
+        <v>1237487.330901131</v>
       </c>
       <c r="E36" t="n">
-        <v>2128655.763348019</v>
+        <v>1759045.329971907</v>
       </c>
     </row>
     <row r="37">
@@ -1735,16 +1735,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2405809.437148529</v>
+        <v>1314922.672390987</v>
       </c>
       <c r="E37" t="n">
-        <v>2276998.496871931</v>
+        <v>1862808.687568314</v>
       </c>
     </row>
   </sheetData>
@@ -1798,16 +1798,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>706048.9488536976</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E2" t="n">
-        <v>793571.1616328061</v>
+        <v>-684814.0474479472</v>
       </c>
     </row>
     <row r="3">
@@ -1815,16 +1815,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628787.1084766597</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E3" t="n">
-        <v>710128.3740256052</v>
+        <v>-658486.0313413963</v>
       </c>
     </row>
     <row r="4">
@@ -1832,16 +1832,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>551525.268099622</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E4" t="n">
-        <v>626685.5864184044</v>
+        <v>-632158.0152348452</v>
       </c>
     </row>
     <row r="5">
@@ -1849,16 +1849,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>474263.4277225843</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E5" t="n">
-        <v>543242.7988112036</v>
+        <v>-605829.9991282942</v>
       </c>
     </row>
     <row r="6">
@@ -1866,16 +1866,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>397001.5873455465</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E6" t="n">
-        <v>459800.0112040028</v>
+        <v>-579501.9830217431</v>
       </c>
     </row>
     <row r="7">
@@ -1883,16 +1883,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>319739.7469685088</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E7" t="n">
-        <v>376357.223596802</v>
+        <v>-553173.9669151921</v>
       </c>
     </row>
     <row r="8">
@@ -1900,16 +1900,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242477.906591471</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E8" t="n">
-        <v>292914.4359896012</v>
+        <v>-526845.950808641</v>
       </c>
     </row>
     <row r="9">
@@ -1917,16 +1917,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>165216.0662144332</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E9" t="n">
-        <v>209471.6483824004</v>
+        <v>-500517.93470209</v>
       </c>
     </row>
     <row r="10">
@@ -1934,16 +1934,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>165216.0662144332</v>
+        <v>-233784.1574061322</v>
       </c>
       <c r="E10" t="n">
-        <v>203290.7011522374</v>
+        <v>-396754.577105683</v>
       </c>
     </row>
     <row r="11">
@@ -1951,16 +1951,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165216.0662144332</v>
+        <v>-156348.8159162763</v>
       </c>
       <c r="E11" t="n">
-        <v>197109.7539220744</v>
+        <v>-292991.219509276</v>
       </c>
     </row>
     <row r="12">
@@ -1968,16 +1968,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>165216.0662144333</v>
+        <v>-78913.47442642029</v>
       </c>
       <c r="E12" t="n">
-        <v>190928.8066919114</v>
+        <v>-189227.861912869</v>
       </c>
     </row>
     <row r="13">
@@ -1985,16 +1985,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>165216.0662144332</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E13" t="n">
-        <v>184747.8594617483</v>
+        <v>-85464.50431646204</v>
       </c>
     </row>
     <row r="14">
@@ -2002,16 +2002,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>87954.22583739548</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E14" t="n">
-        <v>101305.0718545476</v>
+        <v>-59136.48820991101</v>
       </c>
     </row>
     <row r="15">
@@ -2019,16 +2019,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10692.38546035769</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E15" t="n">
-        <v>17862.28424734678</v>
+        <v>-32808.47210335998</v>
       </c>
     </row>
     <row r="16">
@@ -2036,16 +2036,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-66569.4549166801</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E16" t="n">
-        <v>-65580.50335985403</v>
+        <v>-6480.45599680895</v>
       </c>
     </row>
     <row r="17">
@@ -2053,16 +2053,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-143831.2952937179</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E17" t="n">
-        <v>-149023.2909670548</v>
+        <v>19847.56010974208</v>
       </c>
     </row>
     <row r="18">
@@ -2070,16 +2070,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E18" t="n">
-        <v>-232466.0785742557</v>
+        <v>46175.57621629311</v>
       </c>
     </row>
     <row r="19">
@@ -2087,16 +2087,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E19" t="n">
-        <v>-238647.0258044187</v>
+        <v>72503.59232284412</v>
       </c>
     </row>
     <row r="20">
@@ -2104,16 +2104,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E20" t="n">
-        <v>-244827.9730345817</v>
+        <v>98831.60842939516</v>
       </c>
     </row>
     <row r="21">
@@ -2121,16 +2121,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-66569.45491668012</v>
+        <v>75957.20855329165</v>
       </c>
       <c r="E21" t="n">
-        <v>-96485.23951066917</v>
+        <v>202594.9660258022</v>
       </c>
     </row>
     <row r="22">
@@ -2138,16 +2138,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87954.22583739542</v>
+        <v>153392.5500431476</v>
       </c>
       <c r="E22" t="n">
-        <v>51857.49401324335</v>
+        <v>306358.3236222092</v>
       </c>
     </row>
     <row r="23">
@@ -2155,16 +2155,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>242477.906591471</v>
+        <v>230827.8915330036</v>
       </c>
       <c r="E23" t="n">
-        <v>200200.2275371559</v>
+        <v>410121.6812186162</v>
       </c>
     </row>
     <row r="24">
@@ -2172,16 +2172,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>397001.5873455466</v>
+        <v>308263.2330228596</v>
       </c>
       <c r="E24" t="n">
-        <v>348542.9610610685</v>
+        <v>513885.0388150232</v>
       </c>
     </row>
     <row r="25">
@@ -2189,16 +2189,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>551525.2680996221</v>
+        <v>385698.5745127155</v>
       </c>
       <c r="E25" t="n">
-        <v>496885.694584981</v>
+        <v>617648.3964114301</v>
       </c>
     </row>
     <row r="26">
@@ -2206,16 +2206,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>706048.9488536979</v>
+        <v>463133.9160025715</v>
       </c>
       <c r="E26" t="n">
-        <v>645228.4281088937</v>
+        <v>721411.7540078372</v>
       </c>
     </row>
     <row r="27">
@@ -2223,16 +2223,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>860572.6296077734</v>
+        <v>540569.2574924275</v>
       </c>
       <c r="E27" t="n">
-        <v>793571.1616328062</v>
+        <v>825175.1116042442</v>
       </c>
     </row>
     <row r="28">
@@ -2240,16 +2240,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1015096.310361849</v>
+        <v>618004.5989822834</v>
       </c>
       <c r="E28" t="n">
-        <v>941913.8951567188</v>
+        <v>928938.4692006512</v>
       </c>
     </row>
     <row r="29">
@@ -2257,16 +2257,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1169619.991115924</v>
+        <v>695439.9404721394</v>
       </c>
       <c r="E29" t="n">
-        <v>1090256.628680631</v>
+        <v>1032701.826797058</v>
       </c>
     </row>
     <row r="30">
@@ -2274,16 +2274,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1324143.67187</v>
+        <v>772875.2819619953</v>
       </c>
       <c r="E30" t="n">
-        <v>1238599.362204544</v>
+        <v>1136465.184393465</v>
       </c>
     </row>
     <row r="31">
@@ -2291,16 +2291,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1478667.352624075</v>
+        <v>850310.6234518513</v>
       </c>
       <c r="E31" t="n">
-        <v>1386942.095728456</v>
+        <v>1240228.541989872</v>
       </c>
     </row>
     <row r="32">
@@ -2308,16 +2308,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1633191.033378151</v>
+        <v>927745.9649417073</v>
       </c>
       <c r="E32" t="n">
-        <v>1535284.829252369</v>
+        <v>1343991.899586279</v>
       </c>
     </row>
     <row r="33">
@@ -2325,16 +2325,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1787714.714132227</v>
+        <v>1005181.306431563</v>
       </c>
       <c r="E33" t="n">
-        <v>1683627.562776281</v>
+        <v>1447755.257182686</v>
       </c>
     </row>
     <row r="34">
@@ -2342,16 +2342,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1942238.394886302</v>
+        <v>1082616.647921419</v>
       </c>
       <c r="E34" t="n">
-        <v>1831970.296300194</v>
+        <v>1551518.614779093</v>
       </c>
     </row>
     <row r="35">
@@ -2359,16 +2359,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2096762.075640378</v>
+        <v>1160051.989411275</v>
       </c>
       <c r="E35" t="n">
-        <v>1980313.029824106</v>
+        <v>1655281.9723755</v>
       </c>
     </row>
     <row r="36">
@@ -2376,16 +2376,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2251285.756394453</v>
+        <v>1237487.330901131</v>
       </c>
       <c r="E36" t="n">
-        <v>2128655.763348019</v>
+        <v>1759045.329971907</v>
       </c>
     </row>
     <row r="37">
@@ -2393,16 +2393,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2405809.437148529</v>
+        <v>1314922.672390987</v>
       </c>
       <c r="E37" t="n">
-        <v>2276998.496871931</v>
+        <v>1862808.687568314</v>
       </c>
     </row>
   </sheetData>
@@ -2456,16 +2456,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>706198.2510283543</v>
+        <v>-307325.3806163779</v>
       </c>
       <c r="E2" t="n">
-        <v>793720.4638074627</v>
+        <v>-680919.929168337</v>
       </c>
     </row>
     <row r="3">
@@ -2473,16 +2473,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>632806.9075745484</v>
+        <v>-303653.4094554975</v>
       </c>
       <c r="E3" t="n">
-        <v>714148.1731234938</v>
+        <v>-650919.9419009056</v>
       </c>
     </row>
     <row r="4">
@@ -2490,16 +2490,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>562214.9782294008</v>
+        <v>-297157.0713245631</v>
       </c>
       <c r="E4" t="n">
-        <v>637375.2965481832</v>
+        <v>-618095.5876634201</v>
       </c>
     </row>
     <row r="5">
@@ -2507,16 +2507,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>495422.1476903849</v>
+        <v>-286813.8628994747</v>
       </c>
       <c r="E5" t="n">
-        <v>564401.5187790042</v>
+        <v>-581424.3631317806</v>
       </c>
     </row>
     <row r="6">
@@ -2524,16 +2524,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>433191.5983362388</v>
+        <v>-271836.4559544523</v>
       </c>
       <c r="E6" t="n">
-        <v>495990.0221946951</v>
+        <v>-540118.9400802073</v>
       </c>
     </row>
     <row r="7">
@@ -2541,16 +2541,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>375799.998672414</v>
+        <v>-251939.7836772754</v>
       </c>
       <c r="E7" t="n">
-        <v>432417.4753007073</v>
+        <v>-493894.2516964793</v>
       </c>
     </row>
     <row r="8">
@@ -2558,16 +2558,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>322897.6524075053</v>
+        <v>-227512.7087335944</v>
       </c>
       <c r="E8" t="n">
-        <v>373334.1818056355</v>
+        <v>-443139.1606462473</v>
       </c>
     </row>
     <row r="9">
@@ -2575,16 +2575,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>273561.6294823376</v>
+        <v>-199617.367819477</v>
       </c>
       <c r="E9" t="n">
-        <v>317817.2116503048</v>
+        <v>-388915.8036255789</v>
       </c>
     </row>
     <row r="10">
@@ -2592,16 +2592,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>226566.6678107776</v>
+        <v>-169798.7187802452</v>
       </c>
       <c r="E10" t="n">
-        <v>264641.3027485819</v>
+        <v>-332769.138479796</v>
       </c>
     </row>
     <row r="11">
@@ -2609,16 +2609,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>180827.306371024</v>
+        <v>-139752.059561833</v>
       </c>
       <c r="E11" t="n">
-        <v>212720.9940786652</v>
+        <v>-276394.4631548328</v>
       </c>
     </row>
     <row r="12">
@@ -2626,16 +2626,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>135903.5911569906</v>
+        <v>-110938.4867681119</v>
       </c>
       <c r="E12" t="n">
-        <v>161616.3316344688</v>
+        <v>-221252.8742545607</v>
       </c>
     </row>
     <row r="13">
@@ -2643,16 +2643,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>92428.64817480677</v>
+        <v>-84246.43704679796</v>
       </c>
       <c r="E13" t="n">
-        <v>111960.4414221219</v>
+        <v>-168232.8084266957</v>
       </c>
     </row>
     <row r="14">
@@ -2660,16 +2660,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>52320.26868415533</v>
+        <v>-59778.77087668971</v>
       </c>
       <c r="E14" t="n">
-        <v>65671.11470130744</v>
+        <v>-117437.1261500364</v>
       </c>
     </row>
     <row r="15">
@@ -2677,16 +2677,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>18685.63489018578</v>
+        <v>-36811.81597858721</v>
       </c>
       <c r="E15" t="n">
-        <v>25855.53367717487</v>
+        <v>-68142.15514538287</v>
       </c>
     </row>
     <row r="16">
@@ -2694,16 +2694,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-4587.803574708797</v>
+        <v>-13933.09261453501</v>
       </c>
       <c r="E16" t="n">
-        <v>-3598.852017882734</v>
+        <v>-18935.41567477964</v>
       </c>
     </row>
     <row r="17">
@@ -2711,16 +2711,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-13465.43443373675</v>
+        <v>10677.43950848613</v>
       </c>
       <c r="E17" t="n">
-        <v>-18657.43010707371</v>
+        <v>32003.13255479252</v>
       </c>
     </row>
     <row r="18">
@@ -2728,16 +2728,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4459.63177203315</v>
+        <v>38893.71131578342</v>
       </c>
       <c r="E18" t="n">
-        <v>-15832.57467553313</v>
+        <v>86547.42046864083</v>
       </c>
     </row>
     <row r="19">
@@ -2745,16 +2745,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>24795.6011192424</v>
+        <v>72306.03487714677</v>
       </c>
       <c r="E19" t="n">
-        <v>7241.710985579397</v>
+        <v>146287.7601365552</v>
       </c>
     </row>
     <row r="20">
@@ -2762,16 +2762,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>75224.61742403924</v>
+        <v>111978.3926990191</v>
       </c>
       <c r="E20" t="n">
-        <v>51489.78006021321</v>
+        <v>212288.1340649785</v>
       </c>
     </row>
     <row r="21">
@@ -2779,16 +2779,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146292.9410121234</v>
+        <v>158344.5849252638</v>
       </c>
       <c r="E21" t="n">
-        <v>116377.1564181343</v>
+        <v>284982.3423977743</v>
       </c>
     </row>
     <row r="22">
@@ -2796,16 +2796,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>236250.6332965331</v>
+        <v>211242.644850165</v>
       </c>
       <c r="E22" t="n">
-        <v>200153.901472381</v>
+        <v>364208.4184292265</v>
       </c>
     </row>
     <row r="23">
@@ -2813,16 +2813,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>342533.5231756815</v>
+        <v>270050.195396127</v>
       </c>
       <c r="E23" t="n">
-        <v>300255.8441213664</v>
+        <v>449343.9850817396</v>
       </c>
     </row>
     <row r="24">
@@ -2830,16 +2830,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>462203.7488453073</v>
+        <v>333866.2910875645</v>
       </c>
       <c r="E24" t="n">
-        <v>413745.1225608292</v>
+        <v>539488.0968797281</v>
       </c>
     </row>
     <row r="25">
@@ -2847,16 +2847,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>592333.3739005283</v>
+        <v>401688.8343907319</v>
       </c>
       <c r="E25" t="n">
-        <v>537693.8003858872</v>
+        <v>633638.6562894465</v>
       </c>
     </row>
     <row r="26">
@@ -2864,16 +2864,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>730276.7758034149</v>
+        <v>472553.6195310443</v>
       </c>
       <c r="E26" t="n">
-        <v>669456.2550586107</v>
+        <v>730831.45753631</v>
       </c>
     </row>
     <row r="27">
@@ -2881,16 +2881,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>873819.7326788503</v>
+        <v>545621.566530765</v>
       </c>
       <c r="E27" t="n">
-        <v>806818.2647038831</v>
+        <v>830227.4206425818</v>
       </c>
     </row>
     <row r="28">
@@ -2898,16 +2898,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1021223.206603253</v>
+        <v>620217.1887841917</v>
       </c>
       <c r="E28" t="n">
-        <v>948040.7913981224</v>
+        <v>931151.0590025594</v>
       </c>
     </row>
     <row r="29">
@@ -2915,16 +2915,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1171194.033057722</v>
+        <v>695830.5381223474</v>
       </c>
       <c r="E29" t="n">
-        <v>1091830.670622429</v>
+        <v>1033092.424447266</v>
       </c>
     </row>
     <row r="30">
@@ -2932,16 +2932,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1322815.779897877</v>
+        <v>772097.2534698286</v>
       </c>
       <c r="E30" t="n">
-        <v>1237271.470232421</v>
+        <v>1135687.155901298</v>
       </c>
     </row>
     <row r="31">
@@ -2949,16 +2949,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1475466.339157113</v>
+        <v>848769.2702195032</v>
       </c>
       <c r="E31" t="n">
-        <v>1383741.082261494</v>
+        <v>1238687.188757524</v>
       </c>
     </row>
     <row r="32">
@@ -2966,16 +2966,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1628739.500586314</v>
+        <v>925684.8184108072</v>
       </c>
       <c r="E32" t="n">
-        <v>1530833.296460532</v>
+        <v>1341930.753055379</v>
       </c>
     </row>
     <row r="33">
@@ -2983,16 +2983,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1782379.250069938</v>
+        <v>1002742.42022726</v>
       </c>
       <c r="E33" t="n">
-        <v>1678292.098713993</v>
+        <v>1445316.370978382</v>
       </c>
     </row>
     <row r="34">
@@ -3000,16 +3000,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1936229.381606708</v>
+        <v>1079880.625736996</v>
       </c>
       <c r="E34" t="n">
-        <v>1825961.283020599</v>
+        <v>1548782.59259467</v>
       </c>
     </row>
     <row r="35">
@@ -3017,16 +3017,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2090197.386994745</v>
+        <v>1157063.404984443</v>
       </c>
       <c r="E35" t="n">
-        <v>1973748.341178473</v>
+        <v>1652293.387948667</v>
       </c>
     </row>
     <row r="36">
@@ -3034,16 +3034,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2244229.968452382</v>
+        <v>1234270.248975942</v>
       </c>
       <c r="E36" t="n">
-        <v>2121599.975405948</v>
+        <v>1755828.248046718</v>
       </c>
     </row>
     <row r="37">
@@ -3051,16 +3051,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2398297.19117737</v>
+        <v>1311489.797732454</v>
       </c>
       <c r="E37" t="n">
-        <v>2269486.250900772</v>
+        <v>1859375.812909781</v>
       </c>
     </row>
   </sheetData>
@@ -3114,16 +3114,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>705297.7584879629</v>
+        <v>-308657.4700835785</v>
       </c>
       <c r="E2" t="n">
-        <v>792819.9712670713</v>
+        <v>-682252.0186355375</v>
       </c>
     </row>
     <row r="3">
@@ -3131,16 +3131,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>630690.8493607424</v>
+        <v>-305972.1839708621</v>
       </c>
       <c r="E3" t="n">
-        <v>712032.1149096878</v>
+        <v>-653238.7164162701</v>
       </c>
     </row>
     <row r="4">
@@ -3148,16 +3148,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>558513.2155941641</v>
+        <v>-300765.4712915437</v>
       </c>
       <c r="E4" t="n">
-        <v>633673.5339129465</v>
+        <v>-621703.9876304007</v>
       </c>
     </row>
     <row r="5">
@@ -3165,16 +3165,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>490000.5687050238</v>
+        <v>-291819.206253342</v>
       </c>
       <c r="E5" t="n">
-        <v>558979.9397936431</v>
+        <v>-586429.7064856479</v>
       </c>
     </row>
     <row r="6">
@@ -3182,16 +3182,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>426305.1287480701</v>
+        <v>-278025.2322056046</v>
       </c>
       <c r="E6" t="n">
-        <v>489103.5526065264</v>
+        <v>-546307.7163313595</v>
       </c>
     </row>
     <row r="7">
@@ -3199,16 +3199,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>368126.8517648376</v>
+        <v>-258744.9800919723</v>
       </c>
       <c r="E7" t="n">
-        <v>424744.3283931309</v>
+        <v>-500699.4481111762</v>
       </c>
     </row>
     <row r="8">
@@ -3216,16 +3216,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>315401.8805702055</v>
+        <v>-234111.777521889</v>
       </c>
       <c r="E8" t="n">
-        <v>365838.4099683357</v>
+        <v>-449738.2294345419</v>
       </c>
     </row>
     <row r="9">
@@ -3233,16 +3233,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>267202.8227245298</v>
+        <v>-205140.1941920972</v>
       </c>
       <c r="E9" t="n">
-        <v>311458.4048924971</v>
+        <v>-394438.6299981991</v>
       </c>
     </row>
     <row r="10">
@@ -3250,16 +3250,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>221944.1612536371</v>
+        <v>-173573.2936450476</v>
       </c>
       <c r="E10" t="n">
-        <v>260018.7961914413</v>
+        <v>-336543.7133445984</v>
       </c>
     </row>
     <row r="11">
@@ -3267,16 +3267,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>177879.6782025347</v>
+        <v>-141500.6742207021</v>
       </c>
       <c r="E11" t="n">
-        <v>209773.3659101758</v>
+        <v>-278143.0778137019</v>
       </c>
     </row>
     <row r="12">
@@ -3284,16 +3284,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>133774.0445141884</v>
+        <v>-110862.71412667</v>
       </c>
       <c r="E12" t="n">
-        <v>159486.7849916665</v>
+        <v>-221177.1016131187</v>
       </c>
     </row>
     <row r="13">
@@ -3301,16 +3301,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>89562.79784246924</v>
+        <v>-82983.27533002934</v>
       </c>
       <c r="E13" t="n">
-        <v>109094.5910897844</v>
+        <v>-166969.6467099271</v>
       </c>
     </row>
     <row r="14">
@@ -3318,16 +3318,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>46797.31247914172</v>
+        <v>-58248.17785575561</v>
       </c>
       <c r="E14" t="n">
-        <v>60148.15849629383</v>
+        <v>-115906.5331291023</v>
       </c>
     </row>
     <row r="15">
@@ -3335,16 +3335,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>8708.206847190591</v>
+        <v>-35998.32615125757</v>
       </c>
       <c r="E15" t="n">
-        <v>15878.10563417968</v>
+        <v>-67328.66531805323</v>
       </c>
     </row>
     <row r="16">
@@ -3352,16 +3352,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-20185.63082502886</v>
+        <v>-14655.87493559358</v>
       </c>
       <c r="E16" t="n">
-        <v>-19196.6792682028</v>
+        <v>-19658.19799583821</v>
       </c>
     </row>
     <row r="17">
@@ -3369,16 +3369,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-34857.25086471654</v>
+        <v>7947.816138616721</v>
       </c>
       <c r="E17" t="n">
-        <v>-40049.2465380535</v>
+        <v>29273.50918492312</v>
       </c>
     </row>
     <row r="18">
@@ -3386,16 +3386,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-30737.70490041559</v>
+        <v>34122.83295093987</v>
       </c>
       <c r="E18" t="n">
-        <v>-42110.64780391557</v>
+        <v>81776.54210379728</v>
       </c>
     </row>
     <row r="19">
@@ -3403,16 +3403,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4589.951442169746</v>
+        <v>65866.06954383012</v>
       </c>
       <c r="E19" t="n">
-        <v>-22143.84157583275</v>
+        <v>139847.7948032386</v>
       </c>
     </row>
     <row r="20">
@@ -3420,16 +3420,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>44954.99080388325</v>
+        <v>104518.7923352286</v>
       </c>
       <c r="E20" t="n">
-        <v>21220.15344005722</v>
+        <v>204828.533701188</v>
       </c>
     </row>
     <row r="21">
@@ -3437,16 +3437,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>117317.5069223635</v>
+        <v>150612.8734154273</v>
       </c>
       <c r="E21" t="n">
-        <v>87401.72232837442</v>
+        <v>277250.6308879378</v>
       </c>
     </row>
     <row r="22">
@@ -3454,16 +3454,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>210302.0485445658</v>
+        <v>203915.2352475527</v>
       </c>
       <c r="E22" t="n">
-        <v>174205.3167204137</v>
+        <v>356881.0088266142</v>
       </c>
     </row>
     <row r="23">
@@ -3471,16 +3471,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>320681.2379091975</v>
+        <v>263618.5042786883</v>
       </c>
       <c r="E23" t="n">
-        <v>278403.5588548824</v>
+        <v>442912.2939643009</v>
       </c>
     </row>
     <row r="24">
@@ -3488,16 +3488,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>444832.6481871401</v>
+        <v>328594.8853415432</v>
       </c>
       <c r="E24" t="n">
-        <v>396374.021902662</v>
+        <v>534216.6911337068</v>
       </c>
     </row>
     <row r="25">
@@ -3505,16 +3505,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>579268.9252521286</v>
+        <v>397635.3658411592</v>
       </c>
       <c r="E25" t="n">
-        <v>524629.3517374875</v>
+        <v>629585.1877398739</v>
       </c>
     </row>
     <row r="26">
@@ -3522,16 +3522,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>720980.2928071693</v>
+        <v>469625.2552277365</v>
       </c>
       <c r="E26" t="n">
-        <v>660159.7720623651</v>
+        <v>727903.0932330021</v>
       </c>
     </row>
     <row r="27">
@@ -3539,16 +3539,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>867584.5584472839</v>
+        <v>543641.2181814273</v>
       </c>
       <c r="E27" t="n">
-        <v>800583.0904723167</v>
+        <v>828247.0722932441</v>
       </c>
     </row>
     <row r="28">
@@ -3556,16 +3556,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1017328.401014165</v>
+        <v>618980.4595050357</v>
       </c>
       <c r="E28" t="n">
-        <v>944145.9858090352</v>
+        <v>929914.3297234033</v>
       </c>
     </row>
     <row r="29">
@@ -3573,16 +3573,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1169000.28186694</v>
+        <v>695144.5966823195</v>
       </c>
       <c r="E29" t="n">
-        <v>1089636.919431647</v>
+        <v>1032406.483007238</v>
       </c>
     </row>
     <row r="30">
@@ -3590,16 +3590,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1321808.622021044</v>
+        <v>771801.2105639759</v>
       </c>
       <c r="E30" t="n">
-        <v>1236264.312355588</v>
+        <v>1135391.112995446</v>
       </c>
     </row>
     <row r="31">
@@ -3607,16 +3607,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1475261.643617344</v>
+        <v>848740.2782699405</v>
       </c>
       <c r="E31" t="n">
-        <v>1383536.386721725</v>
+        <v>1238658.196807961</v>
       </c>
     </row>
     <row r="32">
@@ -3624,16 +3624,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1629067.49424804</v>
+        <v>925835.4080686747</v>
       </c>
       <c r="E32" t="n">
-        <v>1531161.290122258</v>
+        <v>1342081.342713247</v>
       </c>
     </row>
     <row r="33">
@@ -3641,16 +3641,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1783060.073074873</v>
+        <v>1003013.818553587</v>
       </c>
       <c r="E33" t="n">
-        <v>1678972.921718928</v>
+        <v>1445587.76930471</v>
       </c>
     </row>
     <row r="34">
@@ -3658,16 +3658,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1937148.417866183</v>
+        <v>1080235.25266673</v>
       </c>
       <c r="E34" t="n">
-        <v>1826880.319280074</v>
+        <v>1549137.219524404</v>
       </c>
     </row>
     <row r="35">
@@ -3675,16 +3675,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2091284.453404811</v>
+        <v>1157478.250637475</v>
       </c>
       <c r="E35" t="n">
-        <v>1974835.40758854</v>
+        <v>1652708.2336017</v>
       </c>
     </row>
     <row r="36">
@@ -3692,16 +3692,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2245443.59291887</v>
+        <v>1234731.755514894</v>
       </c>
       <c r="E36" t="n">
-        <v>2122813.599872435</v>
+        <v>1756289.75458567</v>
       </c>
     </row>
     <row r="37">
@@ -3709,16 +3709,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2399613.63989749</v>
+        <v>1311990.246532727</v>
       </c>
       <c r="E37" t="n">
-        <v>2270802.699620892</v>
+        <v>1859876.261710054</v>
       </c>
     </row>
   </sheetData>
@@ -3772,16 +3772,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>704779.1863098992</v>
+        <v>-310262.00948293</v>
       </c>
       <c r="E2" t="n">
-        <v>792301.3990890076</v>
+        <v>-683856.5580348891</v>
       </c>
     </row>
     <row r="3">
@@ -3789,16 +3789,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628619.9170543822</v>
+        <v>-309170.4435651217</v>
       </c>
       <c r="E3" t="n">
-        <v>709961.1826033276</v>
+        <v>-656436.9760105298</v>
       </c>
     </row>
     <row r="4">
@@ -3806,16 +3806,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>554014.3873521108</v>
+        <v>-306432.3890155382</v>
       </c>
       <c r="E4" t="n">
-        <v>629174.7056708932</v>
+        <v>-627370.9053543953</v>
       </c>
     </row>
     <row r="5">
@@ -3823,16 +3823,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>482377.8113741313</v>
+        <v>-300622.6702910113</v>
       </c>
       <c r="E5" t="n">
-        <v>551357.1824627506</v>
+        <v>-595233.1705233173</v>
       </c>
     </row>
     <row r="6">
@@ -3840,16 +3840,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>415493.276703028</v>
+        <v>-289987.1245293483</v>
       </c>
       <c r="E6" t="n">
-        <v>478291.7005614842</v>
+        <v>-558269.6086551032</v>
       </c>
     </row>
     <row r="7">
@@ -3857,16 +3857,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>355029.4354419603</v>
+        <v>-272923.2680816436</v>
       </c>
       <c r="E7" t="n">
-        <v>411646.9120702536</v>
+        <v>-514877.7361008475</v>
       </c>
     </row>
     <row r="8">
@@ -3874,16 +3874,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>301863.9310474347</v>
+        <v>-248633.52914683</v>
       </c>
       <c r="E8" t="n">
-        <v>352300.460445565</v>
+        <v>-464259.9810594828</v>
       </c>
     </row>
     <row r="9">
@@ -3891,16 +3891,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>255515.7499918104</v>
+        <v>-217665.4488201015</v>
       </c>
       <c r="E9" t="n">
-        <v>299771.3321597776</v>
+        <v>-406963.8846262033</v>
       </c>
     </row>
     <row r="10">
@@ -3908,16 +3908,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>214020.4468216065</v>
+        <v>-182035.4169911952</v>
       </c>
       <c r="E10" t="n">
-        <v>252095.0817594107</v>
+        <v>-345005.836690746</v>
       </c>
     </row>
     <row r="11">
@@ -3925,16 +3925,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>174416.202952266</v>
+        <v>-144804.6643479168</v>
       </c>
       <c r="E11" t="n">
-        <v>206309.8906599071</v>
+        <v>-281447.0679409166</v>
       </c>
     </row>
     <row r="12">
@@ -3942,16 +3942,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>133737.3454158923</v>
+        <v>-109248.3794406098</v>
       </c>
       <c r="E12" t="n">
-        <v>159450.0858933704</v>
+        <v>-219562.7669270585</v>
       </c>
     </row>
     <row r="13">
@@ -3959,16 +3959,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>90199.24610886896</v>
+        <v>-77948.20743160753</v>
       </c>
       <c r="E13" t="n">
-        <v>109731.0393561841</v>
+        <v>-161934.5788115053</v>
       </c>
     </row>
     <row r="14">
@@ -3976,16 +3976,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44199.1549901715</v>
+        <v>-52124.10125492816</v>
       </c>
       <c r="E14" t="n">
-        <v>57550.00100732361</v>
+        <v>-109782.4565282749</v>
       </c>
     </row>
     <row r="15">
@@ -3993,16 +3993,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1182.425627202407</v>
+        <v>-31356.60093173845</v>
       </c>
       <c r="E15" t="n">
-        <v>5987.473159786678</v>
+        <v>-62686.94009853411</v>
       </c>
     </row>
     <row r="16">
@@ -4010,16 +4010,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-40387.25035611117</v>
+        <v>-13694.27568614689</v>
       </c>
       <c r="E16" t="n">
-        <v>-39398.2987992851</v>
+        <v>-18696.59874639153</v>
       </c>
     </row>
     <row r="17">
@@ -4027,16 +4027,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-66344.56886533505</v>
+        <v>3917.510054165483</v>
       </c>
       <c r="E17" t="n">
-        <v>-71536.56453867201</v>
+        <v>25243.20310047188</v>
       </c>
     </row>
     <row r="18">
@@ -4044,16 +4044,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-72010.82496079137</v>
+        <v>24964.99249647569</v>
       </c>
       <c r="E18" t="n">
-        <v>-83383.76786429135</v>
+        <v>72618.70164933312</v>
       </c>
     </row>
     <row r="19">
@@ -4061,16 +4061,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52030.36729795618</v>
+        <v>52586.80983191158</v>
       </c>
       <c r="E19" t="n">
-        <v>-69584.25743161919</v>
+        <v>126568.53509132</v>
       </c>
     </row>
     <row r="20">
@@ -4078,16 +4078,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3938.862565703552</v>
+        <v>88903.05649553332</v>
       </c>
       <c r="E20" t="n">
-        <v>-27673.69992952958</v>
+        <v>189212.7978614928</v>
       </c>
     </row>
     <row r="21">
@@ -4095,16 +4095,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>71508.73508401244</v>
+        <v>134670.111640348</v>
       </c>
       <c r="E21" t="n">
-        <v>41592.95049002339</v>
+        <v>261307.8691128585</v>
       </c>
     </row>
     <row r="22">
@@ -4112,16 +4112,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>170917.3888343205</v>
+        <v>189352.0439051447</v>
       </c>
       <c r="E22" t="n">
-        <v>134820.6570101684</v>
+        <v>342317.8174842063</v>
       </c>
     </row>
     <row r="23">
@@ -4129,16 +4129,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>289393.8324320655</v>
+        <v>251517.6766372178</v>
       </c>
       <c r="E23" t="n">
-        <v>247116.1533777504</v>
+        <v>430811.4663228304</v>
       </c>
     </row>
     <row r="24">
@@ -4146,16 +4146,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>421756.6819835237</v>
+        <v>319357.4363471682</v>
       </c>
       <c r="E24" t="n">
-        <v>373298.0556990455</v>
+        <v>524979.2421393318</v>
       </c>
     </row>
     <row r="25">
@@ -4163,16 +4163,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>563431.317454685</v>
+        <v>391122.9032465726</v>
       </c>
       <c r="E25" t="n">
-        <v>508791.7439400438</v>
+        <v>623072.7251452872</v>
       </c>
     </row>
     <row r="26">
@@ -4180,16 +4180,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>710886.7602093378</v>
+        <v>465386.5520751018</v>
       </c>
       <c r="E26" t="n">
-        <v>650066.2394645336</v>
+        <v>723664.3900803674</v>
       </c>
     </row>
     <row r="27">
@@ -4197,16 +4197,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>861681.1410446845</v>
+        <v>541122.127176285</v>
       </c>
       <c r="E27" t="n">
-        <v>794679.6730697172</v>
+        <v>825727.9812881018</v>
       </c>
     </row>
     <row r="28">
@@ -4214,16 +4214,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1014278.058636207</v>
+        <v>617665.2936869999</v>
       </c>
       <c r="E28" t="n">
-        <v>941095.6434310764</v>
+        <v>928599.1639053677</v>
       </c>
     </row>
     <row r="29">
@@ -4231,16 +4231,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1167788.398077435</v>
+        <v>694623.1791506204</v>
       </c>
       <c r="E29" t="n">
-        <v>1088425.035642141</v>
+        <v>1031885.065475539</v>
       </c>
     </row>
     <row r="30">
@@ -4248,16 +4248,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1321734.956199653</v>
+        <v>771781.3140445934</v>
       </c>
       <c r="E30" t="n">
-        <v>1236190.646534197</v>
+        <v>1135371.216476063</v>
       </c>
     </row>
     <row r="31">
@@ -4265,16 +4265,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1475878.577282483</v>
+        <v>849030.7479793502</v>
       </c>
       <c r="E31" t="n">
-        <v>1384153.320386864</v>
+        <v>1238948.666517371</v>
       </c>
     </row>
     <row r="32">
@@ -4282,16 +4282,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1630106.705164472</v>
+        <v>926319.6376752643</v>
       </c>
       <c r="E32" t="n">
-        <v>1532200.501038689</v>
+        <v>1342565.572319836</v>
       </c>
     </row>
     <row r="33">
@@ -4299,16 +4299,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1784369.346192921</v>
+        <v>1003624.747118509</v>
       </c>
       <c r="E33" t="n">
-        <v>1680282.194836976</v>
+        <v>1446198.697869631</v>
       </c>
     </row>
     <row r="34">
@@ -4316,16 +4316,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1938645.452410672</v>
+        <v>1080936.21998088</v>
       </c>
       <c r="E34" t="n">
-        <v>1828377.353824564</v>
+        <v>1549838.186838554</v>
       </c>
     </row>
     <row r="35">
@@ -4333,16 +4333,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2092926.591528882</v>
+        <v>1158250.082680881</v>
       </c>
       <c r="E35" t="n">
-        <v>1976477.545712611</v>
+        <v>1653480.065645105</v>
       </c>
     </row>
     <row r="36">
@@ -4350,16 +4350,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2247209.53767531</v>
+        <v>1235564.806973455</v>
       </c>
       <c r="E36" t="n">
-        <v>2124579.544628875</v>
+        <v>1757122.806044231</v>
       </c>
     </row>
     <row r="37">
@@ -4367,16 +4367,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2401493.108620476</v>
+        <v>1312879.830237795</v>
       </c>
       <c r="E37" t="n">
-        <v>2272682.168343879</v>
+        <v>1860765.845415122</v>
       </c>
     </row>
   </sheetData>
@@ -4430,16 +4430,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>705121.0779987937</v>
+        <v>-310927.8115158565</v>
       </c>
       <c r="E2" t="n">
-        <v>792643.2907779021</v>
+        <v>-684522.3600678155</v>
       </c>
     </row>
     <row r="3">
@@ -4447,16 +4447,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628031.8944486056</v>
+        <v>-310802.9102737474</v>
       </c>
       <c r="E3" t="n">
-        <v>709373.159997551</v>
+        <v>-658069.4427191555</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>551353.5719862231</v>
+        <v>-310219.552502292</v>
       </c>
       <c r="E4" t="n">
-        <v>626513.8903050055</v>
+        <v>-631158.068841149</v>
       </c>
     </row>
     <row r="5">
@@ -4481,16 +4481,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>476029.967528591</v>
+        <v>-308185.3902336592</v>
       </c>
       <c r="E5" t="n">
-        <v>545009.3386172103</v>
+        <v>-602795.8904659651</v>
       </c>
     </row>
     <row r="6">
@@ -4498,16 +4498,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>404051.3568914589</v>
+        <v>-302680.8959387327</v>
       </c>
       <c r="E6" t="n">
-        <v>466849.7807499152</v>
+        <v>-570963.3800644877</v>
       </c>
     </row>
     <row r="7">
@@ -4515,16 +4515,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>338433.1630547759</v>
+        <v>-290730.3124328864</v>
       </c>
       <c r="E7" t="n">
-        <v>395050.6396830692</v>
+        <v>-532684.7804520903</v>
       </c>
     </row>
     <row r="8">
@@ -4532,16 +4532,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>282290.8018367197</v>
+        <v>-269330.2507737822</v>
       </c>
       <c r="E8" t="n">
-        <v>332727.33123485</v>
+        <v>-484956.7026864351</v>
       </c>
     </row>
     <row r="9">
@@ -4549,16 +4549,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>237183.916527034</v>
+        <v>-237038.9906516548</v>
       </c>
       <c r="E9" t="n">
-        <v>281439.4986950012</v>
+        <v>-426337.4264577567</v>
       </c>
     </row>
     <row r="10">
@@ -4566,16 +4566,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>201648.8066762115</v>
+        <v>-195366.5596902487</v>
       </c>
       <c r="E10" t="n">
-        <v>239723.4416140157</v>
+        <v>-358336.9793897995</v>
       </c>
     </row>
     <row r="11">
@@ -4583,16 +4583,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>171011.0074787679</v>
+        <v>-148949.7565802875</v>
       </c>
       <c r="E11" t="n">
-        <v>202904.6951864091</v>
+        <v>-285592.1601732873</v>
       </c>
     </row>
     <row r="12">
@@ -4600,16 +4600,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>138927.1489879017</v>
+        <v>-104088.4621474827</v>
       </c>
       <c r="E12" t="n">
-        <v>164639.8894653798</v>
+        <v>-214402.8496339314</v>
       </c>
     </row>
     <row r="13">
@@ -4617,16 +4617,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>99999.46101972611</v>
+        <v>-66323.47769527938</v>
       </c>
       <c r="E13" t="n">
-        <v>119531.2542670412</v>
+        <v>-150309.8490751771</v>
       </c>
     </row>
     <row r="14">
@@ -4634,16 +4634,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>52132.92593891329</v>
+        <v>-38484.9443255724</v>
       </c>
       <c r="E14" t="n">
-        <v>65483.7719560654</v>
+        <v>-96143.29959891911</v>
       </c>
     </row>
     <row r="15">
@@ -4651,16 +4651,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-2295.58546941898</v>
+        <v>-20196.23246739502</v>
       </c>
       <c r="E15" t="n">
-        <v>4874.313317570105</v>
+        <v>-51526.57163419068</v>
       </c>
     </row>
     <row r="16">
@@ -4668,16 +4668,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-56496.71803915694</v>
+        <v>-8568.891126674884</v>
       </c>
       <c r="E16" t="n">
-        <v>-55507.76648233088</v>
+        <v>-13571.21418691952</v>
       </c>
     </row>
     <row r="17">
@@ -4685,16 +4685,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-100294.5159598182</v>
+        <v>865.7313974619065</v>
       </c>
       <c r="E17" t="n">
-        <v>-105486.5116331551</v>
+        <v>22191.4244437683</v>
       </c>
     </row>
     <row r="18">
@@ -4702,16 +4702,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-122160.5254192141</v>
+        <v>13422.3738973115</v>
       </c>
       <c r="E18" t="n">
-        <v>-133533.4683227141</v>
+        <v>61076.08305016892</v>
       </c>
     </row>
     <row r="19">
@@ -4719,16 +4719,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-112241.0458732366</v>
+        <v>34338.99613764638</v>
       </c>
       <c r="E19" t="n">
-        <v>-129794.9360068996</v>
+        <v>108320.7213970548</v>
       </c>
     </row>
     <row r="20">
@@ -4736,16 +4736,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-65480.62252049848</v>
+        <v>67410.71320004392</v>
       </c>
       <c r="E20" t="n">
-        <v>-89215.45988432452</v>
+        <v>167720.4545660034</v>
       </c>
     </row>
     <row r="21">
@@ -4753,16 +4753,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>16835.85488172843</v>
+        <v>113816.3588737815</v>
       </c>
       <c r="E21" t="n">
-        <v>-13079.92971226062</v>
+        <v>240454.116346292</v>
       </c>
     </row>
     <row r="22">
@@ -4770,16 +4770,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128169.2834020859</v>
+        <v>172042.6934137603</v>
       </c>
       <c r="E22" t="n">
-        <v>92072.55157793377</v>
+        <v>325008.4669928218</v>
       </c>
     </row>
     <row r="23">
@@ -4787,16 +4787,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>259702.9476109043</v>
+        <v>238974.4568706363</v>
       </c>
       <c r="E23" t="n">
-        <v>217425.2685565893</v>
+        <v>418268.2465562489</v>
       </c>
     </row>
     <row r="24">
@@ -4804,16 +4804,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>403320.9517634067</v>
+        <v>311322.2267849083</v>
       </c>
       <c r="E24" t="n">
-        <v>354862.3254789286</v>
+        <v>516944.0325770719</v>
       </c>
     </row>
     <row r="25">
@@ -4821,16 +4821,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>553196.9445821112</v>
+        <v>386553.5822371792</v>
       </c>
       <c r="E25" t="n">
-        <v>498557.3710674701</v>
+        <v>618503.4041358938</v>
       </c>
     </row>
     <row r="26">
@@ -4838,16 +4838,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>705899.4846187022</v>
+        <v>463113.5165138873</v>
       </c>
       <c r="E26" t="n">
-        <v>645078.963873898</v>
+        <v>721391.354519153</v>
       </c>
     </row>
     <row r="27">
@@ -4855,16 +4855,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>859724.0007881674</v>
+        <v>540208.4877837058</v>
       </c>
       <c r="E27" t="n">
-        <v>792722.5328132001</v>
+        <v>824814.3418955225</v>
       </c>
     </row>
     <row r="28">
@@ -4872,16 +4872,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1013942.861398767</v>
+        <v>617493.5172568787</v>
       </c>
       <c r="E28" t="n">
-        <v>940760.4461936367</v>
+        <v>928427.3874752463</v>
       </c>
     </row>
     <row r="29">
@@ -4889,16 +4889,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1168285.344731467</v>
+        <v>694838.6008853273</v>
       </c>
       <c r="E29" t="n">
-        <v>1088921.982296174</v>
+        <v>1032100.487210246</v>
       </c>
     </row>
     <row r="30">
@@ -4906,16 +4906,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1322662.636733931</v>
+        <v>772200.6951764369</v>
       </c>
       <c r="E30" t="n">
-        <v>1237118.327068474</v>
+        <v>1135790.597607907</v>
       </c>
     </row>
     <row r="31">
@@ -4923,16 +4923,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1477048.790677496</v>
+        <v>849567.1399572575</v>
       </c>
       <c r="E31" t="n">
-        <v>1385323.533781877</v>
+        <v>1239485.058495278</v>
       </c>
     </row>
     <row r="32">
@@ -4940,16 +4940,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1631436.997431557</v>
+        <v>926934.5960446526</v>
       </c>
       <c r="E32" t="n">
-        <v>1533530.793305775</v>
+        <v>1343180.530689225</v>
       </c>
     </row>
     <row r="33">
@@ -4957,16 +4957,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1785825.639409366</v>
+        <v>1004302.267130949</v>
       </c>
       <c r="E33" t="n">
-        <v>1681738.488053421</v>
+        <v>1446876.217882072</v>
       </c>
     </row>
     <row r="34">
@@ -4974,16 +4974,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1940214.36631055</v>
+        <v>1081669.980259776</v>
       </c>
       <c r="E34" t="n">
-        <v>1829946.267724442</v>
+        <v>1550571.94711745</v>
       </c>
     </row>
     <row r="35">
@@ -4991,16 +4991,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2094603.108541944</v>
+        <v>1159037.700991104</v>
       </c>
       <c r="E35" t="n">
-        <v>1978154.062725673</v>
+        <v>1654267.683955329</v>
       </c>
     </row>
     <row r="36">
@@ -5008,16 +5008,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2248991.853346021</v>
+        <v>1236405.423000032</v>
       </c>
       <c r="E36" t="n">
-        <v>2126361.860299586</v>
+        <v>1757963.422070808</v>
       </c>
     </row>
     <row r="37">
@@ -5025,16 +5025,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2403380.598553293</v>
+        <v>1313773.145209411</v>
       </c>
       <c r="E37" t="n">
-        <v>2274569.658276696</v>
+        <v>1861659.160386738</v>
       </c>
     </row>
   </sheetData>
@@ -5088,16 +5088,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>704779.1863098992</v>
+        <v>-310262.00948293</v>
       </c>
       <c r="E2" t="n">
-        <v>792301.3990890076</v>
+        <v>-683856.5580348891</v>
       </c>
     </row>
     <row r="3">
@@ -5105,16 +5105,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628619.9170543822</v>
+        <v>-309170.4435651217</v>
       </c>
       <c r="E3" t="n">
-        <v>709961.1826033276</v>
+        <v>-656436.9760105298</v>
       </c>
     </row>
     <row r="4">
@@ -5122,16 +5122,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>554014.3873521108</v>
+        <v>-306432.3890155382</v>
       </c>
       <c r="E4" t="n">
-        <v>629174.7056708932</v>
+        <v>-627370.9053543953</v>
       </c>
     </row>
     <row r="5">
@@ -5139,16 +5139,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>482377.8113741313</v>
+        <v>-300622.6702910113</v>
       </c>
       <c r="E5" t="n">
-        <v>551357.1824627506</v>
+        <v>-595233.1705233173</v>
       </c>
     </row>
     <row r="6">
@@ -5156,16 +5156,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>415493.276703028</v>
+        <v>-289987.1245293483</v>
       </c>
       <c r="E6" t="n">
-        <v>478291.7005614842</v>
+        <v>-558269.6086551032</v>
       </c>
     </row>
     <row r="7">
@@ -5173,16 +5173,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>355029.4354419603</v>
+        <v>-272923.2680816436</v>
       </c>
       <c r="E7" t="n">
-        <v>411646.9120702536</v>
+        <v>-514877.7361008475</v>
       </c>
     </row>
     <row r="8">
@@ -5190,16 +5190,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>301863.9310474347</v>
+        <v>-248633.52914683</v>
       </c>
       <c r="E8" t="n">
-        <v>352300.460445565</v>
+        <v>-464259.9810594828</v>
       </c>
     </row>
     <row r="9">
@@ -5207,16 +5207,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>255515.7499918104</v>
+        <v>-217665.4488201015</v>
       </c>
       <c r="E9" t="n">
-        <v>299771.3321597776</v>
+        <v>-406963.8846262033</v>
       </c>
     </row>
     <row r="10">
@@ -5224,16 +5224,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>214020.4468216065</v>
+        <v>-182035.4169911952</v>
       </c>
       <c r="E10" t="n">
-        <v>252095.0817594107</v>
+        <v>-345005.836690746</v>
       </c>
     </row>
     <row r="11">
@@ -5241,16 +5241,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>174416.202952266</v>
+        <v>-144804.6643479168</v>
       </c>
       <c r="E11" t="n">
-        <v>206309.8906599071</v>
+        <v>-281447.0679409166</v>
       </c>
     </row>
     <row r="12">
@@ -5258,16 +5258,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>133737.3454158923</v>
+        <v>-109248.3794406098</v>
       </c>
       <c r="E12" t="n">
-        <v>159450.0858933704</v>
+        <v>-219562.7669270585</v>
       </c>
     </row>
     <row r="13">
@@ -5275,16 +5275,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>90199.24610886896</v>
+        <v>-77948.20743160753</v>
       </c>
       <c r="E13" t="n">
-        <v>109731.0393561841</v>
+        <v>-161934.5788115053</v>
       </c>
     </row>
     <row r="14">
@@ -5292,16 +5292,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44199.1549901715</v>
+        <v>-52124.10125492816</v>
       </c>
       <c r="E14" t="n">
-        <v>57550.00100732361</v>
+        <v>-109782.4565282749</v>
       </c>
     </row>
     <row r="15">
@@ -5309,16 +5309,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1182.425627202407</v>
+        <v>-31356.60093173845</v>
       </c>
       <c r="E15" t="n">
-        <v>5987.473159786678</v>
+        <v>-62686.94009853411</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +5326,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-40387.25035611117</v>
+        <v>-13694.27568614689</v>
       </c>
       <c r="E16" t="n">
-        <v>-39398.2987992851</v>
+        <v>-18696.59874639153</v>
       </c>
     </row>
     <row r="17">
@@ -5343,16 +5343,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-66344.56886533505</v>
+        <v>3917.510054165483</v>
       </c>
       <c r="E17" t="n">
-        <v>-71536.56453867201</v>
+        <v>25243.20310047188</v>
       </c>
     </row>
     <row r="18">
@@ -5360,16 +5360,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-72010.82496079137</v>
+        <v>24964.99249647569</v>
       </c>
       <c r="E18" t="n">
-        <v>-83383.76786429135</v>
+        <v>72618.70164933312</v>
       </c>
     </row>
     <row r="19">
@@ -5377,16 +5377,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-52030.36729795618</v>
+        <v>52586.80983191158</v>
       </c>
       <c r="E19" t="n">
-        <v>-69584.25743161919</v>
+        <v>126568.53509132</v>
       </c>
     </row>
     <row r="20">
@@ -5394,16 +5394,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3938.862565703552</v>
+        <v>88903.05649553332</v>
       </c>
       <c r="E20" t="n">
-        <v>-27673.69992952958</v>
+        <v>189212.7978614928</v>
       </c>
     </row>
     <row r="21">
@@ -5411,16 +5411,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>71508.73508401244</v>
+        <v>134670.111640348</v>
       </c>
       <c r="E21" t="n">
-        <v>41592.95049002339</v>
+        <v>261307.8691128585</v>
       </c>
     </row>
     <row r="22">
@@ -5428,16 +5428,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>170917.3888343205</v>
+        <v>189352.0439051447</v>
       </c>
       <c r="E22" t="n">
-        <v>134820.6570101684</v>
+        <v>342317.8174842063</v>
       </c>
     </row>
     <row r="23">
@@ -5445,16 +5445,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>289393.8324320655</v>
+        <v>251517.6766372178</v>
       </c>
       <c r="E23" t="n">
-        <v>247116.1533777504</v>
+        <v>430811.4663228304</v>
       </c>
     </row>
     <row r="24">
@@ -5462,16 +5462,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>421756.6819835237</v>
+        <v>319357.4363471682</v>
       </c>
       <c r="E24" t="n">
-        <v>373298.0556990455</v>
+        <v>524979.2421393318</v>
       </c>
     </row>
     <row r="25">
@@ -5479,16 +5479,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>563431.317454685</v>
+        <v>391122.9032465726</v>
       </c>
       <c r="E25" t="n">
-        <v>508791.7439400438</v>
+        <v>623072.7251452872</v>
       </c>
     </row>
     <row r="26">
@@ -5496,16 +5496,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>710886.7602093378</v>
+        <v>465386.5520751018</v>
       </c>
       <c r="E26" t="n">
-        <v>650066.2394645336</v>
+        <v>723664.3900803674</v>
       </c>
     </row>
     <row r="27">
@@ -5513,16 +5513,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>861681.1410446845</v>
+        <v>541122.127176285</v>
       </c>
       <c r="E27" t="n">
-        <v>794679.6730697172</v>
+        <v>825727.9812881018</v>
       </c>
     </row>
     <row r="28">
@@ -5530,16 +5530,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1014278.058636207</v>
+        <v>617665.2936869999</v>
       </c>
       <c r="E28" t="n">
-        <v>941095.6434310764</v>
+        <v>928599.1639053677</v>
       </c>
     </row>
     <row r="29">
@@ -5547,16 +5547,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1167788.398077435</v>
+        <v>694623.1791506204</v>
       </c>
       <c r="E29" t="n">
-        <v>1088425.035642141</v>
+        <v>1031885.065475539</v>
       </c>
     </row>
     <row r="30">
@@ -5564,16 +5564,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1321734.956199653</v>
+        <v>771781.3140445934</v>
       </c>
       <c r="E30" t="n">
-        <v>1236190.646534197</v>
+        <v>1135371.216476063</v>
       </c>
     </row>
     <row r="31">
@@ -5581,16 +5581,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1475878.577282483</v>
+        <v>849030.7479793502</v>
       </c>
       <c r="E31" t="n">
-        <v>1384153.320386864</v>
+        <v>1238948.666517371</v>
       </c>
     </row>
     <row r="32">
@@ -5598,16 +5598,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1630106.705164472</v>
+        <v>926319.6376752643</v>
       </c>
       <c r="E32" t="n">
-        <v>1532200.501038689</v>
+        <v>1342565.572319836</v>
       </c>
     </row>
     <row r="33">
@@ -5615,16 +5615,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1784369.346192921</v>
+        <v>1003624.747118509</v>
       </c>
       <c r="E33" t="n">
-        <v>1680282.194836976</v>
+        <v>1446198.697869631</v>
       </c>
     </row>
     <row r="34">
@@ -5632,16 +5632,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1938645.452410672</v>
+        <v>1080936.21998088</v>
       </c>
       <c r="E34" t="n">
-        <v>1828377.353824564</v>
+        <v>1549838.186838554</v>
       </c>
     </row>
     <row r="35">
@@ -5649,16 +5649,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2092926.591528882</v>
+        <v>1158250.082680881</v>
       </c>
       <c r="E35" t="n">
-        <v>1976477.545712611</v>
+        <v>1653480.065645105</v>
       </c>
     </row>
     <row r="36">
@@ -5666,16 +5666,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2247209.53767531</v>
+        <v>1235564.806973455</v>
       </c>
       <c r="E36" t="n">
-        <v>2124579.544628875</v>
+        <v>1757122.806044231</v>
       </c>
     </row>
     <row r="37">
@@ -5683,16 +5683,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2401493.108620476</v>
+        <v>1312879.830237795</v>
       </c>
       <c r="E37" t="n">
-        <v>2272682.168343879</v>
+        <v>1860765.845415122</v>
       </c>
     </row>
   </sheetData>
@@ -5746,16 +5746,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>706048.9488536976</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E2" t="n">
-        <v>793571.1616328061</v>
+        <v>-684814.0474479472</v>
       </c>
     </row>
     <row r="3">
@@ -5763,16 +5763,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628787.1084766597</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E3" t="n">
-        <v>710128.3740256052</v>
+        <v>-658486.0313413963</v>
       </c>
     </row>
     <row r="4">
@@ -5780,16 +5780,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>551525.268099622</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E4" t="n">
-        <v>626685.5864184044</v>
+        <v>-632158.0152348452</v>
       </c>
     </row>
     <row r="5">
@@ -5797,16 +5797,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>474263.4277225843</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E5" t="n">
-        <v>543242.7988112036</v>
+        <v>-605829.9991282942</v>
       </c>
     </row>
     <row r="6">
@@ -5814,16 +5814,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>397001.5873455465</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E6" t="n">
-        <v>459800.0112040028</v>
+        <v>-579501.9830217431</v>
       </c>
     </row>
     <row r="7">
@@ -5831,16 +5831,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>319739.7469685088</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E7" t="n">
-        <v>376357.223596802</v>
+        <v>-553173.9669151921</v>
       </c>
     </row>
     <row r="8">
@@ -5848,16 +5848,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242477.906591471</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E8" t="n">
-        <v>292914.4359896012</v>
+        <v>-526845.950808641</v>
       </c>
     </row>
     <row r="9">
@@ -5865,16 +5865,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>165216.0662144332</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E9" t="n">
-        <v>209471.6483824004</v>
+        <v>-500517.93470209</v>
       </c>
     </row>
     <row r="10">
@@ -5882,16 +5882,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>165216.0662144332</v>
+        <v>-233784.1574061322</v>
       </c>
       <c r="E10" t="n">
-        <v>203290.7011522374</v>
+        <v>-396754.577105683</v>
       </c>
     </row>
     <row r="11">
@@ -5899,16 +5899,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165216.0662144332</v>
+        <v>-156348.8159162763</v>
       </c>
       <c r="E11" t="n">
-        <v>197109.7539220744</v>
+        <v>-292991.219509276</v>
       </c>
     </row>
     <row r="12">
@@ -5916,16 +5916,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>165216.0662144333</v>
+        <v>-78913.47442642029</v>
       </c>
       <c r="E12" t="n">
-        <v>190928.8066919114</v>
+        <v>-189227.861912869</v>
       </c>
     </row>
     <row r="13">
@@ -5933,16 +5933,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>165216.0662144332</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E13" t="n">
-        <v>184747.8594617483</v>
+        <v>-85464.50431646204</v>
       </c>
     </row>
     <row r="14">
@@ -5950,16 +5950,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>87954.22583739548</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E14" t="n">
-        <v>101305.0718545476</v>
+        <v>-59136.48820991101</v>
       </c>
     </row>
     <row r="15">
@@ -5967,16 +5967,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10692.38546035769</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E15" t="n">
-        <v>17862.28424734678</v>
+        <v>-32808.47210335998</v>
       </c>
     </row>
     <row r="16">
@@ -5984,16 +5984,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-66569.4549166801</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E16" t="n">
-        <v>-65580.50335985403</v>
+        <v>-6480.45599680895</v>
       </c>
     </row>
     <row r="17">
@@ -6001,16 +6001,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-143831.2952937179</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E17" t="n">
-        <v>-149023.2909670548</v>
+        <v>19847.56010974208</v>
       </c>
     </row>
     <row r="18">
@@ -6018,16 +6018,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E18" t="n">
-        <v>-232466.0785742557</v>
+        <v>46175.57621629311</v>
       </c>
     </row>
     <row r="19">
@@ -6035,16 +6035,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E19" t="n">
-        <v>-238647.0258044187</v>
+        <v>72503.59232284412</v>
       </c>
     </row>
     <row r="20">
@@ -6052,16 +6052,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E20" t="n">
-        <v>-244827.9730345817</v>
+        <v>98831.60842939516</v>
       </c>
     </row>
     <row r="21">
@@ -6069,16 +6069,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-66569.45491668012</v>
+        <v>75957.20855329165</v>
       </c>
       <c r="E21" t="n">
-        <v>-96485.23951066917</v>
+        <v>202594.9660258022</v>
       </c>
     </row>
     <row r="22">
@@ -6086,16 +6086,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87954.22583739542</v>
+        <v>153392.5500431476</v>
       </c>
       <c r="E22" t="n">
-        <v>51857.49401324335</v>
+        <v>306358.3236222092</v>
       </c>
     </row>
     <row r="23">
@@ -6103,16 +6103,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>242477.906591471</v>
+        <v>230827.8915330036</v>
       </c>
       <c r="E23" t="n">
-        <v>200200.2275371559</v>
+        <v>410121.6812186162</v>
       </c>
     </row>
     <row r="24">
@@ -6120,16 +6120,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>397001.5873455466</v>
+        <v>308263.2330228596</v>
       </c>
       <c r="E24" t="n">
-        <v>348542.9610610685</v>
+        <v>513885.0388150232</v>
       </c>
     </row>
     <row r="25">
@@ -6137,16 +6137,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>551525.2680996221</v>
+        <v>385698.5745127155</v>
       </c>
       <c r="E25" t="n">
-        <v>496885.694584981</v>
+        <v>617648.3964114301</v>
       </c>
     </row>
     <row r="26">
@@ -6154,16 +6154,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>706048.9488536979</v>
+        <v>463133.9160025715</v>
       </c>
       <c r="E26" t="n">
-        <v>645228.4281088937</v>
+        <v>721411.7540078372</v>
       </c>
     </row>
     <row r="27">
@@ -6171,16 +6171,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>860572.6296077734</v>
+        <v>540569.2574924275</v>
       </c>
       <c r="E27" t="n">
-        <v>793571.1616328062</v>
+        <v>825175.1116042442</v>
       </c>
     </row>
     <row r="28">
@@ -6188,16 +6188,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1015096.310361849</v>
+        <v>618004.5989822834</v>
       </c>
       <c r="E28" t="n">
-        <v>941913.8951567188</v>
+        <v>928938.4692006512</v>
       </c>
     </row>
     <row r="29">
@@ -6205,16 +6205,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1169619.991115924</v>
+        <v>695439.9404721394</v>
       </c>
       <c r="E29" t="n">
-        <v>1090256.628680631</v>
+        <v>1032701.826797058</v>
       </c>
     </row>
     <row r="30">
@@ -6222,16 +6222,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1324143.67187</v>
+        <v>772875.2819619953</v>
       </c>
       <c r="E30" t="n">
-        <v>1238599.362204544</v>
+        <v>1136465.184393465</v>
       </c>
     </row>
     <row r="31">
@@ -6239,16 +6239,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1478667.352624075</v>
+        <v>850310.6234518513</v>
       </c>
       <c r="E31" t="n">
-        <v>1386942.095728456</v>
+        <v>1240228.541989872</v>
       </c>
     </row>
     <row r="32">
@@ -6256,16 +6256,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1633191.033378151</v>
+        <v>927745.9649417073</v>
       </c>
       <c r="E32" t="n">
-        <v>1535284.829252369</v>
+        <v>1343991.899586279</v>
       </c>
     </row>
     <row r="33">
@@ -6273,16 +6273,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1787714.714132227</v>
+        <v>1005181.306431563</v>
       </c>
       <c r="E33" t="n">
-        <v>1683627.562776281</v>
+        <v>1447755.257182686</v>
       </c>
     </row>
     <row r="34">
@@ -6290,16 +6290,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1942238.394886302</v>
+        <v>1082616.647921419</v>
       </c>
       <c r="E34" t="n">
-        <v>1831970.296300194</v>
+        <v>1551518.614779093</v>
       </c>
     </row>
     <row r="35">
@@ -6307,16 +6307,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2096762.075640378</v>
+        <v>1160051.989411275</v>
       </c>
       <c r="E35" t="n">
-        <v>1980313.029824106</v>
+        <v>1655281.9723755</v>
       </c>
     </row>
     <row r="36">
@@ -6324,16 +6324,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2251285.756394453</v>
+        <v>1237487.330901131</v>
       </c>
       <c r="E36" t="n">
-        <v>2128655.763348019</v>
+        <v>1759045.329971907</v>
       </c>
     </row>
     <row r="37">
@@ -6341,16 +6341,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2405809.437148529</v>
+        <v>1314922.672390987</v>
       </c>
       <c r="E37" t="n">
-        <v>2276998.496871931</v>
+        <v>1862808.687568314</v>
       </c>
     </row>
   </sheetData>
@@ -6404,16 +6404,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>706048.9488536976</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E2" t="n">
-        <v>793571.1616328061</v>
+        <v>-684814.0474479472</v>
       </c>
     </row>
     <row r="3">
@@ -6421,16 +6421,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628787.1084766597</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E3" t="n">
-        <v>710128.3740256052</v>
+        <v>-658486.0313413963</v>
       </c>
     </row>
     <row r="4">
@@ -6438,16 +6438,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>551525.268099622</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E4" t="n">
-        <v>626685.5864184044</v>
+        <v>-632158.0152348452</v>
       </c>
     </row>
     <row r="5">
@@ -6455,16 +6455,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>474263.4277225843</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E5" t="n">
-        <v>543242.7988112036</v>
+        <v>-605829.9991282942</v>
       </c>
     </row>
     <row r="6">
@@ -6472,16 +6472,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>397001.5873455465</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E6" t="n">
-        <v>459800.0112040028</v>
+        <v>-579501.9830217431</v>
       </c>
     </row>
     <row r="7">
@@ -6489,16 +6489,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>319739.7469685088</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E7" t="n">
-        <v>376357.223596802</v>
+        <v>-553173.9669151921</v>
       </c>
     </row>
     <row r="8">
@@ -6506,16 +6506,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242477.906591471</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E8" t="n">
-        <v>292914.4359896012</v>
+        <v>-526845.950808641</v>
       </c>
     </row>
     <row r="9">
@@ -6523,16 +6523,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>165216.0662144332</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E9" t="n">
-        <v>209471.6483824004</v>
+        <v>-500517.93470209</v>
       </c>
     </row>
     <row r="10">
@@ -6540,16 +6540,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>165216.0662144332</v>
+        <v>-233784.1574061322</v>
       </c>
       <c r="E10" t="n">
-        <v>203290.7011522374</v>
+        <v>-396754.577105683</v>
       </c>
     </row>
     <row r="11">
@@ -6557,16 +6557,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165216.0662144332</v>
+        <v>-156348.8159162763</v>
       </c>
       <c r="E11" t="n">
-        <v>197109.7539220744</v>
+        <v>-292991.219509276</v>
       </c>
     </row>
     <row r="12">
@@ -6574,16 +6574,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>165216.0662144333</v>
+        <v>-78913.47442642029</v>
       </c>
       <c r="E12" t="n">
-        <v>190928.8066919114</v>
+        <v>-189227.861912869</v>
       </c>
     </row>
     <row r="13">
@@ -6591,16 +6591,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>165216.0662144332</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E13" t="n">
-        <v>184747.8594617483</v>
+        <v>-85464.50431646204</v>
       </c>
     </row>
     <row r="14">
@@ -6608,16 +6608,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>87954.22583739548</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E14" t="n">
-        <v>101305.0718545476</v>
+        <v>-59136.48820991101</v>
       </c>
     </row>
     <row r="15">
@@ -6625,16 +6625,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10692.38546035769</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E15" t="n">
-        <v>17862.28424734678</v>
+        <v>-32808.47210335998</v>
       </c>
     </row>
     <row r="16">
@@ -6642,16 +6642,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-66569.4549166801</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E16" t="n">
-        <v>-65580.50335985403</v>
+        <v>-6480.45599680895</v>
       </c>
     </row>
     <row r="17">
@@ -6659,16 +6659,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-143831.2952937179</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E17" t="n">
-        <v>-149023.2909670548</v>
+        <v>19847.56010974208</v>
       </c>
     </row>
     <row r="18">
@@ -6676,16 +6676,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E18" t="n">
-        <v>-232466.0785742557</v>
+        <v>46175.57621629311</v>
       </c>
     </row>
     <row r="19">
@@ -6693,16 +6693,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E19" t="n">
-        <v>-238647.0258044187</v>
+        <v>72503.59232284412</v>
       </c>
     </row>
     <row r="20">
@@ -6710,16 +6710,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E20" t="n">
-        <v>-244827.9730345817</v>
+        <v>98831.60842939516</v>
       </c>
     </row>
     <row r="21">
@@ -6727,16 +6727,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-66569.45491668012</v>
+        <v>75957.20855329165</v>
       </c>
       <c r="E21" t="n">
-        <v>-96485.23951066917</v>
+        <v>202594.9660258022</v>
       </c>
     </row>
     <row r="22">
@@ -6744,16 +6744,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87954.22583739542</v>
+        <v>153392.5500431476</v>
       </c>
       <c r="E22" t="n">
-        <v>51857.49401324335</v>
+        <v>306358.3236222092</v>
       </c>
     </row>
     <row r="23">
@@ -6761,16 +6761,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>242477.906591471</v>
+        <v>230827.8915330036</v>
       </c>
       <c r="E23" t="n">
-        <v>200200.2275371559</v>
+        <v>410121.6812186162</v>
       </c>
     </row>
     <row r="24">
@@ -6778,16 +6778,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>397001.5873455466</v>
+        <v>308263.2330228596</v>
       </c>
       <c r="E24" t="n">
-        <v>348542.9610610685</v>
+        <v>513885.0388150232</v>
       </c>
     </row>
     <row r="25">
@@ -6795,16 +6795,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>551525.2680996221</v>
+        <v>385698.5745127155</v>
       </c>
       <c r="E25" t="n">
-        <v>496885.694584981</v>
+        <v>617648.3964114301</v>
       </c>
     </row>
     <row r="26">
@@ -6812,16 +6812,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>706048.9488536979</v>
+        <v>463133.9160025715</v>
       </c>
       <c r="E26" t="n">
-        <v>645228.4281088937</v>
+        <v>721411.7540078372</v>
       </c>
     </row>
     <row r="27">
@@ -6829,16 +6829,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>860572.6296077734</v>
+        <v>540569.2574924275</v>
       </c>
       <c r="E27" t="n">
-        <v>793571.1616328062</v>
+        <v>825175.1116042442</v>
       </c>
     </row>
     <row r="28">
@@ -6846,16 +6846,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1015096.310361849</v>
+        <v>618004.5989822834</v>
       </c>
       <c r="E28" t="n">
-        <v>941913.8951567188</v>
+        <v>928938.4692006512</v>
       </c>
     </row>
     <row r="29">
@@ -6863,16 +6863,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1169619.991115924</v>
+        <v>695439.9404721394</v>
       </c>
       <c r="E29" t="n">
-        <v>1090256.628680631</v>
+        <v>1032701.826797058</v>
       </c>
     </row>
     <row r="30">
@@ -6880,16 +6880,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1324143.67187</v>
+        <v>772875.2819619953</v>
       </c>
       <c r="E30" t="n">
-        <v>1238599.362204544</v>
+        <v>1136465.184393465</v>
       </c>
     </row>
     <row r="31">
@@ -6897,16 +6897,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1478667.352624075</v>
+        <v>850310.6234518513</v>
       </c>
       <c r="E31" t="n">
-        <v>1386942.095728456</v>
+        <v>1240228.541989872</v>
       </c>
     </row>
     <row r="32">
@@ -6914,16 +6914,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1633191.033378151</v>
+        <v>927745.9649417073</v>
       </c>
       <c r="E32" t="n">
-        <v>1535284.829252369</v>
+        <v>1343991.899586279</v>
       </c>
     </row>
     <row r="33">
@@ -6931,16 +6931,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1787714.714132227</v>
+        <v>1005181.306431563</v>
       </c>
       <c r="E33" t="n">
-        <v>1683627.562776281</v>
+        <v>1447755.257182686</v>
       </c>
     </row>
     <row r="34">
@@ -6948,16 +6948,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1942238.394886302</v>
+        <v>1082616.647921419</v>
       </c>
       <c r="E34" t="n">
-        <v>1831970.296300194</v>
+        <v>1551518.614779093</v>
       </c>
     </row>
     <row r="35">
@@ -6965,16 +6965,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2096762.075640378</v>
+        <v>1160051.989411275</v>
       </c>
       <c r="E35" t="n">
-        <v>1980313.029824106</v>
+        <v>1655281.9723755</v>
       </c>
     </row>
     <row r="36">
@@ -6982,16 +6982,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2251285.756394453</v>
+        <v>1237487.330901131</v>
       </c>
       <c r="E36" t="n">
-        <v>2128655.763348019</v>
+        <v>1759045.329971907</v>
       </c>
     </row>
     <row r="37">
@@ -6999,16 +6999,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2405809.437148529</v>
+        <v>1314922.672390987</v>
       </c>
       <c r="E37" t="n">
-        <v>2276998.496871931</v>
+        <v>1862808.687568314</v>
       </c>
     </row>
   </sheetData>
@@ -7062,16 +7062,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>87522.21277910838</v>
+        <v>-373594.548551959</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>706048.9488536976</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E2" t="n">
-        <v>793571.1616328061</v>
+        <v>-684814.0474479472</v>
       </c>
     </row>
     <row r="3">
@@ -7079,16 +7079,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>81341.26554894536</v>
+        <v>-347266.5324454081</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>628787.1084766597</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E3" t="n">
-        <v>710128.3740256052</v>
+        <v>-658486.0313413963</v>
       </c>
     </row>
     <row r="4">
@@ -7096,16 +7096,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>75160.31831878233</v>
+        <v>-320938.516338857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>551525.268099622</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E4" t="n">
-        <v>626685.5864184044</v>
+        <v>-632158.0152348452</v>
       </c>
     </row>
     <row r="5">
@@ -7113,16 +7113,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>68979.37108861931</v>
+        <v>-294610.500232306</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>474263.4277225843</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E5" t="n">
-        <v>543242.7988112036</v>
+        <v>-605829.9991282942</v>
       </c>
     </row>
     <row r="6">
@@ -7130,16 +7130,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>62798.42385845628</v>
+        <v>-268282.484125755</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>397001.5873455465</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E6" t="n">
-        <v>459800.0112040028</v>
+        <v>-579501.9830217431</v>
       </c>
     </row>
     <row r="7">
@@ -7147,16 +7147,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>56617.47662829326</v>
+        <v>-241954.4680192039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>319739.7469685088</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E7" t="n">
-        <v>376357.223596802</v>
+        <v>-553173.9669151921</v>
       </c>
     </row>
     <row r="8">
@@ -7164,16 +7164,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>50436.52939813024</v>
+        <v>-215626.4519126529</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>242477.906591471</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E8" t="n">
-        <v>292914.4359896012</v>
+        <v>-526845.950808641</v>
       </c>
     </row>
     <row r="9">
@@ -7181,16 +7181,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>44255.58216796722</v>
+        <v>-189298.4358061018</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>165216.0662144332</v>
+        <v>-311219.4988959882</v>
       </c>
       <c r="E9" t="n">
-        <v>209471.6483824004</v>
+        <v>-500517.93470209</v>
       </c>
     </row>
     <row r="10">
@@ -7198,16 +7198,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>38074.6349378042</v>
+        <v>-162970.4196995508</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>165216.0662144332</v>
+        <v>-233784.1574061322</v>
       </c>
       <c r="E10" t="n">
-        <v>203290.7011522374</v>
+        <v>-396754.577105683</v>
       </c>
     </row>
     <row r="11">
@@ -7215,16 +7215,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>31893.68770764117</v>
+        <v>-136642.4035929998</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>165216.0662144332</v>
+        <v>-156348.8159162763</v>
       </c>
       <c r="E11" t="n">
-        <v>197109.7539220744</v>
+        <v>-292991.219509276</v>
       </c>
     </row>
     <row r="12">
@@ -7232,16 +7232,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>25712.74047747815</v>
+        <v>-110314.3874864487</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>165216.0662144333</v>
+        <v>-78913.47442642029</v>
       </c>
       <c r="E12" t="n">
-        <v>190928.8066919114</v>
+        <v>-189227.861912869</v>
       </c>
     </row>
     <row r="13">
@@ -7249,16 +7249,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>19531.79324731513</v>
+        <v>-83986.37137989773</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>165216.0662144332</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E13" t="n">
-        <v>184747.8594617483</v>
+        <v>-85464.50431646204</v>
       </c>
     </row>
     <row r="14">
@@ -7266,16 +7266,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>13350.84601715211</v>
+        <v>-57658.3552733467</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>87954.22583739548</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E14" t="n">
-        <v>101305.0718545476</v>
+        <v>-59136.48820991101</v>
       </c>
     </row>
     <row r="15">
@@ -7283,16 +7283,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>7169.898786989085</v>
+        <v>-31330.33916679566</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10692.38546035769</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E15" t="n">
-        <v>17862.28424734678</v>
+        <v>-32808.47210335998</v>
       </c>
     </row>
     <row r="16">
@@ -7300,16 +7300,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>988.9515568260625</v>
+        <v>-5002.323060244636</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-66569.4549166801</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E16" t="n">
-        <v>-65580.50335985403</v>
+        <v>-6480.45599680895</v>
       </c>
     </row>
     <row r="17">
@@ -7317,16 +7317,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>-5191.99567333696</v>
+        <v>21325.69304630639</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-143831.2952937179</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E17" t="n">
-        <v>-149023.2909670548</v>
+        <v>19847.56010974208</v>
       </c>
     </row>
     <row r="18">
@@ -7334,16 +7334,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>-11372.94290349998</v>
+        <v>47653.70915285742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E18" t="n">
-        <v>-232466.0785742557</v>
+        <v>46175.57621629311</v>
       </c>
     </row>
     <row r="19">
@@ -7351,16 +7351,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>-17553.89013366301</v>
+        <v>73981.72525940844</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E19" t="n">
-        <v>-238647.0258044187</v>
+        <v>72503.59232284412</v>
       </c>
     </row>
     <row r="20">
@@ -7368,16 +7368,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>-23734.83736382603</v>
+        <v>100309.7413659595</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-221093.1356707557</v>
+        <v>-1478.132936564314</v>
       </c>
       <c r="E20" t="n">
-        <v>-244827.9730345817</v>
+        <v>98831.60842939516</v>
       </c>
     </row>
     <row r="21">
@@ -7385,16 +7385,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>-29915.78459398905</v>
+        <v>126637.7574725105</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-66569.45491668012</v>
+        <v>75957.20855329165</v>
       </c>
       <c r="E21" t="n">
-        <v>-96485.23951066917</v>
+        <v>202594.9660258022</v>
       </c>
     </row>
     <row r="22">
@@ -7402,16 +7402,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>-36096.73182415208</v>
+        <v>152965.7735790616</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87954.22583739542</v>
+        <v>153392.5500431476</v>
       </c>
       <c r="E22" t="n">
-        <v>51857.49401324335</v>
+        <v>306358.3236222092</v>
       </c>
     </row>
     <row r="23">
@@ -7419,16 +7419,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>-42277.6790543151</v>
+        <v>179293.7896856126</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>242477.906591471</v>
+        <v>230827.8915330036</v>
       </c>
       <c r="E23" t="n">
-        <v>200200.2275371559</v>
+        <v>410121.6812186162</v>
       </c>
     </row>
     <row r="24">
@@ -7436,16 +7436,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>-48458.62628447812</v>
+        <v>205621.8057921636</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>397001.5873455466</v>
+        <v>308263.2330228596</v>
       </c>
       <c r="E24" t="n">
-        <v>348542.9610610685</v>
+        <v>513885.0388150232</v>
       </c>
     </row>
     <row r="25">
@@ -7453,16 +7453,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>-54639.57351464114</v>
+        <v>231949.8218987146</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>551525.2680996221</v>
+        <v>385698.5745127155</v>
       </c>
       <c r="E25" t="n">
-        <v>496885.694584981</v>
+        <v>617648.3964114301</v>
       </c>
     </row>
     <row r="26">
@@ -7470,16 +7470,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>-60820.52074480416</v>
+        <v>258277.8380052657</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>706048.9488536979</v>
+        <v>463133.9160025715</v>
       </c>
       <c r="E26" t="n">
-        <v>645228.4281088937</v>
+        <v>721411.7540078372</v>
       </c>
     </row>
     <row r="27">
@@ -7487,16 +7487,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>-67001.46797496719</v>
+        <v>284605.8541118167</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>860572.6296077734</v>
+        <v>540569.2574924275</v>
       </c>
       <c r="E27" t="n">
-        <v>793571.1616328062</v>
+        <v>825175.1116042442</v>
       </c>
     </row>
     <row r="28">
@@ -7504,16 +7504,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>-73182.41520513021</v>
+        <v>310933.8702183677</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1015096.310361849</v>
+        <v>618004.5989822834</v>
       </c>
       <c r="E28" t="n">
-        <v>941913.8951567188</v>
+        <v>928938.4692006512</v>
       </c>
     </row>
     <row r="29">
@@ -7521,16 +7521,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>-79363.36243529324</v>
+        <v>337261.8863249187</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1169619.991115924</v>
+        <v>695439.9404721394</v>
       </c>
       <c r="E29" t="n">
-        <v>1090256.628680631</v>
+        <v>1032701.826797058</v>
       </c>
     </row>
     <row r="30">
@@ -7538,16 +7538,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>-85544.30966545625</v>
+        <v>363589.9024314698</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1324143.67187</v>
+        <v>772875.2819619953</v>
       </c>
       <c r="E30" t="n">
-        <v>1238599.362204544</v>
+        <v>1136465.184393465</v>
       </c>
     </row>
     <row r="31">
@@ -7555,16 +7555,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>-91725.25689561928</v>
+        <v>389917.9185380208</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1478667.352624075</v>
+        <v>850310.6234518513</v>
       </c>
       <c r="E31" t="n">
-        <v>1386942.095728456</v>
+        <v>1240228.541989872</v>
       </c>
     </row>
     <row r="32">
@@ -7572,16 +7572,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>-97906.2041257823</v>
+        <v>416245.9346445719</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1633191.033378151</v>
+        <v>927745.9649417073</v>
       </c>
       <c r="E32" t="n">
-        <v>1535284.829252369</v>
+        <v>1343991.899586279</v>
       </c>
     </row>
     <row r="33">
@@ -7589,16 +7589,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>-104087.1513559453</v>
+        <v>442573.9507511229</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1787714.714132227</v>
+        <v>1005181.306431563</v>
       </c>
       <c r="E33" t="n">
-        <v>1683627.562776281</v>
+        <v>1447755.257182686</v>
       </c>
     </row>
     <row r="34">
@@ -7606,16 +7606,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>-110268.0985861083</v>
+        <v>468901.9668576739</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1942238.394886302</v>
+        <v>1082616.647921419</v>
       </c>
       <c r="E34" t="n">
-        <v>1831970.296300194</v>
+        <v>1551518.614779093</v>
       </c>
     </row>
     <row r="35">
@@ -7623,16 +7623,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>-116449.0458162714</v>
+        <v>495229.9829642249</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2096762.075640378</v>
+        <v>1160051.989411275</v>
       </c>
       <c r="E35" t="n">
-        <v>1980313.029824106</v>
+        <v>1655281.9723755</v>
       </c>
     </row>
     <row r="36">
@@ -7640,16 +7640,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>-122629.9930464344</v>
+        <v>521557.999070776</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2251285.756394453</v>
+        <v>1237487.330901131</v>
       </c>
       <c r="E36" t="n">
-        <v>2128655.763348019</v>
+        <v>1759045.329971907</v>
       </c>
     </row>
     <row r="37">
@@ -7657,16 +7657,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>-128810.9402765974</v>
+        <v>547886.015177327</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2405809.437148529</v>
+        <v>1314922.672390987</v>
       </c>
       <c r="E37" t="n">
-        <v>2276998.496871931</v>
+        <v>1862808.687568314</v>
       </c>
     </row>
   </sheetData>

--- a/CCA PnL Output.xlsx
+++ b/CCA PnL Output.xlsx
@@ -482,16 +482,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E2" t="n">
-        <v>-684814.0474479472</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="3">
@@ -499,16 +499,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E3" t="n">
-        <v>-658486.0313413963</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="4">
@@ -516,16 +516,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E4" t="n">
-        <v>-632158.0152348452</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="5">
@@ -533,16 +533,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E5" t="n">
-        <v>-605829.9991282942</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="6">
@@ -550,16 +550,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E6" t="n">
-        <v>-579501.9830217431</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="7">
@@ -567,16 +567,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E7" t="n">
-        <v>-553173.9669151921</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="8">
@@ -584,16 +584,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E8" t="n">
-        <v>-526845.950808641</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="9">
@@ -601,16 +601,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E9" t="n">
-        <v>-500517.93470209</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="10">
@@ -618,16 +618,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-233784.1574061322</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E10" t="n">
-        <v>-396754.577105683</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="11">
@@ -635,16 +635,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-156348.8159162763</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E11" t="n">
-        <v>-292991.219509276</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-78913.47442642029</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E12" t="n">
-        <v>-189227.861912869</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="13">
@@ -669,16 +669,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E13" t="n">
-        <v>-85464.50431646204</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="14">
@@ -686,16 +686,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E14" t="n">
-        <v>-59136.48820991101</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="15">
@@ -703,16 +703,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1478.132936564314</v>
+        <v>99183.29928036443</v>
       </c>
       <c r="E15" t="n">
-        <v>-32808.47210335998</v>
+        <v>99183.29928036443</v>
       </c>
     </row>
     <row r="16">
@@ -720,16 +720,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1478.132936564314</v>
+        <v>258039.5343875924</v>
       </c>
       <c r="E16" t="n">
-        <v>-6480.45599680895</v>
+        <v>258039.5343875924</v>
       </c>
     </row>
     <row r="17">
@@ -737,16 +737,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1478.132936564314</v>
+        <v>416895.7694948204</v>
       </c>
       <c r="E17" t="n">
-        <v>19847.56010974208</v>
+        <v>416895.7694948204</v>
       </c>
     </row>
     <row r="18">
@@ -754,16 +754,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1478.132936564314</v>
+        <v>575752.0046020484</v>
       </c>
       <c r="E18" t="n">
-        <v>46175.57621629311</v>
+        <v>575752.0046020484</v>
       </c>
     </row>
     <row r="19">
@@ -771,16 +771,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1478.132936564314</v>
+        <v>734608.2397092764</v>
       </c>
       <c r="E19" t="n">
-        <v>72503.59232284412</v>
+        <v>734608.2397092764</v>
       </c>
     </row>
     <row r="20">
@@ -788,16 +788,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1478.132936564314</v>
+        <v>893464.4748165043</v>
       </c>
       <c r="E20" t="n">
-        <v>98831.60842939516</v>
+        <v>893464.4748165043</v>
       </c>
     </row>
     <row r="21">
@@ -805,16 +805,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75957.20855329165</v>
+        <v>1052320.709923732</v>
       </c>
       <c r="E21" t="n">
-        <v>202594.9660258022</v>
+        <v>1052320.709923732</v>
       </c>
     </row>
     <row r="22">
@@ -822,16 +822,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153392.5500431476</v>
+        <v>1211176.94503096</v>
       </c>
       <c r="E22" t="n">
-        <v>306358.3236222092</v>
+        <v>1211176.94503096</v>
       </c>
     </row>
     <row r="23">
@@ -839,16 +839,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>230827.8915330036</v>
+        <v>1370033.180138188</v>
       </c>
       <c r="E23" t="n">
-        <v>410121.6812186162</v>
+        <v>1370033.180138188</v>
       </c>
     </row>
     <row r="24">
@@ -856,16 +856,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>308263.2330228596</v>
+        <v>1528889.415245416</v>
       </c>
       <c r="E24" t="n">
-        <v>513885.0388150232</v>
+        <v>1528889.415245416</v>
       </c>
     </row>
     <row r="25">
@@ -873,16 +873,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>385698.5745127155</v>
+        <v>1687745.650352644</v>
       </c>
       <c r="E25" t="n">
-        <v>617648.3964114301</v>
+        <v>1687745.650352644</v>
       </c>
     </row>
     <row r="26">
@@ -890,16 +890,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>463133.9160025715</v>
+        <v>1846601.885459872</v>
       </c>
       <c r="E26" t="n">
-        <v>721411.7540078372</v>
+        <v>1846601.885459872</v>
       </c>
     </row>
     <row r="27">
@@ -907,16 +907,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>540569.2574924275</v>
+        <v>2005458.1205671</v>
       </c>
       <c r="E27" t="n">
-        <v>825175.1116042442</v>
+        <v>2005458.1205671</v>
       </c>
     </row>
     <row r="28">
@@ -924,16 +924,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>618004.5989822834</v>
+        <v>2164314.355674328</v>
       </c>
       <c r="E28" t="n">
-        <v>928938.4692006512</v>
+        <v>2164314.355674328</v>
       </c>
     </row>
     <row r="29">
@@ -941,16 +941,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695439.9404721394</v>
+        <v>2323170.590781556</v>
       </c>
       <c r="E29" t="n">
-        <v>1032701.826797058</v>
+        <v>2323170.590781556</v>
       </c>
     </row>
     <row r="30">
@@ -958,16 +958,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772875.2819619953</v>
+        <v>2482026.825888784</v>
       </c>
       <c r="E30" t="n">
-        <v>1136465.184393465</v>
+        <v>2482026.825888784</v>
       </c>
     </row>
     <row r="31">
@@ -975,16 +975,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>850310.6234518513</v>
+        <v>2640883.060996012</v>
       </c>
       <c r="E31" t="n">
-        <v>1240228.541989872</v>
+        <v>2640883.060996012</v>
       </c>
     </row>
     <row r="32">
@@ -992,16 +992,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>927745.9649417073</v>
+        <v>2799739.29610324</v>
       </c>
       <c r="E32" t="n">
-        <v>1343991.899586279</v>
+        <v>2799739.29610324</v>
       </c>
     </row>
     <row r="33">
@@ -1009,16 +1009,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1005181.306431563</v>
+        <v>2958595.531210468</v>
       </c>
       <c r="E33" t="n">
-        <v>1447755.257182686</v>
+        <v>2958595.531210468</v>
       </c>
     </row>
     <row r="34">
@@ -1026,16 +1026,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1082616.647921419</v>
+        <v>3117451.766317696</v>
       </c>
       <c r="E34" t="n">
-        <v>1551518.614779093</v>
+        <v>3117451.766317696</v>
       </c>
     </row>
     <row r="35">
@@ -1043,16 +1043,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1160051.989411275</v>
+        <v>3276308.001424924</v>
       </c>
       <c r="E35" t="n">
-        <v>1655281.9723755</v>
+        <v>3276308.001424924</v>
       </c>
     </row>
     <row r="36">
@@ -1060,16 +1060,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1237487.330901131</v>
+        <v>3435164.236532152</v>
       </c>
       <c r="E36" t="n">
-        <v>1759045.329971907</v>
+        <v>3435164.236532152</v>
       </c>
     </row>
     <row r="37">
@@ -1077,16 +1077,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314922.672390987</v>
+        <v>3594020.47163938</v>
       </c>
       <c r="E37" t="n">
-        <v>1862808.687568314</v>
+        <v>3594020.47163938</v>
       </c>
     </row>
   </sheetData>
@@ -1140,16 +1140,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E2" t="n">
-        <v>-684814.0474479472</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="3">
@@ -1157,16 +1157,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E3" t="n">
-        <v>-658486.0313413963</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="4">
@@ -1174,16 +1174,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E4" t="n">
-        <v>-632158.0152348452</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="5">
@@ -1191,16 +1191,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E5" t="n">
-        <v>-605829.9991282942</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="6">
@@ -1208,16 +1208,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E6" t="n">
-        <v>-579501.9830217431</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="7">
@@ -1225,16 +1225,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E7" t="n">
-        <v>-553173.9669151921</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="8">
@@ -1242,16 +1242,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E8" t="n">
-        <v>-526845.950808641</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="9">
@@ -1259,16 +1259,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E9" t="n">
-        <v>-500517.93470209</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="10">
@@ -1276,16 +1276,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-233784.1574061322</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E10" t="n">
-        <v>-396754.577105683</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="11">
@@ -1293,16 +1293,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-156348.8159162763</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E11" t="n">
-        <v>-292991.219509276</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="12">
@@ -1310,16 +1310,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-78913.47442642029</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E12" t="n">
-        <v>-189227.861912869</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="13">
@@ -1327,16 +1327,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E13" t="n">
-        <v>-85464.50431646204</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="14">
@@ -1344,16 +1344,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E14" t="n">
-        <v>-59136.48820991101</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="15">
@@ -1361,16 +1361,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1478.132936564314</v>
+        <v>99183.29928036443</v>
       </c>
       <c r="E15" t="n">
-        <v>-32808.47210335998</v>
+        <v>99183.29928036443</v>
       </c>
     </row>
     <row r="16">
@@ -1378,16 +1378,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1478.132936564314</v>
+        <v>258039.5343875924</v>
       </c>
       <c r="E16" t="n">
-        <v>-6480.45599680895</v>
+        <v>258039.5343875924</v>
       </c>
     </row>
     <row r="17">
@@ -1395,16 +1395,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1478.132936564314</v>
+        <v>416895.7694948204</v>
       </c>
       <c r="E17" t="n">
-        <v>19847.56010974208</v>
+        <v>416895.7694948204</v>
       </c>
     </row>
     <row r="18">
@@ -1412,16 +1412,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1478.132936564314</v>
+        <v>575752.0046020484</v>
       </c>
       <c r="E18" t="n">
-        <v>46175.57621629311</v>
+        <v>575752.0046020484</v>
       </c>
     </row>
     <row r="19">
@@ -1429,16 +1429,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1478.132936564314</v>
+        <v>734608.2397092764</v>
       </c>
       <c r="E19" t="n">
-        <v>72503.59232284412</v>
+        <v>734608.2397092764</v>
       </c>
     </row>
     <row r="20">
@@ -1446,16 +1446,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1478.132936564314</v>
+        <v>893464.4748165043</v>
       </c>
       <c r="E20" t="n">
-        <v>98831.60842939516</v>
+        <v>893464.4748165043</v>
       </c>
     </row>
     <row r="21">
@@ -1463,16 +1463,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75957.20855329165</v>
+        <v>1052320.709923732</v>
       </c>
       <c r="E21" t="n">
-        <v>202594.9660258022</v>
+        <v>1052320.709923732</v>
       </c>
     </row>
     <row r="22">
@@ -1480,16 +1480,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153392.5500431476</v>
+        <v>1211176.94503096</v>
       </c>
       <c r="E22" t="n">
-        <v>306358.3236222092</v>
+        <v>1211176.94503096</v>
       </c>
     </row>
     <row r="23">
@@ -1497,16 +1497,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>230827.8915330036</v>
+        <v>1370033.180138188</v>
       </c>
       <c r="E23" t="n">
-        <v>410121.6812186162</v>
+        <v>1370033.180138188</v>
       </c>
     </row>
     <row r="24">
@@ -1514,16 +1514,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>308263.2330228596</v>
+        <v>1528889.415245416</v>
       </c>
       <c r="E24" t="n">
-        <v>513885.0388150232</v>
+        <v>1528889.415245416</v>
       </c>
     </row>
     <row r="25">
@@ -1531,16 +1531,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>385698.5745127155</v>
+        <v>1687745.650352644</v>
       </c>
       <c r="E25" t="n">
-        <v>617648.3964114301</v>
+        <v>1687745.650352644</v>
       </c>
     </row>
     <row r="26">
@@ -1548,16 +1548,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>463133.9160025715</v>
+        <v>1846601.885459872</v>
       </c>
       <c r="E26" t="n">
-        <v>721411.7540078372</v>
+        <v>1846601.885459872</v>
       </c>
     </row>
     <row r="27">
@@ -1565,16 +1565,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>540569.2574924275</v>
+        <v>2005458.1205671</v>
       </c>
       <c r="E27" t="n">
-        <v>825175.1116042442</v>
+        <v>2005458.1205671</v>
       </c>
     </row>
     <row r="28">
@@ -1582,16 +1582,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>618004.5989822834</v>
+        <v>2164314.355674328</v>
       </c>
       <c r="E28" t="n">
-        <v>928938.4692006512</v>
+        <v>2164314.355674328</v>
       </c>
     </row>
     <row r="29">
@@ -1599,16 +1599,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695439.9404721394</v>
+        <v>2323170.590781556</v>
       </c>
       <c r="E29" t="n">
-        <v>1032701.826797058</v>
+        <v>2323170.590781556</v>
       </c>
     </row>
     <row r="30">
@@ -1616,16 +1616,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772875.2819619953</v>
+        <v>2482026.825888784</v>
       </c>
       <c r="E30" t="n">
-        <v>1136465.184393465</v>
+        <v>2482026.825888784</v>
       </c>
     </row>
     <row r="31">
@@ -1633,16 +1633,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>850310.6234518513</v>
+        <v>2640883.060996012</v>
       </c>
       <c r="E31" t="n">
-        <v>1240228.541989872</v>
+        <v>2640883.060996012</v>
       </c>
     </row>
     <row r="32">
@@ -1650,16 +1650,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>927745.9649417073</v>
+        <v>2799739.29610324</v>
       </c>
       <c r="E32" t="n">
-        <v>1343991.899586279</v>
+        <v>2799739.29610324</v>
       </c>
     </row>
     <row r="33">
@@ -1667,16 +1667,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1005181.306431563</v>
+        <v>2958595.531210468</v>
       </c>
       <c r="E33" t="n">
-        <v>1447755.257182686</v>
+        <v>2958595.531210468</v>
       </c>
     </row>
     <row r="34">
@@ -1684,16 +1684,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1082616.647921419</v>
+        <v>3117451.766317696</v>
       </c>
       <c r="E34" t="n">
-        <v>1551518.614779093</v>
+        <v>3117451.766317696</v>
       </c>
     </row>
     <row r="35">
@@ -1701,16 +1701,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1160051.989411275</v>
+        <v>3276308.001424924</v>
       </c>
       <c r="E35" t="n">
-        <v>1655281.9723755</v>
+        <v>3276308.001424924</v>
       </c>
     </row>
     <row r="36">
@@ -1718,16 +1718,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1237487.330901131</v>
+        <v>3435164.236532152</v>
       </c>
       <c r="E36" t="n">
-        <v>1759045.329971907</v>
+        <v>3435164.236532152</v>
       </c>
     </row>
     <row r="37">
@@ -1735,16 +1735,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314922.672390987</v>
+        <v>3594020.47163938</v>
       </c>
       <c r="E37" t="n">
-        <v>1862808.687568314</v>
+        <v>3594020.47163938</v>
       </c>
     </row>
   </sheetData>
@@ -1798,16 +1798,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E2" t="n">
-        <v>-684814.0474479472</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="3">
@@ -1815,16 +1815,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E3" t="n">
-        <v>-658486.0313413963</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="4">
@@ -1832,16 +1832,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E4" t="n">
-        <v>-632158.0152348452</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="5">
@@ -1849,16 +1849,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E5" t="n">
-        <v>-605829.9991282942</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="6">
@@ -1866,16 +1866,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E6" t="n">
-        <v>-579501.9830217431</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="7">
@@ -1883,16 +1883,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E7" t="n">
-        <v>-553173.9669151921</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="8">
@@ -1900,16 +1900,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E8" t="n">
-        <v>-526845.950808641</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="9">
@@ -1917,16 +1917,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E9" t="n">
-        <v>-500517.93470209</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="10">
@@ -1934,16 +1934,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-233784.1574061322</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E10" t="n">
-        <v>-396754.577105683</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="11">
@@ -1951,16 +1951,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-156348.8159162763</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E11" t="n">
-        <v>-292991.219509276</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="12">
@@ -1968,16 +1968,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-78913.47442642029</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E12" t="n">
-        <v>-189227.861912869</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="13">
@@ -1985,16 +1985,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E13" t="n">
-        <v>-85464.50431646204</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="14">
@@ -2002,16 +2002,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E14" t="n">
-        <v>-59136.48820991101</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="15">
@@ -2019,16 +2019,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1478.132936564314</v>
+        <v>99183.29928036443</v>
       </c>
       <c r="E15" t="n">
-        <v>-32808.47210335998</v>
+        <v>99183.29928036443</v>
       </c>
     </row>
     <row r="16">
@@ -2036,16 +2036,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1478.132936564314</v>
+        <v>258039.5343875924</v>
       </c>
       <c r="E16" t="n">
-        <v>-6480.45599680895</v>
+        <v>258039.5343875924</v>
       </c>
     </row>
     <row r="17">
@@ -2053,16 +2053,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1478.132936564314</v>
+        <v>416895.7694948204</v>
       </c>
       <c r="E17" t="n">
-        <v>19847.56010974208</v>
+        <v>416895.7694948204</v>
       </c>
     </row>
     <row r="18">
@@ -2070,16 +2070,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1478.132936564314</v>
+        <v>575752.0046020484</v>
       </c>
       <c r="E18" t="n">
-        <v>46175.57621629311</v>
+        <v>575752.0046020484</v>
       </c>
     </row>
     <row r="19">
@@ -2087,16 +2087,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1478.132936564314</v>
+        <v>734608.2397092764</v>
       </c>
       <c r="E19" t="n">
-        <v>72503.59232284412</v>
+        <v>734608.2397092764</v>
       </c>
     </row>
     <row r="20">
@@ -2104,16 +2104,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1478.132936564314</v>
+        <v>893464.4748165043</v>
       </c>
       <c r="E20" t="n">
-        <v>98831.60842939516</v>
+        <v>893464.4748165043</v>
       </c>
     </row>
     <row r="21">
@@ -2121,16 +2121,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75957.20855329165</v>
+        <v>1052320.709923732</v>
       </c>
       <c r="E21" t="n">
-        <v>202594.9660258022</v>
+        <v>1052320.709923732</v>
       </c>
     </row>
     <row r="22">
@@ -2138,16 +2138,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153392.5500431476</v>
+        <v>1211176.94503096</v>
       </c>
       <c r="E22" t="n">
-        <v>306358.3236222092</v>
+        <v>1211176.94503096</v>
       </c>
     </row>
     <row r="23">
@@ -2155,16 +2155,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>230827.8915330036</v>
+        <v>1370033.180138188</v>
       </c>
       <c r="E23" t="n">
-        <v>410121.6812186162</v>
+        <v>1370033.180138188</v>
       </c>
     </row>
     <row r="24">
@@ -2172,16 +2172,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>308263.2330228596</v>
+        <v>1528889.415245416</v>
       </c>
       <c r="E24" t="n">
-        <v>513885.0388150232</v>
+        <v>1528889.415245416</v>
       </c>
     </row>
     <row r="25">
@@ -2189,16 +2189,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>385698.5745127155</v>
+        <v>1687745.650352644</v>
       </c>
       <c r="E25" t="n">
-        <v>617648.3964114301</v>
+        <v>1687745.650352644</v>
       </c>
     </row>
     <row r="26">
@@ -2206,16 +2206,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>463133.9160025715</v>
+        <v>1846601.885459872</v>
       </c>
       <c r="E26" t="n">
-        <v>721411.7540078372</v>
+        <v>1846601.885459872</v>
       </c>
     </row>
     <row r="27">
@@ -2223,16 +2223,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>540569.2574924275</v>
+        <v>2005458.1205671</v>
       </c>
       <c r="E27" t="n">
-        <v>825175.1116042442</v>
+        <v>2005458.1205671</v>
       </c>
     </row>
     <row r="28">
@@ -2240,16 +2240,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>618004.5989822834</v>
+        <v>2164314.355674328</v>
       </c>
       <c r="E28" t="n">
-        <v>928938.4692006512</v>
+        <v>2164314.355674328</v>
       </c>
     </row>
     <row r="29">
@@ -2257,16 +2257,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695439.9404721394</v>
+        <v>2323170.590781556</v>
       </c>
       <c r="E29" t="n">
-        <v>1032701.826797058</v>
+        <v>2323170.590781556</v>
       </c>
     </row>
     <row r="30">
@@ -2274,16 +2274,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772875.2819619953</v>
+        <v>2482026.825888784</v>
       </c>
       <c r="E30" t="n">
-        <v>1136465.184393465</v>
+        <v>2482026.825888784</v>
       </c>
     </row>
     <row r="31">
@@ -2291,16 +2291,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>850310.6234518513</v>
+        <v>2640883.060996012</v>
       </c>
       <c r="E31" t="n">
-        <v>1240228.541989872</v>
+        <v>2640883.060996012</v>
       </c>
     </row>
     <row r="32">
@@ -2308,16 +2308,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>927745.9649417073</v>
+        <v>2799739.29610324</v>
       </c>
       <c r="E32" t="n">
-        <v>1343991.899586279</v>
+        <v>2799739.29610324</v>
       </c>
     </row>
     <row r="33">
@@ -2325,16 +2325,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1005181.306431563</v>
+        <v>2958595.531210468</v>
       </c>
       <c r="E33" t="n">
-        <v>1447755.257182686</v>
+        <v>2958595.531210468</v>
       </c>
     </row>
     <row r="34">
@@ -2342,16 +2342,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1082616.647921419</v>
+        <v>3117451.766317696</v>
       </c>
       <c r="E34" t="n">
-        <v>1551518.614779093</v>
+        <v>3117451.766317696</v>
       </c>
     </row>
     <row r="35">
@@ -2359,16 +2359,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1160051.989411275</v>
+        <v>3276308.001424924</v>
       </c>
       <c r="E35" t="n">
-        <v>1655281.9723755</v>
+        <v>3276308.001424924</v>
       </c>
     </row>
     <row r="36">
@@ -2376,16 +2376,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1237487.330901131</v>
+        <v>3435164.236532152</v>
       </c>
       <c r="E36" t="n">
-        <v>1759045.329971907</v>
+        <v>3435164.236532152</v>
       </c>
     </row>
     <row r="37">
@@ -2393,16 +2393,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314922.672390987</v>
+        <v>3594020.47163938</v>
       </c>
       <c r="E37" t="n">
-        <v>1862808.687568314</v>
+        <v>3594020.47163938</v>
       </c>
     </row>
   </sheetData>
@@ -2456,16 +2456,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-307325.3806163779</v>
+        <v>-59672.93515198477</v>
       </c>
       <c r="E2" t="n">
-        <v>-680919.929168337</v>
+        <v>-59672.93515198477</v>
       </c>
     </row>
     <row r="3">
@@ -2473,16 +2473,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-303653.4094554975</v>
+        <v>-59672.91768007541</v>
       </c>
       <c r="E3" t="n">
-        <v>-650919.9419009056</v>
+        <v>-59672.91768007541</v>
       </c>
     </row>
     <row r="4">
@@ -2490,16 +2490,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-297157.0713245631</v>
+        <v>-59672.62381051256</v>
       </c>
       <c r="E4" t="n">
-        <v>-618095.5876634201</v>
+        <v>-59672.62381051256</v>
       </c>
     </row>
     <row r="5">
@@ -2507,16 +2507,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-286813.8628994747</v>
+        <v>-59669.30838877625</v>
       </c>
       <c r="E5" t="n">
-        <v>-581424.3631317806</v>
+        <v>-59669.30838877625</v>
       </c>
     </row>
     <row r="6">
@@ -2524,16 +2524,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-271836.4559544523</v>
+        <v>-59643.01931126802</v>
       </c>
       <c r="E6" t="n">
-        <v>-540118.9400802073</v>
+        <v>-59643.01931126802</v>
       </c>
     </row>
     <row r="7">
@@ -2541,16 +2541,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-251939.7836772754</v>
+        <v>-59490.45986950817</v>
       </c>
       <c r="E7" t="n">
-        <v>-493894.2516964793</v>
+        <v>-59490.45986950817</v>
       </c>
     </row>
     <row r="8">
@@ -2558,16 +2558,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-227512.7087335944</v>
+        <v>-58819.14937120692</v>
       </c>
       <c r="E8" t="n">
-        <v>-443139.1606462473</v>
+        <v>-58819.14937120692</v>
       </c>
     </row>
     <row r="9">
@@ -2575,16 +2575,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-199617.367819477</v>
+        <v>-56507.79444481708</v>
       </c>
       <c r="E9" t="n">
-        <v>-388915.8036255789</v>
+        <v>-56507.79444481708</v>
       </c>
     </row>
     <row r="10">
@@ -2592,16 +2592,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-169798.7187802452</v>
+        <v>-50103.0092984207</v>
       </c>
       <c r="E10" t="n">
-        <v>-332769.138479796</v>
+        <v>-50103.0092984207</v>
       </c>
     </row>
     <row r="11">
@@ -2609,16 +2609,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-139752.059561833</v>
+        <v>-35448.57213006339</v>
       </c>
       <c r="E11" t="n">
-        <v>-276394.4631548328</v>
+        <v>-35448.57213006339</v>
       </c>
     </row>
     <row r="12">
@@ -2626,16 +2626,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-110938.4867681119</v>
+        <v>-7099.168355965174</v>
       </c>
       <c r="E12" t="n">
-        <v>-221252.8742545607</v>
+        <v>-7099.168355965174</v>
       </c>
     </row>
     <row r="13">
@@ -2643,16 +2643,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-84246.43704679796</v>
+        <v>40311.92237688085</v>
       </c>
       <c r="E13" t="n">
-        <v>-168232.8084266957</v>
+        <v>40311.92237688085</v>
       </c>
     </row>
     <row r="14">
@@ -2660,16 +2660,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59778.77087668971</v>
+        <v>110322.6733733134</v>
       </c>
       <c r="E14" t="n">
-        <v>-117437.1261500364</v>
+        <v>110322.6733733134</v>
       </c>
     </row>
     <row r="15">
@@ -2677,16 +2677,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-36811.81597858721</v>
+        <v>203481.9651692938</v>
       </c>
       <c r="E15" t="n">
-        <v>-68142.15514538287</v>
+        <v>203481.9651692938</v>
       </c>
     </row>
     <row r="16">
@@ -2694,16 +2694,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-13933.09261453501</v>
+        <v>317387.253053968</v>
       </c>
       <c r="E16" t="n">
-        <v>-18935.41567477964</v>
+        <v>317387.253053968</v>
       </c>
     </row>
     <row r="17">
@@ -2711,16 +2711,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>10677.43950848613</v>
+        <v>447747.0952604297</v>
       </c>
       <c r="E17" t="n">
-        <v>32003.13255479252</v>
+        <v>447747.0952604297</v>
       </c>
     </row>
     <row r="18">
@@ -2728,16 +2728,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>38893.71131578342</v>
+        <v>589776.1595082839</v>
       </c>
       <c r="E18" t="n">
-        <v>86547.42046864083</v>
+        <v>589776.1595082839</v>
       </c>
     </row>
     <row r="19">
@@ -2745,16 +2745,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>72306.03487714677</v>
+        <v>739273.6995004787</v>
       </c>
       <c r="E19" t="n">
-        <v>146287.7601365552</v>
+        <v>739273.6995004787</v>
       </c>
     </row>
     <row r="20">
@@ -2762,16 +2762,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>111978.3926990191</v>
+        <v>893121.3820225919</v>
       </c>
       <c r="E20" t="n">
-        <v>212288.1340649785</v>
+        <v>893121.3820225919</v>
       </c>
     </row>
     <row r="21">
@@ -2779,16 +2779,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>158344.5849252638</v>
+        <v>1049292.674102723</v>
       </c>
       <c r="E21" t="n">
-        <v>284982.3423977743</v>
+        <v>1049292.674102723</v>
       </c>
     </row>
     <row r="22">
@@ -2796,16 +2796,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>211242.644850165</v>
+        <v>1206610.045094329</v>
       </c>
       <c r="E22" t="n">
-        <v>364208.4184292265</v>
+        <v>1206610.045094329</v>
       </c>
     </row>
     <row r="23">
@@ -2813,16 +2813,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>270050.195396127</v>
+        <v>1364452.695685657</v>
       </c>
       <c r="E23" t="n">
-        <v>449343.9850817396</v>
+        <v>1364452.695685657</v>
       </c>
     </row>
     <row r="24">
@@ -2830,16 +2830,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>333866.2910875645</v>
+        <v>1522520.346061666</v>
       </c>
       <c r="E24" t="n">
-        <v>539488.0968797281</v>
+        <v>1522520.346061666</v>
       </c>
     </row>
     <row r="25">
@@ -2847,16 +2847,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>401688.8343907319</v>
+        <v>1680678.541172422</v>
       </c>
       <c r="E25" t="n">
-        <v>633638.6562894465</v>
+        <v>1680678.541172422</v>
       </c>
     </row>
     <row r="26">
@@ -2864,16 +2864,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>472553.6195310443</v>
+        <v>1838871.132683202</v>
       </c>
       <c r="E26" t="n">
-        <v>730831.45753631</v>
+        <v>1838871.132683202</v>
       </c>
     </row>
     <row r="27">
@@ -2881,16 +2881,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>545621.566530765</v>
+        <v>1997076.113168416</v>
       </c>
       <c r="E27" t="n">
-        <v>830227.4206425818</v>
+        <v>1997076.113168416</v>
       </c>
     </row>
     <row r="28">
@@ -2898,16 +2898,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>620217.1887841917</v>
+        <v>2155285.341572296</v>
       </c>
       <c r="E28" t="n">
-        <v>931151.0590025594</v>
+        <v>2155285.341572296</v>
       </c>
     </row>
     <row r="29">
@@ -2915,16 +2915,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695830.5381223474</v>
+        <v>2313495.961654103</v>
       </c>
       <c r="E29" t="n">
-        <v>1033092.424447266</v>
+        <v>2313495.961654103</v>
       </c>
     </row>
     <row r="30">
@@ -2932,16 +2932,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772097.2534698286</v>
+        <v>2471707.018852411</v>
       </c>
       <c r="E30" t="n">
-        <v>1135687.155901298</v>
+        <v>2471707.018852411</v>
       </c>
     </row>
     <row r="31">
@@ -2949,16 +2949,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>848769.2702195032</v>
+        <v>2629918.208091749</v>
       </c>
       <c r="E31" t="n">
-        <v>1238687.188757524</v>
+        <v>2629918.208091749</v>
       </c>
     </row>
     <row r="32">
@@ -2966,16 +2966,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>925684.8184108072</v>
+        <v>2788129.435801339</v>
       </c>
       <c r="E32" t="n">
-        <v>1341930.753055379</v>
+        <v>2788129.435801339</v>
       </c>
     </row>
     <row r="33">
@@ -2983,16 +2983,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1002742.42022726</v>
+        <v>2946340.674350212</v>
       </c>
       <c r="E33" t="n">
-        <v>1445316.370978382</v>
+        <v>2946340.674350212</v>
       </c>
     </row>
     <row r="34">
@@ -3000,16 +3000,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1079880.625736996</v>
+        <v>3104551.91585984</v>
       </c>
       <c r="E34" t="n">
-        <v>1548782.59259467</v>
+        <v>3104551.91585984</v>
       </c>
     </row>
     <row r="35">
@@ -3017,16 +3017,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1157063.404984443</v>
+        <v>3262763.158155276</v>
       </c>
       <c r="E35" t="n">
-        <v>1652293.387948667</v>
+        <v>3262763.158155276</v>
       </c>
     </row>
     <row r="36">
@@ -3034,16 +3034,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1234270.248975942</v>
+        <v>3420974.40065379</v>
       </c>
       <c r="E36" t="n">
-        <v>1755828.248046718</v>
+        <v>3420974.40065379</v>
       </c>
     </row>
     <row r="37">
@@ -3051,16 +3051,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1311489.797732454</v>
+        <v>3579185.643203503</v>
       </c>
       <c r="E37" t="n">
-        <v>1859375.812909781</v>
+        <v>3579185.643203503</v>
       </c>
     </row>
   </sheetData>
@@ -3114,16 +3114,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-308657.4700835785</v>
+        <v>-59672.93570276702</v>
       </c>
       <c r="E2" t="n">
-        <v>-682252.0186355375</v>
+        <v>-59672.93570276702</v>
       </c>
     </row>
     <row r="3">
@@ -3131,16 +3131,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-305972.1839708621</v>
+        <v>-59672.93128563765</v>
       </c>
       <c r="E3" t="n">
-        <v>-653238.7164162701</v>
+        <v>-59672.93128563765</v>
       </c>
     </row>
     <row r="4">
@@ -3148,16 +3148,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-300765.4712915437</v>
+        <v>-59672.83425830414</v>
       </c>
       <c r="E4" t="n">
-        <v>-621703.9876304007</v>
+        <v>-59672.83425830414</v>
       </c>
     </row>
     <row r="5">
@@ -3165,16 +3165,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-291819.206253342</v>
+        <v>-59671.4596020016</v>
       </c>
       <c r="E5" t="n">
-        <v>-586429.7064856479</v>
+        <v>-59671.4596020016</v>
       </c>
     </row>
     <row r="6">
@@ -3182,16 +3182,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-278025.2322056046</v>
+        <v>-59658.23799186275</v>
       </c>
       <c r="E6" t="n">
-        <v>-546307.7163313595</v>
+        <v>-59658.23799186275</v>
       </c>
     </row>
     <row r="7">
@@ -3199,16 +3199,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-258744.9800919723</v>
+        <v>-59567.99453570427</v>
       </c>
       <c r="E7" t="n">
-        <v>-500699.4481111762</v>
+        <v>-59567.99453570427</v>
       </c>
     </row>
     <row r="8">
@@ -3216,16 +3216,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-234111.777521889</v>
+        <v>-59113.59882364013</v>
       </c>
       <c r="E8" t="n">
-        <v>-449738.2294345419</v>
+        <v>-59113.59882364013</v>
       </c>
     </row>
     <row r="9">
@@ -3233,16 +3233,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-205140.1941920972</v>
+        <v>-57366.73834655414</v>
       </c>
       <c r="E9" t="n">
-        <v>-394438.6299981991</v>
+        <v>-57366.73834655414</v>
       </c>
     </row>
     <row r="10">
@@ -3250,16 +3250,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-173573.2936450476</v>
+        <v>-52078.94066353705</v>
       </c>
       <c r="E10" t="n">
-        <v>-336543.7133445984</v>
+        <v>-52078.94066353705</v>
       </c>
     </row>
     <row r="11">
@@ -3267,16 +3267,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-141500.6742207021</v>
+        <v>-39116.78174136144</v>
       </c>
       <c r="E11" t="n">
-        <v>-278143.0778137019</v>
+        <v>-39116.78174136144</v>
       </c>
     </row>
     <row r="12">
@@ -3284,16 +3284,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-110862.71412667</v>
+        <v>-12707.45148510259</v>
       </c>
       <c r="E12" t="n">
-        <v>-221177.1016131187</v>
+        <v>-12707.45148510259</v>
       </c>
     </row>
     <row r="13">
@@ -3301,16 +3301,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-82983.27533002934</v>
+        <v>33123.17901142218</v>
       </c>
       <c r="E13" t="n">
-        <v>-166969.6467099271</v>
+        <v>33123.17901142218</v>
       </c>
     </row>
     <row r="14">
@@ -3318,16 +3318,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-58248.17785575561</v>
+        <v>102475.8305569709</v>
       </c>
       <c r="E14" t="n">
-        <v>-115906.5331291023</v>
+        <v>102475.8305569709</v>
       </c>
     </row>
     <row r="15">
@@ -3335,16 +3335,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-35998.32615125757</v>
+        <v>196090.3723824197</v>
       </c>
       <c r="E15" t="n">
-        <v>-67328.66531805323</v>
+        <v>196090.3723824197</v>
       </c>
     </row>
     <row r="16">
@@ -3352,16 +3352,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-14655.87493559358</v>
+        <v>311314.4941925807</v>
       </c>
       <c r="E16" t="n">
-        <v>-19658.19799583821</v>
+        <v>311314.4941925807</v>
       </c>
     </row>
     <row r="17">
@@ -3369,16 +3369,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7947.816138616721</v>
+        <v>443367.4793244137</v>
       </c>
       <c r="E17" t="n">
-        <v>29273.50918492312</v>
+        <v>443367.4793244137</v>
       </c>
     </row>
     <row r="18">
@@ -3386,16 +3386,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>34122.83295093987</v>
+        <v>587009.1345291033</v>
       </c>
       <c r="E18" t="n">
-        <v>81776.54210379728</v>
+        <v>587009.1345291033</v>
       </c>
     </row>
     <row r="19">
@@ -3403,16 +3403,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65866.06954383012</v>
+        <v>737779.2594929861</v>
       </c>
       <c r="E19" t="n">
-        <v>139847.7948032386</v>
+        <v>737779.2594929861</v>
       </c>
     </row>
     <row r="20">
@@ -3420,16 +3420,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>104518.7923352286</v>
+        <v>892502.5000991515</v>
       </c>
       <c r="E20" t="n">
-        <v>204828.533701188</v>
+        <v>892502.5000991515</v>
       </c>
     </row>
     <row r="21">
@@ -3437,16 +3437,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>150612.8734154273</v>
+        <v>1049218.656813757</v>
       </c>
       <c r="E21" t="n">
-        <v>277250.6308879378</v>
+        <v>1049218.656813757</v>
       </c>
     </row>
     <row r="22">
@@ -3454,16 +3454,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>203915.2352475527</v>
+        <v>1206855.136044074</v>
       </c>
       <c r="E22" t="n">
-        <v>356881.0088266142</v>
+        <v>1206855.136044074</v>
       </c>
     </row>
     <row r="23">
@@ -3471,16 +3471,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>263618.5042786883</v>
+        <v>1364883.621097879</v>
       </c>
       <c r="E23" t="n">
-        <v>442912.2939643009</v>
+        <v>1364883.621097879</v>
       </c>
     </row>
     <row r="24">
@@ -3488,16 +3488,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>328594.8853415432</v>
+        <v>1523067.088392741</v>
       </c>
       <c r="E24" t="n">
-        <v>534216.6911337068</v>
+        <v>1523067.088392741</v>
       </c>
     </row>
     <row r="25">
@@ -3505,16 +3505,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>397635.3658411592</v>
+        <v>1681307.757082184</v>
       </c>
       <c r="E25" t="n">
-        <v>629585.1877398739</v>
+        <v>1681307.757082184</v>
       </c>
     </row>
     <row r="26">
@@ -3522,16 +3522,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>469625.2552277365</v>
+        <v>1839568.238838492</v>
       </c>
       <c r="E26" t="n">
-        <v>727903.0932330021</v>
+        <v>1839568.238838492</v>
       </c>
     </row>
     <row r="27">
@@ -3539,16 +3539,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>543641.2181814273</v>
+        <v>1997835.192176081</v>
       </c>
       <c r="E27" t="n">
-        <v>828247.0722932441</v>
+        <v>1997835.192176081</v>
       </c>
     </row>
     <row r="28">
@@ -3556,16 +3556,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>618980.4595050357</v>
+        <v>2156104.147692305</v>
       </c>
       <c r="E28" t="n">
-        <v>929914.3297234033</v>
+        <v>2156104.147692305</v>
       </c>
     </row>
     <row r="29">
@@ -3573,16 +3573,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695144.5966823195</v>
+        <v>2314373.692313418</v>
       </c>
       <c r="E29" t="n">
-        <v>1032406.483007238</v>
+        <v>2314373.692313418</v>
       </c>
     </row>
     <row r="30">
@@ -3590,16 +3590,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>771801.2105639759</v>
+        <v>2472643.402397937</v>
       </c>
       <c r="E30" t="n">
-        <v>1135391.112995446</v>
+        <v>2472643.402397937</v>
       </c>
     </row>
     <row r="31">
@@ -3607,16 +3607,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>848740.2782699405</v>
+        <v>2630913.156999329</v>
       </c>
       <c r="E31" t="n">
-        <v>1238658.196807961</v>
+        <v>2630913.156999329</v>
       </c>
     </row>
     <row r="32">
@@ -3624,16 +3624,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>925835.4080686747</v>
+        <v>2789182.923109731</v>
       </c>
       <c r="E32" t="n">
-        <v>1342081.342713247</v>
+        <v>2789182.923109731</v>
       </c>
     </row>
     <row r="33">
@@ -3641,16 +3641,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1003013.818553587</v>
+        <v>2947452.692087702</v>
       </c>
       <c r="E33" t="n">
-        <v>1445587.76930471</v>
+        <v>2947452.692087702</v>
       </c>
     </row>
     <row r="34">
@@ -3658,16 +3658,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1080235.25266673</v>
+        <v>3105722.461756114</v>
       </c>
       <c r="E34" t="n">
-        <v>1549137.219524404</v>
+        <v>3105722.461756114</v>
       </c>
     </row>
     <row r="35">
@@ -3675,16 +3675,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1157478.250637475</v>
+        <v>3263992.231585577</v>
       </c>
       <c r="E35" t="n">
-        <v>1652708.2336017</v>
+        <v>3263992.231585577</v>
       </c>
     </row>
     <row r="36">
@@ -3692,16 +3692,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1234731.755514894</v>
+        <v>3422262.001451517</v>
       </c>
       <c r="E36" t="n">
-        <v>1756289.75458567</v>
+        <v>3422262.001451517</v>
       </c>
     </row>
     <row r="37">
@@ -3709,16 +3709,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1311990.246532727</v>
+        <v>3580531.771325499</v>
       </c>
       <c r="E37" t="n">
-        <v>1859876.261710054</v>
+        <v>3580531.771325499</v>
       </c>
     </row>
   </sheetData>
@@ -3772,16 +3772,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-310262.00948293</v>
+        <v>-59672.93582640316</v>
       </c>
       <c r="E2" t="n">
-        <v>-683856.5580348891</v>
+        <v>-59672.93582640316</v>
       </c>
     </row>
     <row r="3">
@@ -3789,16 +3789,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-309170.4435651217</v>
+        <v>-59672.93577965401</v>
       </c>
       <c r="E3" t="n">
-        <v>-656436.9760105298</v>
+        <v>-59672.93577965401</v>
       </c>
     </row>
     <row r="4">
@@ -3806,16 +3806,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-306432.3890155382</v>
+        <v>-59672.93328419113</v>
       </c>
       <c r="E4" t="n">
-        <v>-627370.9053543953</v>
+        <v>-59672.93328419113</v>
       </c>
     </row>
     <row r="5">
@@ -3823,16 +3823,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-300622.6702910113</v>
+        <v>-59672.85793243551</v>
       </c>
       <c r="E5" t="n">
-        <v>-595233.1705233173</v>
+        <v>-59672.85793243551</v>
       </c>
     </row>
     <row r="6">
@@ -3840,16 +3840,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-289987.1245293483</v>
+        <v>-59671.48225877557</v>
       </c>
       <c r="E6" t="n">
-        <v>-558269.6086551032</v>
+        <v>-59671.48225877557</v>
       </c>
     </row>
     <row r="7">
@@ -3857,16 +3857,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-272923.2680816436</v>
+        <v>-59655.40035075946</v>
       </c>
       <c r="E7" t="n">
-        <v>-514877.7361008475</v>
+        <v>-59655.40035075946</v>
       </c>
     </row>
     <row r="8">
@@ -3874,16 +3874,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-248633.52914683</v>
+        <v>-59528.84504195675</v>
       </c>
       <c r="E8" t="n">
-        <v>-464259.9810594828</v>
+        <v>-59528.84504195675</v>
       </c>
     </row>
     <row r="9">
@@ -3891,16 +3891,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-217665.4488201015</v>
+        <v>-58828.16385766905</v>
       </c>
       <c r="E9" t="n">
-        <v>-406963.8846262033</v>
+        <v>-58828.16385766905</v>
       </c>
     </row>
     <row r="10">
@@ -3908,16 +3908,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-182035.4169911952</v>
+        <v>-55988.64941986537</v>
       </c>
       <c r="E10" t="n">
-        <v>-345005.836690746</v>
+        <v>-55988.64941986537</v>
       </c>
     </row>
     <row r="11">
@@ -3925,16 +3925,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-144804.6643479168</v>
+        <v>-47256.35398966024</v>
       </c>
       <c r="E11" t="n">
-        <v>-281447.0679409166</v>
+        <v>-47256.35398966024</v>
       </c>
     </row>
     <row r="12">
@@ -3942,16 +3942,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-109248.3794406098</v>
+        <v>-26181.07940094817</v>
       </c>
       <c r="E12" t="n">
-        <v>-219562.7669270585</v>
+        <v>-26181.07940094817</v>
       </c>
     </row>
     <row r="13">
@@ -3959,16 +3959,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-77948.20743160753</v>
+        <v>15037.39016595242</v>
       </c>
       <c r="E13" t="n">
-        <v>-161934.5788115053</v>
+        <v>15037.39016595242</v>
       </c>
     </row>
     <row r="14">
@@ -3976,16 +3976,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52124.10125492816</v>
+        <v>82435.20063986778</v>
       </c>
       <c r="E14" t="n">
-        <v>-109782.4565282749</v>
+        <v>82435.20063986778</v>
       </c>
     </row>
     <row r="15">
@@ -3993,16 +3993,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-31356.60093173845</v>
+        <v>177466.7664253127</v>
       </c>
       <c r="E15" t="n">
-        <v>-62686.94009853411</v>
+        <v>177466.7664253127</v>
       </c>
     </row>
     <row r="16">
@@ -4010,16 +4010,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-13694.27568614689</v>
+        <v>296610.8701312633</v>
       </c>
       <c r="E16" t="n">
-        <v>-18696.59874639153</v>
+        <v>296610.8701312633</v>
       </c>
     </row>
     <row r="17">
@@ -4027,16 +4027,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3917.510054165483</v>
+        <v>433426.9869491214</v>
       </c>
       <c r="E17" t="n">
-        <v>25243.20310047188</v>
+        <v>433426.9869491214</v>
       </c>
     </row>
     <row r="18">
@@ -4044,16 +4044,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>24964.99249647569</v>
+        <v>581279.400728594</v>
       </c>
       <c r="E18" t="n">
-        <v>72618.70164933312</v>
+        <v>581279.400728594</v>
       </c>
     </row>
     <row r="19">
@@ -4061,16 +4061,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52586.80983191158</v>
+        <v>735081.8637871587</v>
       </c>
       <c r="E19" t="n">
-        <v>126568.53509132</v>
+        <v>735081.8637871587</v>
       </c>
     </row>
     <row r="20">
@@ -4078,16 +4078,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>88903.05649553332</v>
+        <v>891686.6588624637</v>
       </c>
       <c r="E20" t="n">
-        <v>189212.7978614928</v>
+        <v>891686.6588624637</v>
       </c>
     </row>
     <row r="21">
@@ -4095,16 +4095,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>134670.111640348</v>
+        <v>1049456.908420592</v>
       </c>
       <c r="E21" t="n">
-        <v>261307.8691128585</v>
+        <v>1049456.908420592</v>
       </c>
     </row>
     <row r="22">
@@ -4112,16 +4112,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>189352.0439051447</v>
+        <v>1207659.377861026</v>
       </c>
       <c r="E22" t="n">
-        <v>342317.8174842063</v>
+        <v>1207659.377861026</v>
       </c>
     </row>
     <row r="23">
@@ -4129,16 +4129,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>251517.6766372178</v>
+        <v>1366006.068881482</v>
       </c>
       <c r="E23" t="n">
-        <v>430811.4663228304</v>
+        <v>1366006.068881482</v>
       </c>
     </row>
     <row r="24">
@@ -4146,16 +4146,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>319357.4363471682</v>
+        <v>1524396.413269408</v>
       </c>
       <c r="E24" t="n">
-        <v>524979.2421393318</v>
+        <v>1524396.413269408</v>
       </c>
     </row>
     <row r="25">
@@ -4163,16 +4163,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>391122.9032465726</v>
+        <v>1682798.833303689</v>
       </c>
       <c r="E25" t="n">
-        <v>623072.7251452872</v>
+        <v>1682798.833303689</v>
       </c>
     </row>
     <row r="26">
@@ -4180,16 +4180,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>465386.5520751018</v>
+        <v>1841204.327157747</v>
       </c>
       <c r="E26" t="n">
-        <v>723664.3900803674</v>
+        <v>1841204.327157747</v>
       </c>
     </row>
     <row r="27">
@@ -4197,16 +4197,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>541122.127176285</v>
+        <v>1999610.545523999</v>
       </c>
       <c r="E27" t="n">
-        <v>825727.9812881018</v>
+        <v>1999610.545523999</v>
       </c>
     </row>
     <row r="28">
@@ -4214,16 +4214,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>617665.2936869999</v>
+        <v>2158016.922932847</v>
       </c>
       <c r="E28" t="n">
-        <v>928599.1639053677</v>
+        <v>2158016.922932847</v>
       </c>
     </row>
     <row r="29">
@@ -4231,16 +4231,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>694623.1791506204</v>
+        <v>2316423.333029157</v>
       </c>
       <c r="E29" t="n">
-        <v>1031885.065475539</v>
+        <v>2316423.333029157</v>
       </c>
     </row>
     <row r="30">
@@ -4248,16 +4248,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>771781.3140445934</v>
+        <v>2474829.749446172</v>
       </c>
       <c r="E30" t="n">
-        <v>1135371.216476063</v>
+        <v>2474829.749446172</v>
       </c>
     </row>
     <row r="31">
@@ -4265,16 +4265,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>849030.7479793502</v>
+        <v>2633236.167018282</v>
       </c>
       <c r="E31" t="n">
-        <v>1238948.666517371</v>
+        <v>2633236.167018282</v>
       </c>
     </row>
     <row r="32">
@@ -4282,16 +4282,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>926319.6376752643</v>
+        <v>2791642.584790718</v>
       </c>
       <c r="E32" t="n">
-        <v>1342565.572319836</v>
+        <v>2791642.584790718</v>
       </c>
     </row>
     <row r="33">
@@ -4299,16 +4299,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1003624.747118509</v>
+        <v>2950049.002596249</v>
       </c>
       <c r="E33" t="n">
-        <v>1446198.697869631</v>
+        <v>2950049.002596249</v>
       </c>
     </row>
     <row r="34">
@@ -4316,16 +4316,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1080936.21998088</v>
+        <v>3108455.420407009</v>
       </c>
       <c r="E34" t="n">
-        <v>1549838.186838554</v>
+        <v>3108455.420407009</v>
       </c>
     </row>
     <row r="35">
@@ -4333,16 +4333,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1158250.082680881</v>
+        <v>3266861.838218562</v>
       </c>
       <c r="E35" t="n">
-        <v>1653480.065645105</v>
+        <v>3266861.838218562</v>
       </c>
     </row>
     <row r="36">
@@ -4350,16 +4350,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1235564.806973455</v>
+        <v>3425268.256030227</v>
       </c>
       <c r="E36" t="n">
-        <v>1757122.806044231</v>
+        <v>3425268.256030227</v>
       </c>
     </row>
     <row r="37">
@@ -4367,16 +4367,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1312879.830237795</v>
+        <v>3583674.67384191</v>
       </c>
       <c r="E37" t="n">
-        <v>1860765.845415122</v>
+        <v>3583674.67384191</v>
       </c>
     </row>
   </sheetData>
@@ -4430,16 +4430,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-310927.8115158565</v>
+        <v>-59672.93582686352</v>
       </c>
       <c r="E2" t="n">
-        <v>-684522.3600678155</v>
+        <v>-59672.93582686352</v>
       </c>
     </row>
     <row r="3">
@@ -4447,16 +4447,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-310802.9102737474</v>
+        <v>-59672.93582685268</v>
       </c>
       <c r="E3" t="n">
-        <v>-658069.4427191555</v>
+        <v>-59672.93582685268</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-310219.552502292</v>
+        <v>-59672.93582383528</v>
       </c>
       <c r="E4" t="n">
-        <v>-631158.068841149</v>
+        <v>-59672.93582383528</v>
       </c>
     </row>
     <row r="5">
@@ -4481,16 +4481,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-308185.3902336592</v>
+        <v>-59672.93545299222</v>
       </c>
       <c r="E5" t="n">
-        <v>-602795.8904659651</v>
+        <v>-59672.93545299222</v>
       </c>
     </row>
     <row r="6">
@@ -4498,16 +4498,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-302680.8959387327</v>
+        <v>-59672.9132889858</v>
       </c>
       <c r="E6" t="n">
-        <v>-570963.3800644877</v>
+        <v>-59672.9132889858</v>
       </c>
     </row>
     <row r="7">
@@ -4515,16 +4515,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-290730.3124328864</v>
+        <v>-59672.21360977682</v>
       </c>
       <c r="E7" t="n">
-        <v>-532684.7804520903</v>
+        <v>-59672.21360977682</v>
       </c>
     </row>
     <row r="8">
@@ -4532,16 +4532,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-269330.2507737822</v>
+        <v>-59659.68099467482</v>
       </c>
       <c r="E8" t="n">
-        <v>-484956.7026864351</v>
+        <v>-59659.68099467482</v>
       </c>
     </row>
     <row r="9">
@@ -4549,16 +4549,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-237038.9906516548</v>
+        <v>-59524.05606271135</v>
       </c>
       <c r="E9" t="n">
-        <v>-426337.4264577567</v>
+        <v>-59524.05606271135</v>
       </c>
     </row>
     <row r="10">
@@ -4566,16 +4566,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-195366.5596902487</v>
+        <v>-58586.35166826485</v>
       </c>
       <c r="E10" t="n">
-        <v>-358336.9793897995</v>
+        <v>-58586.35166826485</v>
       </c>
     </row>
     <row r="11">
@@ -4583,16 +4583,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-148949.7565802875</v>
+        <v>-54228.38712843864</v>
       </c>
       <c r="E11" t="n">
-        <v>-285592.1601732873</v>
+        <v>-54228.38712843864</v>
       </c>
     </row>
     <row r="12">
@@ -4600,16 +4600,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-104088.4621474827</v>
+        <v>-39952.87451093295</v>
       </c>
       <c r="E12" t="n">
-        <v>-214402.8496339314</v>
+        <v>-39952.87451093295</v>
       </c>
     </row>
     <row r="13">
@@ -4617,16 +4617,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-66323.47769527938</v>
+        <v>-5449.21986204702</v>
       </c>
       <c r="E13" t="n">
-        <v>-150309.8490751771</v>
+        <v>-5449.21986204702</v>
       </c>
     </row>
     <row r="14">
@@ -4634,16 +4634,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-38484.9443255724</v>
+        <v>58963.20854043649</v>
       </c>
       <c r="E14" t="n">
-        <v>-96143.29959891911</v>
+        <v>58963.20854043649</v>
       </c>
     </row>
     <row r="15">
@@ -4651,16 +4651,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-20196.23246739502</v>
+        <v>156310.2696589195</v>
       </c>
       <c r="E15" t="n">
-        <v>-51526.57163419068</v>
+        <v>156310.2696589195</v>
       </c>
     </row>
     <row r="16">
@@ -4668,16 +4668,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-8568.891126674884</v>
+        <v>281331.4904948859</v>
       </c>
       <c r="E16" t="n">
-        <v>-13571.21418691952</v>
+        <v>281331.4904948859</v>
       </c>
     </row>
     <row r="17">
@@ -4685,16 +4685,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>865.7313974619065</v>
+        <v>424491.6064715981</v>
       </c>
       <c r="E17" t="n">
-        <v>22191.4244437683</v>
+        <v>424491.6064715981</v>
       </c>
     </row>
     <row r="18">
@@ -4702,16 +4702,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>13422.3738973115</v>
+        <v>577112.4796418491</v>
       </c>
       <c r="E18" t="n">
-        <v>61076.08305016892</v>
+        <v>577112.4796418491</v>
       </c>
     </row>
     <row r="19">
@@ -4719,16 +4719,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34338.99613764638</v>
+        <v>733731.8975783942</v>
       </c>
       <c r="E19" t="n">
-        <v>108320.7213970548</v>
+        <v>733731.8975783942</v>
       </c>
     </row>
     <row r="20">
@@ -4736,16 +4736,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>67410.71320004392</v>
+        <v>891743.5891706526</v>
       </c>
       <c r="E20" t="n">
-        <v>167720.4545660034</v>
+        <v>891743.5891706526</v>
       </c>
     </row>
     <row r="21">
@@ -4753,16 +4753,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>113816.3588737815</v>
+        <v>1050160.747083663</v>
       </c>
       <c r="E21" t="n">
-        <v>240454.116346292</v>
+        <v>1050160.747083663</v>
       </c>
     </row>
     <row r="22">
@@ -4770,16 +4770,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>172042.6934137603</v>
+        <v>1208678.041224224</v>
       </c>
       <c r="E22" t="n">
-        <v>325008.4669928218</v>
+        <v>1208678.041224224</v>
       </c>
     </row>
     <row r="23">
@@ -4787,16 +4787,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>238974.4568706363</v>
+        <v>1367216.573925749</v>
       </c>
       <c r="E23" t="n">
-        <v>418268.2465562489</v>
+        <v>1367216.573925749</v>
       </c>
     </row>
     <row r="24">
@@ -4804,16 +4804,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>311322.2267849083</v>
+        <v>1525759.020334903</v>
       </c>
       <c r="E24" t="n">
-        <v>516944.0325770719</v>
+        <v>1525759.020334903</v>
       </c>
     </row>
     <row r="25">
@@ -4821,16 +4821,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>386553.5822371792</v>
+        <v>1684302.100025997</v>
       </c>
       <c r="E25" t="n">
-        <v>618503.4041358938</v>
+        <v>1684302.100025997</v>
       </c>
     </row>
     <row r="26">
@@ -4838,16 +4838,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>463113.5165138873</v>
+        <v>1842845.27058068</v>
       </c>
       <c r="E26" t="n">
-        <v>721391.354519153</v>
+        <v>1842845.27058068</v>
       </c>
     </row>
     <row r="27">
@@ -4855,16 +4855,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>540208.4877837058</v>
+        <v>2001388.452799773</v>
       </c>
       <c r="E27" t="n">
-        <v>824814.3418955225</v>
+        <v>2001388.452799773</v>
       </c>
     </row>
     <row r="28">
@@ -4872,16 +4872,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>617493.5172568787</v>
+        <v>2159931.636369692</v>
       </c>
       <c r="E28" t="n">
-        <v>928427.3874752463</v>
+        <v>2159931.636369692</v>
       </c>
     </row>
     <row r="29">
@@ -4889,16 +4889,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>694838.6008853273</v>
+        <v>2318474.820081814</v>
       </c>
       <c r="E29" t="n">
-        <v>1032100.487210246</v>
+        <v>2318474.820081814</v>
       </c>
     </row>
     <row r="30">
@@ -4906,16 +4906,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772200.6951764369</v>
+        <v>2477018.003807639</v>
       </c>
       <c r="E30" t="n">
-        <v>1135790.597607907</v>
+        <v>2477018.003807639</v>
       </c>
     </row>
     <row r="31">
@@ -4923,16 +4923,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>849567.1399572575</v>
+        <v>2635561.187534678</v>
       </c>
       <c r="E31" t="n">
-        <v>1239485.058495278</v>
+        <v>2635561.187534678</v>
       </c>
     </row>
     <row r="32">
@@ -4940,16 +4940,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>926934.5960446526</v>
+        <v>2794104.37126182</v>
       </c>
       <c r="E32" t="n">
-        <v>1343180.530689225</v>
+        <v>2794104.37126182</v>
       </c>
     </row>
     <row r="33">
@@ -4957,16 +4957,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1004302.267130949</v>
+        <v>2952647.554988967</v>
       </c>
       <c r="E33" t="n">
-        <v>1446876.217882072</v>
+        <v>2952647.554988967</v>
       </c>
     </row>
     <row r="34">
@@ -4974,16 +4974,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1081669.980259776</v>
+        <v>3111190.738716117</v>
       </c>
       <c r="E34" t="n">
-        <v>1550571.94711745</v>
+        <v>3111190.738716117</v>
       </c>
     </row>
     <row r="35">
@@ -4991,16 +4991,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1159037.700991104</v>
+        <v>3269733.922443266</v>
       </c>
       <c r="E35" t="n">
-        <v>1654267.683955329</v>
+        <v>3269733.922443266</v>
       </c>
     </row>
     <row r="36">
@@ -5008,16 +5008,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1236405.423000032</v>
+        <v>3428277.106170415</v>
       </c>
       <c r="E36" t="n">
-        <v>1757963.422070808</v>
+        <v>3428277.106170415</v>
       </c>
     </row>
     <row r="37">
@@ -5025,16 +5025,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1313773.145209411</v>
+        <v>3586820.289897564</v>
       </c>
       <c r="E37" t="n">
-        <v>1861659.160386738</v>
+        <v>3586820.289897564</v>
       </c>
     </row>
   </sheetData>
@@ -5088,16 +5088,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-310262.00948293</v>
+        <v>-59672.93582686342</v>
       </c>
       <c r="E2" t="n">
-        <v>-683856.5580348891</v>
+        <v>-59672.93582686342</v>
       </c>
     </row>
     <row r="3">
@@ -5105,16 +5105,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-309170.4435651217</v>
+        <v>-59672.93582680943</v>
       </c>
       <c r="E3" t="n">
-        <v>-656436.9760105298</v>
+        <v>-59672.93582680943</v>
       </c>
     </row>
     <row r="4">
@@ -5122,16 +5122,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-306432.3890155382</v>
+        <v>-59672.93581588038</v>
       </c>
       <c r="E4" t="n">
-        <v>-627370.9053543953</v>
+        <v>-59672.93581588038</v>
       </c>
     </row>
     <row r="5">
@@ -5139,16 +5139,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-300622.6702910113</v>
+        <v>-59672.93479081619</v>
       </c>
       <c r="E5" t="n">
-        <v>-595233.1705233173</v>
+        <v>-59672.93479081619</v>
       </c>
     </row>
     <row r="6">
@@ -5156,16 +5156,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-289987.1245293483</v>
+        <v>-59672.8860199793</v>
       </c>
       <c r="E6" t="n">
-        <v>-558269.6086551032</v>
+        <v>-59672.8860199793</v>
       </c>
     </row>
     <row r="7">
@@ -5173,16 +5173,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-272923.2680816436</v>
+        <v>-59671.61383772907</v>
       </c>
       <c r="E7" t="n">
-        <v>-514877.7361008475</v>
+        <v>-59671.61383772907</v>
       </c>
     </row>
     <row r="8">
@@ -5190,16 +5190,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-248633.52914683</v>
+        <v>-59652.15237915309</v>
       </c>
       <c r="E8" t="n">
-        <v>-464259.9810594828</v>
+        <v>-59652.15237915309</v>
       </c>
     </row>
     <row r="9">
@@ -5207,16 +5207,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-217665.4488201015</v>
+        <v>-59466.91991446597</v>
       </c>
       <c r="E9" t="n">
-        <v>-406963.8846262033</v>
+        <v>-59466.91991446597</v>
       </c>
     </row>
     <row r="10">
@@ -5224,16 +5224,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-182035.4169911952</v>
+        <v>-58310.62288466916</v>
       </c>
       <c r="E10" t="n">
-        <v>-345005.836690746</v>
+        <v>-58310.62288466916</v>
       </c>
     </row>
     <row r="11">
@@ -5241,16 +5241,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-144804.6643479168</v>
+        <v>-53343.95504590524</v>
       </c>
       <c r="E11" t="n">
-        <v>-281447.0679409166</v>
+        <v>-53343.95504590524</v>
       </c>
     </row>
     <row r="12">
@@ -5258,16 +5258,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-109248.3794406098</v>
+        <v>-37992.21707971609</v>
       </c>
       <c r="E12" t="n">
-        <v>-219562.7669270585</v>
+        <v>-37992.21707971609</v>
       </c>
     </row>
     <row r="13">
@@ -5275,16 +5275,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-77948.20743160753</v>
+        <v>-2340.092881407098</v>
       </c>
       <c r="E13" t="n">
-        <v>-161934.5788115053</v>
+        <v>-2340.092881407098</v>
       </c>
     </row>
     <row r="14">
@@ -5292,16 +5292,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-52124.10125492816</v>
+        <v>62598.23296721243</v>
       </c>
       <c r="E14" t="n">
-        <v>-109782.4565282749</v>
+        <v>62598.23296721243</v>
       </c>
     </row>
     <row r="15">
@@ -5309,16 +5309,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-31356.60093173845</v>
+        <v>159526.2295842082</v>
       </c>
       <c r="E15" t="n">
-        <v>-62686.94009853411</v>
+        <v>159526.2295842082</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +5326,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-13694.27568614689</v>
+        <v>283528.9050562627</v>
       </c>
       <c r="E16" t="n">
-        <v>-18696.59874639153</v>
+        <v>283528.9050562627</v>
       </c>
     </row>
     <row r="17">
@@ -5343,16 +5343,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3917.510054165483</v>
+        <v>425660.9174640276</v>
       </c>
       <c r="E17" t="n">
-        <v>25243.20310047188</v>
+        <v>425660.9174640276</v>
       </c>
     </row>
     <row r="18">
@@ -5360,16 +5360,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>24964.99249647569</v>
+        <v>577580.6199223577</v>
       </c>
       <c r="E18" t="n">
-        <v>72618.70164933312</v>
+        <v>577580.6199223577</v>
       </c>
     </row>
     <row r="19">
@@ -5377,16 +5377,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52586.80983191158</v>
+        <v>733834.6889472053</v>
       </c>
       <c r="E19" t="n">
-        <v>126568.53509132</v>
+        <v>733834.6889472053</v>
       </c>
     </row>
     <row r="20">
@@ -5394,16 +5394,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>88903.05649553332</v>
+        <v>891688.019988801</v>
       </c>
       <c r="E20" t="n">
-        <v>189212.7978614928</v>
+        <v>891688.019988801</v>
       </c>
     </row>
     <row r="21">
@@ -5411,16 +5411,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>134670.111640348</v>
+        <v>1050040.082671801</v>
       </c>
       <c r="E21" t="n">
-        <v>261307.8691128585</v>
+        <v>1050040.082671801</v>
       </c>
     </row>
     <row r="22">
@@ -5428,16 +5428,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>189352.0439051447</v>
+        <v>1208525.324393608</v>
       </c>
       <c r="E22" t="n">
-        <v>342317.8174842063</v>
+        <v>1208525.324393608</v>
       </c>
     </row>
     <row r="23">
@@ -5445,16 +5445,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>251517.6766372178</v>
+        <v>1367041.384599109</v>
       </c>
       <c r="E23" t="n">
-        <v>430811.4663228304</v>
+        <v>1367041.384599109</v>
       </c>
     </row>
     <row r="24">
@@ -5462,16 +5462,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>319357.4363471682</v>
+        <v>1525563.692805731</v>
       </c>
       <c r="E24" t="n">
-        <v>524979.2421393318</v>
+        <v>1525563.692805731</v>
       </c>
     </row>
     <row r="25">
@@ -5479,16 +5479,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>391122.9032465726</v>
+        <v>1684087.121941657</v>
       </c>
       <c r="E25" t="n">
-        <v>623072.7251452872</v>
+        <v>1684087.121941657</v>
       </c>
     </row>
     <row r="26">
@@ -5496,16 +5496,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>465386.5520751018</v>
+        <v>1842610.730682215</v>
       </c>
       <c r="E26" t="n">
-        <v>723664.3900803674</v>
+        <v>1842610.730682215</v>
       </c>
     </row>
     <row r="27">
@@ -5513,16 +5513,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>541122.127176285</v>
+        <v>2001134.365342433</v>
       </c>
       <c r="E27" t="n">
-        <v>825727.9812881018</v>
+        <v>2001134.365342433</v>
       </c>
     </row>
     <row r="28">
@@ -5530,16 +5530,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>617665.2936869999</v>
+        <v>2159658.003398036</v>
       </c>
       <c r="E28" t="n">
-        <v>928599.1639053677</v>
+        <v>2159658.003398036</v>
       </c>
     </row>
     <row r="29">
@@ -5547,16 +5547,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>694623.1791506204</v>
+        <v>2318181.641860274</v>
       </c>
       <c r="E29" t="n">
-        <v>1031885.065475539</v>
+        <v>2318181.641860274</v>
       </c>
     </row>
     <row r="30">
@@ -5564,16 +5564,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>771781.3140445934</v>
+        <v>2476705.280367326</v>
       </c>
       <c r="E30" t="n">
-        <v>1135371.216476063</v>
+        <v>2476705.280367326</v>
       </c>
     </row>
     <row r="31">
@@ -5581,16 +5581,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>849030.7479793502</v>
+        <v>2635228.918878955</v>
       </c>
       <c r="E31" t="n">
-        <v>1238948.666517371</v>
+        <v>2635228.918878955</v>
       </c>
     </row>
     <row r="32">
@@ -5598,16 +5598,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>926319.6376752643</v>
+        <v>2793752.557391016</v>
       </c>
       <c r="E32" t="n">
-        <v>1342565.572319836</v>
+        <v>2793752.557391016</v>
       </c>
     </row>
     <row r="33">
@@ -5615,16 +5615,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1003624.747118509</v>
+        <v>2952276.195903117</v>
       </c>
       <c r="E33" t="n">
-        <v>1446198.697869631</v>
+        <v>2952276.195903117</v>
       </c>
     </row>
     <row r="34">
@@ -5632,16 +5632,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1080936.21998088</v>
+        <v>3110799.834415222</v>
       </c>
       <c r="E34" t="n">
-        <v>1549838.186838554</v>
+        <v>3110799.834415222</v>
       </c>
     </row>
     <row r="35">
@@ -5649,16 +5649,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1158250.082680881</v>
+        <v>3269323.472927325</v>
       </c>
       <c r="E35" t="n">
-        <v>1653480.065645105</v>
+        <v>3269323.472927325</v>
       </c>
     </row>
     <row r="36">
@@ -5666,16 +5666,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1235564.806973455</v>
+        <v>3427847.11143943</v>
       </c>
       <c r="E36" t="n">
-        <v>1757122.806044231</v>
+        <v>3427847.11143943</v>
       </c>
     </row>
     <row r="37">
@@ -5683,16 +5683,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1312879.830237795</v>
+        <v>3586370.749951534</v>
       </c>
       <c r="E37" t="n">
-        <v>1860765.845415122</v>
+        <v>3586370.749951534</v>
       </c>
     </row>
   </sheetData>
@@ -5746,16 +5746,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E2" t="n">
-        <v>-684814.0474479472</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="3">
@@ -5763,16 +5763,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E3" t="n">
-        <v>-658486.0313413963</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="4">
@@ -5780,16 +5780,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E4" t="n">
-        <v>-632158.0152348452</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="5">
@@ -5797,16 +5797,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E5" t="n">
-        <v>-605829.9991282942</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="6">
@@ -5814,16 +5814,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E6" t="n">
-        <v>-579501.9830217431</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="7">
@@ -5831,16 +5831,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E7" t="n">
-        <v>-553173.9669151921</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="8">
@@ -5848,16 +5848,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E8" t="n">
-        <v>-526845.950808641</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="9">
@@ -5865,16 +5865,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E9" t="n">
-        <v>-500517.93470209</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="10">
@@ -5882,16 +5882,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-233784.1574061322</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E10" t="n">
-        <v>-396754.577105683</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="11">
@@ -5899,16 +5899,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-156348.8159162763</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E11" t="n">
-        <v>-292991.219509276</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="12">
@@ -5916,16 +5916,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-78913.47442642029</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E12" t="n">
-        <v>-189227.861912869</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="13">
@@ -5933,16 +5933,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E13" t="n">
-        <v>-85464.50431646204</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="14">
@@ -5950,16 +5950,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E14" t="n">
-        <v>-59136.48820991101</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="15">
@@ -5967,16 +5967,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1478.132936564314</v>
+        <v>99183.29928036443</v>
       </c>
       <c r="E15" t="n">
-        <v>-32808.47210335998</v>
+        <v>99183.29928036443</v>
       </c>
     </row>
     <row r="16">
@@ -5984,16 +5984,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1478.132936564314</v>
+        <v>258039.5343875924</v>
       </c>
       <c r="E16" t="n">
-        <v>-6480.45599680895</v>
+        <v>258039.5343875924</v>
       </c>
     </row>
     <row r="17">
@@ -6001,16 +6001,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1478.132936564314</v>
+        <v>416895.7694948204</v>
       </c>
       <c r="E17" t="n">
-        <v>19847.56010974208</v>
+        <v>416895.7694948204</v>
       </c>
     </row>
     <row r="18">
@@ -6018,16 +6018,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1478.132936564314</v>
+        <v>575752.0046020484</v>
       </c>
       <c r="E18" t="n">
-        <v>46175.57621629311</v>
+        <v>575752.0046020484</v>
       </c>
     </row>
     <row r="19">
@@ -6035,16 +6035,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1478.132936564314</v>
+        <v>734608.2397092764</v>
       </c>
       <c r="E19" t="n">
-        <v>72503.59232284412</v>
+        <v>734608.2397092764</v>
       </c>
     </row>
     <row r="20">
@@ -6052,16 +6052,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1478.132936564314</v>
+        <v>893464.4748165043</v>
       </c>
       <c r="E20" t="n">
-        <v>98831.60842939516</v>
+        <v>893464.4748165043</v>
       </c>
     </row>
     <row r="21">
@@ -6069,16 +6069,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75957.20855329165</v>
+        <v>1052320.709923732</v>
       </c>
       <c r="E21" t="n">
-        <v>202594.9660258022</v>
+        <v>1052320.709923732</v>
       </c>
     </row>
     <row r="22">
@@ -6086,16 +6086,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153392.5500431476</v>
+        <v>1211176.94503096</v>
       </c>
       <c r="E22" t="n">
-        <v>306358.3236222092</v>
+        <v>1211176.94503096</v>
       </c>
     </row>
     <row r="23">
@@ -6103,16 +6103,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>230827.8915330036</v>
+        <v>1370033.180138188</v>
       </c>
       <c r="E23" t="n">
-        <v>410121.6812186162</v>
+        <v>1370033.180138188</v>
       </c>
     </row>
     <row r="24">
@@ -6120,16 +6120,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>308263.2330228596</v>
+        <v>1528889.415245416</v>
       </c>
       <c r="E24" t="n">
-        <v>513885.0388150232</v>
+        <v>1528889.415245416</v>
       </c>
     </row>
     <row r="25">
@@ -6137,16 +6137,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>385698.5745127155</v>
+        <v>1687745.650352644</v>
       </c>
       <c r="E25" t="n">
-        <v>617648.3964114301</v>
+        <v>1687745.650352644</v>
       </c>
     </row>
     <row r="26">
@@ -6154,16 +6154,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>463133.9160025715</v>
+        <v>1846601.885459872</v>
       </c>
       <c r="E26" t="n">
-        <v>721411.7540078372</v>
+        <v>1846601.885459872</v>
       </c>
     </row>
     <row r="27">
@@ -6171,16 +6171,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>540569.2574924275</v>
+        <v>2005458.1205671</v>
       </c>
       <c r="E27" t="n">
-        <v>825175.1116042442</v>
+        <v>2005458.1205671</v>
       </c>
     </row>
     <row r="28">
@@ -6188,16 +6188,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>618004.5989822834</v>
+        <v>2164314.355674328</v>
       </c>
       <c r="E28" t="n">
-        <v>928938.4692006512</v>
+        <v>2164314.355674328</v>
       </c>
     </row>
     <row r="29">
@@ -6205,16 +6205,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695439.9404721394</v>
+        <v>2323170.590781556</v>
       </c>
       <c r="E29" t="n">
-        <v>1032701.826797058</v>
+        <v>2323170.590781556</v>
       </c>
     </row>
     <row r="30">
@@ -6222,16 +6222,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772875.2819619953</v>
+        <v>2482026.825888784</v>
       </c>
       <c r="E30" t="n">
-        <v>1136465.184393465</v>
+        <v>2482026.825888784</v>
       </c>
     </row>
     <row r="31">
@@ -6239,16 +6239,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>850310.6234518513</v>
+        <v>2640883.060996012</v>
       </c>
       <c r="E31" t="n">
-        <v>1240228.541989872</v>
+        <v>2640883.060996012</v>
       </c>
     </row>
     <row r="32">
@@ -6256,16 +6256,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>927745.9649417073</v>
+        <v>2799739.29610324</v>
       </c>
       <c r="E32" t="n">
-        <v>1343991.899586279</v>
+        <v>2799739.29610324</v>
       </c>
     </row>
     <row r="33">
@@ -6273,16 +6273,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1005181.306431563</v>
+        <v>2958595.531210468</v>
       </c>
       <c r="E33" t="n">
-        <v>1447755.257182686</v>
+        <v>2958595.531210468</v>
       </c>
     </row>
     <row r="34">
@@ -6290,16 +6290,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1082616.647921419</v>
+        <v>3117451.766317696</v>
       </c>
       <c r="E34" t="n">
-        <v>1551518.614779093</v>
+        <v>3117451.766317696</v>
       </c>
     </row>
     <row r="35">
@@ -6307,16 +6307,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1160051.989411275</v>
+        <v>3276308.001424924</v>
       </c>
       <c r="E35" t="n">
-        <v>1655281.9723755</v>
+        <v>3276308.001424924</v>
       </c>
     </row>
     <row r="36">
@@ -6324,16 +6324,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1237487.330901131</v>
+        <v>3435164.236532152</v>
       </c>
       <c r="E36" t="n">
-        <v>1759045.329971907</v>
+        <v>3435164.236532152</v>
       </c>
     </row>
     <row r="37">
@@ -6341,16 +6341,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314922.672390987</v>
+        <v>3594020.47163938</v>
       </c>
       <c r="E37" t="n">
-        <v>1862808.687568314</v>
+        <v>3594020.47163938</v>
       </c>
     </row>
   </sheetData>
@@ -6404,16 +6404,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E2" t="n">
-        <v>-684814.0474479472</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="3">
@@ -6421,16 +6421,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E3" t="n">
-        <v>-658486.0313413963</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="4">
@@ -6438,16 +6438,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E4" t="n">
-        <v>-632158.0152348452</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="5">
@@ -6455,16 +6455,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E5" t="n">
-        <v>-605829.9991282942</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="6">
@@ -6472,16 +6472,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E6" t="n">
-        <v>-579501.9830217431</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="7">
@@ -6489,16 +6489,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E7" t="n">
-        <v>-553173.9669151921</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="8">
@@ -6506,16 +6506,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E8" t="n">
-        <v>-526845.950808641</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="9">
@@ -6523,16 +6523,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E9" t="n">
-        <v>-500517.93470209</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="10">
@@ -6540,16 +6540,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-233784.1574061322</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E10" t="n">
-        <v>-396754.577105683</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="11">
@@ -6557,16 +6557,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-156348.8159162763</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E11" t="n">
-        <v>-292991.219509276</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="12">
@@ -6574,16 +6574,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-78913.47442642029</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E12" t="n">
-        <v>-189227.861912869</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="13">
@@ -6591,16 +6591,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E13" t="n">
-        <v>-85464.50431646204</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="14">
@@ -6608,16 +6608,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E14" t="n">
-        <v>-59136.48820991101</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="15">
@@ -6625,16 +6625,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1478.132936564314</v>
+        <v>99183.29928036443</v>
       </c>
       <c r="E15" t="n">
-        <v>-32808.47210335998</v>
+        <v>99183.29928036443</v>
       </c>
     </row>
     <row r="16">
@@ -6642,16 +6642,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1478.132936564314</v>
+        <v>258039.5343875924</v>
       </c>
       <c r="E16" t="n">
-        <v>-6480.45599680895</v>
+        <v>258039.5343875924</v>
       </c>
     </row>
     <row r="17">
@@ -6659,16 +6659,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1478.132936564314</v>
+        <v>416895.7694948204</v>
       </c>
       <c r="E17" t="n">
-        <v>19847.56010974208</v>
+        <v>416895.7694948204</v>
       </c>
     </row>
     <row r="18">
@@ -6676,16 +6676,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1478.132936564314</v>
+        <v>575752.0046020484</v>
       </c>
       <c r="E18" t="n">
-        <v>46175.57621629311</v>
+        <v>575752.0046020484</v>
       </c>
     </row>
     <row r="19">
@@ -6693,16 +6693,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1478.132936564314</v>
+        <v>734608.2397092764</v>
       </c>
       <c r="E19" t="n">
-        <v>72503.59232284412</v>
+        <v>734608.2397092764</v>
       </c>
     </row>
     <row r="20">
@@ -6710,16 +6710,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1478.132936564314</v>
+        <v>893464.4748165043</v>
       </c>
       <c r="E20" t="n">
-        <v>98831.60842939516</v>
+        <v>893464.4748165043</v>
       </c>
     </row>
     <row r="21">
@@ -6727,16 +6727,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75957.20855329165</v>
+        <v>1052320.709923732</v>
       </c>
       <c r="E21" t="n">
-        <v>202594.9660258022</v>
+        <v>1052320.709923732</v>
       </c>
     </row>
     <row r="22">
@@ -6744,16 +6744,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153392.5500431476</v>
+        <v>1211176.94503096</v>
       </c>
       <c r="E22" t="n">
-        <v>306358.3236222092</v>
+        <v>1211176.94503096</v>
       </c>
     </row>
     <row r="23">
@@ -6761,16 +6761,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>230827.8915330036</v>
+        <v>1370033.180138188</v>
       </c>
       <c r="E23" t="n">
-        <v>410121.6812186162</v>
+        <v>1370033.180138188</v>
       </c>
     </row>
     <row r="24">
@@ -6778,16 +6778,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>308263.2330228596</v>
+        <v>1528889.415245416</v>
       </c>
       <c r="E24" t="n">
-        <v>513885.0388150232</v>
+        <v>1528889.415245416</v>
       </c>
     </row>
     <row r="25">
@@ -6795,16 +6795,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>385698.5745127155</v>
+        <v>1687745.650352644</v>
       </c>
       <c r="E25" t="n">
-        <v>617648.3964114301</v>
+        <v>1687745.650352644</v>
       </c>
     </row>
     <row r="26">
@@ -6812,16 +6812,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>463133.9160025715</v>
+        <v>1846601.885459872</v>
       </c>
       <c r="E26" t="n">
-        <v>721411.7540078372</v>
+        <v>1846601.885459872</v>
       </c>
     </row>
     <row r="27">
@@ -6829,16 +6829,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>540569.2574924275</v>
+        <v>2005458.1205671</v>
       </c>
       <c r="E27" t="n">
-        <v>825175.1116042442</v>
+        <v>2005458.1205671</v>
       </c>
     </row>
     <row r="28">
@@ -6846,16 +6846,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>618004.5989822834</v>
+        <v>2164314.355674328</v>
       </c>
       <c r="E28" t="n">
-        <v>928938.4692006512</v>
+        <v>2164314.355674328</v>
       </c>
     </row>
     <row r="29">
@@ -6863,16 +6863,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695439.9404721394</v>
+        <v>2323170.590781556</v>
       </c>
       <c r="E29" t="n">
-        <v>1032701.826797058</v>
+        <v>2323170.590781556</v>
       </c>
     </row>
     <row r="30">
@@ -6880,16 +6880,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772875.2819619953</v>
+        <v>2482026.825888784</v>
       </c>
       <c r="E30" t="n">
-        <v>1136465.184393465</v>
+        <v>2482026.825888784</v>
       </c>
     </row>
     <row r="31">
@@ -6897,16 +6897,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>850310.6234518513</v>
+        <v>2640883.060996012</v>
       </c>
       <c r="E31" t="n">
-        <v>1240228.541989872</v>
+        <v>2640883.060996012</v>
       </c>
     </row>
     <row r="32">
@@ -6914,16 +6914,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>927745.9649417073</v>
+        <v>2799739.29610324</v>
       </c>
       <c r="E32" t="n">
-        <v>1343991.899586279</v>
+        <v>2799739.29610324</v>
       </c>
     </row>
     <row r="33">
@@ -6931,16 +6931,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1005181.306431563</v>
+        <v>2958595.531210468</v>
       </c>
       <c r="E33" t="n">
-        <v>1447755.257182686</v>
+        <v>2958595.531210468</v>
       </c>
     </row>
     <row r="34">
@@ -6948,16 +6948,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1082616.647921419</v>
+        <v>3117451.766317696</v>
       </c>
       <c r="E34" t="n">
-        <v>1551518.614779093</v>
+        <v>3117451.766317696</v>
       </c>
     </row>
     <row r="35">
@@ -6965,16 +6965,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1160051.989411275</v>
+        <v>3276308.001424924</v>
       </c>
       <c r="E35" t="n">
-        <v>1655281.9723755</v>
+        <v>3276308.001424924</v>
       </c>
     </row>
     <row r="36">
@@ -6982,16 +6982,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1237487.330901131</v>
+        <v>3435164.236532152</v>
       </c>
       <c r="E36" t="n">
-        <v>1759045.329971907</v>
+        <v>3435164.236532152</v>
       </c>
     </row>
     <row r="37">
@@ -6999,16 +6999,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314922.672390987</v>
+        <v>3594020.47163938</v>
       </c>
       <c r="E37" t="n">
-        <v>1862808.687568314</v>
+        <v>3594020.47163938</v>
       </c>
     </row>
   </sheetData>
@@ -7062,16 +7062,16 @@
         <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>-373594.548551959</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E2" t="n">
-        <v>-684814.0474479472</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="3">
@@ -7079,16 +7079,16 @@
         <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>-347266.5324454081</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E3" t="n">
-        <v>-658486.0313413963</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="4">
@@ -7096,16 +7096,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="n">
-        <v>-320938.516338857</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E4" t="n">
-        <v>-632158.0152348452</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="5">
@@ -7113,16 +7113,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="n">
-        <v>-294610.500232306</v>
+        <v>-0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E5" t="n">
-        <v>-605829.9991282942</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="6">
@@ -7130,16 +7130,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>-268282.484125755</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E6" t="n">
-        <v>-579501.9830217431</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="7">
@@ -7147,16 +7147,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-241954.4680192039</v>
+        <v>-0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E7" t="n">
-        <v>-553173.9669151921</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="8">
@@ -7164,16 +7164,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="n">
-        <v>-215626.4519126529</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E8" t="n">
-        <v>-526845.950808641</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="9">
@@ -7181,16 +7181,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-189298.4358061018</v>
+        <v>-0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-311219.4988959882</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E9" t="n">
-        <v>-500517.93470209</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="10">
@@ -7198,16 +7198,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-162970.4196995508</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-233784.1574061322</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E10" t="n">
-        <v>-396754.577105683</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="11">
@@ -7215,16 +7215,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-136642.4035929998</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-156348.8159162763</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E11" t="n">
-        <v>-292991.219509276</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="12">
@@ -7232,16 +7232,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-110314.3874864487</v>
+        <v>-0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-78913.47442642029</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E12" t="n">
-        <v>-189227.861912869</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="13">
@@ -7249,16 +7249,16 @@
         <v>31</v>
       </c>
       <c r="B13" t="n">
-        <v>-83986.37137989773</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E13" t="n">
-        <v>-85464.50431646204</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="14">
@@ -7266,16 +7266,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n">
-        <v>-57658.3552733467</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1478.132936564314</v>
+        <v>-59672.93582686353</v>
       </c>
       <c r="E14" t="n">
-        <v>-59136.48820991101</v>
+        <v>-59672.93582686353</v>
       </c>
     </row>
     <row r="15">
@@ -7283,16 +7283,16 @@
         <v>33</v>
       </c>
       <c r="B15" t="n">
-        <v>-31330.33916679566</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-1478.132936564314</v>
+        <v>99183.29928036443</v>
       </c>
       <c r="E15" t="n">
-        <v>-32808.47210335998</v>
+        <v>99183.29928036443</v>
       </c>
     </row>
     <row r="16">
@@ -7300,16 +7300,16 @@
         <v>34</v>
       </c>
       <c r="B16" t="n">
-        <v>-5002.323060244636</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1478.132936564314</v>
+        <v>258039.5343875924</v>
       </c>
       <c r="E16" t="n">
-        <v>-6480.45599680895</v>
+        <v>258039.5343875924</v>
       </c>
     </row>
     <row r="17">
@@ -7317,16 +7317,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="n">
-        <v>21325.69304630639</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1478.132936564314</v>
+        <v>416895.7694948204</v>
       </c>
       <c r="E17" t="n">
-        <v>19847.56010974208</v>
+        <v>416895.7694948204</v>
       </c>
     </row>
     <row r="18">
@@ -7334,16 +7334,16 @@
         <v>36</v>
       </c>
       <c r="B18" t="n">
-        <v>47653.70915285742</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1478.132936564314</v>
+        <v>575752.0046020484</v>
       </c>
       <c r="E18" t="n">
-        <v>46175.57621629311</v>
+        <v>575752.0046020484</v>
       </c>
     </row>
     <row r="19">
@@ -7351,16 +7351,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>73981.72525940844</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1478.132936564314</v>
+        <v>734608.2397092764</v>
       </c>
       <c r="E19" t="n">
-        <v>72503.59232284412</v>
+        <v>734608.2397092764</v>
       </c>
     </row>
     <row r="20">
@@ -7368,16 +7368,16 @@
         <v>38</v>
       </c>
       <c r="B20" t="n">
-        <v>100309.7413659595</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1478.132936564314</v>
+        <v>893464.4748165043</v>
       </c>
       <c r="E20" t="n">
-        <v>98831.60842939516</v>
+        <v>893464.4748165043</v>
       </c>
     </row>
     <row r="21">
@@ -7385,16 +7385,16 @@
         <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>126637.7574725105</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>75957.20855329165</v>
+        <v>1052320.709923732</v>
       </c>
       <c r="E21" t="n">
-        <v>202594.9660258022</v>
+        <v>1052320.709923732</v>
       </c>
     </row>
     <row r="22">
@@ -7402,16 +7402,16 @@
         <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>152965.7735790616</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153392.5500431476</v>
+        <v>1211176.94503096</v>
       </c>
       <c r="E22" t="n">
-        <v>306358.3236222092</v>
+        <v>1211176.94503096</v>
       </c>
     </row>
     <row r="23">
@@ -7419,16 +7419,16 @@
         <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>179293.7896856126</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>230827.8915330036</v>
+        <v>1370033.180138188</v>
       </c>
       <c r="E23" t="n">
-        <v>410121.6812186162</v>
+        <v>1370033.180138188</v>
       </c>
     </row>
     <row r="24">
@@ -7436,16 +7436,16 @@
         <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>205621.8057921636</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>308263.2330228596</v>
+        <v>1528889.415245416</v>
       </c>
       <c r="E24" t="n">
-        <v>513885.0388150232</v>
+        <v>1528889.415245416</v>
       </c>
     </row>
     <row r="25">
@@ -7453,16 +7453,16 @@
         <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>231949.8218987146</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>385698.5745127155</v>
+        <v>1687745.650352644</v>
       </c>
       <c r="E25" t="n">
-        <v>617648.3964114301</v>
+        <v>1687745.650352644</v>
       </c>
     </row>
     <row r="26">
@@ -7470,16 +7470,16 @@
         <v>44</v>
       </c>
       <c r="B26" t="n">
-        <v>258277.8380052657</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>463133.9160025715</v>
+        <v>1846601.885459872</v>
       </c>
       <c r="E26" t="n">
-        <v>721411.7540078372</v>
+        <v>1846601.885459872</v>
       </c>
     </row>
     <row r="27">
@@ -7487,16 +7487,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="n">
-        <v>284605.8541118167</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>540569.2574924275</v>
+        <v>2005458.1205671</v>
       </c>
       <c r="E27" t="n">
-        <v>825175.1116042442</v>
+        <v>2005458.1205671</v>
       </c>
     </row>
     <row r="28">
@@ -7504,16 +7504,16 @@
         <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>310933.8702183677</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>618004.5989822834</v>
+        <v>2164314.355674328</v>
       </c>
       <c r="E28" t="n">
-        <v>928938.4692006512</v>
+        <v>2164314.355674328</v>
       </c>
     </row>
     <row r="29">
@@ -7521,16 +7521,16 @@
         <v>47</v>
       </c>
       <c r="B29" t="n">
-        <v>337261.8863249187</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>695439.9404721394</v>
+        <v>2323170.590781556</v>
       </c>
       <c r="E29" t="n">
-        <v>1032701.826797058</v>
+        <v>2323170.590781556</v>
       </c>
     </row>
     <row r="30">
@@ -7538,16 +7538,16 @@
         <v>48</v>
       </c>
       <c r="B30" t="n">
-        <v>363589.9024314698</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>772875.2819619953</v>
+        <v>2482026.825888784</v>
       </c>
       <c r="E30" t="n">
-        <v>1136465.184393465</v>
+        <v>2482026.825888784</v>
       </c>
     </row>
     <row r="31">
@@ -7555,16 +7555,16 @@
         <v>49</v>
       </c>
       <c r="B31" t="n">
-        <v>389917.9185380208</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>850310.6234518513</v>
+        <v>2640883.060996012</v>
       </c>
       <c r="E31" t="n">
-        <v>1240228.541989872</v>
+        <v>2640883.060996012</v>
       </c>
     </row>
     <row r="32">
@@ -7572,16 +7572,16 @@
         <v>50</v>
       </c>
       <c r="B32" t="n">
-        <v>416245.9346445719</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>927745.9649417073</v>
+        <v>2799739.29610324</v>
       </c>
       <c r="E32" t="n">
-        <v>1343991.899586279</v>
+        <v>2799739.29610324</v>
       </c>
     </row>
     <row r="33">
@@ -7589,16 +7589,16 @@
         <v>51</v>
       </c>
       <c r="B33" t="n">
-        <v>442573.9507511229</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1005181.306431563</v>
+        <v>2958595.531210468</v>
       </c>
       <c r="E33" t="n">
-        <v>1447755.257182686</v>
+        <v>2958595.531210468</v>
       </c>
     </row>
     <row r="34">
@@ -7606,16 +7606,16 @@
         <v>52</v>
       </c>
       <c r="B34" t="n">
-        <v>468901.9668576739</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1082616.647921419</v>
+        <v>3117451.766317696</v>
       </c>
       <c r="E34" t="n">
-        <v>1551518.614779093</v>
+        <v>3117451.766317696</v>
       </c>
     </row>
     <row r="35">
@@ -7623,16 +7623,16 @@
         <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>495229.9829642249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1160051.989411275</v>
+        <v>3276308.001424924</v>
       </c>
       <c r="E35" t="n">
-        <v>1655281.9723755</v>
+        <v>3276308.001424924</v>
       </c>
     </row>
     <row r="36">
@@ -7640,16 +7640,16 @@
         <v>54</v>
       </c>
       <c r="B36" t="n">
-        <v>521557.999070776</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1237487.330901131</v>
+        <v>3435164.236532152</v>
       </c>
       <c r="E36" t="n">
-        <v>1759045.329971907</v>
+        <v>3435164.236532152</v>
       </c>
     </row>
     <row r="37">
@@ -7657,16 +7657,16 @@
         <v>55</v>
       </c>
       <c r="B37" t="n">
-        <v>547886.015177327</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1314922.672390987</v>
+        <v>3594020.47163938</v>
       </c>
       <c r="E37" t="n">
-        <v>1862808.687568314</v>
+        <v>3594020.47163938</v>
       </c>
     </row>
   </sheetData>

--- a/CCA PnL Output.xlsx
+++ b/CCA PnL Output.xlsx
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="4">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="5">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="6">
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="7">
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="8">
@@ -590,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="9">
@@ -601,16 +601,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="10">
@@ -618,16 +618,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="11">
@@ -635,16 +635,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="13">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-59672.93582686353</v>
+        <v>-35041.42929762045</v>
       </c>
       <c r="E13" t="n">
-        <v>-59672.93582686353</v>
+        <v>-35041.42929762045</v>
       </c>
     </row>
     <row r="14">
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59672.93582686353</v>
+        <v>64958.57070237955</v>
       </c>
       <c r="E14" t="n">
-        <v>-59672.93582686353</v>
+        <v>64958.57070237955</v>
       </c>
     </row>
     <row r="15">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>99183.29928036443</v>
+        <v>164958.5707023795</v>
       </c>
       <c r="E15" t="n">
-        <v>99183.29928036443</v>
+        <v>164958.5707023795</v>
       </c>
     </row>
     <row r="16">
@@ -726,10 +726,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>258039.5343875924</v>
+        <v>264958.5707023796</v>
       </c>
       <c r="E16" t="n">
-        <v>258039.5343875924</v>
+        <v>264958.5707023796</v>
       </c>
     </row>
     <row r="17">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>416895.7694948204</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E17" t="n">
-        <v>416895.7694948204</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="18">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>575752.0046020484</v>
+        <v>464958.5707023795</v>
       </c>
       <c r="E18" t="n">
-        <v>575752.0046020484</v>
+        <v>464958.5707023795</v>
       </c>
     </row>
     <row r="19">
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>734608.2397092764</v>
+        <v>564958.5707023795</v>
       </c>
       <c r="E19" t="n">
-        <v>734608.2397092764</v>
+        <v>564958.5707023795</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>893464.4748165043</v>
+        <v>664958.5707023795</v>
       </c>
       <c r="E20" t="n">
-        <v>893464.4748165043</v>
+        <v>664958.5707023795</v>
       </c>
     </row>
     <row r="21">
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1052320.709923732</v>
+        <v>764958.5707023795</v>
       </c>
       <c r="E21" t="n">
-        <v>1052320.709923732</v>
+        <v>764958.5707023795</v>
       </c>
     </row>
     <row r="22">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1211176.94503096</v>
+        <v>864958.5707023795</v>
       </c>
       <c r="E22" t="n">
-        <v>1211176.94503096</v>
+        <v>864958.5707023795</v>
       </c>
     </row>
     <row r="23">
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1370033.180138188</v>
+        <v>764958.5707023795</v>
       </c>
       <c r="E23" t="n">
-        <v>1370033.180138188</v>
+        <v>764958.5707023795</v>
       </c>
     </row>
     <row r="24">
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1528889.415245416</v>
+        <v>664958.5707023795</v>
       </c>
       <c r="E24" t="n">
-        <v>1528889.415245416</v>
+        <v>664958.5707023795</v>
       </c>
     </row>
     <row r="25">
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1687745.650352644</v>
+        <v>564958.5707023795</v>
       </c>
       <c r="E25" t="n">
-        <v>1687745.650352644</v>
+        <v>564958.5707023795</v>
       </c>
     </row>
     <row r="26">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1846601.885459872</v>
+        <v>464958.5707023795</v>
       </c>
       <c r="E26" t="n">
-        <v>1846601.885459872</v>
+        <v>464958.5707023795</v>
       </c>
     </row>
     <row r="27">
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2005458.1205671</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E27" t="n">
-        <v>2005458.1205671</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="28">
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2164314.355674328</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E28" t="n">
-        <v>2164314.355674328</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="29">
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2323170.590781556</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E29" t="n">
-        <v>2323170.590781556</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="30">
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2482026.825888784</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E30" t="n">
-        <v>2482026.825888784</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="31">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2640883.060996012</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E31" t="n">
-        <v>2640883.060996012</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="32">
@@ -998,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2799739.29610324</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E32" t="n">
-        <v>2799739.29610324</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="33">
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2958595.531210468</v>
+        <v>364958.5707023793</v>
       </c>
       <c r="E33" t="n">
-        <v>2958595.531210468</v>
+        <v>364958.5707023793</v>
       </c>
     </row>
     <row r="34">
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3117451.766317696</v>
+        <v>364958.5707023793</v>
       </c>
       <c r="E34" t="n">
-        <v>3117451.766317696</v>
+        <v>364958.5707023793</v>
       </c>
     </row>
     <row r="35">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3276308.001424924</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E35" t="n">
-        <v>3276308.001424924</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="36">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3435164.236532152</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E36" t="n">
-        <v>3435164.236532152</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="37">
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3594020.47163938</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E37" t="n">
-        <v>3594020.47163938</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
   </sheetData>
@@ -1146,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="3">
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="4">
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="5">
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="6">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="7">
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="8">
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="9">
@@ -1259,16 +1259,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="10">
@@ -1276,16 +1276,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="11">
@@ -1293,16 +1293,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="12">
@@ -1310,16 +1310,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="13">
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-59672.93582686353</v>
+        <v>-35041.42929762045</v>
       </c>
       <c r="E13" t="n">
-        <v>-59672.93582686353</v>
+        <v>-35041.42929762045</v>
       </c>
     </row>
     <row r="14">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59672.93582686353</v>
+        <v>64958.57070237955</v>
       </c>
       <c r="E14" t="n">
-        <v>-59672.93582686353</v>
+        <v>64958.57070237955</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>99183.29928036443</v>
+        <v>164958.5707023795</v>
       </c>
       <c r="E15" t="n">
-        <v>99183.29928036443</v>
+        <v>164958.5707023795</v>
       </c>
     </row>
     <row r="16">
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>258039.5343875924</v>
+        <v>264958.5707023796</v>
       </c>
       <c r="E16" t="n">
-        <v>258039.5343875924</v>
+        <v>264958.5707023796</v>
       </c>
     </row>
     <row r="17">
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>416895.7694948204</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E17" t="n">
-        <v>416895.7694948204</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="18">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>575752.0046020484</v>
+        <v>464958.5707023795</v>
       </c>
       <c r="E18" t="n">
-        <v>575752.0046020484</v>
+        <v>464958.5707023795</v>
       </c>
     </row>
     <row r="19">
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>734608.2397092764</v>
+        <v>564958.5707023795</v>
       </c>
       <c r="E19" t="n">
-        <v>734608.2397092764</v>
+        <v>564958.5707023795</v>
       </c>
     </row>
     <row r="20">
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>893464.4748165043</v>
+        <v>664958.5707023795</v>
       </c>
       <c r="E20" t="n">
-        <v>893464.4748165043</v>
+        <v>664958.5707023795</v>
       </c>
     </row>
     <row r="21">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1052320.709923732</v>
+        <v>764958.5707023795</v>
       </c>
       <c r="E21" t="n">
-        <v>1052320.709923732</v>
+        <v>764958.5707023795</v>
       </c>
     </row>
     <row r="22">
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1211176.94503096</v>
+        <v>864958.5707023795</v>
       </c>
       <c r="E22" t="n">
-        <v>1211176.94503096</v>
+        <v>864958.5707023795</v>
       </c>
     </row>
     <row r="23">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1370033.180138188</v>
+        <v>764958.5707023795</v>
       </c>
       <c r="E23" t="n">
-        <v>1370033.180138188</v>
+        <v>764958.5707023795</v>
       </c>
     </row>
     <row r="24">
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1528889.415245416</v>
+        <v>664958.5707023795</v>
       </c>
       <c r="E24" t="n">
-        <v>1528889.415245416</v>
+        <v>664958.5707023795</v>
       </c>
     </row>
     <row r="25">
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1687745.650352644</v>
+        <v>564958.5707023795</v>
       </c>
       <c r="E25" t="n">
-        <v>1687745.650352644</v>
+        <v>564958.5707023795</v>
       </c>
     </row>
     <row r="26">
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1846601.885459872</v>
+        <v>464958.5707023795</v>
       </c>
       <c r="E26" t="n">
-        <v>1846601.885459872</v>
+        <v>464958.5707023795</v>
       </c>
     </row>
     <row r="27">
@@ -1571,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2005458.1205671</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E27" t="n">
-        <v>2005458.1205671</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="28">
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2164314.355674328</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E28" t="n">
-        <v>2164314.355674328</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="29">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2323170.590781556</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E29" t="n">
-        <v>2323170.590781556</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="30">
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2482026.825888784</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E30" t="n">
-        <v>2482026.825888784</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="31">
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2640883.060996012</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E31" t="n">
-        <v>2640883.060996012</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="32">
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2799739.29610324</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E32" t="n">
-        <v>2799739.29610324</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="33">
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2958595.531210468</v>
+        <v>364958.5707023793</v>
       </c>
       <c r="E33" t="n">
-        <v>2958595.531210468</v>
+        <v>364958.5707023793</v>
       </c>
     </row>
     <row r="34">
@@ -1690,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3117451.766317696</v>
+        <v>364958.5707023793</v>
       </c>
       <c r="E34" t="n">
-        <v>3117451.766317696</v>
+        <v>364958.5707023793</v>
       </c>
     </row>
     <row r="35">
@@ -1707,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3276308.001424924</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E35" t="n">
-        <v>3276308.001424924</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="36">
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3435164.236532152</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E36" t="n">
-        <v>3435164.236532152</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="37">
@@ -1741,10 +1741,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3594020.47163938</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E37" t="n">
-        <v>3594020.47163938</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
   </sheetData>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="3">
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="4">
@@ -1838,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="6">
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="7">
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="8">
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="9">
@@ -1917,16 +1917,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="10">
@@ -1934,16 +1934,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="11">
@@ -1951,16 +1951,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="12">
@@ -1968,16 +1968,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
       <c r="E12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135041.4292976204</v>
       </c>
     </row>
     <row r="13">
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-59672.93582686353</v>
+        <v>-35041.42929762045</v>
       </c>
       <c r="E13" t="n">
-        <v>-59672.93582686353</v>
+        <v>-35041.42929762045</v>
       </c>
     </row>
     <row r="14">
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59672.93582686353</v>
+        <v>64958.57070237955</v>
       </c>
       <c r="E14" t="n">
-        <v>-59672.93582686353</v>
+        <v>64958.57070237955</v>
       </c>
     </row>
     <row r="15">
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>99183.29928036443</v>
+        <v>164958.5707023795</v>
       </c>
       <c r="E15" t="n">
-        <v>99183.29928036443</v>
+        <v>164958.5707023795</v>
       </c>
     </row>
     <row r="16">
@@ -2042,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>258039.5343875924</v>
+        <v>264958.5707023796</v>
       </c>
       <c r="E16" t="n">
-        <v>258039.5343875924</v>
+        <v>264958.5707023796</v>
       </c>
     </row>
     <row r="17">
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>416895.7694948204</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E17" t="n">
-        <v>416895.7694948204</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="18">
@@ -2076,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>575752.0046020484</v>
+        <v>464958.5707023795</v>
       </c>
       <c r="E18" t="n">
-        <v>575752.0046020484</v>
+        <v>464958.5707023795</v>
       </c>
     </row>
     <row r="19">
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>734608.2397092764</v>
+        <v>564958.5707023795</v>
       </c>
       <c r="E19" t="n">
-        <v>734608.2397092764</v>
+        <v>564958.5707023795</v>
       </c>
     </row>
     <row r="20">
@@ -2110,10 +2110,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>893464.4748165043</v>
+        <v>664958.5707023795</v>
       </c>
       <c r="E20" t="n">
-        <v>893464.4748165043</v>
+        <v>664958.5707023795</v>
       </c>
     </row>
     <row r="21">
@@ -2127,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1052320.709923732</v>
+        <v>764958.5707023795</v>
       </c>
       <c r="E21" t="n">
-        <v>1052320.709923732</v>
+        <v>764958.5707023795</v>
       </c>
     </row>
     <row r="22">
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1211176.94503096</v>
+        <v>864958.5707023795</v>
       </c>
       <c r="E22" t="n">
-        <v>1211176.94503096</v>
+        <v>864958.5707023795</v>
       </c>
     </row>
     <row r="23">
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1370033.180138188</v>
+        <v>764958.5707023795</v>
       </c>
       <c r="E23" t="n">
-        <v>1370033.180138188</v>
+        <v>764958.5707023795</v>
       </c>
     </row>
     <row r="24">
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1528889.415245416</v>
+        <v>664958.5707023795</v>
       </c>
       <c r="E24" t="n">
-        <v>1528889.415245416</v>
+        <v>664958.5707023795</v>
       </c>
     </row>
     <row r="25">
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1687745.650352644</v>
+        <v>564958.5707023795</v>
       </c>
       <c r="E25" t="n">
-        <v>1687745.650352644</v>
+        <v>564958.5707023795</v>
       </c>
     </row>
     <row r="26">
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1846601.885459872</v>
+        <v>464958.5707023795</v>
       </c>
       <c r="E26" t="n">
-        <v>1846601.885459872</v>
+        <v>464958.5707023795</v>
       </c>
     </row>
     <row r="27">
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2005458.1205671</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E27" t="n">
-        <v>2005458.1205671</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="28">
@@ -2246,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2164314.355674328</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E28" t="n">
-        <v>2164314.355674328</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="29">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2323170.590781556</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E29" t="n">
-        <v>2323170.590781556</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="30">
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2482026.825888784</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E30" t="n">
-        <v>2482026.825888784</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="31">
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2640883.060996012</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E31" t="n">
-        <v>2640883.060996012</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="32">
@@ -2314,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2799739.29610324</v>
+        <v>364958.5707023795</v>
       </c>
       <c r="E32" t="n">
-        <v>2799739.29610324</v>
+        <v>364958.5707023795</v>
       </c>
     </row>
     <row r="33">
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2958595.531210468</v>
+        <v>364958.5707023793</v>
       </c>
       <c r="E33" t="n">
-        <v>2958595.531210468</v>
+        <v>364958.5707023793</v>
       </c>
     </row>
     <row r="34">
@@ -2348,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3117451.766317696</v>
+        <v>364958.5707023793</v>
       </c>
       <c r="E34" t="n">
-        <v>3117451.766317696</v>
+        <v>364958.5707023793</v>
       </c>
     </row>
     <row r="35">
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3276308.001424924</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E35" t="n">
-        <v>3276308.001424924</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="36">
@@ -2382,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3435164.236532152</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E36" t="n">
-        <v>3435164.236532152</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
     <row r="37">
@@ -2399,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3594020.47163938</v>
+        <v>364958.5707023796</v>
       </c>
       <c r="E37" t="n">
-        <v>3594020.47163938</v>
+        <v>364958.5707023796</v>
       </c>
     </row>
   </sheetData>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93515198477</v>
+        <v>-112202.2071039534</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93515198477</v>
+        <v>-112202.2071039534</v>
       </c>
     </row>
     <row r="3">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.91768007541</v>
+        <v>-102623.4090280722</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.91768007541</v>
+        <v>-102623.4090280722</v>
       </c>
     </row>
     <row r="4">
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.62381051256</v>
+        <v>-90733.65861870187</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.62381051256</v>
+        <v>-90733.65861870187</v>
       </c>
     </row>
     <row r="5">
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59669.30838877625</v>
+        <v>-76466.21371076643</v>
       </c>
       <c r="E5" t="n">
-        <v>-59669.30838877625</v>
+        <v>-76466.21371076643</v>
       </c>
     </row>
     <row r="6">
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59643.01931126802</v>
+        <v>-59852.40451808377</v>
       </c>
       <c r="E6" t="n">
-        <v>-59643.01931126802</v>
+        <v>-59852.40451808377</v>
       </c>
     </row>
     <row r="7">
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59490.45986950817</v>
+        <v>-41018.71102488138</v>
       </c>
       <c r="E7" t="n">
-        <v>-59490.45986950817</v>
+        <v>-41018.71102488138</v>
       </c>
     </row>
     <row r="8">
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-58819.14937120692</v>
+        <v>-20176.82841072095</v>
       </c>
       <c r="E8" t="n">
-        <v>-58819.14937120692</v>
+        <v>-20176.82841072095</v>
       </c>
     </row>
     <row r="9">
@@ -2575,16 +2575,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-56507.79444481708</v>
+        <v>2391.38301502341</v>
       </c>
       <c r="E9" t="n">
-        <v>-56507.79444481708</v>
+        <v>2391.38301502341</v>
       </c>
     </row>
     <row r="10">
@@ -2592,16 +2592,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50103.0092984207</v>
+        <v>26352.00501933234</v>
       </c>
       <c r="E10" t="n">
-        <v>-50103.0092984207</v>
+        <v>26352.00501933234</v>
       </c>
     </row>
     <row r="11">
@@ -2609,16 +2609,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-35448.57213006339</v>
+        <v>51338.28920384982</v>
       </c>
       <c r="E11" t="n">
-        <v>-35448.57213006339</v>
+        <v>51338.28920384982</v>
       </c>
     </row>
     <row r="12">
@@ -2626,16 +2626,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-7099.168355965174</v>
+        <v>76969.37468806445</v>
       </c>
       <c r="E12" t="n">
-        <v>-7099.168355965174</v>
+        <v>76969.37468806445</v>
       </c>
     </row>
     <row r="13">
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40311.92237688085</v>
+        <v>102867.2628257845</v>
       </c>
       <c r="E13" t="n">
-        <v>40311.92237688085</v>
+        <v>102867.2628257845</v>
       </c>
     </row>
     <row r="14">
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>110322.6733733134</v>
+        <v>128671.2318910474</v>
       </c>
       <c r="E14" t="n">
-        <v>110322.6733733134</v>
+        <v>128671.2318910474</v>
       </c>
     </row>
     <row r="15">
@@ -2683,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>203481.9651692938</v>
+        <v>154049.2574518374</v>
       </c>
       <c r="E15" t="n">
-        <v>203481.9651692938</v>
+        <v>154049.2574518374</v>
       </c>
     </row>
     <row r="16">
@@ -2700,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>317387.253053968</v>
+        <v>178706.3239883295</v>
       </c>
       <c r="E16" t="n">
-        <v>317387.253053968</v>
+        <v>178706.3239883295</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>447747.0952604297</v>
+        <v>202389.7575948533</v>
       </c>
       <c r="E17" t="n">
-        <v>447747.0952604297</v>
+        <v>202389.7575948533</v>
       </c>
     </row>
     <row r="18">
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>589776.1595082839</v>
+        <v>224891.878190721</v>
       </c>
       <c r="E18" t="n">
-        <v>589776.1595082839</v>
+        <v>224891.878190721</v>
       </c>
     </row>
     <row r="19">
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>739273.6995004787</v>
+        <v>246050.3703132939</v>
       </c>
       <c r="E19" t="n">
-        <v>739273.6995004787</v>
+        <v>246050.3703132939</v>
       </c>
     </row>
     <row r="20">
@@ -2768,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>893121.3820225919</v>
+        <v>265746.8161653556</v>
       </c>
       <c r="E20" t="n">
-        <v>893121.3820225919</v>
+        <v>265746.8161653556</v>
       </c>
     </row>
     <row r="21">
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1049292.674102723</v>
+        <v>283903.8363665405</v>
       </c>
       <c r="E21" t="n">
-        <v>1049292.674102723</v>
+        <v>283903.8363665405</v>
       </c>
     </row>
     <row r="22">
@@ -2802,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1206610.045094329</v>
+        <v>300481.2555316691</v>
       </c>
       <c r="E22" t="n">
-        <v>1206610.045094329</v>
+        <v>300481.2555316691</v>
       </c>
     </row>
     <row r="23">
@@ -2819,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1364452.695685657</v>
+        <v>315471.6624971245</v>
       </c>
       <c r="E23" t="n">
-        <v>1364452.695685657</v>
+        <v>315471.6624971245</v>
       </c>
     </row>
     <row r="24">
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1522520.346061666</v>
+        <v>328895.6777936476</v>
       </c>
       <c r="E24" t="n">
-        <v>1522520.346061666</v>
+        <v>328895.6777936476</v>
       </c>
     </row>
     <row r="25">
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1680678.541172422</v>
+        <v>340797.1807110467</v>
       </c>
       <c r="E25" t="n">
-        <v>1680678.541172422</v>
+        <v>340797.1807110467</v>
       </c>
     </row>
     <row r="26">
@@ -2870,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1838871.132683202</v>
+        <v>351238.6899043421</v>
       </c>
       <c r="E26" t="n">
-        <v>1838871.132683202</v>
+        <v>351238.6899043421</v>
       </c>
     </row>
     <row r="27">
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1997076.113168416</v>
+        <v>360297.0381263467</v>
       </c>
       <c r="E27" t="n">
-        <v>1997076.113168416</v>
+        <v>360297.0381263467</v>
       </c>
     </row>
     <row r="28">
@@ -2904,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2155285.341572296</v>
+        <v>368059.4351379311</v>
       </c>
       <c r="E28" t="n">
-        <v>2155285.341572296</v>
+        <v>368059.4351379311</v>
       </c>
     </row>
     <row r="29">
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2313495.961654103</v>
+        <v>374619.9739040741</v>
       </c>
       <c r="E29" t="n">
-        <v>2313495.961654103</v>
+        <v>374619.9739040741</v>
       </c>
     </row>
     <row r="30">
@@ -2938,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2471707.018852411</v>
+        <v>380076.6038490464</v>
       </c>
       <c r="E30" t="n">
-        <v>2471707.018852411</v>
+        <v>380076.6038490464</v>
       </c>
     </row>
     <row r="31">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2629918.208091749</v>
+        <v>384528.5707466303</v>
       </c>
       <c r="E31" t="n">
-        <v>2629918.208091749</v>
+        <v>384528.5707466303</v>
       </c>
     </row>
     <row r="32">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2788129.435801339</v>
+        <v>388074.3049974503</v>
       </c>
       <c r="E32" t="n">
-        <v>2788129.435801339</v>
+        <v>388074.3049974503</v>
       </c>
     </row>
     <row r="33">
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2946340.674350212</v>
+        <v>390809.7276908727</v>
       </c>
       <c r="E33" t="n">
-        <v>2946340.674350212</v>
+        <v>390809.7276908727</v>
       </c>
     </row>
     <row r="34">
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3104551.91585984</v>
+        <v>392826.9360229648</v>
       </c>
       <c r="E34" t="n">
-        <v>3104551.91585984</v>
+        <v>392826.9360229648</v>
       </c>
     </row>
     <row r="35">
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3262763.158155276</v>
+        <v>394213.2254407344</v>
       </c>
       <c r="E35" t="n">
-        <v>3262763.158155276</v>
+        <v>394213.2254407344</v>
       </c>
     </row>
     <row r="36">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3420974.40065379</v>
+        <v>395050.4044825337</v>
       </c>
       <c r="E36" t="n">
-        <v>3420974.40065379</v>
+        <v>395050.4044825337</v>
       </c>
     </row>
     <row r="37">
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3579185.643203503</v>
+        <v>395414.3589634222</v>
       </c>
       <c r="E37" t="n">
-        <v>3579185.643203503</v>
+        <v>395414.3589634222</v>
       </c>
     </row>
   </sheetData>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93570276702</v>
+        <v>-113221.893398021</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93570276702</v>
+        <v>-113221.893398021</v>
       </c>
     </row>
     <row r="3">
@@ -3137,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93128563765</v>
+        <v>-103832.1392706098</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93128563765</v>
+        <v>-103832.1392706098</v>
       </c>
     </row>
     <row r="4">
@@ -3154,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.83425830414</v>
+        <v>-92098.18816725422</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.83425830414</v>
+        <v>-92098.18816725422</v>
       </c>
     </row>
     <row r="5">
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59671.4596020016</v>
+        <v>-77935.44698702957</v>
       </c>
       <c r="E5" t="n">
-        <v>-59671.4596020016</v>
+        <v>-77935.44698702957</v>
       </c>
     </row>
     <row r="6">
@@ -3188,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59658.23799186275</v>
+        <v>-61360.75723449222</v>
       </c>
       <c r="E6" t="n">
-        <v>-59658.23799186275</v>
+        <v>-61360.75723449222</v>
       </c>
     </row>
     <row r="7">
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59567.99453570427</v>
+        <v>-42490.85214679167</v>
       </c>
       <c r="E7" t="n">
-        <v>-59567.99453570427</v>
+        <v>-42490.85214679167</v>
       </c>
     </row>
     <row r="8">
@@ -3222,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59113.59882364013</v>
+        <v>-21533.13615365784</v>
       </c>
       <c r="E8" t="n">
-        <v>-59113.59882364013</v>
+        <v>-21533.13615365784</v>
       </c>
     </row>
     <row r="9">
@@ -3233,16 +3233,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-57366.73834655414</v>
+        <v>1229.301007496203</v>
       </c>
       <c r="E9" t="n">
-        <v>-57366.73834655414</v>
+        <v>1229.301007496203</v>
       </c>
     </row>
     <row r="10">
@@ -3250,16 +3250,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-52078.94066353705</v>
+        <v>25456.27560642968</v>
       </c>
       <c r="E10" t="n">
-        <v>-52078.94066353705</v>
+        <v>25456.27560642968</v>
       </c>
     </row>
     <row r="11">
@@ -3267,16 +3267,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-39116.78174136144</v>
+        <v>50770.62061865186</v>
       </c>
       <c r="E11" t="n">
-        <v>-39116.78174136144</v>
+        <v>50770.62061865186</v>
       </c>
     </row>
     <row r="12">
@@ -3284,16 +3284,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-12707.45148510259</v>
+        <v>76778.02157629088</v>
       </c>
       <c r="E12" t="n">
-        <v>-12707.45148510259</v>
+        <v>76778.02157629088</v>
       </c>
     </row>
     <row r="13">
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33123.17901142218</v>
+        <v>103085.1922553922</v>
       </c>
       <c r="E13" t="n">
-        <v>33123.17901142218</v>
+        <v>103085.1922553922</v>
       </c>
     </row>
     <row r="14">
@@ -3324,10 +3324,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>102475.8305569709</v>
+        <v>129315.4476801552</v>
       </c>
       <c r="E14" t="n">
-        <v>102475.8305569709</v>
+        <v>129315.4476801552</v>
       </c>
     </row>
     <row r="15">
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>196090.3723824197</v>
+        <v>155121.1488801757</v>
       </c>
       <c r="E15" t="n">
-        <v>196090.3723824197</v>
+        <v>155121.1488801757</v>
       </c>
     </row>
     <row r="16">
@@ -3358,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>311314.4941925807</v>
+        <v>180192.8484476779</v>
       </c>
       <c r="E16" t="n">
-        <v>311314.4941925807</v>
+        <v>180192.8484476779</v>
       </c>
     </row>
     <row r="17">
@@ -3375,10 +3375,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>443367.4793244137</v>
+        <v>204265.2412236721</v>
       </c>
       <c r="E17" t="n">
-        <v>443367.4793244137</v>
+        <v>204265.2412236721</v>
       </c>
     </row>
     <row r="18">
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>587009.1345291033</v>
+        <v>227120.2178987621</v>
       </c>
       <c r="E18" t="n">
-        <v>587009.1345291033</v>
+        <v>227120.2178987621</v>
       </c>
     </row>
     <row r="19">
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>737779.2594929861</v>
+        <v>248587.4379252031</v>
       </c>
       <c r="E19" t="n">
-        <v>737779.2594929861</v>
+        <v>248587.4379252031</v>
       </c>
     </row>
     <row r="20">
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>892502.5000991515</v>
+        <v>268542.8940929302</v>
       </c>
       <c r="E20" t="n">
-        <v>892502.5000991515</v>
+        <v>268542.8940929302</v>
       </c>
     </row>
     <row r="21">
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1049218.656813757</v>
+        <v>286905.9485925671</v>
       </c>
       <c r="E21" t="n">
-        <v>1049218.656813757</v>
+        <v>286905.9485925671</v>
       </c>
     </row>
     <row r="22">
@@ -3460,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1206855.136044074</v>
+        <v>303635.2933150053</v>
       </c>
       <c r="E22" t="n">
-        <v>1206855.136044074</v>
+        <v>303635.2933150053</v>
       </c>
     </row>
     <row r="23">
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1364883.621097879</v>
+        <v>318724.2379138325</v>
       </c>
       <c r="E23" t="n">
-        <v>1364883.621097879</v>
+        <v>318724.2379138325</v>
       </c>
     </row>
     <row r="24">
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1523067.088392741</v>
+        <v>332195.6679853583</v>
       </c>
       <c r="E24" t="n">
-        <v>1523067.088392741</v>
+        <v>332195.6679853583</v>
       </c>
     </row>
     <row r="25">
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1681307.757082184</v>
+        <v>344096.9504450656</v>
       </c>
       <c r="E25" t="n">
-        <v>1681307.757082184</v>
+        <v>344096.9504450656</v>
       </c>
     </row>
     <row r="26">
@@ -3528,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1839568.238838492</v>
+        <v>354494.9994170575</v>
       </c>
       <c r="E26" t="n">
-        <v>1839568.238838492</v>
+        <v>354494.9994170575</v>
       </c>
     </row>
     <row r="27">
@@ -3545,10 +3545,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1997835.192176081</v>
+        <v>363471.6573970829</v>
       </c>
       <c r="E27" t="n">
-        <v>1997835.192176081</v>
+        <v>363471.6573970829</v>
       </c>
     </row>
     <row r="28">
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2156104.147692305</v>
+        <v>371119.4952314115</v>
       </c>
       <c r="E28" t="n">
-        <v>2156104.147692305</v>
+        <v>371119.4952314115</v>
       </c>
     </row>
     <row r="29">
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2314373.692313418</v>
+        <v>377538.0915148647</v>
       </c>
       <c r="E29" t="n">
-        <v>2314373.692313418</v>
+        <v>377538.0915148647</v>
       </c>
     </row>
     <row r="30">
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2472643.402397937</v>
+        <v>382830.8174387858</v>
       </c>
       <c r="E30" t="n">
-        <v>2472643.402397937</v>
+        <v>382830.8174387858</v>
       </c>
     </row>
     <row r="31">
@@ -3613,10 +3613,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2630913.156999329</v>
+        <v>387102.1264318451</v>
       </c>
       <c r="E31" t="n">
-        <v>2630913.156999329</v>
+        <v>387102.1264318451</v>
       </c>
     </row>
     <row r="32">
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2789182.923109731</v>
+        <v>390455.3283086778</v>
       </c>
       <c r="E32" t="n">
-        <v>2789182.923109731</v>
+        <v>390455.3283086778</v>
       </c>
     </row>
     <row r="33">
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2947452.692087702</v>
+        <v>392990.8140784787</v>
       </c>
       <c r="E33" t="n">
-        <v>2947452.692087702</v>
+        <v>392990.8140784787</v>
       </c>
     </row>
     <row r="34">
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3105722.461756114</v>
+        <v>394804.6890260903</v>
       </c>
       <c r="E34" t="n">
-        <v>3105722.461756114</v>
+        <v>394804.6890260903</v>
       </c>
     </row>
     <row r="35">
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3263992.231585577</v>
+        <v>395987.7671551142</v>
       </c>
       <c r="E35" t="n">
-        <v>3263992.231585577</v>
+        <v>395987.7671551142</v>
       </c>
     </row>
     <row r="36">
@@ -3698,10 +3698,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3422262.001451517</v>
+        <v>396624.8786570199</v>
       </c>
       <c r="E36" t="n">
-        <v>3422262.001451517</v>
+        <v>396624.8786570199</v>
       </c>
     </row>
     <row r="37">
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3580531.771325499</v>
+        <v>396794.4429373555</v>
       </c>
       <c r="E37" t="n">
-        <v>3580531.771325499</v>
+        <v>396794.4429373555</v>
       </c>
     </row>
   </sheetData>
@@ -3778,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582640316</v>
+        <v>-115021.8522341562</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582640316</v>
+        <v>-115021.8522341562</v>
       </c>
     </row>
     <row r="3">
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93577965401</v>
+        <v>-105990.2102047269</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93577965401</v>
+        <v>-105990.2102047269</v>
       </c>
     </row>
     <row r="4">
@@ -3812,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93328419113</v>
+        <v>-94559.38772105353</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93328419113</v>
+        <v>-94559.38772105353</v>
       </c>
     </row>
     <row r="5">
@@ -3829,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.85793243551</v>
+        <v>-80610.14230302545</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.85793243551</v>
+        <v>-80610.14230302545</v>
       </c>
     </row>
     <row r="6">
@@ -3846,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59671.48225877557</v>
+        <v>-64130.33908301656</v>
       </c>
       <c r="E6" t="n">
-        <v>-59671.48225877557</v>
+        <v>-64130.33908301656</v>
       </c>
     </row>
     <row r="7">
@@ -3863,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59655.40035075946</v>
+        <v>-45216.34478004747</v>
       </c>
       <c r="E7" t="n">
-        <v>-59655.40035075946</v>
+        <v>-45216.34478004747</v>
       </c>
     </row>
     <row r="8">
@@ -3880,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59528.84504195675</v>
+        <v>-24065.48104597352</v>
       </c>
       <c r="E8" t="n">
-        <v>-59528.84504195675</v>
+        <v>-24065.48104597352</v>
       </c>
     </row>
     <row r="9">
@@ -3891,16 +3891,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-58828.16385766905</v>
+        <v>-961.4247299469384</v>
       </c>
       <c r="E9" t="n">
-        <v>-58828.16385766905</v>
+        <v>-961.4247299469384</v>
       </c>
     </row>
     <row r="10">
@@ -3908,16 +3908,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-55988.64941986537</v>
+        <v>23745.12242402817</v>
       </c>
       <c r="E10" t="n">
-        <v>-55988.64941986537</v>
+        <v>23745.12242402817</v>
       </c>
     </row>
     <row r="11">
@@ -3925,16 +3925,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-47256.35398966024</v>
+        <v>49658.13228096516</v>
       </c>
       <c r="E11" t="n">
-        <v>-47256.35398966024</v>
+        <v>49658.13228096516</v>
       </c>
     </row>
     <row r="12">
@@ -3942,16 +3942,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-26181.07940094817</v>
+        <v>76358.20258227427</v>
       </c>
       <c r="E12" t="n">
-        <v>-26181.07940094817</v>
+        <v>76358.20258227427</v>
       </c>
     </row>
     <row r="13">
@@ -3965,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>15037.39016595242</v>
+        <v>103423.0686284862</v>
       </c>
       <c r="E13" t="n">
-        <v>15037.39016595242</v>
+        <v>103423.0686284862</v>
       </c>
     </row>
     <row r="14">
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>82435.20063986778</v>
+        <v>130445.4703254406</v>
       </c>
       <c r="E14" t="n">
-        <v>82435.20063986778</v>
+        <v>130445.4703254406</v>
       </c>
     </row>
     <row r="15">
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>177466.7664253127</v>
+        <v>157047.6534488678</v>
       </c>
       <c r="E15" t="n">
-        <v>177466.7664253127</v>
+        <v>157047.6534488678</v>
       </c>
     </row>
     <row r="16">
@@ -4016,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>296610.8701312633</v>
+        <v>182892.2086283494</v>
       </c>
       <c r="E16" t="n">
-        <v>296610.8701312633</v>
+        <v>182892.2086283494</v>
       </c>
     </row>
     <row r="17">
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>433426.9869491214</v>
+        <v>207689.2910163957</v>
       </c>
       <c r="E17" t="n">
-        <v>433426.9869491214</v>
+        <v>207689.2910163957</v>
       </c>
     </row>
     <row r="18">
@@ -4050,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>581279.400728594</v>
+        <v>231200.5096907639</v>
       </c>
       <c r="E18" t="n">
-        <v>581279.400728594</v>
+        <v>231200.5096907639</v>
       </c>
     </row>
     <row r="19">
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>735081.8637871587</v>
+        <v>253239.9332519502</v>
       </c>
       <c r="E19" t="n">
-        <v>735081.8637871587</v>
+        <v>253239.9332519502</v>
       </c>
     </row>
     <row r="20">
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>891686.6588624637</v>
+        <v>273672.7391985811</v>
       </c>
       <c r="E20" t="n">
-        <v>891686.6588624637</v>
+        <v>273672.7391985811</v>
       </c>
     </row>
     <row r="21">
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1049456.908420592</v>
+        <v>292412.0553519039</v>
       </c>
       <c r="E21" t="n">
-        <v>1049456.908420592</v>
+        <v>292412.0553519039</v>
       </c>
     </row>
     <row r="22">
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1207659.377861026</v>
+        <v>309414.5182272232</v>
       </c>
       <c r="E22" t="n">
-        <v>1207659.377861026</v>
+        <v>309414.5182272232</v>
       </c>
     </row>
     <row r="23">
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1366006.068881482</v>
+        <v>324675.0208132314</v>
       </c>
       <c r="E23" t="n">
-        <v>1366006.068881482</v>
+        <v>324675.0208132314</v>
       </c>
     </row>
     <row r="24">
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1524396.413269408</v>
+        <v>338221.0533423755</v>
       </c>
       <c r="E24" t="n">
-        <v>1524396.413269408</v>
+        <v>338221.0533423755</v>
       </c>
     </row>
     <row r="25">
@@ -4169,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1682798.833303689</v>
+        <v>350106.965201592</v>
       </c>
       <c r="E25" t="n">
-        <v>1682798.833303689</v>
+        <v>350106.965201592</v>
       </c>
     </row>
     <row r="26">
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1841204.327157747</v>
+        <v>360408.4013467506</v>
       </c>
       <c r="E26" t="n">
-        <v>1841204.327157747</v>
+        <v>360408.4013467506</v>
       </c>
     </row>
     <row r="27">
@@ -4203,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1999610.545523999</v>
+        <v>369217.097274403</v>
       </c>
       <c r="E27" t="n">
-        <v>1999610.545523999</v>
+        <v>369217.097274403</v>
       </c>
     </row>
     <row r="28">
@@ -4220,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2158016.922932847</v>
+        <v>376636.1556392274</v>
       </c>
       <c r="E28" t="n">
-        <v>2158016.922932847</v>
+        <v>376636.1556392274</v>
       </c>
     </row>
     <row r="29">
@@ -4237,10 +4237,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2316423.333029157</v>
+        <v>382775.8763375989</v>
       </c>
       <c r="E29" t="n">
-        <v>2316423.333029157</v>
+        <v>382775.8763375989</v>
       </c>
     </row>
     <row r="30">
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2474829.749446172</v>
+        <v>387750.1705579263</v>
       </c>
       <c r="E30" t="n">
-        <v>2474829.749446172</v>
+        <v>387750.1705579263</v>
       </c>
     </row>
     <row r="31">
@@ -4271,10 +4271,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2633236.167018282</v>
+        <v>391673.5574331459</v>
       </c>
       <c r="E31" t="n">
-        <v>2633236.167018282</v>
+        <v>391673.5574331459</v>
       </c>
     </row>
     <row r="32">
@@ -4288,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2791642.584790718</v>
+        <v>394658.7185706837</v>
       </c>
       <c r="E32" t="n">
-        <v>2791642.584790718</v>
+        <v>394658.7185706837</v>
       </c>
     </row>
     <row r="33">
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2950049.002596249</v>
+        <v>396814.569696727</v>
       </c>
       <c r="E33" t="n">
-        <v>2950049.002596249</v>
+        <v>396814.569696727</v>
       </c>
     </row>
     <row r="34">
@@ -4322,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3108455.420407009</v>
+        <v>398244.7986760244</v>
       </c>
       <c r="E34" t="n">
-        <v>3108455.420407009</v>
+        <v>398244.7986760244</v>
       </c>
     </row>
     <row r="35">
@@ -4339,10 +4339,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3266861.838218562</v>
+        <v>399046.8140318795</v>
       </c>
       <c r="E35" t="n">
-        <v>3266861.838218562</v>
+        <v>399046.8140318795</v>
       </c>
     </row>
     <row r="36">
@@ -4356,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3425268.256030227</v>
+        <v>399311.0466703679</v>
       </c>
       <c r="E36" t="n">
-        <v>3425268.256030227</v>
+        <v>399311.0466703679</v>
       </c>
     </row>
     <row r="37">
@@ -4373,10 +4373,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3583674.67384191</v>
+        <v>399120.5488246602</v>
       </c>
       <c r="E37" t="n">
-        <v>3583674.67384191</v>
+        <v>399120.5488246602</v>
       </c>
     </row>
   </sheetData>
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686352</v>
+        <v>-116835.6306186272</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686352</v>
+        <v>-116835.6306186272</v>
       </c>
     </row>
     <row r="3">
@@ -4453,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582685268</v>
+        <v>-108199.0549495747</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582685268</v>
+        <v>-108199.0549495747</v>
       </c>
     </row>
     <row r="4">
@@ -4470,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93582383528</v>
+        <v>-97113.858687641</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93582383528</v>
+        <v>-97113.858687641</v>
       </c>
     </row>
     <row r="5">
@@ -4487,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93545299222</v>
+        <v>-83421.40741440048</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93545299222</v>
+        <v>-83421.40741440048</v>
       </c>
     </row>
     <row r="6">
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.9132889858</v>
+        <v>-67075.34854104453</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.9132889858</v>
+        <v>-67075.34854104453</v>
       </c>
     </row>
     <row r="7">
@@ -4521,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59672.21360977682</v>
+        <v>-48146.72894632373</v>
       </c>
       <c r="E7" t="n">
-        <v>-59672.21360977682</v>
+        <v>-48146.72894632373</v>
       </c>
     </row>
     <row r="8">
@@ -4538,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59659.68099467482</v>
+        <v>-26818.7935770195</v>
       </c>
       <c r="E8" t="n">
-        <v>-59659.68099467482</v>
+        <v>-26818.7935770195</v>
       </c>
     </row>
     <row r="9">
@@ -4549,16 +4549,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59524.05606271135</v>
+        <v>-3373.233318628143</v>
       </c>
       <c r="E9" t="n">
-        <v>-59524.05606271135</v>
+        <v>-3373.233318628143</v>
       </c>
     </row>
     <row r="10">
@@ -4566,16 +4566,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-58586.35166826485</v>
+        <v>21829.66969051262</v>
       </c>
       <c r="E10" t="n">
-        <v>-58586.35166826485</v>
+        <v>21829.66969051262</v>
       </c>
     </row>
     <row r="11">
@@ -4583,16 +4583,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-54228.38712843864</v>
+        <v>48374.34850875293</v>
       </c>
       <c r="E11" t="n">
-        <v>-54228.38712843864</v>
+        <v>48374.34850875293</v>
       </c>
     </row>
     <row r="12">
@@ -4600,16 +4600,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-39952.87451093295</v>
+        <v>75814.22925840407</v>
       </c>
       <c r="E12" t="n">
-        <v>-39952.87451093295</v>
+        <v>75814.22925840407</v>
       </c>
     </row>
     <row r="13">
@@ -4623,10 +4623,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-5449.21986204702</v>
+        <v>103694.9145002657</v>
       </c>
       <c r="E13" t="n">
-        <v>-5449.21986204702</v>
+        <v>103694.9145002657</v>
       </c>
     </row>
     <row r="14">
@@ -4640,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>58963.20854043649</v>
+        <v>131574.7415260733</v>
       </c>
       <c r="E14" t="n">
-        <v>58963.20854043649</v>
+        <v>131574.7415260733</v>
       </c>
     </row>
     <row r="15">
@@ -4657,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>156310.2696589195</v>
+        <v>159041.7415395864</v>
       </c>
       <c r="E15" t="n">
-        <v>156310.2696589195</v>
+        <v>159041.7415395864</v>
       </c>
     </row>
     <row r="16">
@@ -4674,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>281331.4904948859</v>
+        <v>185726.5338098331</v>
       </c>
       <c r="E16" t="n">
-        <v>281331.4904948859</v>
+        <v>185726.5338098331</v>
       </c>
     </row>
     <row r="17">
@@ -4691,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>424491.6064715981</v>
+        <v>211311.1078859064</v>
       </c>
       <c r="E17" t="n">
-        <v>424491.6064715981</v>
+        <v>211311.1078859064</v>
       </c>
     </row>
     <row r="18">
@@ -4708,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>577112.4796418491</v>
+        <v>235533.7602018808</v>
       </c>
       <c r="E18" t="n">
-        <v>577112.4796418491</v>
+        <v>235533.7602018808</v>
       </c>
     </row>
     <row r="19">
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>733731.8975783942</v>
+        <v>258190.6596627699</v>
       </c>
       <c r="E19" t="n">
-        <v>733731.8975783942</v>
+        <v>258190.6596627699</v>
       </c>
     </row>
     <row r="20">
@@ -4742,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>891743.5891706526</v>
+        <v>279134.6319225016</v>
       </c>
       <c r="E20" t="n">
-        <v>891743.5891706526</v>
+        <v>279134.6319225016</v>
       </c>
     </row>
     <row r="21">
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1050160.747083663</v>
+        <v>298271.7915540464</v>
       </c>
       <c r="E21" t="n">
-        <v>1050160.747083663</v>
+        <v>298271.7915540464</v>
       </c>
     </row>
     <row r="22">
@@ -4776,10 +4776,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1208678.041224224</v>
+        <v>315556.6343581519</v>
       </c>
       <c r="E22" t="n">
-        <v>1208678.041224224</v>
+        <v>315556.6343581519</v>
       </c>
     </row>
     <row r="23">
@@ -4793,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1367216.573925749</v>
+        <v>330986.1468685031</v>
       </c>
       <c r="E23" t="n">
-        <v>1367216.573925749</v>
+        <v>330986.1468685031</v>
       </c>
     </row>
     <row r="24">
@@ -4810,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1525759.020334903</v>
+        <v>344593.4123919096</v>
       </c>
       <c r="E24" t="n">
-        <v>1525759.020334903</v>
+        <v>344593.4123919096</v>
       </c>
     </row>
     <row r="25">
@@ -4827,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1684302.100025997</v>
+        <v>356441.1052119164</v>
       </c>
       <c r="E25" t="n">
-        <v>1684302.100025997</v>
+        <v>356441.1052119164</v>
       </c>
     </row>
     <row r="26">
@@ -4844,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1842845.27058068</v>
+        <v>366615.1761840208</v>
       </c>
       <c r="E26" t="n">
-        <v>1842845.27058068</v>
+        <v>366615.1761840208</v>
       </c>
     </row>
     <row r="27">
@@ -4861,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2001388.452799773</v>
+        <v>375218.9502111982</v>
       </c>
       <c r="E27" t="n">
-        <v>2001388.452799773</v>
+        <v>375218.9502111982</v>
       </c>
     </row>
     <row r="28">
@@ -4878,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2159931.636369692</v>
+        <v>382367.7828801596</v>
       </c>
       <c r="E28" t="n">
-        <v>2159931.636369692</v>
+        <v>382367.7828801596</v>
       </c>
     </row>
     <row r="29">
@@ -4895,10 +4895,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2318474.820081814</v>
+        <v>388184.3617853665</v>
       </c>
       <c r="E29" t="n">
-        <v>2318474.820081814</v>
+        <v>388184.3617853665</v>
       </c>
     </row>
     <row r="30">
@@ -4912,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2477018.003807639</v>
+        <v>392794.6882585906</v>
       </c>
       <c r="E30" t="n">
-        <v>2477018.003807639</v>
+        <v>392794.6882585906</v>
       </c>
     </row>
     <row r="31">
@@ -4929,10 +4929,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2635561.187534678</v>
+        <v>396324.7368653176</v>
       </c>
       <c r="E31" t="n">
-        <v>2635561.187534678</v>
+        <v>396324.7368653176</v>
       </c>
     </row>
     <row r="32">
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2794104.37126182</v>
+        <v>398897.7620235763</v>
       </c>
       <c r="E32" t="n">
-        <v>2794104.37126182</v>
+        <v>398897.7620235763</v>
       </c>
     </row>
     <row r="33">
@@ -4963,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2952647.554988967</v>
+        <v>400632.2020212206</v>
       </c>
       <c r="E33" t="n">
-        <v>2952647.554988967</v>
+        <v>400632.2020212206</v>
       </c>
     </row>
     <row r="34">
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3111190.738716117</v>
+        <v>401640.1190164884</v>
       </c>
       <c r="E34" t="n">
-        <v>3111190.738716117</v>
+        <v>401640.1190164884</v>
       </c>
     </row>
     <row r="35">
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3269733.922443266</v>
+        <v>402026.1077966293</v>
       </c>
       <c r="E35" t="n">
-        <v>3269733.922443266</v>
+        <v>402026.1077966293</v>
       </c>
     </row>
     <row r="36">
@@ -5014,10 +5014,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3428277.106170415</v>
+        <v>401886.6047533979</v>
       </c>
       <c r="E36" t="n">
-        <v>3428277.106170415</v>
+        <v>401886.6047533979</v>
       </c>
     </row>
     <row r="37">
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3586820.289897564</v>
+        <v>401309.5304970141</v>
       </c>
       <c r="E37" t="n">
-        <v>3586820.289897564</v>
+        <v>401309.5304970141</v>
       </c>
     </row>
   </sheetData>
@@ -5094,10 +5094,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686342</v>
+        <v>-114248.3205126654</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686342</v>
+        <v>-114248.3205126654</v>
       </c>
     </row>
     <row r="3">
@@ -5111,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582680943</v>
+        <v>-105058.8276922691</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582680943</v>
+        <v>-105058.8276922691</v>
       </c>
     </row>
     <row r="4">
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93581588038</v>
+        <v>-93493.14699580004</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93581588038</v>
+        <v>-93493.14699580004</v>
       </c>
     </row>
     <row r="5">
@@ -5145,10 +5145,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93479081619</v>
+        <v>-79447.43895163937</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93479081619</v>
+        <v>-79447.43895163937</v>
       </c>
     </row>
     <row r="6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.8860199793</v>
+        <v>-62922.58433732206</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.8860199793</v>
+        <v>-62922.58433732206</v>
       </c>
     </row>
     <row r="7">
@@ -5179,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59671.61383772907</v>
+        <v>-44024.23184068279</v>
       </c>
       <c r="E7" t="n">
-        <v>-59671.61383772907</v>
+        <v>-44024.23184068279</v>
       </c>
     </row>
     <row r="8">
@@ -5196,10 +5196,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59652.15237915309</v>
+        <v>-22954.46134404204</v>
       </c>
       <c r="E8" t="n">
-        <v>-59652.15237915309</v>
+        <v>-22954.46134404204</v>
       </c>
     </row>
     <row r="9">
@@ -5207,16 +5207,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59466.91991446597</v>
+        <v>3.029490733963939</v>
       </c>
       <c r="E9" t="n">
-        <v>-59466.91991446597</v>
+        <v>3.029490733963939</v>
       </c>
     </row>
     <row r="10">
@@ -5224,16 +5224,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-58310.62288466916</v>
+        <v>24501.9593300075</v>
       </c>
       <c r="E10" t="n">
-        <v>-58310.62288466916</v>
+        <v>24501.9593300075</v>
       </c>
     </row>
     <row r="11">
@@ -5241,16 +5241,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-53343.95504590524</v>
+        <v>50154.47605157773</v>
       </c>
       <c r="E11" t="n">
-        <v>-53343.95504590524</v>
+        <v>50154.47605157773</v>
       </c>
     </row>
     <row r="12">
@@ -5258,16 +5258,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-37992.21707971609</v>
+        <v>76552.1766468476</v>
       </c>
       <c r="E12" t="n">
-        <v>-37992.21707971609</v>
+        <v>76552.1766468476</v>
       </c>
     </row>
     <row r="13">
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-2340.092881407098</v>
+        <v>103285.579279844</v>
       </c>
       <c r="E13" t="n">
-        <v>-2340.092881407098</v>
+        <v>103285.579279844</v>
       </c>
     </row>
     <row r="14">
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>62598.23296721243</v>
+        <v>129960.9626580256</v>
       </c>
       <c r="E14" t="n">
-        <v>62598.23296721243</v>
+        <v>129960.9626580256</v>
       </c>
     </row>
     <row r="15">
@@ -5315,10 +5315,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159526.2295842082</v>
+        <v>156213.9415482326</v>
       </c>
       <c r="E15" t="n">
-        <v>159526.2295842082</v>
+        <v>156213.9415482326</v>
       </c>
     </row>
     <row r="16">
@@ -5332,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>283528.9050562627</v>
+        <v>181719.5403787334</v>
       </c>
       <c r="E16" t="n">
-        <v>283528.9050562627</v>
+        <v>181719.5403787334</v>
       </c>
     </row>
     <row r="17">
@@ -5349,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>425660.9174640276</v>
+        <v>206198.8371422915</v>
       </c>
       <c r="E17" t="n">
-        <v>425660.9174640276</v>
+        <v>206198.8371422915</v>
       </c>
     </row>
     <row r="18">
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>577580.6199223577</v>
+        <v>229422.4717810452</v>
       </c>
       <c r="E18" t="n">
-        <v>577580.6199223577</v>
+        <v>229422.4717810452</v>
       </c>
     </row>
     <row r="19">
@@ -5383,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>733834.6889472053</v>
+        <v>251211.4527408836</v>
       </c>
       <c r="E19" t="n">
-        <v>733834.6889472053</v>
+        <v>251211.4527408836</v>
       </c>
     </row>
     <row r="20">
@@ -5400,10 +5400,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>891688.019988801</v>
+        <v>271435.7647941007</v>
       </c>
       <c r="E20" t="n">
-        <v>891688.019988801</v>
+        <v>271435.7647941007</v>
       </c>
     </row>
     <row r="21">
@@ -5417,10 +5417,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1050040.082671801</v>
+        <v>290011.2956770678</v>
       </c>
       <c r="E21" t="n">
-        <v>1050040.082671801</v>
+        <v>290011.2956770678</v>
       </c>
     </row>
     <row r="22">
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1208525.324393608</v>
+        <v>306895.5738584026</v>
       </c>
       <c r="E22" t="n">
-        <v>1208525.324393608</v>
+        <v>306895.5738584026</v>
       </c>
     </row>
     <row r="23">
@@ -5451,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1367041.384599109</v>
+        <v>322082.7586579935</v>
       </c>
       <c r="E23" t="n">
-        <v>1367041.384599109</v>
+        <v>322082.7586579935</v>
       </c>
     </row>
     <row r="24">
@@ -5468,10 +5468,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1525563.692805731</v>
+        <v>335598.2584928578</v>
       </c>
       <c r="E24" t="n">
-        <v>1525563.692805731</v>
+        <v>335598.2584928578</v>
       </c>
     </row>
     <row r="25">
@@ -5485,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1684087.121941657</v>
+        <v>347493.2821769965</v>
       </c>
       <c r="E25" t="n">
-        <v>1684087.121941657</v>
+        <v>347493.2821769965</v>
       </c>
     </row>
     <row r="26">
@@ -5502,10 +5502,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1842610.730682215</v>
+        <v>357839.5584203654</v>
       </c>
       <c r="E26" t="n">
-        <v>1842610.730682215</v>
+        <v>357839.5584203654</v>
       </c>
     </row>
     <row r="27">
@@ -5519,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2001134.365342433</v>
+        <v>366724.3942577217</v>
       </c>
       <c r="E27" t="n">
-        <v>2001134.365342433</v>
+        <v>366724.3942577217</v>
       </c>
     </row>
     <row r="28">
@@ -5536,10 +5536,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2159658.003398036</v>
+        <v>374246.1866169248</v>
       </c>
       <c r="E28" t="n">
-        <v>2159658.003398036</v>
+        <v>374246.1866169248</v>
       </c>
     </row>
     <row r="29">
@@ -5553,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2318181.641860274</v>
+        <v>380510.4537680215</v>
       </c>
       <c r="E29" t="n">
-        <v>2318181.641860274</v>
+        <v>380510.4537680215</v>
       </c>
     </row>
     <row r="30">
@@ -5570,10 +5570,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2476705.280367326</v>
+        <v>385626.4151525972</v>
       </c>
       <c r="E30" t="n">
-        <v>2476705.280367326</v>
+        <v>385626.4151525972</v>
       </c>
     </row>
     <row r="31">
@@ -5587,10 +5587,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2635228.918878955</v>
+        <v>389704.1185871887</v>
       </c>
       <c r="E31" t="n">
-        <v>2635228.918878955</v>
+        <v>389704.1185871887</v>
       </c>
     </row>
     <row r="32">
@@ -5604,10 +5604,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2793752.557391016</v>
+        <v>392852.0921725022</v>
       </c>
       <c r="E32" t="n">
-        <v>2793752.557391016</v>
+        <v>392852.0921725022</v>
       </c>
     </row>
     <row r="33">
@@ -5621,10 +5621,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2952276.195903117</v>
+        <v>395175.4833241397</v>
       </c>
       <c r="E33" t="n">
-        <v>2952276.195903117</v>
+        <v>395175.4833241397</v>
       </c>
     </row>
     <row r="34">
@@ -5638,10 +5638,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3110799.834415222</v>
+        <v>396774.6380116508</v>
       </c>
       <c r="E34" t="n">
-        <v>3110799.834415222</v>
+        <v>396774.6380116508</v>
       </c>
     </row>
     <row r="35">
@@ -5655,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3269323.472927325</v>
+        <v>397744.0684268848</v>
       </c>
       <c r="E35" t="n">
-        <v>3269323.472927325</v>
+        <v>397744.0684268848</v>
       </c>
     </row>
     <row r="36">
@@ -5672,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3427847.11143943</v>
+        <v>398171.7558706002</v>
       </c>
       <c r="E36" t="n">
-        <v>3427847.11143943</v>
+        <v>398171.7558706002</v>
       </c>
     </row>
     <row r="37">
@@ -5689,10 +5689,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3586370.749951534</v>
+        <v>398138.7367466856</v>
       </c>
       <c r="E37" t="n">
-        <v>3586370.749951534</v>
+        <v>398138.7367466856</v>
       </c>
     </row>
   </sheetData>
@@ -5752,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-129345.3037225245</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-129345.3037225245</v>
       </c>
     </row>
     <row r="3">
@@ -5769,10 +5769,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-124853.2353801258</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-124853.2353801258</v>
       </c>
     </row>
     <row r="4">
@@ -5786,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-118006.1530491059</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-118006.1530491059</v>
       </c>
     </row>
     <row r="5">
@@ -5803,10 +5803,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-108193.7228521802</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-108193.7228521802</v>
       </c>
     </row>
     <row r="6">
@@ -5820,10 +5820,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-94879.98202405841</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-94879.98202405841</v>
       </c>
     </row>
     <row r="7">
@@ -5837,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-77675.06330529331</v>
       </c>
       <c r="E7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-77675.06330529331</v>
       </c>
     </row>
     <row r="8">
@@ -5854,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-56392.43781492888</v>
       </c>
       <c r="E8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-56392.43781492888</v>
       </c>
     </row>
     <row r="9">
@@ -5865,16 +5865,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-31082.81238345168</v>
       </c>
       <c r="E9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-31082.81238345168</v>
       </c>
     </row>
     <row r="10">
@@ -5882,16 +5882,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-2040.683605337164</v>
       </c>
       <c r="E10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-2040.683605337164</v>
       </c>
     </row>
     <row r="11">
@@ -5899,16 +5899,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59672.93582686353</v>
+        <v>30215.53268050004</v>
       </c>
       <c r="E11" t="n">
-        <v>-59672.93582686353</v>
+        <v>30215.53268050004</v>
       </c>
     </row>
     <row r="12">
@@ -5916,16 +5916,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59672.93582686353</v>
+        <v>64984.95741520716</v>
       </c>
       <c r="E12" t="n">
-        <v>-59672.93582686353</v>
+        <v>64984.95741520716</v>
       </c>
     </row>
     <row r="13">
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-59672.93582686353</v>
+        <v>101440.0737757661</v>
       </c>
       <c r="E13" t="n">
-        <v>-59672.93582686353</v>
+        <v>101440.0737757661</v>
       </c>
     </row>
     <row r="14">
@@ -5956,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59672.93582686353</v>
+        <v>138688.9443536807</v>
       </c>
       <c r="E14" t="n">
-        <v>-59672.93582686353</v>
+        <v>138688.9443536807</v>
       </c>
     </row>
     <row r="15">
@@ -5973,10 +5973,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>99183.29928036443</v>
+        <v>175836.4283590954</v>
       </c>
       <c r="E15" t="n">
-        <v>99183.29928036443</v>
+        <v>175836.4283590954</v>
       </c>
     </row>
     <row r="16">
@@ -5990,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>258039.5343875924</v>
+        <v>212038.5005233295</v>
       </c>
       <c r="E16" t="n">
-        <v>258039.5343875924</v>
+        <v>212038.5005233295</v>
       </c>
     </row>
     <row r="17">
@@ -6007,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>416895.7694948204</v>
+        <v>246545.7058296149</v>
       </c>
       <c r="E17" t="n">
-        <v>416895.7694948204</v>
+        <v>246545.7058296149</v>
       </c>
     </row>
     <row r="18">
@@ -6024,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>575752.0046020484</v>
+        <v>278733.7566016157</v>
       </c>
       <c r="E18" t="n">
-        <v>575752.0046020484</v>
+        <v>278733.7566016157</v>
       </c>
     </row>
     <row r="19">
@@ -6041,10 +6041,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>734608.2397092764</v>
+        <v>308121.008107592</v>
       </c>
       <c r="E19" t="n">
-        <v>734608.2397092764</v>
+        <v>308121.008107592</v>
       </c>
     </row>
     <row r="20">
@@ -6058,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>893464.4748165043</v>
+        <v>334373.8771310049</v>
       </c>
       <c r="E20" t="n">
-        <v>893464.4748165043</v>
+        <v>334373.8771310049</v>
       </c>
     </row>
     <row r="21">
@@ -6075,10 +6075,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1052320.709923732</v>
+        <v>357302.1431360671</v>
       </c>
       <c r="E21" t="n">
-        <v>1052320.709923732</v>
+        <v>357302.1431360671</v>
       </c>
     </row>
     <row r="22">
@@ -6092,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1211176.94503096</v>
+        <v>376846.5196990744</v>
       </c>
       <c r="E22" t="n">
-        <v>1211176.94503096</v>
+        <v>376846.5196990744</v>
       </c>
     </row>
     <row r="23">
@@ -6109,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1370033.180138188</v>
+        <v>393060.9777739453</v>
       </c>
       <c r="E23" t="n">
-        <v>1370033.180138188</v>
+        <v>393060.9777739453</v>
       </c>
     </row>
     <row r="24">
@@ -6126,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1528889.415245416</v>
+        <v>406092.1356135549</v>
       </c>
       <c r="E24" t="n">
-        <v>1528889.415245416</v>
+        <v>406092.1356135549</v>
       </c>
     </row>
     <row r="25">
@@ -6143,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1687745.650352644</v>
+        <v>416157.6971776236</v>
       </c>
       <c r="E25" t="n">
-        <v>1687745.650352644</v>
+        <v>416157.6971776236</v>
       </c>
     </row>
     <row r="26">
@@ -6160,10 +6160,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1846601.885459872</v>
+        <v>423525.5045292795</v>
       </c>
       <c r="E26" t="n">
-        <v>1846601.885459872</v>
+        <v>423525.5045292795</v>
       </c>
     </row>
     <row r="27">
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2005458.1205671</v>
+        <v>428494.335276627</v>
       </c>
       <c r="E27" t="n">
-        <v>2005458.1205671</v>
+        <v>428494.335276627</v>
       </c>
     </row>
     <row r="28">
@@ -6194,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2164314.355674328</v>
+        <v>431377.1695340916</v>
       </c>
       <c r="E28" t="n">
-        <v>2164314.355674328</v>
+        <v>431377.1695340916</v>
       </c>
     </row>
     <row r="29">
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2323170.590781556</v>
+        <v>432487.3003626363</v>
       </c>
       <c r="E29" t="n">
-        <v>2323170.590781556</v>
+        <v>432487.3003626363</v>
       </c>
     </row>
     <row r="30">
@@ -6228,10 +6228,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2482026.825888784</v>
+        <v>432127.3807111226</v>
       </c>
       <c r="E30" t="n">
-        <v>2482026.825888784</v>
+        <v>432127.3807111226</v>
       </c>
     </row>
     <row r="31">
@@ -6245,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2640883.060996012</v>
+        <v>430581.2910236772</v>
       </c>
       <c r="E31" t="n">
-        <v>2640883.060996012</v>
+        <v>430581.2910236772</v>
       </c>
     </row>
     <row r="32">
@@ -6262,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2799739.29610324</v>
+        <v>428108.5699621451</v>
       </c>
       <c r="E32" t="n">
-        <v>2799739.29610324</v>
+        <v>428108.5699621451</v>
       </c>
     </row>
     <row r="33">
@@ -6279,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2958595.531210468</v>
+        <v>424941.0668174943</v>
       </c>
       <c r="E33" t="n">
-        <v>2958595.531210468</v>
+        <v>424941.0668174943</v>
       </c>
     </row>
     <row r="34">
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3117451.766317696</v>
+        <v>421281.436896591</v>
       </c>
       <c r="E34" t="n">
-        <v>3117451.766317696</v>
+        <v>421281.436896591</v>
       </c>
     </row>
     <row r="35">
@@ -6313,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3276308.001424924</v>
+        <v>417303.0989930606</v>
       </c>
       <c r="E35" t="n">
-        <v>3276308.001424924</v>
+        <v>417303.0989930606</v>
       </c>
     </row>
     <row r="36">
@@ -6330,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3435164.236532152</v>
+        <v>413151.2964000126</v>
       </c>
       <c r="E36" t="n">
-        <v>3435164.236532152</v>
+        <v>413151.2964000126</v>
       </c>
     </row>
     <row r="37">
@@ -6347,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3594020.47163938</v>
+        <v>408944.940731202</v>
       </c>
       <c r="E37" t="n">
-        <v>3594020.47163938</v>
+        <v>408944.940731202</v>
       </c>
     </row>
   </sheetData>
@@ -6410,10 +6410,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-134080.2557117059</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-134080.2557117059</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-132719.7162178828</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-132719.7162178828</v>
       </c>
     </row>
     <row r="4">
@@ -6444,10 +6444,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-130011.6716469332</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-130011.6716469332</v>
       </c>
     </row>
     <row r="5">
@@ -6461,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-125132.5855137951</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-125132.5855137951</v>
       </c>
     </row>
     <row r="6">
@@ -6478,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-117079.9933931972</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-117079.9933931972</v>
       </c>
     </row>
     <row r="7">
@@ -6495,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-104781.789511519</v>
       </c>
       <c r="E7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-104781.789511519</v>
       </c>
     </row>
     <row r="8">
@@ -6512,10 +6512,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-87251.4198800818</v>
       </c>
       <c r="E8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-87251.4198800818</v>
       </c>
     </row>
     <row r="9">
@@ -6523,16 +6523,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-63757.45821043858</v>
       </c>
       <c r="E9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-63757.45821043858</v>
       </c>
     </row>
     <row r="10">
@@ -6540,16 +6540,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-33970.56694813735</v>
       </c>
       <c r="E10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-33970.56694813735</v>
       </c>
     </row>
     <row r="11">
@@ -6557,16 +6557,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59672.93582686353</v>
+        <v>1943.411326913261</v>
       </c>
       <c r="E11" t="n">
-        <v>-59672.93582686353</v>
+        <v>1943.411326913261</v>
       </c>
     </row>
     <row r="12">
@@ -6574,16 +6574,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59672.93582686353</v>
+        <v>43301.82570969059</v>
       </c>
       <c r="E12" t="n">
-        <v>-59672.93582686353</v>
+        <v>43301.82570969059</v>
       </c>
     </row>
     <row r="13">
@@ -6597,10 +6597,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-59672.93582686353</v>
+        <v>88956.31986726851</v>
       </c>
       <c r="E13" t="n">
-        <v>-59672.93582686353</v>
+        <v>88956.31986726851</v>
       </c>
     </row>
     <row r="14">
@@ -6614,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59672.93582686353</v>
+        <v>137403.7594688764</v>
       </c>
       <c r="E14" t="n">
-        <v>-59672.93582686353</v>
+        <v>137403.7594688764</v>
       </c>
     </row>
     <row r="15">
@@ -6631,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>99183.29928036443</v>
+        <v>186935.0177037148</v>
       </c>
       <c r="E15" t="n">
-        <v>99183.29928036443</v>
+        <v>186935.0177037148</v>
       </c>
     </row>
     <row r="16">
@@ -6648,10 +6648,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>258039.5343875924</v>
+        <v>235796.5445886441</v>
       </c>
       <c r="E16" t="n">
-        <v>258039.5343875924</v>
+        <v>235796.5445886441</v>
       </c>
     </row>
     <row r="17">
@@ -6665,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>416895.7694948204</v>
+        <v>282341.6894055173</v>
       </c>
       <c r="E17" t="n">
-        <v>416895.7694948204</v>
+        <v>282341.6894055173</v>
       </c>
     </row>
     <row r="18">
@@ -6682,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>575752.0046020484</v>
+        <v>325154.2603337051</v>
       </c>
       <c r="E18" t="n">
-        <v>575752.0046020484</v>
+        <v>325154.2603337051</v>
       </c>
     </row>
     <row r="19">
@@ -6699,10 +6699,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>734608.2397092764</v>
+        <v>363133.9134711148</v>
       </c>
       <c r="E19" t="n">
-        <v>734608.2397092764</v>
+        <v>363133.9134711148</v>
       </c>
     </row>
     <row r="20">
@@ -6716,10 +6716,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>893464.4748165043</v>
+        <v>395540.0477636219</v>
       </c>
       <c r="E20" t="n">
-        <v>893464.4748165043</v>
+        <v>395540.0477636219</v>
       </c>
     </row>
     <row r="21">
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1052320.709923732</v>
+        <v>421996.809794953</v>
       </c>
       <c r="E21" t="n">
-        <v>1052320.709923732</v>
+        <v>421996.809794953</v>
       </c>
     </row>
     <row r="22">
@@ -6750,10 +6750,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1211176.94503096</v>
+        <v>442465.9781458359</v>
       </c>
       <c r="E22" t="n">
-        <v>1211176.94503096</v>
+        <v>442465.9781458359</v>
       </c>
     </row>
     <row r="23">
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1370033.180138188</v>
+        <v>457196.7566933009</v>
       </c>
       <c r="E23" t="n">
-        <v>1370033.180138188</v>
+        <v>457196.7566933009</v>
       </c>
     </row>
     <row r="24">
@@ -6784,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1528889.415245416</v>
+        <v>466662.0525794564</v>
       </c>
       <c r="E24" t="n">
-        <v>1528889.415245416</v>
+        <v>466662.0525794564</v>
       </c>
     </row>
     <row r="25">
@@ -6801,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1687745.650352644</v>
+        <v>471490.0406206808</v>
       </c>
       <c r="E25" t="n">
-        <v>1687745.650352644</v>
+        <v>471490.0406206808</v>
       </c>
     </row>
     <row r="26">
@@ -6818,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1846601.885459872</v>
+        <v>472398.190994355</v>
       </c>
       <c r="E26" t="n">
-        <v>1846601.885459872</v>
+        <v>472398.190994355</v>
       </c>
     </row>
     <row r="27">
@@ -6835,10 +6835,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2005458.1205671</v>
+        <v>470134.9114151967</v>
       </c>
       <c r="E27" t="n">
-        <v>2005458.1205671</v>
+        <v>470134.9114151967</v>
       </c>
     </row>
     <row r="28">
@@ -6852,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2164314.355674328</v>
+        <v>465431.8986594412</v>
       </c>
       <c r="E28" t="n">
-        <v>2164314.355674328</v>
+        <v>465431.8986594412</v>
       </c>
     </row>
     <row r="29">
@@ -6869,10 +6869,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2323170.590781556</v>
+        <v>458968.4681841031</v>
       </c>
       <c r="E29" t="n">
-        <v>2323170.590781556</v>
+        <v>458968.4681841031</v>
       </c>
     </row>
     <row r="30">
@@ -6886,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2482026.825888784</v>
+        <v>451347.6842966746</v>
       </c>
       <c r="E30" t="n">
-        <v>2482026.825888784</v>
+        <v>451347.6842966746</v>
       </c>
     </row>
     <row r="31">
@@ -6903,10 +6903,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2640883.060996012</v>
+        <v>443083.1003538122</v>
       </c>
       <c r="E31" t="n">
-        <v>2640883.060996012</v>
+        <v>443083.1003538122</v>
       </c>
     </row>
     <row r="32">
@@ -6920,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2799739.29610324</v>
+        <v>434594.3206787197</v>
       </c>
       <c r="E32" t="n">
-        <v>2799739.29610324</v>
+        <v>434594.3206787197</v>
       </c>
     </row>
     <row r="33">
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2958595.531210468</v>
+        <v>426209.350060645</v>
       </c>
       <c r="E33" t="n">
-        <v>2958595.531210468</v>
+        <v>426209.350060645</v>
       </c>
     </row>
     <row r="34">
@@ -6954,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3117451.766317696</v>
+        <v>418171.7182272827</v>
       </c>
       <c r="E34" t="n">
-        <v>3117451.766317696</v>
+        <v>418171.7182272827</v>
       </c>
     </row>
     <row r="35">
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3276308.001424924</v>
+        <v>410650.5678734931</v>
       </c>
       <c r="E35" t="n">
-        <v>3276308.001424924</v>
+        <v>410650.5678734931</v>
       </c>
     </row>
     <row r="36">
@@ -6988,10 +6988,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3435164.236532152</v>
+        <v>403752.1970490091</v>
       </c>
       <c r="E36" t="n">
-        <v>3435164.236532152</v>
+        <v>403752.1970490091</v>
       </c>
     </row>
     <row r="37">
@@ -7005,10 +7005,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3594020.47163938</v>
+        <v>397531.8868556949</v>
       </c>
       <c r="E37" t="n">
-        <v>3594020.47163938</v>
+        <v>397531.8868556949</v>
       </c>
     </row>
   </sheetData>
@@ -7068,10 +7068,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135040.9607403659</v>
       </c>
       <c r="E2" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135040.9607403659</v>
       </c>
     </row>
     <row r="3">
@@ -7085,10 +7085,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135036.686273573</v>
       </c>
       <c r="E3" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135036.686273573</v>
       </c>
     </row>
     <row r="4">
@@ -7102,10 +7102,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135006.9838628845</v>
       </c>
       <c r="E4" t="n">
-        <v>-59672.93582686353</v>
+        <v>-135006.9838628845</v>
       </c>
     </row>
     <row r="5">
@@ -7119,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-134854.0239931837</v>
       </c>
       <c r="E5" t="n">
-        <v>-59672.93582686353</v>
+        <v>-134854.0239931837</v>
       </c>
     </row>
     <row r="6">
@@ -7136,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-134248.5165089408</v>
       </c>
       <c r="E6" t="n">
-        <v>-59672.93582686353</v>
+        <v>-134248.5165089408</v>
       </c>
     </row>
     <row r="7">
@@ -7153,10 +7153,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-132346.1350308294</v>
       </c>
       <c r="E7" t="n">
-        <v>-59672.93582686353</v>
+        <v>-132346.1350308294</v>
       </c>
     </row>
     <row r="8">
@@ -7170,10 +7170,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-127466.4939547643</v>
       </c>
       <c r="E8" t="n">
-        <v>-59672.93582686353</v>
+        <v>-127466.4939547643</v>
       </c>
     </row>
     <row r="9">
@@ -7181,16 +7181,16 @@
         <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-116986.0569964465</v>
       </c>
       <c r="E9" t="n">
-        <v>-59672.93582686353</v>
+        <v>-116986.0569964465</v>
       </c>
     </row>
     <row r="10">
@@ -7198,16 +7198,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-97701.05975446463</v>
       </c>
       <c r="E10" t="n">
-        <v>-59672.93582686353</v>
+        <v>-97701.05975446463</v>
       </c>
     </row>
     <row r="11">
@@ -7215,16 +7215,16 @@
         <v>29</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-66656.7155541777</v>
       </c>
       <c r="E11" t="n">
-        <v>-59672.93582686353</v>
+        <v>-66656.7155541777</v>
       </c>
     </row>
     <row r="12">
@@ -7232,16 +7232,16 @@
         <v>30</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-22097.24495721156</v>
       </c>
       <c r="E12" t="n">
-        <v>-59672.93582686353</v>
+        <v>-22097.24495721156</v>
       </c>
     </row>
     <row r="13">
@@ -7255,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-59672.93582686353</v>
+        <v>35913.5450595524</v>
       </c>
       <c r="E13" t="n">
-        <v>-59672.93582686353</v>
+        <v>35913.5450595524</v>
       </c>
     </row>
     <row r="14">
@@ -7272,10 +7272,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-59672.93582686353</v>
+        <v>105424.7994473577</v>
       </c>
       <c r="E14" t="n">
-        <v>-59672.93582686353</v>
+        <v>105424.7994473577</v>
       </c>
     </row>
     <row r="15">
@@ -7289,10 +7289,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>99183.29928036443</v>
+        <v>182974.07520722</v>
       </c>
       <c r="E15" t="n">
-        <v>99183.29928036443</v>
+        <v>182974.07520722</v>
       </c>
     </row>
     <row r="16">
@@ -7306,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>258039.5343875924</v>
+        <v>264132.8589208673</v>
       </c>
       <c r="E16" t="n">
-        <v>258039.5343875924</v>
+        <v>264132.8589208673</v>
       </c>
     </row>
     <row r="17">
@@ -7323,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>416895.7694948204</v>
+        <v>344023.785409469</v>
       </c>
       <c r="E17" t="n">
-        <v>416895.7694948204</v>
+        <v>344023.785409469</v>
       </c>
     </row>
     <row r="18">
@@ -7340,10 +7340,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>575752.0046020484</v>
+        <v>417778.7385642765</v>
       </c>
       <c r="E18" t="n">
-        <v>575752.0046020484</v>
+        <v>417778.7385642765</v>
       </c>
     </row>
     <row r="19">
@@ -7357,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>734608.2397092764</v>
+        <v>480998.6549936099</v>
       </c>
       <c r="E19" t="n">
-        <v>734608.2397092764</v>
+        <v>480998.6549936099</v>
       </c>
     </row>
     <row r="20">
@@ -7374,10 +7374,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>893464.4748165043</v>
+        <v>530240.3627756169</v>
       </c>
       <c r="E20" t="n">
-        <v>893464.4748165043</v>
+        <v>530240.3627756169</v>
       </c>
     </row>
     <row r="21">
@@ -7391,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1052320.709923732</v>
+        <v>563459.5663153179</v>
       </c>
       <c r="E21" t="n">
-        <v>1052320.709923732</v>
+        <v>563459.5663153179</v>
       </c>
     </row>
     <row r="22">
@@ -7408,10 +7408,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1211176.94503096</v>
+        <v>580278.8172838347</v>
       </c>
       <c r="E22" t="n">
-        <v>1211176.94503096</v>
+        <v>580278.8172838347</v>
       </c>
     </row>
     <row r="23">
@@ -7425,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1370033.180138188</v>
+        <v>581973.7391723408</v>
       </c>
       <c r="E23" t="n">
-        <v>1370033.180138188</v>
+        <v>581973.7391723408</v>
       </c>
     </row>
     <row r="24">
@@ -7442,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1528889.415245416</v>
+        <v>571161.1652221131</v>
       </c>
       <c r="E24" t="n">
-        <v>1528889.415245416</v>
+        <v>571161.1652221131</v>
       </c>
     </row>
     <row r="25">
@@ -7459,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1687745.650352644</v>
+        <v>551273.006246382</v>
       </c>
       <c r="E25" t="n">
-        <v>1687745.650352644</v>
+        <v>551273.006246382</v>
       </c>
     </row>
     <row r="26">
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1846601.885459872</v>
+        <v>525959.0256202865</v>
       </c>
       <c r="E26" t="n">
-        <v>1846601.885459872</v>
+        <v>525959.0256202865</v>
       </c>
     </row>
     <row r="27">
@@ -7493,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2005458.1205671</v>
+        <v>498561.3423790975</v>
       </c>
       <c r="E27" t="n">
-        <v>2005458.1205671</v>
+        <v>498561.3423790975</v>
       </c>
     </row>
     <row r="28">
@@ -7510,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2164314.355674328</v>
+        <v>471756.460621239</v>
       </c>
       <c r="E28" t="n">
-        <v>2164314.355674328</v>
+        <v>471756.460621239</v>
       </c>
     </row>
     <row r="29">
@@ -7527,10 +7527,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2323170.590781556</v>
+        <v>447395.8932932274</v>
       </c>
       <c r="E29" t="n">
-        <v>2323170.590781556</v>
+        <v>447395.8932932274</v>
       </c>
     </row>
     <row r="30">
@@ -7544,10 +7544,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2482026.825888784</v>
+        <v>426520.9270842149</v>
       </c>
       <c r="E30" t="n">
-        <v>2482026.825888784</v>
+        <v>426520.9270842149</v>
       </c>
     </row>
     <row r="31">
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2640883.060996012</v>
+        <v>409495.3347097821</v>
       </c>
       <c r="E31" t="n">
-        <v>2640883.060996012</v>
+        <v>409495.3347097821</v>
       </c>
     </row>
     <row r="32">
@@ -7578,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2799739.29610324</v>
+        <v>396193.1166873323</v>
       </c>
       <c r="E32" t="n">
-        <v>2799739.29610324</v>
+        <v>396193.1166873323</v>
       </c>
     </row>
     <row r="33">
@@ -7595,10 +7595,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2958595.531210468</v>
+        <v>386189.342397719</v>
       </c>
       <c r="E33" t="n">
-        <v>2958595.531210468</v>
+        <v>386189.342397719</v>
       </c>
     </row>
     <row r="34">
@@ -7612,10 +7612,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3117451.766317696</v>
+        <v>378921.0409195434</v>
       </c>
       <c r="E34" t="n">
-        <v>3117451.766317696</v>
+        <v>378921.0409195434</v>
       </c>
     </row>
     <row r="35">
@@ -7629,10 +7629,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3276308.001424924</v>
+        <v>373803.8214383554</v>
       </c>
       <c r="E35" t="n">
-        <v>3276308.001424924</v>
+        <v>373803.8214383554</v>
       </c>
     </row>
     <row r="36">
@@ -7646,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3435164.236532152</v>
+        <v>370303.9406558553</v>
       </c>
       <c r="E36" t="n">
-        <v>3435164.236532152</v>
+        <v>370303.9406558553</v>
       </c>
     </row>
     <row r="37">
@@ -7663,10 +7663,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3594020.47163938</v>
+        <v>367973.6089996499</v>
       </c>
       <c r="E37" t="n">
-        <v>3594020.47163938</v>
+        <v>367973.6089996499</v>
       </c>
     </row>
   </sheetData>
